--- a/papers/ccpe-cloud12/performance/pd.xlsx
+++ b/papers/ccpe-cloud12/performance/pd.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blatt1!$A$1:$L$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blatt1!$A$1:$L$31</definedName>
     <definedName name="pd" localSheetId="0">Blatt1!$A$1:$J$31</definedName>
+    <definedName name="pd_random" localSheetId="0">Blatt1!$A$32:$J$45</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId2"/>
+    <pivotCache cacheId="9" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,8 +28,24 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="pd.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd.csv" comma="1" qualifier="none">
+  <connection id="1" name="pd_random.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_random.csv" comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="pd.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd.csv" comma="1" qualifier="none">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -47,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="36">
   <si>
     <t>Run</t>
   </si>
@@ -136,13 +153,25 @@
     <t>Upload</t>
   </si>
   <si>
-    <t>Pilot Queue Time</t>
+    <t>Download</t>
   </si>
   <si>
-    <t xml:space="preserve">CU Runtime </t>
+    <t>s3://pilot-data-e80f3c86-f53f-11e1-999d-00215ec9e3ac</t>
   </si>
   <si>
-    <t>Download</t>
+    <t>gs://pilot-data-68009520-f5ef-11e1-922b-00215ec9e3ac</t>
+  </si>
+  <si>
+    <t>gs://pilot-data-03420b66-f601-11e1-a1b1-00215ec9e3ac</t>
+  </si>
+  <si>
+    <t>/dev/urandom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot Queue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU Compute </t>
   </si>
 </sst>
 </file>
@@ -150,7 +179,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -211,8 +240,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -224,64 +255,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -326,8 +320,8 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
@@ -353,10 +347,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>216.4387627840833</c:v>
+                  <c:v>220.7107000827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1099.532858477333</c:v>
+                  <c:v>791.47931707025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,6 +370,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -398,10 +400,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>113.9241666992417</c:v>
+                  <c:v>110.47700002196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.96222223176667</c:v>
+                  <c:v>139.105000019025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,11 +418,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pilot Queue Time</c:v>
+                  <c:v>Pilot Queue </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -433,10 +442,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>152.7666197820535</c:v>
+                    <c:v>211.5752818356191</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>588.4114821609811</c:v>
+                    <c:v>836.5967639974622</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -448,10 +457,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>152.7666197820535</c:v>
+                    <c:v>211.5752818356191</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>588.4114821609811</c:v>
+                    <c:v>836.5967639974622</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -487,10 +496,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>74.32076829672501</c:v>
+                  <c:v>74.09683890343001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.09490707184445</c:v>
+                  <c:v>32.68710553645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,11 +514,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CU Runtime </c:v>
+                  <c:v>CU Compute </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -532,10 +548,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.510833323003333</c:v>
+                  <c:v>3.2009999990462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.951111104753666</c:v>
+                  <c:v>2.1349999904625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,11 +567,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2117269784"/>
-        <c:axId val="-2117816136"/>
+        <c:axId val="2093810536"/>
+        <c:axId val="2093813176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2117269784"/>
+        <c:axId val="2093810536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +590,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117816136"/>
+        <c:crossAx val="2093813176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -582,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117816136"/>
+        <c:axId val="2093813176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +616,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE" sz="2800"/>
-                  <a:t>Runtime (in sec)</a:t>
+                  <a:t>Time (in sec)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -622,7 +638,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117269784"/>
+        <c:crossAx val="2093810536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -671,7 +687,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -695,19 +711,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41154.493903703704" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41156.362004629627" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="44">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J31" sheet="Blatt1"/>
+    <worksheetSource ref="A1:L45" sheet="Blatt1"/>
   </cacheSource>
-  <cacheFields count="10">
+  <cacheFields count="12">
     <cacheField name="Run" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
     </cacheField>
     <cacheField name="PC" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="2">
         <s v="ec2+ssh://aws.amazon.com/"/>
         <s v="gce+ssh://google.com"/>
-        <s v="euca+ssh://149.165.146.135:8773/services/Eucalyptus" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PD" numFmtId="0">
@@ -722,20 +737,29 @@
         <n v="128"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Upload Time" numFmtId="168">
+    <cacheField name="Upload Time" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="17.992821216599999" maxValue="2002.243119"/>
     </cacheField>
-    <cacheField name="Pilot Queue" numFmtId="168">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="32.472221851299999" maxValue="94.932879924800005"/>
+    <cacheField name="Pilot Queue" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.4648599625" maxValue="94.932879924800005"/>
     </cacheField>
-    <cacheField name="Total Runtime" numFmtId="168">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="99.422956943499997" maxValue="2154.2311692200001"/>
+    <cacheField name="Total Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="99.422956943499997" maxValue="2211.25476789"/>
     </cacheField>
-    <cacheField name="CU qtime" numFmtId="168">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.4400000572200007" maxValue="197.910000086"/>
+    <cacheField name="CU qtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.4400000572200007" maxValue="455.17000007600001"/>
     </cacheField>
-    <cacheField name="CU Runtime" numFmtId="168">
+    <cacheField name="CU Runtime" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1" maxValue="11.7300000191"/>
+    </cacheField>
+    <cacheField name="Delta Runtime" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.1093659396300382" maxValue="37.796485900610037"/>
+    </cacheField>
+    <cacheField name="Remark" numFmtId="0">
+      <sharedItems count="2">
+        <s v="/dev/zero"/>
+        <s v="/dev/urandom"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -747,7 +771,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="44">
   <r>
     <n v="0"/>
     <x v="0"/>
@@ -759,6 +783,8 @@
     <n v="366.30230307599999"/>
     <n v="116.230000019"/>
     <n v="4.4500000476799997"/>
+    <n v="14.560280084419958"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -771,6 +797,8 @@
     <n v="845.18161511400001"/>
     <n v="120.150000095"/>
     <n v="5.1199998855600004"/>
+    <n v="7.9353032114399866"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -783,6 +811,8 @@
     <n v="117.367043972"/>
     <n v="13.599999904600001"/>
     <n v="4.17000007629"/>
+    <n v="13.367931842810009"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -795,6 +825,8 @@
     <n v="120.786075115"/>
     <n v="15.2100000381"/>
     <n v="4.1400001049000004"/>
+    <n v="7.8964829443000042"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -807,6 +839,8 @@
     <n v="121.42557096500001"/>
     <n v="17.7699999809"/>
     <n v="1.1800000667599999"/>
+    <n v="8.2398309710400071"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -819,6 +853,8 @@
     <n v="180.41024804099999"/>
     <n v="9.4400000572200007"/>
     <n v="1.09999990463"/>
+    <n v="8.6135549540499596"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1"/>
@@ -831,6 +867,8 @@
     <n v="122.424413919"/>
     <n v="13.5399999619"/>
     <n v="-1"/>
+    <n v="12.644558906100002"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1"/>
@@ -843,6 +881,8 @@
     <n v="159.18596100799999"/>
     <n v="16.4100000858"/>
     <n v="4.5699999332400001"/>
+    <n v="8.2077400683599819"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2"/>
@@ -855,6 +895,8 @@
     <n v="99.422956943499997"/>
     <n v="16.650000095399999"/>
     <n v="5.1299998760200003"/>
+    <n v="13.430824041380006"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2"/>
@@ -867,6 +909,8 @@
     <n v="156.98407197"/>
     <n v="17.849999904600001"/>
     <n v="3.09000015259"/>
+    <n v="8.253701925309997"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3"/>
@@ -879,6 +923,8 @@
     <n v="130.146358013"/>
     <n v="11.8100001812"/>
     <n v="1.1699998378800001"/>
+    <n v="8.1793749331200019"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -891,6 +937,8 @@
     <n v="334.128916979"/>
     <n v="100.49000001"/>
     <n v="5.92000007629"/>
+    <n v="13.109730719809988"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -903,6 +951,8 @@
     <n v="1976.1700248699999"/>
     <n v="69.259999990500006"/>
     <n v="3.9700000286099999"/>
+    <n v="8.1437099005897835"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1"/>
@@ -915,6 +965,8 @@
     <n v="388.31233096099999"/>
     <n v="103.910000086"/>
     <n v="5.1999998092700004"/>
+    <n v="8.4392030238299753"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1"/>
@@ -927,6 +979,8 @@
     <n v="816.00404596299995"/>
     <n v="80.5"/>
     <n v="1.61000013351"/>
+    <n v="7.3199648849899859"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2"/>
@@ -939,6 +993,8 @@
     <n v="607.498153925"/>
     <n v="197.910000086"/>
     <n v="2.8399999141699999"/>
+    <n v="7.1093659396300382"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2"/>
@@ -951,6 +1007,8 @@
     <n v="1842.7665791500001"/>
     <n v="51.3399999142"/>
     <n v="3.2999999523199999"/>
+    <n v="8.6895410985800936"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3"/>
@@ -963,6 +1021,8 @@
     <n v="374.15741992"/>
     <n v="110.230000019"/>
     <n v="11.7300000191"/>
+    <n v="7.6052060126000356"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3"/>
@@ -975,6 +1035,8 @@
     <n v="815.74461007100001"/>
     <n v="52.799999952299999"/>
     <n v="3.9300000667599999"/>
+    <n v="8.6064710611399278"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="4"/>
@@ -987,6 +1049,8 @@
     <n v="329.81398510899999"/>
     <n v="105.130000114"/>
     <n v="5.7599999904599999"/>
+    <n v="14.680315971239963"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="4"/>
@@ -999,6 +1063,8 @@
     <n v="809.29317307500003"/>
     <n v="51.090000152599998"/>
     <n v="1.84999990463"/>
+    <n v="8.3644220831702114"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="5"/>
@@ -1011,6 +1077,8 @@
     <n v="362.74508500100001"/>
     <n v="97.380000114400005"/>
     <n v="6.7599999904599999"/>
+    <n v="7.3524658679399977"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="5"/>
@@ -1023,6 +1091,8 @@
     <n v="2154.2311692200001"/>
     <n v="100.359999895"/>
     <n v="3.9900000095400001"/>
+    <n v="7.1515111900603188"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="6"/>
@@ -1035,6 +1105,8 @@
     <n v="356.379965067"/>
     <n v="98.759999990500006"/>
     <n v="5.1900000572199998"/>
+    <n v="7.5511209967799573"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="6"/>
@@ -1047,6 +1119,8 @@
     <n v="817.61335206000001"/>
     <n v="56.420000076299999"/>
     <n v="4.0599999427800002"/>
+    <n v="8.8604111671199917"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="7"/>
@@ -1059,6 +1133,8 @@
     <n v="339.21266293500003"/>
     <n v="110.730000019"/>
     <n v="5.8199999332400001"/>
+    <n v="15.025970935559997"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="7"/>
@@ -1071,6 +1147,8 @@
     <n v="855.21460199399996"/>
     <n v="56.350000143099997"/>
     <n v="0.78999996185300003"/>
+    <n v="8.1836228370469826"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="8"/>
@@ -1083,6 +1161,8 @@
     <n v="378.10926198999999"/>
     <n v="102.25"/>
     <n v="1.84000015259"/>
+    <n v="7.4114298826100367"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="8"/>
@@ -1095,6 +1175,8 @@
     <n v="835.98509693100004"/>
     <n v="84.539999961899994"/>
     <n v="3.0599999427800002"/>
+    <n v="7.8331091400200421"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="9"/>
@@ -1107,19 +1189,216 @@
     <n v="359.37256908400002"/>
     <n v="103.919999838"/>
     <n v="5.5"/>
+    <n v="8.0995032785000376"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <s v="s3://pilot-data-e80f3c86-f53f-11e1-999d-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="153.41368102999999"/>
+    <n v="43.968811988799999"/>
+    <n v="266.67451405499997"/>
+    <n v="57.149999856900003"/>
+    <n v="3.2900002002700002"/>
+    <n v="8.8520209790299873"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="s3://pilot-data-e80f3c86-f53f-11e1-999d-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="167.724998951"/>
+    <n v="76.002597093600002"/>
+    <n v="301.00753998800002"/>
+    <n v="45.920000076299999"/>
+    <n v="2.9800000190699998"/>
+    <n v="8.3799438480299955"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="s3://pilot-data-e80f3c86-f53f-11e1-999d-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="155.02358794200001"/>
+    <n v="50.976006030999997"/>
+    <n v="279.27387380599998"/>
+    <n v="55.349999904599997"/>
+    <n v="4.4600000381499996"/>
+    <n v="13.464279890249998"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="s3://pilot-data-e80f3c86-f53f-11e1-999d-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="175.75231814399999"/>
+    <n v="44.699809074400001"/>
+    <n v="317.88112521199997"/>
+    <n v="87.0400002003"/>
+    <n v="1.9199998378800001"/>
+    <n v="8.4689979554199795"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <s v="s3://pilot-data-e80f3c86-f53f-11e1-999d-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="159.14578890799999"/>
+    <n v="82.960606098200003"/>
+    <n v="371.66165089600003"/>
+    <n v="121.110000134"/>
+    <n v="0.68999981880200001"/>
+    <n v="7.7552559369980258"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="s3://pilot-data-e80f3c86-f53f-11e1-999d-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="179.50864315000001"/>
+    <n v="82.362717866899999"/>
+    <n v="680.41716098799998"/>
+    <n v="409.81999993300002"/>
+    <n v="1.5300002098100001"/>
+    <n v="7.195799828289978"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <s v="s3://pilot-data-e80f3c86-f53f-11e1-999d-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="159.794485807"/>
+    <n v="82.955249071099999"/>
+    <n v="362.25430393200003"/>
+    <n v="107.370000124"/>
+    <n v="4.6799998283399997"/>
+    <n v="7.4545691015600255"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="0"/>
+    <s v="s3://pilot-data-e80f3c86-f53f-11e1-999d-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="164.00699496300001"/>
+    <n v="94.192369937899997"/>
+    <n v="315.48400592799999"/>
+    <n v="46.210000038099999"/>
+    <n v="2.0699999332400001"/>
+    <n v="9.0046410557599188"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <s v="s3://pilot-data-e80f3c86-f53f-11e1-999d-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="201.021460056"/>
+    <n v="91.1538639069"/>
+    <n v="359.501757145"/>
+    <n v="53.029999971400002"/>
+    <n v="5.75"/>
+    <n v="8.5464332107000018"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="0"/>
+    <s v="s3://pilot-data-e80f3c86-f53f-11e1-999d-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="691.71504187599999"/>
+    <n v="91.696357965499999"/>
+    <n v="916.97918486599997"/>
+    <n v="121.769999981"/>
+    <n v="4.6400001049000004"/>
+    <n v="7.1577849386000025"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="gs://pilot-data-68009520-f5ef-11e1-922b-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="326.00109910999998"/>
+    <n v="29.4648599625"/>
+    <n v="424.80244493499998"/>
+    <n v="29.759999990499999"/>
+    <n v="1.7799999713900001"/>
+    <n v="37.796485900610037"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="gs://pilot-data-68009520-f5ef-11e1-922b-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="408.57445120800003"/>
+    <n v="32.547425985300002"/>
+    <n v="480.344675064"/>
+    <n v="22.180000066800002"/>
+    <n v="3.6600000858300001"/>
+    <n v="13.38279771806998"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="gs://pilot-data-03420b66-f601-11e1-a1b1-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1708.15698195"/>
+    <n v="35.188234090800002"/>
+    <n v="2211.25476789"/>
+    <n v="455.17000007600001"/>
+    <n v="1.0699999332400001"/>
+    <n v="11.669551839959695"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="1"/>
+    <s v="gs://pilot-data-03420b66-f601-11e1-a1b1-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="723.18473601300002"/>
+    <n v="33.547902107200002"/>
+    <n v="819.20431399300003"/>
+    <n v="49.309999942799998"/>
+    <n v="2.0299999713900001"/>
+    <n v="11.131675958610003"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="">
-  <location ref="O16:U20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="">
+  <location ref="O16:U20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="3">
         <item x="0"/>
-        <item m="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -1134,10 +1413,17 @@
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item h="1" x="0"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -1147,7 +1433,7 @@
       <x/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -1176,19 +1462,20 @@
       <x v="5"/>
     </i>
   </colItems>
-  <pageFields count="1">
+  <pageFields count="2">
     <pageField fld="4" hier="-1"/>
+    <pageField fld="11" hier="-1"/>
   </pageFields>
   <dataFields count="6">
     <dataField name="Upload" fld="5" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Download" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Pilot Queue Time" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Pilot Queue " fld="6" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Mittelwert - Total Runtime" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="CU Runtime " fld="9" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="CU Compute " fld="9" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="STABW - Total Runtime" fld="7" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="15">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1202,7 +1489,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1528,30 +1819,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="8" width="12.1640625" customWidth="1"/>
     <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" style="8" customWidth="1"/>
     <col min="15" max="15" width="24.6640625" customWidth="1"/>
-    <col min="16" max="16" width="21.83203125" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+    <col min="17" max="17" width="9.5" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
     <col min="21" max="21" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1664,7 +1953,7 @@
         <v>5.1199998855600004</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K31" si="0">H3-(SUM(F3,G3,I3,J3))</f>
+        <f t="shared" ref="K3:K45" si="0">H3-(SUM(F3,G3,I3,J3))</f>
         <v>7.9353032114399866</v>
       </c>
       <c r="L3" t="s">
@@ -2060,6 +2349,12 @@
       <c r="L13" t="s">
         <v>23</v>
       </c>
+      <c r="O13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1024</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
@@ -2100,10 +2395,10 @@
         <v>23</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="4">
-        <v>1024</v>
+        <v>22</v>
+      </c>
+      <c r="P14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2187,7 +2482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2232,22 +2527,22 @@
         <v>28</v>
       </c>
       <c r="Q17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S17" t="s">
         <v>24</v>
       </c>
       <c r="T17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2289,25 +2584,25 @@
         <v>7</v>
       </c>
       <c r="P18" s="5">
-        <v>216.43876278408334</v>
+        <v>220.71070008269999</v>
       </c>
       <c r="Q18" s="5">
-        <v>113.92416669924167</v>
+        <v>110.47700002196</v>
       </c>
       <c r="R18" s="5">
-        <v>74.320768296725007</v>
+        <v>74.096838903430012</v>
       </c>
       <c r="S18" s="5">
-        <v>420.10118909675003</v>
+        <v>417.11351168160002</v>
       </c>
       <c r="T18" s="5">
-        <v>5.5108333230033333</v>
+        <v>3.2009999990461999</v>
       </c>
       <c r="U18" s="5">
-        <v>152.76661978205345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>211.57528183561908</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2349,25 +2644,29 @@
         <v>13</v>
       </c>
       <c r="P19" s="5">
-        <v>1099.5328584773333</v>
+        <v>791.47931707024998</v>
       </c>
       <c r="Q19" s="5">
-        <v>66.962222231766674</v>
+        <v>139.105000019025</v>
       </c>
       <c r="R19" s="5">
-        <v>36.094907071844446</v>
+        <v>32.687105536450005</v>
       </c>
       <c r="S19" s="5">
-        <v>1213.6691837037779</v>
+        <v>983.90155047050007</v>
       </c>
       <c r="T19" s="5">
-        <v>2.9511111047536662</v>
+        <v>2.1349999904625001</v>
       </c>
       <c r="U19" s="5">
-        <v>588.41148216098111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>836.59676399746229</v>
+      </c>
+      <c r="W19">
+        <f>P19/P18</f>
+        <v>3.5860486907688833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2409,25 +2708,25 @@
         <v>17</v>
       </c>
       <c r="P20" s="5">
-        <v>594.90766093833338</v>
+        <v>383.7874477934285</v>
       </c>
       <c r="Q20" s="5">
-        <v>93.797619070323819</v>
+        <v>118.65642859255</v>
       </c>
       <c r="R20" s="5">
-        <v>57.93825634320477</v>
+        <v>62.2654865128643</v>
       </c>
       <c r="S20" s="5">
-        <v>760.20175821404769</v>
+        <v>579.05295133557138</v>
       </c>
       <c r="T20" s="5">
-        <v>4.4138095151820469</v>
+        <v>2.896428568022285</v>
       </c>
       <c r="U20" s="5">
-        <v>559.69874661359199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>512.94119542916803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2466,7 +2765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2505,7 +2804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2544,7 +2843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2583,7 +2882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2622,7 +2921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2661,7 +2960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>7</v>
       </c>
@@ -2700,7 +2999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>7</v>
       </c>
@@ -2739,7 +3038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>8</v>
       </c>
@@ -2778,7 +3077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>8</v>
       </c>
@@ -2817,7 +3116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>9</v>
       </c>
@@ -2856,11 +3155,554 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1">
-      <c r="K32"/>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1024</v>
+      </c>
+      <c r="F32">
+        <v>153.41368102999999</v>
+      </c>
+      <c r="G32">
+        <v>43.968811988799999</v>
+      </c>
+      <c r="H32">
+        <v>266.67451405499997</v>
+      </c>
+      <c r="I32">
+        <v>57.149999856900003</v>
+      </c>
+      <c r="J32">
+        <v>3.2900002002700002</v>
+      </c>
+      <c r="K32" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8520209790299873</v>
+      </c>
+      <c r="L32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1024</v>
+      </c>
+      <c r="F33">
+        <v>167.724998951</v>
+      </c>
+      <c r="G33">
+        <v>76.002597093600002</v>
+      </c>
+      <c r="H33">
+        <v>301.00753998800002</v>
+      </c>
+      <c r="I33">
+        <v>45.920000076299999</v>
+      </c>
+      <c r="J33">
+        <v>2.9800000190699998</v>
+      </c>
+      <c r="K33" s="7">
+        <f t="shared" si="0"/>
+        <v>8.3799438480299955</v>
+      </c>
+      <c r="L33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1024</v>
+      </c>
+      <c r="F34">
+        <v>155.02358794200001</v>
+      </c>
+      <c r="G34">
+        <v>50.976006030999997</v>
+      </c>
+      <c r="H34">
+        <v>279.27387380599998</v>
+      </c>
+      <c r="I34">
+        <v>55.349999904599997</v>
+      </c>
+      <c r="J34">
+        <v>4.4600000381499996</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="0"/>
+        <v>13.464279890249998</v>
+      </c>
+      <c r="L34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1024</v>
+      </c>
+      <c r="F35">
+        <v>175.75231814399999</v>
+      </c>
+      <c r="G35">
+        <v>44.699809074400001</v>
+      </c>
+      <c r="H35">
+        <v>317.88112521199997</v>
+      </c>
+      <c r="I35">
+        <v>87.0400002003</v>
+      </c>
+      <c r="J35">
+        <v>1.9199998378800001</v>
+      </c>
+      <c r="K35" s="7">
+        <f t="shared" si="0"/>
+        <v>8.4689979554199795</v>
+      </c>
+      <c r="L35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1024</v>
+      </c>
+      <c r="F36">
+        <v>159.14578890799999</v>
+      </c>
+      <c r="G36">
+        <v>82.960606098200003</v>
+      </c>
+      <c r="H36">
+        <v>371.66165089600003</v>
+      </c>
+      <c r="I36">
+        <v>121.110000134</v>
+      </c>
+      <c r="J36">
+        <v>0.68999981880200001</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="0"/>
+        <v>7.7552559369980258</v>
+      </c>
+      <c r="L36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1024</v>
+      </c>
+      <c r="F37">
+        <v>179.50864315000001</v>
+      </c>
+      <c r="G37">
+        <v>82.362717866899999</v>
+      </c>
+      <c r="H37">
+        <v>680.41716098799998</v>
+      </c>
+      <c r="I37">
+        <v>409.81999993300002</v>
+      </c>
+      <c r="J37">
+        <v>1.5300002098100001</v>
+      </c>
+      <c r="K37" s="7">
+        <f t="shared" si="0"/>
+        <v>7.195799828289978</v>
+      </c>
+      <c r="L37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1024</v>
+      </c>
+      <c r="F38">
+        <v>159.794485807</v>
+      </c>
+      <c r="G38">
+        <v>82.955249071099999</v>
+      </c>
+      <c r="H38">
+        <v>362.25430393200003</v>
+      </c>
+      <c r="I38">
+        <v>107.370000124</v>
+      </c>
+      <c r="J38">
+        <v>4.6799998283399997</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" si="0"/>
+        <v>7.4545691015600255</v>
+      </c>
+      <c r="L38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1024</v>
+      </c>
+      <c r="F39">
+        <v>164.00699496300001</v>
+      </c>
+      <c r="G39">
+        <v>94.192369937899997</v>
+      </c>
+      <c r="H39">
+        <v>315.48400592799999</v>
+      </c>
+      <c r="I39">
+        <v>46.210000038099999</v>
+      </c>
+      <c r="J39">
+        <v>2.0699999332400001</v>
+      </c>
+      <c r="K39" s="7">
+        <f t="shared" si="0"/>
+        <v>9.0046410557599188</v>
+      </c>
+      <c r="L39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1024</v>
+      </c>
+      <c r="F40">
+        <v>201.021460056</v>
+      </c>
+      <c r="G40">
+        <v>91.1538639069</v>
+      </c>
+      <c r="H40">
+        <v>359.501757145</v>
+      </c>
+      <c r="I40">
+        <v>53.029999971400002</v>
+      </c>
+      <c r="J40">
+        <v>5.75</v>
+      </c>
+      <c r="K40" s="7">
+        <f t="shared" si="0"/>
+        <v>8.5464332107000018</v>
+      </c>
+      <c r="L40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1024</v>
+      </c>
+      <c r="F41">
+        <v>691.71504187599999</v>
+      </c>
+      <c r="G41">
+        <v>91.696357965499999</v>
+      </c>
+      <c r="H41">
+        <v>916.97918486599997</v>
+      </c>
+      <c r="I41">
+        <v>121.769999981</v>
+      </c>
+      <c r="J41">
+        <v>4.6400001049000004</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="0"/>
+        <v>7.1577849386000025</v>
+      </c>
+      <c r="L41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1024</v>
+      </c>
+      <c r="F42">
+        <v>326.00109910999998</v>
+      </c>
+      <c r="G42">
+        <v>29.4648599625</v>
+      </c>
+      <c r="H42">
+        <v>424.80244493499998</v>
+      </c>
+      <c r="I42">
+        <v>29.759999990499999</v>
+      </c>
+      <c r="J42">
+        <v>1.7799999713900001</v>
+      </c>
+      <c r="K42" s="7">
+        <f t="shared" si="0"/>
+        <v>37.796485900610037</v>
+      </c>
+      <c r="L42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1024</v>
+      </c>
+      <c r="F43">
+        <v>408.57445120800003</v>
+      </c>
+      <c r="G43">
+        <v>32.547425985300002</v>
+      </c>
+      <c r="H43">
+        <v>480.344675064</v>
+      </c>
+      <c r="I43">
+        <v>22.180000066800002</v>
+      </c>
+      <c r="J43">
+        <v>3.6600000858300001</v>
+      </c>
+      <c r="K43" s="7">
+        <f t="shared" si="0"/>
+        <v>13.38279771806998</v>
+      </c>
+      <c r="L43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1024</v>
+      </c>
+      <c r="F44">
+        <v>1708.15698195</v>
+      </c>
+      <c r="G44">
+        <v>35.188234090800002</v>
+      </c>
+      <c r="H44">
+        <v>2211.25476789</v>
+      </c>
+      <c r="I44">
+        <v>455.17000007600001</v>
+      </c>
+      <c r="J44">
+        <v>1.0699999332400001</v>
+      </c>
+      <c r="K44" s="7">
+        <f t="shared" si="0"/>
+        <v>11.669551839959695</v>
+      </c>
+      <c r="L44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1024</v>
+      </c>
+      <c r="F45">
+        <v>723.18473601300002</v>
+      </c>
+      <c r="G45">
+        <v>33.547902107200002</v>
+      </c>
+      <c r="H45">
+        <v>819.20431399300003</v>
+      </c>
+      <c r="I45">
+        <v>49.309999942799998</v>
+      </c>
+      <c r="J45">
+        <v>2.0299999713900001</v>
+      </c>
+      <c r="K45" s="7">
+        <f t="shared" si="0"/>
+        <v>11.131675958610003</v>
+      </c>
+      <c r="L45" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L32">
+  <autoFilter ref="A1:L31">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/papers/ccpe-cloud12/performance/pd.xlsx
+++ b/papers/ccpe-cloud12/performance/pd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="48460" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26600" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId2"/>
+    <pivotCache cacheId="28" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="38">
   <si>
     <t>Run</t>
   </si>
@@ -150,12 +150,6 @@
     <t>Delta Runtime</t>
   </si>
   <si>
-    <t>Upload</t>
-  </si>
-  <si>
-    <t>Download</t>
-  </si>
-  <si>
     <t>s3://pilot-data-e80f3c86-f53f-11e1-999d-00215ec9e3ac</t>
   </si>
   <si>
@@ -172,6 +166,18 @@
   </si>
   <si>
     <t xml:space="preserve">CU Compute </t>
+  </si>
+  <si>
+    <t>Download (Cloud Storage - VM)</t>
+  </si>
+  <si>
+    <t>Upload (FG - Cloud Storage)</t>
+  </si>
+  <si>
+    <t>walrus</t>
+  </si>
+  <si>
+    <t>euca://india.futuregrid.org</t>
   </si>
 </sst>
 </file>
@@ -267,13 +273,7 @@
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -312,7 +312,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upload</c:v>
+                  <c:v>Upload (FG - Cloud Storage)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -328,29 +328,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blatt1!$O$18:$O$19</c:f>
+              <c:f>Blatt1!$O$18:$O$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>ec2+ssh://aws.amazon.com/</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>gce+ssh://google.com</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>euca://india.futuregrid.org</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blatt1!$P$18:$P$19</c:f>
+              <c:f>Blatt1!$P$18:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>220.7107000827</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>791.47931707025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.72547779082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,7 +371,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Download</c:v>
+                  <c:v>Download (Cloud Storage - VM)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -381,29 +387,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blatt1!$O$18:$O$19</c:f>
+              <c:f>Blatt1!$O$18:$O$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>ec2+ssh://aws.amazon.com/</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>gce+ssh://google.com</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>euca://india.futuregrid.org</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blatt1!$Q$18:$Q$19</c:f>
+              <c:f>Blatt1!$Q$18:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>110.47700002196</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>139.105000019025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.09400000574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,29 +489,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Blatt1!$O$18:$O$19</c:f>
+              <c:f>Blatt1!$O$18:$O$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>ec2+ssh://aws.amazon.com/</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>gce+ssh://google.com</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>euca://india.futuregrid.org</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blatt1!$R$18:$R$19</c:f>
+              <c:f>Blatt1!$R$18:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>74.09683890343001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>32.68710553645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>302.40736880304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,29 +547,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blatt1!$O$18:$O$19</c:f>
+              <c:f>Blatt1!$O$18:$O$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>ec2+ssh://aws.amazon.com/</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>gce+ssh://google.com</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>euca://india.futuregrid.org</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blatt1!$T$18:$T$19</c:f>
+              <c:f>Blatt1!$T$18:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3.2009999990462</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.1349999904625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.776000022888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,18 +735,20 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41156.362004629627" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="44">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41158.786918287034" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="49">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L45" sheet="Blatt1"/>
+    <worksheetSource ref="A1:L50" sheet="Blatt1"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Run" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
     </cacheField>
     <cacheField name="PC" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems count="4">
         <s v="ec2+ssh://aws.amazon.com/"/>
         <s v="gce+ssh://google.com"/>
+        <s v="euca://india.futuregrid.org"/>
+        <s v="euca" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PD" numFmtId="0">
@@ -732,16 +758,17 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
     <cacheField name="MB" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="1024" count="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="8192" count="3">
         <n v="1024"/>
         <n v="128"/>
+        <n v="8192" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Upload Time" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="17.992821216599999" maxValue="2002.243119"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.788008928300002" maxValue="2002.243119"/>
     </cacheField>
     <cacheField name="Pilot Queue" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.4648599625" maxValue="94.932879924800005"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.4648599625" maxValue="575.899488926"/>
     </cacheField>
     <cacheField name="Total Runtime" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="99.422956943499997" maxValue="2211.25476789"/>
@@ -771,7 +798,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="44">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="49">
   <r>
     <n v="0"/>
     <x v="0"/>
@@ -1388,27 +1415,100 @@
     <n v="11.131675958610003"/>
     <x v="1"/>
   </r>
+  <r>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="walrus"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="29.707263946499999"/>
+    <n v="64.187892198599997"/>
+    <n v="124.951183081"/>
+    <n v="18.379999875999999"/>
+    <n v="3.92000007629"/>
+    <n v="8.7560269836099991"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="walrus"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="23.4599649906"/>
+    <n v="53.7772819996"/>
+    <n v="102.28686881100001"/>
+    <n v="14.9800000191"/>
+    <n v="1.44000005722"/>
+    <n v="8.629621744480005"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="walrus"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="16.788008928300002"/>
+    <n v="377.41170692399999"/>
+    <n v="417.24973487900002"/>
+    <n v="13.9300000668"/>
+    <n v="1.6699998378799998"/>
+    <n v="7.4500191220200236"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <s v="walrus"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="21.6351509094"/>
+    <n v="440.760473967"/>
+    <n v="489.46177983299998"/>
+    <n v="14.170000076299999"/>
+    <n v="4.3199999332400001"/>
+    <n v="8.5761549470599903"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="walrus"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="17.037000179300001"/>
+    <n v="575.899488926"/>
+    <n v="617.99924611999995"/>
+    <n v="14.009999990500001"/>
+    <n v="2.5300002098099998"/>
+    <n v="8.5227568143899362"/>
+    <x v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="">
-  <location ref="O16:U20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="">
+  <location ref="O16:U21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
+        <item m="1" x="3"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
+      <items count="4">
         <item h="1" x="1"/>
         <item x="0"/>
+        <item h="1" m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1428,12 +1528,15 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -1467,15 +1570,15 @@
     <pageField fld="11" hier="-1"/>
   </pageFields>
   <dataFields count="6">
-    <dataField name="Upload" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Download" fld="8" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Upload (FG - Cloud Storage)" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Download (Cloud Storage - VM)" fld="8" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Pilot Queue " fld="6" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Mittelwert - Total Runtime" fld="7" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="CU Compute " fld="9" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="STABW - Total Runtime" fld="7" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1819,10 +1922,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" topLeftCell="L33" workbookViewId="0">
+      <selection activeCell="X62" sqref="X62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1830,14 +1933,14 @@
     <col min="1" max="1" width="2.1640625" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12.1640625" customWidth="1"/>
     <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" style="8" customWidth="1"/>
     <col min="15" max="15" width="24.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" customWidth="1"/>
-    <col min="17" max="17" width="9.5" customWidth="1"/>
+    <col min="16" max="16" width="23.83203125" customWidth="1"/>
+    <col min="17" max="17" width="27" customWidth="1"/>
     <col min="18" max="18" width="11.1640625" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
@@ -2398,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="P14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2524,19 +2627,19 @@
         <v>26</v>
       </c>
       <c r="P17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S17" t="s">
         <v>24</v>
       </c>
       <c r="T17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U17" t="s">
         <v>25</v>
@@ -2705,25 +2808,25 @@
         <v>23</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="P20" s="5">
-        <v>383.7874477934285</v>
+        <v>21.725477790820001</v>
       </c>
       <c r="Q20" s="5">
-        <v>118.65642859255</v>
+        <v>15.09400000574</v>
       </c>
       <c r="R20" s="5">
-        <v>62.2654865128643</v>
+        <v>302.40736880303996</v>
       </c>
       <c r="S20" s="5">
-        <v>579.05295133557138</v>
+        <v>350.38976254479996</v>
       </c>
       <c r="T20" s="5">
-        <v>2.896428568022285</v>
+        <v>2.7760000228879997</v>
       </c>
       <c r="U20" s="5">
-        <v>512.94119542916803</v>
+        <v>227.92746465831291</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2764,6 +2867,27 @@
       <c r="L21" t="s">
         <v>23</v>
       </c>
+      <c r="O21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="5">
+        <v>288.50798200326835</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>91.403157911810538</v>
+      </c>
+      <c r="R21" s="5">
+        <v>125.46071869448947</v>
+      </c>
+      <c r="S21" s="5">
+        <v>518.87842796957887</v>
+      </c>
+      <c r="T21" s="5">
+        <v>2.8647368456185256</v>
+      </c>
+      <c r="U21" s="5">
+        <v>460.72721525177963</v>
+      </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22">
@@ -3163,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3191,7 +3315,7 @@
         <v>8.8520209790299873</v>
       </c>
       <c r="L32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3202,7 +3326,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3230,7 +3354,7 @@
         <v>8.3799438480299955</v>
       </c>
       <c r="L33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3241,7 +3365,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3269,7 +3393,7 @@
         <v>13.464279890249998</v>
       </c>
       <c r="L34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3280,7 +3404,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3308,7 +3432,7 @@
         <v>8.4689979554199795</v>
       </c>
       <c r="L35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3319,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3347,7 +3471,7 @@
         <v>7.7552559369980258</v>
       </c>
       <c r="L36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3358,7 +3482,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3386,7 +3510,7 @@
         <v>7.195799828289978</v>
       </c>
       <c r="L37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3397,7 +3521,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3425,7 +3549,7 @@
         <v>7.4545691015600255</v>
       </c>
       <c r="L38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3436,7 +3560,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3464,7 +3588,7 @@
         <v>9.0046410557599188</v>
       </c>
       <c r="L39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3475,7 +3599,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3503,7 +3627,7 @@
         <v>8.5464332107000018</v>
       </c>
       <c r="L40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3514,7 +3638,7 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3542,7 +3666,7 @@
         <v>7.1577849386000025</v>
       </c>
       <c r="L41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3553,7 +3677,7 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3581,7 +3705,7 @@
         <v>37.796485900610037</v>
       </c>
       <c r="L42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3592,7 +3716,7 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3620,7 +3744,7 @@
         <v>13.38279771806998</v>
       </c>
       <c r="L43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3631,7 +3755,7 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3659,7 +3783,7 @@
         <v>11.669551839959695</v>
       </c>
       <c r="L44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3670,7 +3794,7 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3698,7 +3822,202 @@
         <v>11.131675958610003</v>
       </c>
       <c r="L45" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1024</v>
+      </c>
+      <c r="F46">
+        <v>29.707263946499999</v>
+      </c>
+      <c r="G46">
+        <v>64.187892198599997</v>
+      </c>
+      <c r="H46">
+        <v>124.951183081</v>
+      </c>
+      <c r="I46">
+        <v>18.379999875999999</v>
+      </c>
+      <c r="J46">
+        <v>3.92000007629</v>
+      </c>
+      <c r="K46" s="7">
+        <f t="shared" ref="K46:K50" si="1">H46-(SUM(F46,G46,I46,J46))</f>
+        <v>8.7560269836099991</v>
+      </c>
+      <c r="L46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1024</v>
+      </c>
+      <c r="F47">
+        <v>23.4599649906</v>
+      </c>
+      <c r="G47">
+        <v>53.7772819996</v>
+      </c>
+      <c r="H47">
+        <v>102.28686881100001</v>
+      </c>
+      <c r="I47">
+        <v>14.9800000191</v>
+      </c>
+      <c r="J47">
+        <v>1.44000005722</v>
+      </c>
+      <c r="K47" s="7">
+        <f t="shared" si="1"/>
+        <v>8.629621744480005</v>
+      </c>
+      <c r="L47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1024</v>
+      </c>
+      <c r="F48">
+        <v>16.788008928300002</v>
+      </c>
+      <c r="G48">
+        <v>377.41170692399999</v>
+      </c>
+      <c r="H48">
+        <v>417.24973487900002</v>
+      </c>
+      <c r="I48">
+        <v>13.9300000668</v>
+      </c>
+      <c r="J48">
+        <v>1.6699998378799998</v>
+      </c>
+      <c r="K48" s="7">
+        <f t="shared" si="1"/>
+        <v>7.4500191220200236</v>
+      </c>
+      <c r="L48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1024</v>
+      </c>
+      <c r="F49">
+        <v>21.6351509094</v>
+      </c>
+      <c r="G49">
+        <v>440.760473967</v>
+      </c>
+      <c r="H49">
+        <v>489.46177983299998</v>
+      </c>
+      <c r="I49">
+        <v>14.170000076299999</v>
+      </c>
+      <c r="J49">
+        <v>4.3199999332400001</v>
+      </c>
+      <c r="K49" s="7">
+        <f t="shared" si="1"/>
+        <v>8.5761549470599903</v>
+      </c>
+      <c r="L49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1024</v>
+      </c>
+      <c r="F50">
+        <v>17.037000179300001</v>
+      </c>
+      <c r="G50">
+        <v>575.899488926</v>
+      </c>
+      <c r="H50">
+        <v>617.99924611999995</v>
+      </c>
+      <c r="I50">
+        <v>14.009999990500001</v>
+      </c>
+      <c r="J50">
+        <v>2.5300002098099998</v>
+      </c>
+      <c r="K50" s="7">
+        <f t="shared" si="1"/>
+        <v>8.5227568143899362</v>
+      </c>
+      <c r="L50" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/papers/ccpe-cloud12/performance/pd.xlsx
+++ b/papers/ccpe-cloud12/performance/pd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26600" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="50480" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,16 @@
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -335,10 +344,10 @@
                   <c:v>ec2+ssh://aws.amazon.com/</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>gce+ssh://google.com</c:v>
+                  <c:v>euca://india.futuregrid.org</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>euca://india.futuregrid.org</c:v>
+                  <c:v>gce+ssh://google.com</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -353,10 +362,10 @@
                   <c:v>220.7107000827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>791.47931707025</c:v>
+                  <c:v>21.72547779082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.72547779082</c:v>
+                  <c:v>791.47931707025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -394,10 +403,10 @@
                   <c:v>ec2+ssh://aws.amazon.com/</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>gce+ssh://google.com</c:v>
+                  <c:v>euca://india.futuregrid.org</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>euca://india.futuregrid.org</c:v>
+                  <c:v>gce+ssh://google.com</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -412,10 +421,10 @@
                   <c:v>110.47700002196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139.105000019025</c:v>
+                  <c:v>15.09400000574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.09400000574</c:v>
+                  <c:v>139.105000019025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,14 +458,17 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Blatt1!$U$18:$U$19</c:f>
+                <c:f>Blatt1!$U$18:$U$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
                     <c:v>211.5752818356191</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>227.927464658313</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>836.5967639974622</c:v>
                   </c:pt>
                 </c:numCache>
@@ -464,14 +476,17 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Blatt1!$U$18:$U$19</c:f>
+                <c:f>Blatt1!$U$18:$U$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
                     <c:v>211.5752818356191</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>227.927464658313</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>836.5967639974622</c:v>
                   </c:pt>
                 </c:numCache>
@@ -496,10 +511,10 @@
                   <c:v>ec2+ssh://aws.amazon.com/</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>gce+ssh://google.com</c:v>
+                  <c:v>euca://india.futuregrid.org</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>euca://india.futuregrid.org</c:v>
+                  <c:v>gce+ssh://google.com</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -514,10 +529,10 @@
                   <c:v>74.09683890343001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.68710553645</c:v>
+                  <c:v>302.40736880304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>302.40736880304</c:v>
+                  <c:v>32.68710553645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,10 +569,10 @@
                   <c:v>ec2+ssh://aws.amazon.com/</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>gce+ssh://google.com</c:v>
+                  <c:v>euca://india.futuregrid.org</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>euca://india.futuregrid.org</c:v>
+                  <c:v>gce+ssh://google.com</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -572,10 +587,10 @@
                   <c:v>3.2009999990462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1349999904625</c:v>
+                  <c:v>2.776000022888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.776000022888</c:v>
+                  <c:v>2.1349999904625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,12 +1508,12 @@
   <location ref="O16:U21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="5">
         <item x="0"/>
-        <item x="1"/>
         <item m="1" x="3"/>
         <item x="2"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1533,7 +1548,7 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
@@ -1578,7 +1593,7 @@
     <dataField name="STABW - Total Runtime" fld="7" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1924,8 +1939,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L33" workbookViewId="0">
-      <selection activeCell="X62" sqref="X62"/>
+    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2744,29 +2759,29 @@
         <v>23</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="P19" s="5">
-        <v>791.47931707024998</v>
+        <v>21.725477790820001</v>
       </c>
       <c r="Q19" s="5">
-        <v>139.105000019025</v>
+        <v>15.09400000574</v>
       </c>
       <c r="R19" s="5">
-        <v>32.687105536450005</v>
+        <v>302.40736880303996</v>
       </c>
       <c r="S19" s="5">
-        <v>983.90155047050007</v>
+        <v>350.38976254479996</v>
       </c>
       <c r="T19" s="5">
-        <v>2.1349999904625001</v>
+        <v>2.7760000228879997</v>
       </c>
       <c r="U19" s="5">
-        <v>836.59676399746229</v>
+        <v>227.92746465831291</v>
       </c>
       <c r="W19">
         <f>P19/P18</f>
-        <v>3.5860486907688833</v>
+        <v>9.8434184580446241E-2</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2808,25 +2823,25 @@
         <v>23</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="P20" s="5">
-        <v>21.725477790820001</v>
+        <v>791.47931707024998</v>
       </c>
       <c r="Q20" s="5">
-        <v>15.09400000574</v>
+        <v>139.105000019025</v>
       </c>
       <c r="R20" s="5">
-        <v>302.40736880303996</v>
+        <v>32.687105536450005</v>
       </c>
       <c r="S20" s="5">
-        <v>350.38976254479996</v>
+        <v>983.90155047050007</v>
       </c>
       <c r="T20" s="5">
-        <v>2.7760000228879997</v>
+        <v>2.1349999904625001</v>
       </c>
       <c r="U20" s="5">
-        <v>227.92746465831291</v>
+        <v>836.59676399746229</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2871,13 +2886,13 @@
         <v>17</v>
       </c>
       <c r="P21" s="5">
-        <v>288.50798200326835</v>
+        <v>288.50798200326841</v>
       </c>
       <c r="Q21" s="5">
         <v>91.403157911810538</v>
       </c>
       <c r="R21" s="5">
-        <v>125.46071869448947</v>
+        <v>125.46071869448949</v>
       </c>
       <c r="S21" s="5">
         <v>518.87842796957887</v>
@@ -2886,7 +2901,7 @@
         <v>2.8647368456185256</v>
       </c>
       <c r="U21" s="5">
-        <v>460.72721525177963</v>
+        <v>460.72721525177974</v>
       </c>
     </row>
     <row r="22" spans="1:23">

--- a/papers/ccpe-cloud12/performance/pd.xlsx
+++ b/papers/ccpe-cloud12/performance/pd.xlsx
@@ -7,16 +7,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="50480" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
+    <sheet name="1 CU" sheetId="1" r:id="rId1"/>
+    <sheet name="n CUs" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blatt1!$A$1:$L$31</definedName>
-    <definedName name="pd" localSheetId="0">Blatt1!$A$1:$J$31</definedName>
-    <definedName name="pd_random" localSheetId="0">Blatt1!$A$32:$J$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 CU'!$A$1:$L$31</definedName>
+    <definedName name="pd" localSheetId="0">'1 CU'!$A$1:$J$31</definedName>
+    <definedName name="pd_multi_cu" localSheetId="1">'n CUs'!$A$1:$J$1</definedName>
+    <definedName name="pd_random" localSheetId="0">'1 CU'!$A$32:$J$45</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId2"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -28,7 +30,23 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="pd_random.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="1" name="pd_multi_cu.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_multi_cu.txt" comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="pd_random.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_random.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -44,7 +62,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="pd.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="pd.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd.csv" comma="1" qualifier="none">
       <textFields count="10">
         <textField/>
@@ -64,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="48">
   <si>
     <t>Run</t>
   </si>
@@ -179,6 +197,36 @@
   <si>
     <t>euca://india.futuregrid.org</t>
   </si>
+  <si>
+    <t>Pilot Qtime</t>
+  </si>
+  <si>
+    <t>Pilot Runtime</t>
+  </si>
+  <si>
+    <t>CU Qtime</t>
+  </si>
+  <si>
+    <t>gs://pilot-data-abb25dc4-f8b2-11e1-97e9-00215ec9e3ac</t>
+  </si>
+  <si>
+    <t>gs://pilot-data-cf5d0c50-f8c2-11e1-b0ff-00215ec9e3ac</t>
+  </si>
+  <si>
+    <t>/dev/random</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>FutureGrid</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>gce+ssh://google.com (multi cu)</t>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,6 +267,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,14 +301,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -265,24 +334,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="19">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -317,7 +393,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blatt1!$P$17</c:f>
+              <c:f>'1 CU'!$P$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -337,7 +413,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blatt1!$O$18:$O$20</c:f>
+              <c:f>'1 CU'!$O$18:$O$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -354,7 +430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blatt1!$P$18:$P$20</c:f>
+              <c:f>'1 CU'!$P$18:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -376,7 +452,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blatt1!$Q$17</c:f>
+              <c:f>'1 CU'!$Q$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -396,7 +472,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blatt1!$O$18:$O$20</c:f>
+              <c:f>'1 CU'!$O$18:$O$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -413,7 +489,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blatt1!$Q$18:$Q$20</c:f>
+              <c:f>'1 CU'!$Q$18:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -435,7 +511,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blatt1!$R$17</c:f>
+              <c:f>'1 CU'!$R$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -458,7 +534,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Blatt1!$U$18:$U$20</c:f>
+                <c:f>'1 CU'!$U$18:$U$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -476,7 +552,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Blatt1!$U$18:$U$20</c:f>
+                <c:f>'1 CU'!$U$18:$U$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -504,7 +580,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Blatt1!$O$18:$O$20</c:f>
+              <c:f>'1 CU'!$O$18:$O$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -521,7 +597,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blatt1!$R$18:$R$20</c:f>
+              <c:f>'1 CU'!$R$18:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -543,7 +619,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blatt1!$T$17</c:f>
+              <c:f>'1 CU'!$T$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -562,7 +638,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blatt1!$O$18:$O$20</c:f>
+              <c:f>'1 CU'!$O$18:$O$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -579,7 +655,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blatt1!$T$18:$T$20</c:f>
+              <c:f>'1 CU'!$T$18:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -606,11 +682,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2093810536"/>
-        <c:axId val="2093813176"/>
+        <c:axId val="2078165000"/>
+        <c:axId val="2078168136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2093810536"/>
+        <c:axId val="2078165000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +705,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093813176"/>
+        <c:crossAx val="2078168136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -637,7 +713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093813176"/>
+        <c:axId val="2078168136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +753,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093810536"/>
+        <c:crossAx val="2078165000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -750,9 +826,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41158.786918287034" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="49">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41159.818736574074" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="56">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L50" sheet="Blatt1"/>
+    <worksheetSource ref="A1:L57" sheet="1 CU"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Run" numFmtId="0">
@@ -763,44 +839,44 @@
         <s v="ec2+ssh://aws.amazon.com/"/>
         <s v="gce+ssh://google.com"/>
         <s v="euca://india.futuregrid.org"/>
-        <s v="euca" u="1"/>
+        <s v="gce+ssh://google.com (multi cu)"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PD" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="#jobs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
     </cacheField>
     <cacheField name="MB" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="8192" count="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="1024" count="2">
         <n v="1024"/>
         <n v="128"/>
-        <n v="8192" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Upload Time" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.788008928300002" maxValue="2002.243119"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.788008928300002" maxValue="3292.7151110200002"/>
     </cacheField>
     <cacheField name="Pilot Queue" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.4648599625" maxValue="575.899488926"/>
     </cacheField>
     <cacheField name="Total Runtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="99.422956943499997" maxValue="2211.25476789"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="99.422956943499997" maxValue="5451.5510759400004"/>
     </cacheField>
     <cacheField name="CU qtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.4400000572200007" maxValue="455.17000007600001"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.4400000572200007" maxValue="1459.53800002"/>
     </cacheField>
     <cacheField name="CU Runtime" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1" maxValue="11.7300000191"/>
     </cacheField>
     <cacheField name="Delta Runtime" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.1093659396300382" maxValue="37.796485900610037"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.1093659396300382" maxValue="1395.8635980072499"/>
     </cacheField>
     <cacheField name="Remark" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems count="3">
         <s v="/dev/zero"/>
         <s v="/dev/urandom"/>
+        <s v="/dev/random" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -813,7 +889,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="49">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="56">
   <r>
     <n v="0"/>
     <x v="0"/>
@@ -1500,30 +1576,127 @@
     <n v="8.5227568143899362"/>
     <x v="1"/>
   </r>
+  <r>
+    <n v="0"/>
+    <x v="3"/>
+    <s v="gs://pilot-data-cf5d0c50-f8c2-11e1-b0ff-00215ec9e3ac"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="3292.7151110200002"/>
+    <n v="49.669698953599998"/>
+    <n v="5451.5510759400004"/>
+    <n v="1102.5932499999999"/>
+    <n v="3.36800001264"/>
+    <n v="1003.2050159537603"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="3"/>
+    <s v="gs://pilot-data-cf5d0c50-f8c2-11e1-b0ff-00215ec9e3ac"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="1510.60332608"/>
+    <n v="49.387537002599998"/>
+    <n v="3526.6359269599998"/>
+    <n v="1031.83825"/>
+    <n v="2.8239999949899999"/>
+    <n v="931.98281388240957"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="3"/>
+    <s v="gs://pilot-data-cf5d0c50-f8c2-11e1-b0ff-00215ec9e3ac"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="1709.7597661"/>
+    <n v="43.468255042999999"/>
+    <n v="3920.4964511399999"/>
+    <n v="1122.9845"/>
+    <n v="3.15425001383"/>
+    <n v="1041.1296799831698"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="gs://pilot-data-cf5d0c50-f8c2-11e1-b0ff-00215ec9e3ac"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="2592.2150978999998"/>
+    <n v="49.294908046700002"/>
+    <n v="4692.7860889399999"/>
+    <n v="1036.7059999999999"/>
+    <n v="3.1137499928499999"/>
+    <n v="1011.4563330004503"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="gs://pilot-data-cf5d0c50-f8c2-11e1-b0ff-00215ec9e3ac"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="1849.0491790799999"/>
+    <n v="46.814173936800003"/>
+    <n v="4417.4567010399996"/>
+    <n v="1122.83800002"/>
+    <n v="2.8917499959500002"/>
+    <n v="1395.8635980072499"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="3"/>
+    <s v="gs://pilot-data-cf5d0c50-f8c2-11e1-b0ff-00215ec9e3ac"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="1105.9794080300001"/>
+    <n v="46.863272905300001"/>
+    <n v="3702.10813594"/>
+    <n v="1459.53800002"/>
+    <n v="2.2719999671000002"/>
+    <n v="1087.4554550176003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="3"/>
+    <s v="gs://pilot-data-cf5d0c50-f8c2-11e1-b0ff-00215ec9e3ac"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="1410.5814979100001"/>
+    <n v="46.588794946699998"/>
+    <n v="3537.2294130300002"/>
+    <n v="1072.2957499900001"/>
+    <n v="6.9882500290899996"/>
+    <n v="1000.7751201542096"/>
+    <x v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="">
-  <location ref="O16:U21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="">
+  <location ref="O16:U22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="5">
         <item x="0"/>
-        <item m="1" x="3"/>
         <item x="2"/>
         <item x="1"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
+      <items count="3">
         <item h="1" x="1"/>
         <item x="0"/>
-        <item h="1" m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1534,18 +1707,22 @@
     <pivotField dataField="1" numFmtId="164" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="2">
+      <items count="3">
         <item x="1"/>
         <item h="1" x="0"/>
+        <item h="1" m="1" x="2"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="5">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -1593,7 +1770,7 @@
     <dataField name="STABW - Total Runtime" fld="7" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1607,11 +1784,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1937,10 +2118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="AL26" sqref="AL26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1953,7 +2134,7 @@
     <col min="6" max="8" width="12.1640625" customWidth="1"/>
     <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="24.6640625" customWidth="1"/>
+    <col min="15" max="15" width="27.33203125" customWidth="1"/>
     <col min="16" max="16" width="23.83203125" customWidth="1"/>
     <col min="17" max="17" width="27" customWidth="1"/>
     <col min="18" max="18" width="11.1640625" customWidth="1"/>
@@ -2698,6 +2879,9 @@
       <c r="L18" t="s">
         <v>23</v>
       </c>
+      <c r="N18" t="s">
+        <v>44</v>
+      </c>
       <c r="O18" s="4" t="s">
         <v>7</v>
       </c>
@@ -2758,6 +2942,9 @@
       <c r="L19" t="s">
         <v>23</v>
       </c>
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
       <c r="O19" s="4" t="s">
         <v>37</v>
       </c>
@@ -2822,6 +3009,9 @@
       <c r="L20" t="s">
         <v>23</v>
       </c>
+      <c r="N20" t="s">
+        <v>46</v>
+      </c>
       <c r="O20" s="4" t="s">
         <v>13</v>
       </c>
@@ -2883,25 +3073,25 @@
         <v>23</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="P21" s="5">
-        <v>288.50798200326841</v>
+        <v>1924.4147694457145</v>
       </c>
       <c r="Q21" s="5">
-        <v>91.403157911810538</v>
+        <v>1135.5419642900001</v>
       </c>
       <c r="R21" s="5">
-        <v>125.46071869448949</v>
+        <v>47.440948690671426</v>
       </c>
       <c r="S21" s="5">
-        <v>518.87842796957887</v>
+        <v>4178.323398998572</v>
       </c>
       <c r="T21" s="5">
-        <v>2.8647368456185256</v>
+        <v>3.5160000009214287</v>
       </c>
       <c r="U21" s="5">
-        <v>460.72721525177974</v>
+        <v>715.53232918875892</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2942,6 +3132,27 @@
       <c r="L22" t="s">
         <v>23</v>
       </c>
+      <c r="O22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="5">
+        <v>728.94442477623465</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>372.51745193670774</v>
+      </c>
+      <c r="R22" s="5">
+        <v>104.45539600115386</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1504.1136124773843</v>
+      </c>
+      <c r="T22" s="5">
+        <v>3.0400769258923837</v>
+      </c>
+      <c r="U22" s="5">
+        <v>1736.6132116477979</v>
+      </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23">
@@ -4032,6 +4243,279 @@
         <v>8.5227568143899362</v>
       </c>
       <c r="L50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>1024</v>
+      </c>
+      <c r="F51">
+        <v>3292.7151110200002</v>
+      </c>
+      <c r="G51">
+        <v>49.669698953599998</v>
+      </c>
+      <c r="H51">
+        <v>5451.5510759400004</v>
+      </c>
+      <c r="I51">
+        <v>1102.5932499999999</v>
+      </c>
+      <c r="J51">
+        <v>3.36800001264</v>
+      </c>
+      <c r="K51" s="7">
+        <f>H51-(SUM(F51,G51,I51,J51))</f>
+        <v>1003.2050159537603</v>
+      </c>
+      <c r="L51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>1024</v>
+      </c>
+      <c r="F52">
+        <v>1510.60332608</v>
+      </c>
+      <c r="G52">
+        <v>49.387537002599998</v>
+      </c>
+      <c r="H52">
+        <v>3526.6359269599998</v>
+      </c>
+      <c r="I52">
+        <v>1031.83825</v>
+      </c>
+      <c r="J52">
+        <v>2.8239999949899999</v>
+      </c>
+      <c r="K52" s="7">
+        <f>H52-(SUM(F52,G52,I52,J52))</f>
+        <v>931.98281388240957</v>
+      </c>
+      <c r="L52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>1024</v>
+      </c>
+      <c r="F53">
+        <v>1709.7597661</v>
+      </c>
+      <c r="G53">
+        <v>43.468255042999999</v>
+      </c>
+      <c r="H53">
+        <v>3920.4964511399999</v>
+      </c>
+      <c r="I53">
+        <v>1122.9845</v>
+      </c>
+      <c r="J53">
+        <v>3.15425001383</v>
+      </c>
+      <c r="K53" s="7">
+        <f>H53-(SUM(F53,G53,I53,J53))</f>
+        <v>1041.1296799831698</v>
+      </c>
+      <c r="L53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>1024</v>
+      </c>
+      <c r="F54">
+        <v>2592.2150978999998</v>
+      </c>
+      <c r="G54">
+        <v>49.294908046700002</v>
+      </c>
+      <c r="H54">
+        <v>4692.7860889399999</v>
+      </c>
+      <c r="I54">
+        <v>1036.7059999999999</v>
+      </c>
+      <c r="J54">
+        <v>3.1137499928499999</v>
+      </c>
+      <c r="K54" s="7">
+        <f>H54-(SUM(F54,G54,I54,J54))</f>
+        <v>1011.4563330004503</v>
+      </c>
+      <c r="L54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55">
+        <v>40</v>
+      </c>
+      <c r="E55">
+        <v>1024</v>
+      </c>
+      <c r="F55">
+        <v>1849.0491790799999</v>
+      </c>
+      <c r="G55">
+        <v>46.814173936800003</v>
+      </c>
+      <c r="H55">
+        <v>4417.4567010399996</v>
+      </c>
+      <c r="I55">
+        <v>1122.83800002</v>
+      </c>
+      <c r="J55">
+        <v>2.8917499959500002</v>
+      </c>
+      <c r="K55" s="7">
+        <f>H55-(SUM(F55,G55,I55,J55))</f>
+        <v>1395.8635980072499</v>
+      </c>
+      <c r="L55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56">
+        <v>40</v>
+      </c>
+      <c r="E56">
+        <v>1024</v>
+      </c>
+      <c r="F56">
+        <v>1105.9794080300001</v>
+      </c>
+      <c r="G56">
+        <v>46.863272905300001</v>
+      </c>
+      <c r="H56">
+        <v>3702.10813594</v>
+      </c>
+      <c r="I56">
+        <v>1459.53800002</v>
+      </c>
+      <c r="J56">
+        <v>2.2719999671000002</v>
+      </c>
+      <c r="K56" s="7">
+        <f>H56-(SUM(F56,G56,I56,J56))</f>
+        <v>1087.4554550176003</v>
+      </c>
+      <c r="L56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <v>1024</v>
+      </c>
+      <c r="F57">
+        <v>1410.5814979100001</v>
+      </c>
+      <c r="G57">
+        <v>46.588794946699998</v>
+      </c>
+      <c r="H57">
+        <v>3537.2294130300002</v>
+      </c>
+      <c r="I57">
+        <v>1072.2957499900001</v>
+      </c>
+      <c r="J57">
+        <v>6.9882500290899996</v>
+      </c>
+      <c r="K57" s="7">
+        <f>H57-(SUM(F57,G57,I57,J57))</f>
+        <v>1000.7751201542096</v>
+      </c>
+      <c r="L57" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4052,4 +4536,454 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="9">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F2" s="9">
+        <v>803.12535190000006</v>
+      </c>
+      <c r="G2" s="9">
+        <v>50.412962909999997</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1258.991186</v>
+      </c>
+      <c r="I2" s="9">
+        <v>224.01374999999999</v>
+      </c>
+      <c r="J2" s="9">
+        <v>2.7437500359999998</v>
+      </c>
+      <c r="K2" s="10">
+        <v>178.7</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1014.129175</v>
+      </c>
+      <c r="G3" s="9">
+        <v>49.989407059999998</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1427.354409</v>
+      </c>
+      <c r="I3" s="9">
+        <v>212.36250000000001</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2.8700000050000001</v>
+      </c>
+      <c r="K3" s="10">
+        <v>148</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="9">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1231.611101</v>
+      </c>
+      <c r="G4" s="9">
+        <v>48.882606029999998</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1653.6969349999999</v>
+      </c>
+      <c r="I4" s="9">
+        <v>237.79249999999999</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2.047500044</v>
+      </c>
+      <c r="K4" s="10">
+        <v>133.4</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3292.715111</v>
+      </c>
+      <c r="G5" s="9">
+        <v>49.669698949999997</v>
+      </c>
+      <c r="H5" s="9">
+        <v>5451.5510759999997</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1102.5932499999999</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3.3680000130000001</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1003.2</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1510.6033259999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>49.387537000000002</v>
+      </c>
+      <c r="H6" s="9">
+        <v>3526.6359269999998</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1031.83825</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2.8239999949999999</v>
+      </c>
+      <c r="K6" s="10">
+        <v>932</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9">
+        <v>40</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1709.7597659999999</v>
+      </c>
+      <c r="G7" s="9">
+        <v>43.468255040000003</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3920.496451</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1122.9845</v>
+      </c>
+      <c r="J7" s="9">
+        <v>3.154250014</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1041.0999999999999</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9">
+        <v>40</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2592.2150980000001</v>
+      </c>
+      <c r="G8" s="9">
+        <v>49.294908049999997</v>
+      </c>
+      <c r="H8" s="9">
+        <v>4692.7860890000002</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1036.7059999999999</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3.1137499929999999</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1011.5</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9">
+        <v>40</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1849.0491790000001</v>
+      </c>
+      <c r="G9" s="9">
+        <v>46.814173940000003</v>
+      </c>
+      <c r="H9" s="9">
+        <v>4417.4567010000001</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1122.838</v>
+      </c>
+      <c r="J9" s="9">
+        <v>2.8917499960000002</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1395.9</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9">
+        <v>40</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1105.9794079999999</v>
+      </c>
+      <c r="G10" s="9">
+        <v>46.863272909999999</v>
+      </c>
+      <c r="H10" s="9">
+        <v>3702.1081359999998</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1459.538</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2.2719999670000002</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1087.5</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9">
+        <v>40</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1410.581498</v>
+      </c>
+      <c r="G11" s="9">
+        <v>46.58879495</v>
+      </c>
+      <c r="H11" s="9">
+        <v>3537.229413</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1072.29575</v>
+      </c>
+      <c r="J11" s="9">
+        <v>6.9882500289999996</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1000.8</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/papers/ccpe-cloud12/performance/pd.xlsx
+++ b/papers/ccpe-cloud12/performance/pd.xlsx
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -364,6 +364,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,8 +410,8 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
@@ -630,9 +635,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -682,11 +685,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2078165000"/>
-        <c:axId val="2078168136"/>
+        <c:axId val="2128509784"/>
+        <c:axId val="2128512808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2078165000"/>
+        <c:axId val="2128509784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +708,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2078168136"/>
+        <c:crossAx val="2128512808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,7 +716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2078168136"/>
+        <c:axId val="2128512808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +756,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2078165000"/>
+        <c:crossAx val="2128509784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1678,7 +1681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="">
   <location ref="O16:U22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -1784,11 +1787,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2121,7 +2124,7 @@
   <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="T72" sqref="T72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4278,7 +4281,7 @@
         <v>3.36800001264</v>
       </c>
       <c r="K51" s="7">
-        <f>H51-(SUM(F51,G51,I51,J51))</f>
+        <f t="shared" ref="K51:K57" si="2">H51-(SUM(F51,G51,I51,J51))</f>
         <v>1003.2050159537603</v>
       </c>
       <c r="L51" t="s">
@@ -4317,7 +4320,7 @@
         <v>2.8239999949899999</v>
       </c>
       <c r="K52" s="7">
-        <f>H52-(SUM(F52,G52,I52,J52))</f>
+        <f t="shared" si="2"/>
         <v>931.98281388240957</v>
       </c>
       <c r="L52" t="s">
@@ -4356,7 +4359,7 @@
         <v>3.15425001383</v>
       </c>
       <c r="K53" s="7">
-        <f>H53-(SUM(F53,G53,I53,J53))</f>
+        <f t="shared" si="2"/>
         <v>1041.1296799831698</v>
       </c>
       <c r="L53" t="s">
@@ -4395,7 +4398,7 @@
         <v>3.1137499928499999</v>
       </c>
       <c r="K54" s="7">
-        <f>H54-(SUM(F54,G54,I54,J54))</f>
+        <f t="shared" si="2"/>
         <v>1011.4563330004503</v>
       </c>
       <c r="L54" t="s">
@@ -4434,7 +4437,7 @@
         <v>2.8917499959500002</v>
       </c>
       <c r="K55" s="7">
-        <f>H55-(SUM(F55,G55,I55,J55))</f>
+        <f t="shared" si="2"/>
         <v>1395.8635980072499</v>
       </c>
       <c r="L55" t="s">
@@ -4473,7 +4476,7 @@
         <v>2.2719999671000002</v>
       </c>
       <c r="K56" s="7">
-        <f>H56-(SUM(F56,G56,I56,J56))</f>
+        <f t="shared" si="2"/>
         <v>1087.4554550176003</v>
       </c>
       <c r="L56" t="s">
@@ -4512,7 +4515,7 @@
         <v>6.9882500290899996</v>
       </c>
       <c r="K57" s="7">
-        <f>H57-(SUM(F57,G57,I57,J57))</f>
+        <f t="shared" si="2"/>
         <v>1000.7751201542096</v>
       </c>
       <c r="L57" t="s">

--- a/papers/ccpe-cloud12/performance/pd.xlsx
+++ b/papers/ccpe-cloud12/performance/pd.xlsx
@@ -14,11 +14,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 CU'!$A$1:$L$31</definedName>
     <definedName name="pd" localSheetId="0">'1 CU'!$A$1:$J$31</definedName>
     <definedName name="pd_multi_cu" localSheetId="1">'n CUs'!$A$1:$J$1</definedName>
+    <definedName name="pd_multi_cu_1" localSheetId="0">'1 CU'!$A$51:$J$68</definedName>
+    <definedName name="pd_multi_cu_1" localSheetId="1">'n CUs'!$A$2:$J$22</definedName>
     <definedName name="pd_random" localSheetId="0">'1 CU'!$A$32:$J$45</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -46,7 +48,23 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="pd_random.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="2" name="pd_multi_cu.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_multi_cu.txt" comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="pd_random.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_random.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -62,7 +80,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="pd.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="4" name="pd.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd.csv" comma="1" qualifier="none">
       <textFields count="10">
         <textField/>
@@ -82,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="52">
   <si>
     <t>Run</t>
   </si>
@@ -225,7 +243,21 @@
     <t>Google</t>
   </si>
   <si>
-    <t>gce+ssh://google.com (multi cu)</t>
+    <t>s3://pilot-data-a84f6250-f99b-11e1-818a-02215ecdd90b</t>
+  </si>
+  <si>
+    <t>Google (Multi CU)</t>
+  </si>
+  <si>
+    <t>Amazon (Multi CU)</t>
+  </si>
+  <si>
+    <t>Amazon
+(40 CUs)</t>
+  </si>
+  <si>
+    <t>Google 
+(40 CUs)</t>
   </si>
 </sst>
 </file>
@@ -301,7 +333,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -321,8 +353,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -336,8 +380,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="31">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -347,6 +394,12 @@
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -356,9 +409,48 @@
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -418,35 +510,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1 CU'!$O$18:$O$20</c:f>
+              <c:f>'1 CU'!$N$18:$N$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>ec2+ssh://aws.amazon.com/</c:v>
+                  <c:v>FutureGrid</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>euca://india.futuregrid.org</c:v>
+                  <c:v>Amazon</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gce+ssh://google.com</c:v>
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Amazon_x000d_(40 CUs)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google _x000d_(40 CUs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1 CU'!$P$18:$P$20</c:f>
+              <c:f>'1 CU'!$P$18:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>220.7107000827</c:v>
+                  <c:v>21.72547779082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.72547779082</c:v>
+                  <c:v>220.7107000827</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>791.47931707025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202.2968391658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1929.87040639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,35 +581,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1 CU'!$O$18:$O$20</c:f>
+              <c:f>'1 CU'!$N$18:$N$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>ec2+ssh://aws.amazon.com/</c:v>
+                  <c:v>FutureGrid</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>euca://india.futuregrid.org</c:v>
+                  <c:v>Amazon</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gce+ssh://google.com</c:v>
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Amazon_x000d_(40 CUs)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google _x000d_(40 CUs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1 CU'!$Q$18:$Q$20</c:f>
+              <c:f>'1 CU'!$Q$18:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>110.47700002196</c:v>
+                  <c:v>15.09400000574</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.09400000574</c:v>
+                  <c:v>110.47700002196</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>139.105000019025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>530.2727499966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1131.60021875125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,36 +655,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'1 CU'!$U$18:$U$20</c:f>
+                <c:f>'1 CU'!$U$18:$U$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>211.5752818356191</c:v>
+                    <c:v>227.927464658313</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>227.927464658313</c:v>
+                    <c:v>211.5752818356189</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>836.5967639974622</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>164.9635304236692</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>662.5074939353295</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'1 CU'!$U$18:$U$20</c:f>
+                <c:f>'1 CU'!$U$18:$U$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>211.5752818356191</c:v>
+                    <c:v>227.927464658313</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>227.927464658313</c:v>
+                    <c:v>211.5752818356189</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>836.5967639974622</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>164.9635304236692</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>662.5074939353295</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -585,35 +713,47 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'1 CU'!$O$18:$O$20</c:f>
+              <c:f>'1 CU'!$N$18:$N$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>ec2+ssh://aws.amazon.com/</c:v>
+                  <c:v>FutureGrid</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>euca://india.futuregrid.org</c:v>
+                  <c:v>Amazon</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gce+ssh://google.com</c:v>
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Amazon_x000d_(40 CUs)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google _x000d_(40 CUs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1 CU'!$R$18:$R$20</c:f>
+              <c:f>'1 CU'!$R$18:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>74.09683890343001</c:v>
+                  <c:v>302.40736880304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>302.40736880304</c:v>
+                  <c:v>74.09683890342998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>32.68710553645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.33380212783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.38763433693749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,35 +781,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1 CU'!$O$18:$O$20</c:f>
+              <c:f>'1 CU'!$N$18:$N$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>ec2+ssh://aws.amazon.com/</c:v>
+                  <c:v>FutureGrid</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>euca://india.futuregrid.org</c:v>
+                  <c:v>Amazon</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gce+ssh://google.com</c:v>
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Amazon_x000d_(40 CUs)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Google _x000d_(40 CUs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1 CU'!$T$18:$T$20</c:f>
+              <c:f>'1 CU'!$T$18:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.2009999990462</c:v>
+                  <c:v>2.776000022888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.776000022888</c:v>
+                  <c:v>3.2009999990462</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.1349999904625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.796625009777</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4829062491675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,11 +837,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2128509784"/>
-        <c:axId val="2128512808"/>
+        <c:axId val="2120688792"/>
+        <c:axId val="2120691848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128509784"/>
+        <c:axId val="2120688792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +860,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128512808"/>
+        <c:crossAx val="2120691848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -716,7 +868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128512808"/>
+        <c:axId val="2120691848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +908,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128509784"/>
+        <c:crossAx val="2120688792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -797,16 +949,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -829,20 +981,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41159.818736574074" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="56">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41160.662873379631" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="67">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L57" sheet="1 CU"/>
+    <worksheetSource ref="A1:L68" sheet="1 CU"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Run" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
     </cacheField>
     <cacheField name="PC" numFmtId="0">
-      <sharedItems count="4">
+      <sharedItems count="5">
         <s v="ec2+ssh://aws.amazon.com/"/>
         <s v="gce+ssh://google.com"/>
         <s v="euca://india.futuregrid.org"/>
-        <s v="gce+ssh://google.com (multi cu)"/>
+        <s v="Google (Multi CU)"/>
+        <s v="Amazon (Multi CU)"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PD" numFmtId="0">
@@ -876,10 +1029,9 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.1093659396300382" maxValue="1395.8635980072499"/>
     </cacheField>
     <cacheField name="Remark" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="2">
         <s v="/dev/zero"/>
         <s v="/dev/urandom"/>
-        <s v="/dev/random" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -892,7 +1044,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="56">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="67">
   <r>
     <n v="0"/>
     <x v="0"/>
@@ -1677,19 +1829,174 @@
     <n v="1000.7751201542096"/>
     <x v="1"/>
   </r>
+  <r>
+    <n v="7"/>
+    <x v="3"/>
+    <s v="gs://pilot-data-cf5d0c50-f8c2-11e1-b0ff-00215ec9e3ac"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="1968.0598649999999"/>
+    <n v="47.014433860799997"/>
+    <n v="4154.5585520300001"/>
+    <n v="1104.00799998"/>
+    <n v="3.25124998689"/>
+    <n v="1032.2250032023103"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="s3://pilot-data-a84f6250-f99b-11e1-818a-02215ecdd90b"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="157.879931927"/>
+    <n v="59.8729500771"/>
+    <n v="1262.1418469"/>
+    <n v="465.93199999299998"/>
+    <n v="5.4545000255099998"/>
+    <n v="573.00246487739003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="s3://pilot-data-a84f6250-f99b-11e1-818a-02215ecdd90b"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="167.587552071"/>
+    <n v="93.305170059199995"/>
+    <n v="1325.52337098"/>
+    <n v="480.34525001600002"/>
+    <n v="6.1112500011900002"/>
+    <n v="578.17414883260994"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="4"/>
+    <s v="s3://pilot-data-a84f6250-f99b-11e1-818a-02215ecdd90b"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="333.38520407700003"/>
+    <n v="81.887583970999998"/>
+    <n v="1521.82496309"/>
+    <n v="549.14025000300001"/>
+    <n v="5.9302499949899996"/>
+    <n v="551.48167504400988"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="4"/>
+    <s v="s3://pilot-data-a84f6250-f99b-11e1-818a-02215ecdd90b"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="160.991422892"/>
+    <n v="99.748240947699998"/>
+    <n v="1164.8700099"/>
+    <n v="453.257999998"/>
+    <n v="10.2109999955"/>
+    <n v="440.66134606680009"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="4"/>
+    <s v="s3://pilot-data-a84f6250-f99b-11e1-818a-02215ecdd90b"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="367.39415502499998"/>
+    <n v="82.062947034800004"/>
+    <n v="1349.5291480999999"/>
+    <n v="442.01149998900001"/>
+    <n v="5.60025001168"/>
+    <n v="452.4602960395199"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <s v="s3://pilot-data-a84f6250-f99b-11e1-818a-02215ecdd90b"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="162.182951927"/>
+    <n v="93.295397043199998"/>
+    <n v="1511.1965069800001"/>
+    <n v="691.81049998399999"/>
+    <n v="3.8915000200300001"/>
+    <n v="560.01615800577019"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="4"/>
+    <s v="s3://pilot-data-a84f6250-f99b-11e1-818a-02215ecdd90b"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="165.01680493399999"/>
+    <n v="91.365287065499999"/>
+    <n v="1431.0721168499999"/>
+    <n v="655.00049999999999"/>
+    <n v="5.1365000188399996"/>
+    <n v="514.55302483165997"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="4"/>
+    <s v="s3://pilot-data-a84f6250-f99b-11e1-818a-02215ecdd90b"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="173.91448092499999"/>
+    <n v="95.688024997699998"/>
+    <n v="1016.85612583"/>
+    <n v="360.02674998600003"/>
+    <n v="5.0845000147799997"/>
+    <n v="382.14236990651989"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="4"/>
+    <s v="s3://pilot-data-a84f6250-f99b-11e1-818a-02215ecdd90b"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="170.93446493100001"/>
+    <n v="94.859182119400003"/>
+    <n v="1308.35150099"/>
+    <n v="507.67774998499999"/>
+    <n v="4.0910000264599997"/>
+    <n v="530.78910392813987"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="4"/>
+    <s v="s3://pilot-data-a84f6250-f99b-11e1-818a-02215ecdd90b"/>
+    <n v="40"/>
+    <x v="0"/>
+    <n v="163.68142294899999"/>
+    <n v="91.253237962699998"/>
+    <n v="1518.34534502"/>
+    <n v="697.52500001199996"/>
+    <n v="6.4554999887899998"/>
+    <n v="559.43018410750994"/>
+    <x v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="">
-  <location ref="O16:U22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" rowHeaderCaption="" fieldListSortAscending="1">
+  <location ref="O16:U23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
         <item x="0"/>
-        <item x="2"/>
         <item x="1"/>
+        <item x="4"/>
         <item x="3"/>
         <item t="default"/>
       </items>
@@ -1710,17 +2017,16 @@
     <pivotField dataField="1" numFmtId="164" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="2">
         <item x="1"/>
         <item h="1" x="0"/>
-        <item h="1" m="1" x="2"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
@@ -1732,6 +2038,9 @@
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -1773,7 +2082,7 @@
     <dataField name="STABW - Total Runtime" fld="7" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1787,14 +2096,22 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -2121,10 +2438,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T72" sqref="T72"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2137,7 +2454,8 @@
     <col min="6" max="8" width="12.1640625" customWidth="1"/>
     <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="27.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" customWidth="1"/>
     <col min="16" max="16" width="23.83203125" customWidth="1"/>
     <col min="17" max="17" width="27" customWidth="1"/>
     <col min="18" max="18" width="11.1640625" customWidth="1"/>
@@ -2784,7 +3102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2844,7 +3162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2883,31 +3201,34 @@
         <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="P18" s="5">
-        <v>220.71070008269999</v>
+        <v>21.725477790820001</v>
       </c>
       <c r="Q18" s="5">
-        <v>110.47700002196</v>
+        <v>15.09400000574</v>
       </c>
       <c r="R18" s="5">
-        <v>74.096838903430012</v>
+        <v>302.40736880303996</v>
       </c>
       <c r="S18" s="5">
-        <v>417.11351168160002</v>
+        <v>350.38976254479996</v>
       </c>
       <c r="T18" s="5">
-        <v>3.2009999990461999</v>
+        <v>2.7760000228879997</v>
       </c>
       <c r="U18" s="5">
-        <v>211.57528183561908</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>227.92746465831291</v>
+      </c>
+      <c r="V18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2946,35 +3267,34 @@
         <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="P19" s="5">
-        <v>21.725477790820001</v>
+        <v>220.71070008269999</v>
       </c>
       <c r="Q19" s="5">
-        <v>15.09400000574</v>
+        <v>110.47700002196</v>
       </c>
       <c r="R19" s="5">
-        <v>302.40736880303996</v>
+        <v>74.096838903429983</v>
       </c>
       <c r="S19" s="5">
-        <v>350.38976254479996</v>
+        <v>417.11351168160002</v>
       </c>
       <c r="T19" s="5">
-        <v>2.7760000228879997</v>
+        <v>3.2009999990461999</v>
       </c>
       <c r="U19" s="5">
-        <v>227.92746465831291</v>
-      </c>
-      <c r="W19">
-        <f>P19/P18</f>
-        <v>9.8434184580446241E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>211.57528183561894</v>
+      </c>
+      <c r="V19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3036,8 +3356,11 @@
       <c r="U20" s="5">
         <v>836.59676399746229</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="V20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="30">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3075,29 +3398,35 @@
       <c r="L21" t="s">
         <v>23</v>
       </c>
+      <c r="N21" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="O21" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P21" s="5">
-        <v>1924.4147694457145</v>
+        <v>202.29683916580001</v>
       </c>
       <c r="Q21" s="5">
-        <v>1135.5419642900001</v>
+        <v>530.27274999660006</v>
       </c>
       <c r="R21" s="5">
-        <v>47.440948690671426</v>
+        <v>88.333802127829998</v>
       </c>
       <c r="S21" s="5">
-        <v>4178.323398998572</v>
+        <v>1340.971093464</v>
       </c>
       <c r="T21" s="5">
-        <v>3.5160000009214287</v>
+        <v>5.7966250097770002</v>
       </c>
       <c r="U21" s="5">
-        <v>715.53232918875892</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>164.9635304236692</v>
+      </c>
+      <c r="V21" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="30">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3135,29 +3464,35 @@
       <c r="L22" t="s">
         <v>23</v>
       </c>
+      <c r="N22" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="O22" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="P22" s="5">
-        <v>728.94442477623465</v>
+        <v>1929.87040639</v>
       </c>
       <c r="Q22" s="5">
-        <v>372.51745193670774</v>
+        <v>1131.6002187512499</v>
       </c>
       <c r="R22" s="5">
-        <v>104.45539600115386</v>
+        <v>47.387634336937495</v>
       </c>
       <c r="S22" s="5">
-        <v>1504.1136124773843</v>
+        <v>4175.3527931275003</v>
       </c>
       <c r="T22" s="5">
-        <v>3.0400769258923837</v>
+        <v>3.4829062491675002</v>
       </c>
       <c r="U22" s="5">
-        <v>1736.6132116477979</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>662.50749393532953</v>
+      </c>
+      <c r="V22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3195,8 +3530,29 @@
       <c r="L23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="O23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="5">
+        <v>620.09684596865134</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>434.92403379190273</v>
+      </c>
+      <c r="R23" s="5">
+        <v>98.545750031597308</v>
+      </c>
+      <c r="S23" s="5">
+        <v>1531.654686786</v>
+      </c>
+      <c r="T23" s="5">
+        <v>3.7907973015638374</v>
+      </c>
+      <c r="U23" s="5">
+        <v>1517.5226628650964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>5</v>
       </c>
@@ -3235,7 +3591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3274,7 +3630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3313,7 +3669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3352,7 +3708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>7</v>
       </c>
@@ -3391,7 +3747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>8</v>
       </c>
@@ -3430,7 +3786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>8</v>
       </c>
@@ -3469,7 +3825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>9</v>
       </c>
@@ -3508,7 +3864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>0</v>
       </c>
@@ -4086,7 +4442,7 @@
         <v>3.92000007629</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" ref="K46:K50" si="1">H46-(SUM(F46,G46,I46,J46))</f>
+        <f t="shared" ref="K46:K68" si="1">H46-(SUM(F46,G46,I46,J46))</f>
         <v>8.7560269836099991</v>
       </c>
       <c r="L46" t="s">
@@ -4250,38 +4606,38 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51">
+      <c r="A51" s="9">
         <v>0</v>
       </c>
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="9">
         <v>40</v>
       </c>
-      <c r="E51">
-        <v>1024</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F51" s="9">
         <v>3292.7151110200002</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="9">
         <v>49.669698953599998</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="9">
         <v>5451.5510759400004</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="9">
         <v>1102.5932499999999</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="9">
         <v>3.36800001264</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" ref="K51:K57" si="2">H51-(SUM(F51,G51,I51,J51))</f>
+        <f t="shared" si="1"/>
         <v>1003.2050159537603</v>
       </c>
       <c r="L51" t="s">
@@ -4289,38 +4645,38 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="A52" s="9">
+        <v>1</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="9">
         <v>40</v>
       </c>
-      <c r="E52">
-        <v>1024</v>
-      </c>
-      <c r="F52">
+      <c r="E52" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F52" s="9">
         <v>1510.60332608</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="9">
         <v>49.387537002599998</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="9">
         <v>3526.6359269599998</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="9">
         <v>1031.83825</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="9">
         <v>2.8239999949899999</v>
       </c>
       <c r="K52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>931.98281388240957</v>
       </c>
       <c r="L52" t="s">
@@ -4328,38 +4684,38 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53">
+      <c r="A53" s="9">
         <v>2</v>
       </c>
-      <c r="B53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="9">
         <v>40</v>
       </c>
-      <c r="E53">
-        <v>1024</v>
-      </c>
-      <c r="F53">
+      <c r="E53" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F53" s="9">
         <v>1709.7597661</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="9">
         <v>43.468255042999999</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="9">
         <v>3920.4964511399999</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="9">
         <v>1122.9845</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="9">
         <v>3.15425001383</v>
       </c>
       <c r="K53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1041.1296799831698</v>
       </c>
       <c r="L53" t="s">
@@ -4367,38 +4723,38 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54">
+      <c r="A54" s="9">
         <v>3</v>
       </c>
-      <c r="B54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="9">
         <v>40</v>
       </c>
-      <c r="E54">
-        <v>1024</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F54" s="9">
         <v>2592.2150978999998</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="9">
         <v>49.294908046700002</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="9">
         <v>4692.7860889399999</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="9">
         <v>1036.7059999999999</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="9">
         <v>3.1137499928499999</v>
       </c>
       <c r="K54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1011.4563330004503</v>
       </c>
       <c r="L54" t="s">
@@ -4406,38 +4762,38 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55">
+      <c r="A55" s="9">
         <v>4</v>
       </c>
-      <c r="B55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="9">
         <v>40</v>
       </c>
-      <c r="E55">
-        <v>1024</v>
-      </c>
-      <c r="F55">
+      <c r="E55" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F55" s="9">
         <v>1849.0491790799999</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="9">
         <v>46.814173936800003</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="9">
         <v>4417.4567010399996</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="9">
         <v>1122.83800002</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="9">
         <v>2.8917499959500002</v>
       </c>
       <c r="K55" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1395.8635980072499</v>
       </c>
       <c r="L55" t="s">
@@ -4445,38 +4801,38 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56">
+      <c r="A56" s="9">
         <v>5</v>
       </c>
-      <c r="B56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="9">
         <v>40</v>
       </c>
-      <c r="E56">
-        <v>1024</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F56" s="9">
         <v>1105.9794080300001</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="9">
         <v>46.863272905300001</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="9">
         <v>3702.10813594</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="9">
         <v>1459.53800002</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="9">
         <v>2.2719999671000002</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1087.4554550176003</v>
       </c>
       <c r="L56" t="s">
@@ -4487,8 +4843,8 @@
       <c r="A57">
         <v>6</v>
       </c>
-      <c r="B57" t="s">
-        <v>47</v>
+      <c r="B57" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C57" t="s">
         <v>42</v>
@@ -4515,10 +4871,439 @@
         <v>6.9882500290899996</v>
       </c>
       <c r="K57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1000.7751201542096</v>
       </c>
       <c r="L57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58">
+        <v>40</v>
+      </c>
+      <c r="E58">
+        <v>1024</v>
+      </c>
+      <c r="F58">
+        <v>1968.0598649999999</v>
+      </c>
+      <c r="G58">
+        <v>47.014433860799997</v>
+      </c>
+      <c r="H58">
+        <v>4154.5585520300001</v>
+      </c>
+      <c r="I58">
+        <v>1104.00799998</v>
+      </c>
+      <c r="J58">
+        <v>3.25124998689</v>
+      </c>
+      <c r="K58" s="7">
+        <f t="shared" si="1"/>
+        <v>1032.2250032023103</v>
+      </c>
+      <c r="L58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>1024</v>
+      </c>
+      <c r="F59">
+        <v>157.879931927</v>
+      </c>
+      <c r="G59">
+        <v>59.8729500771</v>
+      </c>
+      <c r="H59">
+        <v>1262.1418469</v>
+      </c>
+      <c r="I59">
+        <v>465.93199999299998</v>
+      </c>
+      <c r="J59">
+        <v>5.4545000255099998</v>
+      </c>
+      <c r="K59" s="7">
+        <f t="shared" si="1"/>
+        <v>573.00246487739003</v>
+      </c>
+      <c r="L59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60">
+        <v>40</v>
+      </c>
+      <c r="E60">
+        <v>1024</v>
+      </c>
+      <c r="F60">
+        <v>167.587552071</v>
+      </c>
+      <c r="G60">
+        <v>93.305170059199995</v>
+      </c>
+      <c r="H60">
+        <v>1325.52337098</v>
+      </c>
+      <c r="I60">
+        <v>480.34525001600002</v>
+      </c>
+      <c r="J60">
+        <v>6.1112500011900002</v>
+      </c>
+      <c r="K60" s="7">
+        <f t="shared" si="1"/>
+        <v>578.17414883260994</v>
+      </c>
+      <c r="L60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>1024</v>
+      </c>
+      <c r="F61">
+        <v>333.38520407700003</v>
+      </c>
+      <c r="G61">
+        <v>81.887583970999998</v>
+      </c>
+      <c r="H61">
+        <v>1521.82496309</v>
+      </c>
+      <c r="I61">
+        <v>549.14025000300001</v>
+      </c>
+      <c r="J61">
+        <v>5.9302499949899996</v>
+      </c>
+      <c r="K61" s="7">
+        <f t="shared" si="1"/>
+        <v>551.48167504400988</v>
+      </c>
+      <c r="L61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62">
+        <v>40</v>
+      </c>
+      <c r="E62">
+        <v>1024</v>
+      </c>
+      <c r="F62">
+        <v>160.991422892</v>
+      </c>
+      <c r="G62">
+        <v>99.748240947699998</v>
+      </c>
+      <c r="H62">
+        <v>1164.8700099</v>
+      </c>
+      <c r="I62">
+        <v>453.257999998</v>
+      </c>
+      <c r="J62">
+        <v>10.2109999955</v>
+      </c>
+      <c r="K62" s="7">
+        <f t="shared" si="1"/>
+        <v>440.66134606680009</v>
+      </c>
+      <c r="L62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63">
+        <v>40</v>
+      </c>
+      <c r="E63">
+        <v>1024</v>
+      </c>
+      <c r="F63">
+        <v>367.39415502499998</v>
+      </c>
+      <c r="G63">
+        <v>82.062947034800004</v>
+      </c>
+      <c r="H63">
+        <v>1349.5291480999999</v>
+      </c>
+      <c r="I63">
+        <v>442.01149998900001</v>
+      </c>
+      <c r="J63">
+        <v>5.60025001168</v>
+      </c>
+      <c r="K63" s="7">
+        <f t="shared" si="1"/>
+        <v>452.4602960395199</v>
+      </c>
+      <c r="L63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64">
+        <v>40</v>
+      </c>
+      <c r="E64">
+        <v>1024</v>
+      </c>
+      <c r="F64">
+        <v>162.182951927</v>
+      </c>
+      <c r="G64">
+        <v>93.295397043199998</v>
+      </c>
+      <c r="H64">
+        <v>1511.1965069800001</v>
+      </c>
+      <c r="I64">
+        <v>691.81049998399999</v>
+      </c>
+      <c r="J64">
+        <v>3.8915000200300001</v>
+      </c>
+      <c r="K64" s="7">
+        <f t="shared" si="1"/>
+        <v>560.01615800577019</v>
+      </c>
+      <c r="L64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65">
+        <v>40</v>
+      </c>
+      <c r="E65">
+        <v>1024</v>
+      </c>
+      <c r="F65">
+        <v>165.01680493399999</v>
+      </c>
+      <c r="G65">
+        <v>91.365287065499999</v>
+      </c>
+      <c r="H65">
+        <v>1431.0721168499999</v>
+      </c>
+      <c r="I65">
+        <v>655.00049999999999</v>
+      </c>
+      <c r="J65">
+        <v>5.1365000188399996</v>
+      </c>
+      <c r="K65" s="7">
+        <f t="shared" si="1"/>
+        <v>514.55302483165997</v>
+      </c>
+      <c r="L65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66">
+        <v>40</v>
+      </c>
+      <c r="E66">
+        <v>1024</v>
+      </c>
+      <c r="F66">
+        <v>173.91448092499999</v>
+      </c>
+      <c r="G66">
+        <v>95.688024997699998</v>
+      </c>
+      <c r="H66">
+        <v>1016.85612583</v>
+      </c>
+      <c r="I66">
+        <v>360.02674998600003</v>
+      </c>
+      <c r="J66">
+        <v>5.0845000147799997</v>
+      </c>
+      <c r="K66" s="7">
+        <f t="shared" si="1"/>
+        <v>382.14236990651989</v>
+      </c>
+      <c r="L66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67">
+        <v>40</v>
+      </c>
+      <c r="E67">
+        <v>1024</v>
+      </c>
+      <c r="F67">
+        <v>170.93446493100001</v>
+      </c>
+      <c r="G67">
+        <v>94.859182119400003</v>
+      </c>
+      <c r="H67">
+        <v>1308.35150099</v>
+      </c>
+      <c r="I67">
+        <v>507.67774998499999</v>
+      </c>
+      <c r="J67">
+        <v>4.0910000264599997</v>
+      </c>
+      <c r="K67" s="7">
+        <f t="shared" si="1"/>
+        <v>530.78910392813987</v>
+      </c>
+      <c r="L67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68">
+        <v>40</v>
+      </c>
+      <c r="E68">
+        <v>1024</v>
+      </c>
+      <c r="F68">
+        <v>163.68142294899999</v>
+      </c>
+      <c r="G68">
+        <v>91.253237962699998</v>
+      </c>
+      <c r="H68">
+        <v>1518.34534502</v>
+      </c>
+      <c r="I68">
+        <v>697.52500001199996</v>
+      </c>
+      <c r="J68">
+        <v>6.4554999887899998</v>
+      </c>
+      <c r="K68" s="7">
+        <f t="shared" si="1"/>
+        <v>559.43018410750994</v>
+      </c>
+      <c r="L68" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4530,6 +5315,9 @@
       </customFilters>
     </filterColumn>
   </autoFilter>
+  <sortState ref="O16:U23">
+    <sortCondition ref="Q18"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
@@ -4543,16 +5331,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L11"/>
+      <selection activeCell="A2" sqref="A2:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -4617,19 +5405,19 @@
         <v>1024</v>
       </c>
       <c r="F2" s="9">
-        <v>803.12535190000006</v>
+        <v>803.12535190599999</v>
       </c>
       <c r="G2" s="9">
-        <v>50.412962909999997</v>
+        <v>50.412962913500003</v>
       </c>
       <c r="H2" s="9">
-        <v>1258.991186</v>
+        <v>1258.9911858999999</v>
       </c>
       <c r="I2" s="9">
-        <v>224.01374999999999</v>
+        <v>224.01374998700001</v>
       </c>
       <c r="J2" s="9">
-        <v>2.7437500359999998</v>
+        <v>2.7437500357600002</v>
       </c>
       <c r="K2" s="10">
         <v>178.7</v>
@@ -4655,19 +5443,19 @@
         <v>1024</v>
       </c>
       <c r="F3" s="9">
-        <v>1014.129175</v>
+        <v>1014.12917495</v>
       </c>
       <c r="G3" s="9">
-        <v>49.989407059999998</v>
+        <v>49.9894070625</v>
       </c>
       <c r="H3" s="9">
-        <v>1427.354409</v>
+        <v>1427.35440898</v>
       </c>
       <c r="I3" s="9">
-        <v>212.36250000000001</v>
+        <v>212.362500012</v>
       </c>
       <c r="J3" s="9">
-        <v>2.8700000050000001</v>
+        <v>2.8700000047700001</v>
       </c>
       <c r="K3" s="10">
         <v>148</v>
@@ -4693,19 +5481,19 @@
         <v>1024</v>
       </c>
       <c r="F4" s="9">
-        <v>1231.611101</v>
+        <v>1231.61110091</v>
       </c>
       <c r="G4" s="9">
-        <v>48.882606029999998</v>
+        <v>48.882606029500003</v>
       </c>
       <c r="H4" s="9">
-        <v>1653.6969349999999</v>
+        <v>1653.6969349399999</v>
       </c>
       <c r="I4" s="9">
-        <v>237.79249999999999</v>
+        <v>237.79249998899999</v>
       </c>
       <c r="J4" s="9">
-        <v>2.047500044</v>
+        <v>2.04750004411</v>
       </c>
       <c r="K4" s="10">
         <v>133.4</v>
@@ -4731,19 +5519,19 @@
         <v>1024</v>
       </c>
       <c r="F5" s="9">
-        <v>3292.715111</v>
+        <v>3292.7151110200002</v>
       </c>
       <c r="G5" s="9">
-        <v>49.669698949999997</v>
+        <v>49.669698953599998</v>
       </c>
       <c r="H5" s="9">
-        <v>5451.5510759999997</v>
+        <v>5451.5510759400004</v>
       </c>
       <c r="I5" s="9">
         <v>1102.5932499999999</v>
       </c>
       <c r="J5" s="9">
-        <v>3.3680000130000001</v>
+        <v>3.36800001264</v>
       </c>
       <c r="K5" s="10">
         <v>1003.2</v>
@@ -4769,19 +5557,19 @@
         <v>1024</v>
       </c>
       <c r="F6" s="9">
-        <v>1510.6033259999999</v>
+        <v>1510.60332608</v>
       </c>
       <c r="G6" s="9">
-        <v>49.387537000000002</v>
+        <v>49.387537002599998</v>
       </c>
       <c r="H6" s="9">
-        <v>3526.6359269999998</v>
+        <v>3526.6359269599998</v>
       </c>
       <c r="I6" s="9">
         <v>1031.83825</v>
       </c>
       <c r="J6" s="9">
-        <v>2.8239999949999999</v>
+        <v>2.8239999949899999</v>
       </c>
       <c r="K6" s="10">
         <v>932</v>
@@ -4807,19 +5595,19 @@
         <v>1024</v>
       </c>
       <c r="F7" s="9">
-        <v>1709.7597659999999</v>
+        <v>1709.7597661</v>
       </c>
       <c r="G7" s="9">
-        <v>43.468255040000003</v>
+        <v>43.468255042999999</v>
       </c>
       <c r="H7" s="9">
-        <v>3920.496451</v>
+        <v>3920.4964511399999</v>
       </c>
       <c r="I7" s="9">
         <v>1122.9845</v>
       </c>
       <c r="J7" s="9">
-        <v>3.154250014</v>
+        <v>3.15425001383</v>
       </c>
       <c r="K7" s="10">
         <v>1041.0999999999999</v>
@@ -4845,19 +5633,19 @@
         <v>1024</v>
       </c>
       <c r="F8" s="9">
-        <v>2592.2150980000001</v>
+        <v>2592.2150978999998</v>
       </c>
       <c r="G8" s="9">
-        <v>49.294908049999997</v>
+        <v>49.294908046700002</v>
       </c>
       <c r="H8" s="9">
-        <v>4692.7860890000002</v>
+        <v>4692.7860889399999</v>
       </c>
       <c r="I8" s="9">
         <v>1036.7059999999999</v>
       </c>
       <c r="J8" s="9">
-        <v>3.1137499929999999</v>
+        <v>3.1137499928499999</v>
       </c>
       <c r="K8" s="10">
         <v>1011.5</v>
@@ -4883,19 +5671,19 @@
         <v>1024</v>
       </c>
       <c r="F9" s="9">
-        <v>1849.0491790000001</v>
+        <v>1849.0491790799999</v>
       </c>
       <c r="G9" s="9">
-        <v>46.814173940000003</v>
+        <v>46.814173936800003</v>
       </c>
       <c r="H9" s="9">
-        <v>4417.4567010000001</v>
+        <v>4417.4567010399996</v>
       </c>
       <c r="I9" s="9">
-        <v>1122.838</v>
+        <v>1122.83800002</v>
       </c>
       <c r="J9" s="9">
-        <v>2.8917499960000002</v>
+        <v>2.8917499959500002</v>
       </c>
       <c r="K9" s="10">
         <v>1395.9</v>
@@ -4921,19 +5709,19 @@
         <v>1024</v>
       </c>
       <c r="F10" s="9">
-        <v>1105.9794079999999</v>
+        <v>1105.9794080300001</v>
       </c>
       <c r="G10" s="9">
-        <v>46.863272909999999</v>
+        <v>46.863272905300001</v>
       </c>
       <c r="H10" s="9">
-        <v>3702.1081359999998</v>
+        <v>3702.10813594</v>
       </c>
       <c r="I10" s="9">
-        <v>1459.538</v>
+        <v>1459.53800002</v>
       </c>
       <c r="J10" s="9">
-        <v>2.2719999670000002</v>
+        <v>2.2719999671000002</v>
       </c>
       <c r="K10" s="10">
         <v>1087.5</v>
@@ -4943,40 +5731,458 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="9">
+      <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>40</v>
       </c>
-      <c r="E11" s="9">
-        <v>1024</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1410.581498</v>
-      </c>
-      <c r="G11" s="9">
-        <v>46.58879495</v>
-      </c>
-      <c r="H11" s="9">
-        <v>3537.229413</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1072.29575</v>
-      </c>
-      <c r="J11" s="9">
-        <v>6.9882500289999996</v>
+      <c r="E11">
+        <v>1024</v>
+      </c>
+      <c r="F11">
+        <v>1410.5814979100001</v>
+      </c>
+      <c r="G11">
+        <v>46.588794946699998</v>
+      </c>
+      <c r="H11">
+        <v>3537.2294130300002</v>
+      </c>
+      <c r="I11">
+        <v>1072.2957499900001</v>
+      </c>
+      <c r="J11">
+        <v>6.9882500290899996</v>
       </c>
       <c r="K11" s="10">
         <v>1000.8</v>
       </c>
       <c r="L11" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>1024</v>
+      </c>
+      <c r="F12">
+        <v>1968.0598649999999</v>
+      </c>
+      <c r="G12">
+        <v>47.014433860799997</v>
+      </c>
+      <c r="H12">
+        <v>4154.5585520300001</v>
+      </c>
+      <c r="I12">
+        <v>1104.00799998</v>
+      </c>
+      <c r="J12">
+        <v>3.25124998689</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1001.8</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>1024</v>
+      </c>
+      <c r="F13">
+        <v>157.879931927</v>
+      </c>
+      <c r="G13">
+        <v>59.8729500771</v>
+      </c>
+      <c r="H13">
+        <v>1262.1418469</v>
+      </c>
+      <c r="I13">
+        <v>465.93199999299998</v>
+      </c>
+      <c r="J13">
+        <v>5.4545000255099998</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1002.8</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>1024</v>
+      </c>
+      <c r="F14">
+        <v>167.587552071</v>
+      </c>
+      <c r="G14">
+        <v>93.305170059199995</v>
+      </c>
+      <c r="H14">
+        <v>1325.52337098</v>
+      </c>
+      <c r="I14">
+        <v>480.34525001600002</v>
+      </c>
+      <c r="J14">
+        <v>6.1112500011900002</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1003.8</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>1024</v>
+      </c>
+      <c r="F15">
+        <v>333.38520407700003</v>
+      </c>
+      <c r="G15">
+        <v>81.887583970999998</v>
+      </c>
+      <c r="H15">
+        <v>1521.82496309</v>
+      </c>
+      <c r="I15">
+        <v>549.14025000300001</v>
+      </c>
+      <c r="J15">
+        <v>5.9302499949899996</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1004.8</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>1024</v>
+      </c>
+      <c r="F16">
+        <v>160.991422892</v>
+      </c>
+      <c r="G16">
+        <v>99.748240947699998</v>
+      </c>
+      <c r="H16">
+        <v>1164.8700099</v>
+      </c>
+      <c r="I16">
+        <v>453.257999998</v>
+      </c>
+      <c r="J16">
+        <v>10.2109999955</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1005.8</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>1024</v>
+      </c>
+      <c r="F17">
+        <v>367.39415502499998</v>
+      </c>
+      <c r="G17">
+        <v>82.062947034800004</v>
+      </c>
+      <c r="H17">
+        <v>1349.5291480999999</v>
+      </c>
+      <c r="I17">
+        <v>442.01149998900001</v>
+      </c>
+      <c r="J17">
+        <v>5.60025001168</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1006.8</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>1024</v>
+      </c>
+      <c r="F18">
+        <v>162.182951927</v>
+      </c>
+      <c r="G18">
+        <v>93.295397043199998</v>
+      </c>
+      <c r="H18">
+        <v>1511.1965069800001</v>
+      </c>
+      <c r="I18">
+        <v>691.81049998399999</v>
+      </c>
+      <c r="J18">
+        <v>3.8915000200300001</v>
+      </c>
+      <c r="K18" s="10">
+        <v>1007.8</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>1024</v>
+      </c>
+      <c r="F19">
+        <v>165.01680493399999</v>
+      </c>
+      <c r="G19">
+        <v>91.365287065499999</v>
+      </c>
+      <c r="H19">
+        <v>1431.0721168499999</v>
+      </c>
+      <c r="I19">
+        <v>655.00049999999999</v>
+      </c>
+      <c r="J19">
+        <v>5.1365000188399996</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1008.8</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>1024</v>
+      </c>
+      <c r="F20">
+        <v>173.91448092499999</v>
+      </c>
+      <c r="G20">
+        <v>95.688024997699998</v>
+      </c>
+      <c r="H20">
+        <v>1016.85612583</v>
+      </c>
+      <c r="I20">
+        <v>360.02674998600003</v>
+      </c>
+      <c r="J20">
+        <v>5.0845000147799997</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1009.8</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>1024</v>
+      </c>
+      <c r="F21">
+        <v>170.93446493100001</v>
+      </c>
+      <c r="G21">
+        <v>94.859182119400003</v>
+      </c>
+      <c r="H21">
+        <v>1308.35150099</v>
+      </c>
+      <c r="I21">
+        <v>507.67774998499999</v>
+      </c>
+      <c r="J21">
+        <v>4.0910000264599997</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1010.8</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>1024</v>
+      </c>
+      <c r="F22">
+        <v>163.68142294899999</v>
+      </c>
+      <c r="G22">
+        <v>91.253237962699998</v>
+      </c>
+      <c r="H22">
+        <v>1518.34534502</v>
+      </c>
+      <c r="I22">
+        <v>697.52500001199996</v>
+      </c>
+      <c r="J22">
+        <v>6.4554999887899998</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1011.8</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>43</v>
       </c>
     </row>

--- a/papers/ccpe-cloud12/performance/pd.xlsx
+++ b/papers/ccpe-cloud12/performance/pd.xlsx
@@ -4,23 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="50480" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44060" windowHeight="28320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1 CU" sheetId="1" r:id="rId1"/>
     <sheet name="n CUs" sheetId="2" r:id="rId2"/>
+    <sheet name="scratch" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 CU'!$A$1:$L$31</definedName>
-    <definedName name="pd" localSheetId="0">'1 CU'!$A$1:$J$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 CU'!$A$1:$L$76</definedName>
+    <definedName name="pd" localSheetId="0">'1 CU'!$A$1:$J$29</definedName>
+    <definedName name="pd" localSheetId="2">scratch!$A$1:$J$45</definedName>
     <definedName name="pd_multi_cu" localSheetId="1">'n CUs'!$A$1:$J$1</definedName>
-    <definedName name="pd_multi_cu_1" localSheetId="0">'1 CU'!$A$51:$J$68</definedName>
+    <definedName name="pd_multi_cu_1" localSheetId="0">'1 CU'!$A$49:$J$66</definedName>
     <definedName name="pd_multi_cu_1" localSheetId="1">'n CUs'!$A$2:$J$22</definedName>
-    <definedName name="pd_random" localSheetId="0">'1 CU'!$A$32:$J$45</definedName>
+    <definedName name="pd_multi_cu_2" localSheetId="1">'n CUs'!$A$29:$J$53</definedName>
+    <definedName name="pd_random" localSheetId="0">'1 CU'!$A$30:$J$43</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -64,7 +67,23 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="pd_random.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="pd_multi_cu.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_multi_cu.txt" comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="pd_random.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_random.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -80,8 +99,24 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="pd.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="pd.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd.csv" comma="1" qualifier="none">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="pd.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd.csv" comma="1">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -100,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="65">
   <si>
     <t>Run</t>
   </si>
@@ -237,9 +272,6 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>FutureGrid</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
@@ -252,12 +284,55 @@
     <t>Amazon (Multi CU)</t>
   </si>
   <si>
-    <t>Amazon
+    <t>Google 
 (40 CUs)</t>
   </si>
   <si>
-    <t>Google 
-(40 CUs)</t>
+    <t>s3://pilot-data-3e3b4368-f9c1-11e1-aef1-00215ec9e3ac</t>
+  </si>
+  <si>
+    <t>nthreads=4</t>
+  </si>
+  <si>
+    <t>nthreads=8</t>
+  </si>
+  <si>
+    <t>qtime</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU </t>
+  </si>
+  <si>
+    <t>euca+ssh://149.165.146.135:8773/services/Eucalyptus</t>
+  </si>
+  <si>
+    <t>walrus://149.165.146.135/pilot-data-ce26c50c-f1a5-11e1-a0c8-e61f1322a75c</t>
+  </si>
+  <si>
+    <t>runtime0</t>
+  </si>
+  <si>
+    <t>gs://pilot-data-16341850-f4f2-11e1-9649-00215ec9e3ac</t>
+  </si>
+  <si>
+    <t>ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-ecd0c59c-fa57-11e1-b8c6-00215ec9e3ac</t>
+  </si>
+  <si>
+    <t>Euca/SSH</t>
+  </si>
+  <si>
+    <t>FutureGrid (Walrus)</t>
+  </si>
+  <si>
+    <t>FutureGrid  
+(SSH)</t>
+  </si>
+  <si>
+    <t>Amazon 
+(40 Cus)</t>
   </si>
 </sst>
 </file>
@@ -333,8 +408,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -384,7 +479,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="51">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -400,6 +495,16 @@
     <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -415,39 +520,19 @@
     <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -490,7 +575,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1 CU'!$P$17</c:f>
+              <c:f>'1 CU'!$P$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,22 +595,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1 CU'!$N$18:$N$22</c:f>
+              <c:f>'1 CU'!$N$17:$N$22</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FutureGrid</c:v>
+                  <c:v>FutureGrid (Walrus)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>FutureGrid  _x000d_(SSH)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Amazon</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Amazon _x000d_(40 Cus)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Google</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Amazon_x000d_(40 CUs)</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Google _x000d_(40 CUs)</c:v>
                 </c:pt>
               </c:strCache>
@@ -533,23 +621,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1 CU'!$P$18:$P$22</c:f>
+              <c:f>'1 CU'!$P$17:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>21.72547779082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220.7107000827</c:v>
+                  <c:v>124.3677881957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>791.47931707025</c:v>
+                  <c:v>192.8592719078</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>202.2968391658</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1004.747153429</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1929.87040639</c:v>
                 </c:pt>
               </c:numCache>
@@ -561,7 +652,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1 CU'!$Q$17</c:f>
+              <c:f>'1 CU'!$Q$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -581,22 +672,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1 CU'!$N$18:$N$22</c:f>
+              <c:f>'1 CU'!$N$17:$N$22</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FutureGrid</c:v>
+                  <c:v>FutureGrid (Walrus)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>FutureGrid  _x000d_(SSH)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Amazon</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Amazon _x000d_(40 Cus)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Google</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Amazon_x000d_(40 CUs)</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Google _x000d_(40 CUs)</c:v>
                 </c:pt>
               </c:strCache>
@@ -604,23 +698,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1 CU'!$Q$18:$Q$22</c:f>
+              <c:f>'1 CU'!$Q$17:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>15.09400000574</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.47700002196</c:v>
+                  <c:v>29.68300004006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.105000019025</c:v>
+                  <c:v>107.690000021475</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>530.2727499966</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>89.16000001246154</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1131.60021875125</c:v>
                 </c:pt>
               </c:numCache>
@@ -632,7 +729,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1 CU'!$R$17</c:f>
+              <c:f>'1 CU'!$R$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -655,48 +752,54 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'1 CU'!$U$18:$U$22</c:f>
+                <c:f>'1 CU'!$U$17:$U$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>227.927464658313</c:v>
+                    <c:v>227.9274646583128</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>211.5752818356189</c:v>
+                    <c:v>62.49732102108953</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>836.5967639974622</c:v>
+                    <c:v>149.250454951162</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>164.9635304236692</c:v>
+                    <c:v>164.9635304236679</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>662.5074939353295</c:v>
+                    <c:v>646.5100845441304</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>662.5074939353328</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'1 CU'!$U$18:$U$22</c:f>
+                <c:f>'1 CU'!$U$17:$U$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>227.927464658313</c:v>
+                    <c:v>227.9274646583128</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>211.5752818356189</c:v>
+                    <c:v>62.49732102108953</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>836.5967639974622</c:v>
+                    <c:v>149.250454951162</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>164.9635304236692</c:v>
+                    <c:v>164.9635304236679</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>662.5074939353295</c:v>
+                    <c:v>646.5100845441304</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>662.5074939353328</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -713,22 +816,25 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'1 CU'!$N$18:$N$22</c:f>
+              <c:f>'1 CU'!$N$17:$N$22</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FutureGrid</c:v>
+                  <c:v>FutureGrid (Walrus)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>FutureGrid  _x000d_(SSH)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Amazon</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Amazon _x000d_(40 Cus)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Google</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Amazon_x000d_(40 CUs)</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Google _x000d_(40 CUs)</c:v>
                 </c:pt>
               </c:strCache>
@@ -736,23 +842,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1 CU'!$R$18:$R$22</c:f>
+              <c:f>'1 CU'!$R$17:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>302.40736880304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.09683890342998</c:v>
+                  <c:v>424.4536504031001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.68710553645</c:v>
+                  <c:v>73.41946123839</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.33380212783</c:v>
+                  <c:v>88.33380212783001</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>35.04635275326154</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>47.38763433693749</c:v>
                 </c:pt>
               </c:numCache>
@@ -764,7 +873,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1 CU'!$T$17</c:f>
+              <c:f>'1 CU'!$T$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -781,22 +890,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1 CU'!$N$18:$N$22</c:f>
+              <c:f>'1 CU'!$N$17:$N$22</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FutureGrid</c:v>
+                  <c:v>FutureGrid (Walrus)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>FutureGrid  _x000d_(SSH)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Amazon</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Amazon _x000d_(40 Cus)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Google</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Amazon_x000d_(40 CUs)</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Google _x000d_(40 CUs)</c:v>
                 </c:pt>
               </c:strCache>
@@ -804,23 +916,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1 CU'!$T$18:$T$22</c:f>
+              <c:f>'1 CU'!$T$17:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.776000022888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2009999990462</c:v>
+                  <c:v>1.998999977111326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1349999904625</c:v>
+                  <c:v>4.5090000033386</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.796625009777</c:v>
+                  <c:v>5.796625009777001</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.699999992664076</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.4829062491675</c:v>
                 </c:pt>
               </c:numCache>
@@ -837,11 +952,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2120688792"/>
-        <c:axId val="2120691848"/>
+        <c:axId val="2088559944"/>
+        <c:axId val="2088563000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120688792"/>
+        <c:axId val="2088559944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +975,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120691848"/>
+        <c:crossAx val="2088563000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -868,7 +983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120691848"/>
+        <c:axId val="2088563000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,13 +1023,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120688792"/>
+        <c:crossAx val="2088559944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
@@ -951,13 +1066,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -981,21 +1096,22 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41160.662873379631" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="67">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41161.655624189814" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="75">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L68" sheet="1 CU"/>
+    <worksheetSource ref="A1:K76" sheet="1 CU"/>
   </cacheSource>
-  <cacheFields count="12">
+  <cacheFields count="11">
     <cacheField name="Run" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
     </cacheField>
     <cacheField name="PC" numFmtId="0">
-      <sharedItems count="5">
+      <sharedItems count="6">
         <s v="ec2+ssh://aws.amazon.com/"/>
         <s v="gce+ssh://google.com"/>
         <s v="euca://india.futuregrid.org"/>
         <s v="Google (Multi CU)"/>
         <s v="Amazon (Multi CU)"/>
+        <s v="Euca/SSH"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PD" numFmtId="0">
@@ -1026,13 +1142,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1" maxValue="11.7300000191"/>
     </cacheField>
     <cacheField name="Delta Runtime" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.1093659396300382" maxValue="1395.8635980072499"/>
-    </cacheField>
-    <cacheField name="Remark" numFmtId="0">
-      <sharedItems count="2">
-        <s v="/dev/zero"/>
-        <s v="/dev/urandom"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.2436988342367385" maxValue="1395.8635980072499"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1044,7 +1154,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="67">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="75">
   <r>
     <n v="0"/>
     <x v="0"/>
@@ -1057,21 +1167,6 @@
     <n v="116.230000019"/>
     <n v="4.4500000476799997"/>
     <n v="14.560280084419958"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <x v="0"/>
-    <s v="s3://pilot-data-b00a7cc4-f21a-11e1-b9a4-e61f1322a75c"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="631.78733897200004"/>
-    <n v="80.188972949999993"/>
-    <n v="845.18161511400001"/>
-    <n v="120.150000095"/>
-    <n v="5.1199998855600004"/>
-    <n v="7.9353032114399866"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -1085,7 +1180,6 @@
     <n v="13.599999904600001"/>
     <n v="4.17000007629"/>
     <n v="13.367931842810009"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -1099,7 +1193,6 @@
     <n v="15.2100000381"/>
     <n v="4.1400001049000004"/>
     <n v="7.8964829443000042"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -1113,7 +1206,6 @@
     <n v="17.7699999809"/>
     <n v="1.1800000667599999"/>
     <n v="8.2398309710400071"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -1127,7 +1219,6 @@
     <n v="9.4400000572200007"/>
     <n v="1.09999990463"/>
     <n v="8.6135549540499596"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="1"/>
@@ -1141,7 +1232,6 @@
     <n v="13.5399999619"/>
     <n v="-1"/>
     <n v="12.644558906100002"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="1"/>
@@ -1155,7 +1245,6 @@
     <n v="16.4100000858"/>
     <n v="4.5699999332400001"/>
     <n v="8.2077400683599819"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="2"/>
@@ -1169,7 +1258,6 @@
     <n v="16.650000095399999"/>
     <n v="5.1299998760200003"/>
     <n v="13.430824041380006"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="2"/>
@@ -1183,7 +1271,6 @@
     <n v="17.849999904600001"/>
     <n v="3.09000015259"/>
     <n v="8.253701925309997"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="3"/>
@@ -1197,7 +1284,6 @@
     <n v="11.8100001812"/>
     <n v="1.1699998378800001"/>
     <n v="8.1793749331200019"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -1211,7 +1297,6 @@
     <n v="100.49000001"/>
     <n v="5.92000007629"/>
     <n v="13.109730719809988"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -1225,7 +1310,6 @@
     <n v="69.259999990500006"/>
     <n v="3.9700000286099999"/>
     <n v="8.1437099005897835"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="1"/>
@@ -1239,7 +1323,6 @@
     <n v="103.910000086"/>
     <n v="5.1999998092700004"/>
     <n v="8.4392030238299753"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="1"/>
@@ -1253,21 +1336,6 @@
     <n v="80.5"/>
     <n v="1.61000013351"/>
     <n v="7.3199648849899859"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="s3://pilot-data-3a616460-f445-11e1-9100-00215ec9e3ac"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="315.39937710800001"/>
-    <n v="84.239410877200001"/>
-    <n v="607.498153925"/>
-    <n v="197.910000086"/>
-    <n v="2.8399999141699999"/>
-    <n v="7.1093659396300382"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="2"/>
@@ -1281,7 +1349,6 @@
     <n v="51.3399999142"/>
     <n v="3.2999999523199999"/>
     <n v="8.6895410985800936"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="3"/>
@@ -1295,7 +1362,6 @@
     <n v="110.230000019"/>
     <n v="11.7300000191"/>
     <n v="7.6052060126000356"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="3"/>
@@ -1309,7 +1375,6 @@
     <n v="52.799999952299999"/>
     <n v="3.9300000667599999"/>
     <n v="8.6064710611399278"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="4"/>
@@ -1323,7 +1388,6 @@
     <n v="105.130000114"/>
     <n v="5.7599999904599999"/>
     <n v="14.680315971239963"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="4"/>
@@ -1337,7 +1401,6 @@
     <n v="51.090000152599998"/>
     <n v="1.84999990463"/>
     <n v="8.3644220831702114"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="5"/>
@@ -1351,7 +1414,6 @@
     <n v="97.380000114400005"/>
     <n v="6.7599999904599999"/>
     <n v="7.3524658679399977"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="5"/>
@@ -1365,7 +1427,6 @@
     <n v="100.359999895"/>
     <n v="3.9900000095400001"/>
     <n v="7.1515111900603188"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="6"/>
@@ -1379,7 +1440,6 @@
     <n v="98.759999990500006"/>
     <n v="5.1900000572199998"/>
     <n v="7.5511209967799573"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="6"/>
@@ -1393,7 +1453,6 @@
     <n v="56.420000076299999"/>
     <n v="4.0599999427800002"/>
     <n v="8.8604111671199917"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="7"/>
@@ -1407,7 +1466,6 @@
     <n v="110.730000019"/>
     <n v="5.8199999332400001"/>
     <n v="15.025970935559997"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="7"/>
@@ -1421,7 +1479,6 @@
     <n v="56.350000143099997"/>
     <n v="0.78999996185300003"/>
     <n v="8.1836228370469826"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="8"/>
@@ -1435,7 +1492,6 @@
     <n v="102.25"/>
     <n v="1.84000015259"/>
     <n v="7.4114298826100367"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="8"/>
@@ -1449,7 +1505,6 @@
     <n v="84.539999961899994"/>
     <n v="3.0599999427800002"/>
     <n v="7.8331091400200421"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="9"/>
@@ -1463,7 +1518,6 @@
     <n v="103.919999838"/>
     <n v="5.5"/>
     <n v="8.0995032785000376"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -1477,7 +1531,6 @@
     <n v="57.149999856900003"/>
     <n v="3.2900002002700002"/>
     <n v="8.8520209790299873"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="1"/>
@@ -1491,7 +1544,6 @@
     <n v="45.920000076299999"/>
     <n v="2.9800000190699998"/>
     <n v="8.3799438480299955"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="2"/>
@@ -1505,7 +1557,6 @@
     <n v="55.349999904599997"/>
     <n v="4.4600000381499996"/>
     <n v="13.464279890249998"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="3"/>
@@ -1519,7 +1570,6 @@
     <n v="87.0400002003"/>
     <n v="1.9199998378800001"/>
     <n v="8.4689979554199795"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="4"/>
@@ -1533,7 +1583,6 @@
     <n v="121.110000134"/>
     <n v="0.68999981880200001"/>
     <n v="7.7552559369980258"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="5"/>
@@ -1547,7 +1596,6 @@
     <n v="409.81999993300002"/>
     <n v="1.5300002098100001"/>
     <n v="7.195799828289978"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="6"/>
@@ -1561,7 +1609,6 @@
     <n v="107.370000124"/>
     <n v="4.6799998283399997"/>
     <n v="7.4545691015600255"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="7"/>
@@ -1575,7 +1622,6 @@
     <n v="46.210000038099999"/>
     <n v="2.0699999332400001"/>
     <n v="9.0046410557599188"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="8"/>
@@ -1589,7 +1635,6 @@
     <n v="53.029999971400002"/>
     <n v="5.75"/>
     <n v="8.5464332107000018"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="9"/>
@@ -1603,7 +1648,6 @@
     <n v="121.769999981"/>
     <n v="4.6400001049000004"/>
     <n v="7.1577849386000025"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="0"/>
@@ -1617,7 +1661,6 @@
     <n v="29.759999990499999"/>
     <n v="1.7799999713900001"/>
     <n v="37.796485900610037"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="2"/>
@@ -1631,7 +1674,6 @@
     <n v="22.180000066800002"/>
     <n v="3.6600000858300001"/>
     <n v="13.38279771806998"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="5"/>
@@ -1645,7 +1687,6 @@
     <n v="455.17000007600001"/>
     <n v="1.0699999332400001"/>
     <n v="11.669551839959695"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="6"/>
@@ -1659,7 +1700,6 @@
     <n v="49.309999942799998"/>
     <n v="2.0299999713900001"/>
     <n v="11.131675958610003"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="1"/>
@@ -1673,7 +1713,6 @@
     <n v="18.379999875999999"/>
     <n v="3.92000007629"/>
     <n v="8.7560269836099991"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="2"/>
@@ -1687,7 +1726,6 @@
     <n v="14.9800000191"/>
     <n v="1.44000005722"/>
     <n v="8.629621744480005"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="3"/>
@@ -1701,7 +1739,6 @@
     <n v="13.9300000668"/>
     <n v="1.6699998378799998"/>
     <n v="7.4500191220200236"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="4"/>
@@ -1715,7 +1752,6 @@
     <n v="14.170000076299999"/>
     <n v="4.3199999332400001"/>
     <n v="8.5761549470599903"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="5"/>
@@ -1729,7 +1765,6 @@
     <n v="14.009999990500001"/>
     <n v="2.5300002098099998"/>
     <n v="8.5227568143899362"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="0"/>
@@ -1743,7 +1778,6 @@
     <n v="1102.5932499999999"/>
     <n v="3.36800001264"/>
     <n v="1003.2050159537603"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="1"/>
@@ -1757,7 +1791,6 @@
     <n v="1031.83825"/>
     <n v="2.8239999949899999"/>
     <n v="931.98281388240957"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="2"/>
@@ -1771,7 +1804,6 @@
     <n v="1122.9845"/>
     <n v="3.15425001383"/>
     <n v="1041.1296799831698"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="3"/>
@@ -1785,7 +1817,6 @@
     <n v="1036.7059999999999"/>
     <n v="3.1137499928499999"/>
     <n v="1011.4563330004503"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="4"/>
@@ -1799,7 +1830,6 @@
     <n v="1122.83800002"/>
     <n v="2.8917499959500002"/>
     <n v="1395.8635980072499"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="5"/>
@@ -1813,7 +1843,6 @@
     <n v="1459.53800002"/>
     <n v="2.2719999671000002"/>
     <n v="1087.4554550176003"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="6"/>
@@ -1827,7 +1856,6 @@
     <n v="1072.2957499900001"/>
     <n v="6.9882500290899996"/>
     <n v="1000.7751201542096"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="7"/>
@@ -1841,7 +1869,6 @@
     <n v="1104.00799998"/>
     <n v="3.25124998689"/>
     <n v="1032.2250032023103"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="0"/>
@@ -1855,7 +1882,6 @@
     <n v="465.93199999299998"/>
     <n v="5.4545000255099998"/>
     <n v="573.00246487739003"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="1"/>
@@ -1869,7 +1895,6 @@
     <n v="480.34525001600002"/>
     <n v="6.1112500011900002"/>
     <n v="578.17414883260994"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="2"/>
@@ -1883,7 +1908,6 @@
     <n v="549.14025000300001"/>
     <n v="5.9302499949899996"/>
     <n v="551.48167504400988"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="3"/>
@@ -1897,7 +1921,6 @@
     <n v="453.257999998"/>
     <n v="10.2109999955"/>
     <n v="440.66134606680009"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="4"/>
@@ -1911,7 +1934,6 @@
     <n v="442.01149998900001"/>
     <n v="5.60025001168"/>
     <n v="452.4602960395199"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="5"/>
@@ -1925,7 +1947,6 @@
     <n v="691.81049998399999"/>
     <n v="3.8915000200300001"/>
     <n v="560.01615800577019"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="6"/>
@@ -1939,7 +1960,6 @@
     <n v="655.00049999999999"/>
     <n v="5.1365000188399996"/>
     <n v="514.55302483165997"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="7"/>
@@ -1953,7 +1973,6 @@
     <n v="360.02674998600003"/>
     <n v="5.0845000147799997"/>
     <n v="382.14236990651989"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="8"/>
@@ -1967,7 +1986,6 @@
     <n v="507.67774998499999"/>
     <n v="4.0910000264599997"/>
     <n v="530.78910392813987"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="9"/>
@@ -1981,22 +1999,152 @@
     <n v="697.52500001199996"/>
     <n v="6.4554999887899998"/>
     <n v="559.43018410750994"/>
-    <x v="1"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-ecd0c59c-fa57-11e1-b8c6-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.625741959"/>
+    <n v="406.30978512799999"/>
+    <n v="558.12237095800003"/>
+    <n v="22.990000009500001"/>
+    <n v="3.65999984741"/>
+    <n v="2.536844014090093"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-ecd0c59c-fa57-11e1-b8c6-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.455549955"/>
+    <n v="368.07666397100002"/>
+    <n v="511.69023394599998"/>
+    <n v="19.190000057199999"/>
+    <n v="0.37000012397799997"/>
+    <n v="1.5980198388219833"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-ecd0c59c-fa57-11e1-b8c6-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="123.313658953"/>
+    <n v="441.78992700600003"/>
+    <n v="634.44569206200003"/>
+    <n v="64.230000019100004"/>
+    <n v="2.4500000476800001"/>
+    <n v="2.6621060362200524"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-ecd0c59c-fa57-11e1-b8c6-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.516154051"/>
+    <n v="420.93793296799998"/>
+    <n v="581.68988704699996"/>
+    <n v="29.419999837900001"/>
+    <n v="4.9500000476799997"/>
+    <n v="3.8658001424199711"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-ecd0c59c-fa57-11e1-b8c6-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.230736971"/>
+    <n v="477.67605185500003"/>
+    <n v="630.133245945"/>
+    <n v="26.600000143100001"/>
+    <n v="0.88999986648600005"/>
+    <n v="2.736457109413891"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-ecd0c59c-fa57-11e1-b8c6-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.937199116"/>
+    <n v="488.21469998399999"/>
+    <n v="634.325598001"/>
+    <n v="21.920000076299999"/>
+    <n v="9.9999904632600001E-3"/>
+    <n v="1.2436988342367385"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-ecd0c59c-fa57-11e1-b8c6-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="130.94049096099999"/>
+    <n v="385.66926407800003"/>
+    <n v="563.85909795800001"/>
+    <n v="41.470000028599998"/>
+    <n v="3.2400000095400001"/>
+    <n v="2.5393428808599765"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-ecd0c59c-fa57-11e1-b8c6-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="131.086699009"/>
+    <n v="357.81737399100001"/>
+    <n v="518.10444998699995"/>
+    <n v="25.350000143100001"/>
+    <n v="1.2799999713900001"/>
+    <n v="2.5703768725098826"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-ecd0c59c-fa57-11e1-b8c6-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.829023838"/>
+    <n v="352.59382700899999"/>
+    <n v="506.61129689199998"/>
+    <n v="26.75"/>
+    <n v="2.5299999713900001"/>
+    <n v="1.90844607360998"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-ecd0c59c-fa57-11e1-b8c6-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.742627144"/>
+    <n v="545.45097804099998"/>
+    <n v="690.387247086"/>
+    <n v="18.9100000858"/>
+    <n v="0.60999989509600006"/>
+    <n v="2.6736419201039325"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" rowHeaderCaption="" fieldListSortAscending="1">
-  <location ref="O16:U23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" rowHeaderCaption="" fieldListSortAscending="1">
+  <location ref="O15:U23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="11">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="2"/>
+        <item x="5"/>
         <item x="0"/>
+        <item x="4"/>
         <item x="1"/>
-        <item x="4"/>
         <item x="3"/>
         <item t="default"/>
       </items>
@@ -2016,17 +2164,11 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="1"/>
-        <item h="1" x="0"/>
-      </items>
-    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -2041,6 +2183,9 @@
     </i>
     <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -2069,9 +2214,8 @@
       <x v="5"/>
     </i>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="1">
     <pageField fld="4" hier="-1"/>
-    <pageField fld="11" hier="-1"/>
   </pageFields>
   <dataFields count="6">
     <dataField name="Upload (FG - Cloud Storage)" fld="5" subtotal="average" baseField="0" baseItem="0"/>
@@ -2082,7 +2226,7 @@
     <dataField name="STABW - Total Runtime" fld="7" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="11">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2096,23 +2240,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2437,11 +2589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2464,7 +2615,7 @@
     <col min="21" max="21" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2541,7 +2692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2549,38 +2700,38 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="F3" s="5">
-        <v>631.78733897200004</v>
+        <v>32.281590938599997</v>
       </c>
       <c r="G3" s="5">
-        <v>80.188972949999993</v>
+        <v>53.9475212097</v>
       </c>
       <c r="H3" s="5">
-        <v>845.18161511400001</v>
+        <v>117.367043972</v>
       </c>
       <c r="I3" s="5">
-        <v>120.150000095</v>
+        <v>13.599999904600001</v>
       </c>
       <c r="J3" s="5">
-        <v>5.1199998855600004</v>
+        <v>4.17000007629</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K45" si="0">H3-(SUM(F3,G3,I3,J3))</f>
-        <v>7.9353032114399866</v>
+        <f t="shared" ref="K3:K15" si="0">H3-(SUM(F3,G3,I3,J3))</f>
+        <v>13.367931842810009</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2588,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2597,29 +2748,29 @@
         <v>128</v>
       </c>
       <c r="F4" s="5">
-        <v>32.281590938599997</v>
+        <v>17.992821216599999</v>
       </c>
       <c r="G4" s="5">
-        <v>53.9475212097</v>
+        <v>75.546770811100004</v>
       </c>
       <c r="H4" s="5">
-        <v>117.367043972</v>
+        <v>120.786075115</v>
       </c>
       <c r="I4" s="5">
-        <v>13.599999904600001</v>
+        <v>15.2100000381</v>
       </c>
       <c r="J4" s="5">
-        <v>4.17000007629</v>
+        <v>4.1400001049000004</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" si="0"/>
-        <v>13.367931842810009</v>
+        <v>7.8964829443000042</v>
       </c>
       <c r="L4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2627,7 +2778,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2636,37 +2787,37 @@
         <v>128</v>
       </c>
       <c r="F5" s="5">
-        <v>17.992821216599999</v>
+        <v>19.408075094200001</v>
       </c>
       <c r="G5" s="5">
-        <v>75.546770811100004</v>
+        <v>74.8276648521</v>
       </c>
       <c r="H5" s="5">
-        <v>120.786075115</v>
+        <v>121.42557096500001</v>
       </c>
       <c r="I5" s="5">
-        <v>15.2100000381</v>
+        <v>17.7699999809</v>
       </c>
       <c r="J5" s="5">
-        <v>4.1400001049000004</v>
+        <v>1.1800000667599999</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="0"/>
-        <v>7.8964829443000042</v>
+        <v>8.2398309710400071</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2675,37 +2826,37 @@
         <v>128</v>
       </c>
       <c r="F6" s="5">
-        <v>19.408075094200001</v>
+        <v>126.943170071</v>
       </c>
       <c r="G6" s="5">
-        <v>74.8276648521</v>
+        <v>34.313523054100003</v>
       </c>
       <c r="H6" s="5">
-        <v>121.42557096500001</v>
+        <v>180.41024804099999</v>
       </c>
       <c r="I6" s="5">
-        <v>17.7699999809</v>
+        <v>9.4400000572200007</v>
       </c>
       <c r="J6" s="5">
-        <v>1.1800000667599999</v>
+        <v>1.09999990463</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="0"/>
-        <v>8.2398309710400071</v>
+        <v>8.6135549540499596</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:21">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2714,37 +2865,37 @@
         <v>128</v>
       </c>
       <c r="F7" s="5">
-        <v>126.943170071</v>
+        <v>20.925189018200001</v>
       </c>
       <c r="G7" s="5">
-        <v>34.313523054100003</v>
+        <v>76.314666032800005</v>
       </c>
       <c r="H7" s="5">
-        <v>180.41024804099999</v>
+        <v>122.424413919</v>
       </c>
       <c r="I7" s="5">
-        <v>9.4400000572200007</v>
+        <v>13.5399999619</v>
       </c>
       <c r="J7" s="5">
-        <v>1.09999990463</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="0"/>
-        <v>8.6135549540499596</v>
+        <v>12.644558906100002</v>
       </c>
       <c r="L7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2753,37 +2904,37 @@
         <v>128</v>
       </c>
       <c r="F8" s="5">
-        <v>20.925189018200001</v>
+        <v>91.188610076900005</v>
       </c>
       <c r="G8" s="5">
-        <v>76.314666032800005</v>
+        <v>38.8096108437</v>
       </c>
       <c r="H8" s="5">
-        <v>122.424413919</v>
+        <v>159.18596100799999</v>
       </c>
       <c r="I8" s="5">
-        <v>13.5399999619</v>
+        <v>16.4100000858</v>
       </c>
       <c r="J8" s="5">
-        <v>-1</v>
+        <v>4.5699999332400001</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="0"/>
-        <v>12.644558906100002</v>
+        <v>8.2077400683599819</v>
       </c>
       <c r="L8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:21">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2792,37 +2943,37 @@
         <v>128</v>
       </c>
       <c r="F9" s="5">
-        <v>91.188610076900005</v>
+        <v>19.852886915199999</v>
       </c>
       <c r="G9" s="5">
-        <v>38.8096108437</v>
+        <v>44.359246015499998</v>
       </c>
       <c r="H9" s="5">
-        <v>159.18596100799999</v>
+        <v>99.422956943499997</v>
       </c>
       <c r="I9" s="5">
-        <v>16.4100000858</v>
+        <v>16.650000095399999</v>
       </c>
       <c r="J9" s="5">
-        <v>4.5699999332400001</v>
+        <v>5.1299998760200003</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="0"/>
-        <v>8.2077400683599819</v>
+        <v>13.430824041380006</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2831,37 +2982,37 @@
         <v>128</v>
       </c>
       <c r="F10" s="5">
-        <v>19.852886915199999</v>
+        <v>93.417258977900005</v>
       </c>
       <c r="G10" s="5">
-        <v>44.359246015499998</v>
+        <v>34.373111009600002</v>
       </c>
       <c r="H10" s="5">
-        <v>99.422956943499997</v>
+        <v>156.98407197</v>
       </c>
       <c r="I10" s="5">
-        <v>16.650000095399999</v>
+        <v>17.849999904600001</v>
       </c>
       <c r="J10" s="5">
-        <v>5.1299998760200003</v>
+        <v>3.09000015259</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="0"/>
-        <v>13.430824041380006</v>
+        <v>8.253701925309997</v>
       </c>
       <c r="L10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:21">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2870,76 +3021,76 @@
         <v>128</v>
       </c>
       <c r="F11" s="5">
-        <v>93.417258977900005</v>
+        <v>38.531898021700002</v>
       </c>
       <c r="G11" s="5">
-        <v>34.373111009600002</v>
+        <v>70.455085039099998</v>
       </c>
       <c r="H11" s="5">
-        <v>156.98407197</v>
+        <v>130.146358013</v>
       </c>
       <c r="I11" s="5">
-        <v>17.849999904600001</v>
+        <v>11.8100001812</v>
       </c>
       <c r="J11" s="5">
-        <v>3.09000015259</v>
+        <v>1.1699998378800001</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="0"/>
-        <v>8.253701925309997</v>
+        <v>8.1793749331200019</v>
       </c>
       <c r="L11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:21">
       <c r="A12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F12" s="5">
-        <v>38.531898021700002</v>
+        <v>164.963943005</v>
       </c>
       <c r="G12" s="5">
-        <v>70.455085039099998</v>
+        <v>49.645243167899999</v>
       </c>
       <c r="H12" s="5">
-        <v>130.146358013</v>
+        <v>334.128916979</v>
       </c>
       <c r="I12" s="5">
-        <v>11.8100001812</v>
+        <v>100.49000001</v>
       </c>
       <c r="J12" s="5">
-        <v>1.1699998378800001</v>
+        <v>5.92000007629</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="0"/>
-        <v>8.1793749331200019</v>
+        <v>13.109730719809988</v>
       </c>
       <c r="L12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2948,23 +3099,23 @@
         <v>1024</v>
       </c>
       <c r="F13" s="5">
-        <v>164.963943005</v>
+        <v>1856.70376205</v>
       </c>
       <c r="G13" s="5">
-        <v>49.645243167899999</v>
+        <v>38.092552900299999</v>
       </c>
       <c r="H13" s="5">
-        <v>334.128916979</v>
+        <v>1976.1700248699999</v>
       </c>
       <c r="I13" s="5">
-        <v>100.49000001</v>
+        <v>69.259999990500006</v>
       </c>
       <c r="J13" s="5">
-        <v>5.92000007629</v>
+        <v>3.9700000286099999</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="0"/>
-        <v>13.109730719809988</v>
+        <v>8.1437099005897835</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -2976,15 +3127,15 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:21">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2993,43 +3144,37 @@
         <v>1024</v>
       </c>
       <c r="F14" s="5">
-        <v>1856.70376205</v>
+        <v>185.32842993700001</v>
       </c>
       <c r="G14" s="5">
-        <v>38.092552900299999</v>
+        <v>85.434698104899994</v>
       </c>
       <c r="H14" s="5">
-        <v>1976.1700248699999</v>
+        <v>388.31233096099999</v>
       </c>
       <c r="I14" s="5">
-        <v>69.259999990500006</v>
+        <v>103.910000086</v>
       </c>
       <c r="J14" s="5">
-        <v>3.9700000286099999</v>
+        <v>5.1999998092700004</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="0"/>
-        <v>8.1437099005897835</v>
+        <v>8.4392030238299753</v>
       </c>
       <c r="L14" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3038,31 +3183,34 @@
         <v>1024</v>
       </c>
       <c r="F15" s="5">
-        <v>185.32842993700001</v>
+        <v>692.01664090199995</v>
       </c>
       <c r="G15" s="5">
-        <v>85.434698104899994</v>
+        <v>34.557440042499998</v>
       </c>
       <c r="H15" s="5">
-        <v>388.31233096099999</v>
+        <v>816.00404596299995</v>
       </c>
       <c r="I15" s="5">
-        <v>103.910000086</v>
+        <v>80.5</v>
       </c>
       <c r="J15" s="5">
-        <v>5.1999998092700004</v>
+        <v>1.61000013351</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="0"/>
-        <v>8.4392030238299753</v>
+        <v>7.3199648849899859</v>
       </c>
       <c r="L15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -3077,34 +3225,52 @@
         <v>1024</v>
       </c>
       <c r="F16" s="5">
-        <v>692.01664090199995</v>
+        <v>1744.1008632200001</v>
       </c>
       <c r="G16" s="5">
-        <v>34.557440042499998</v>
+        <v>35.336174964900003</v>
       </c>
       <c r="H16" s="5">
-        <v>816.00404596299995</v>
+        <v>1842.7665791500001</v>
       </c>
       <c r="I16" s="5">
-        <v>80.5</v>
+        <v>51.3399999142</v>
       </c>
       <c r="J16" s="5">
-        <v>1.61000013351</v>
+        <v>3.2999999523199999</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="0"/>
-        <v>7.3199648849899859</v>
+        <f>H16-(SUM(F16,G16,I16,J16))</f>
+        <v>8.6895410985800936</v>
       </c>
       <c r="L16" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>18</v>
+      <c r="O16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -3119,52 +3285,58 @@
         <v>1024</v>
       </c>
       <c r="F17" s="5">
-        <v>315.39937710800001</v>
+        <v>157.73092603699999</v>
       </c>
       <c r="G17" s="5">
-        <v>84.239410877200001</v>
+        <v>86.861287832299993</v>
       </c>
       <c r="H17" s="5">
-        <v>607.498153925</v>
+        <v>374.15741992</v>
       </c>
       <c r="I17" s="5">
-        <v>197.910000086</v>
+        <v>110.230000019</v>
       </c>
       <c r="J17" s="5">
-        <v>2.8399999141699999</v>
+        <v>11.7300000191</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="0"/>
-        <v>7.1093659396300382</v>
+        <f>H17-(SUM(F17,G17,I17,J17))</f>
+        <v>7.6052060126000356</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" t="s">
-        <v>24</v>
-      </c>
-      <c r="T17" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="N17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="5">
+        <v>21.725477790819998</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>15.09400000574</v>
+      </c>
+      <c r="R17" s="5">
+        <v>302.40736880303996</v>
+      </c>
+      <c r="S17" s="5">
+        <v>350.38976254479996</v>
+      </c>
+      <c r="T17" s="5">
+        <v>2.7760000228879997</v>
+      </c>
+      <c r="U17" s="5">
+        <v>227.92746465831283</v>
+      </c>
+      <c r="V17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="30">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -3179,50 +3351,50 @@
         <v>1024</v>
       </c>
       <c r="F18" s="5">
-        <v>1744.1008632200001</v>
+        <v>711.83364296000002</v>
       </c>
       <c r="G18" s="5">
-        <v>35.336174964900003</v>
+        <v>38.574496030799999</v>
       </c>
       <c r="H18" s="5">
-        <v>1842.7665791500001</v>
+        <v>815.74461007100001</v>
       </c>
       <c r="I18" s="5">
-        <v>51.3399999142</v>
+        <v>52.799999952299999</v>
       </c>
       <c r="J18" s="5">
-        <v>3.2999999523199999</v>
+        <v>3.9300000667599999</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="0"/>
-        <v>8.6895410985800936</v>
+        <f>H18-(SUM(F18,G18,I18,J18))</f>
+        <v>8.6064710611399278</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="N18" t="s">
-        <v>45</v>
+      <c r="N18" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="P18" s="5">
-        <v>21.725477790820001</v>
+        <v>124.3677881957</v>
       </c>
       <c r="Q18" s="5">
-        <v>15.09400000574</v>
+        <v>29.683000040060005</v>
       </c>
       <c r="R18" s="5">
-        <v>302.40736880303996</v>
+        <v>424.45365040310008</v>
       </c>
       <c r="S18" s="5">
-        <v>350.38976254479996</v>
+        <v>582.93691198819999</v>
       </c>
       <c r="T18" s="5">
-        <v>2.7760000228879997</v>
+        <v>1.9989999771113258</v>
       </c>
       <c r="U18" s="5">
-        <v>227.92746465831291</v>
+        <v>62.497321021089526</v>
       </c>
       <c r="V18" s="5">
         <v>3</v>
@@ -3230,7 +3402,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -3245,23 +3417,23 @@
         <v>1024</v>
       </c>
       <c r="F19" s="5">
-        <v>157.73092603699999</v>
+        <v>159.88556003599999</v>
       </c>
       <c r="G19" s="5">
-        <v>86.861287832299993</v>
+        <v>44.3581089973</v>
       </c>
       <c r="H19" s="5">
-        <v>374.15741992</v>
+        <v>329.81398510899999</v>
       </c>
       <c r="I19" s="5">
-        <v>110.230000019</v>
+        <v>105.130000114</v>
       </c>
       <c r="J19" s="5">
-        <v>11.7300000191</v>
+        <v>5.7599999904599999</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="0"/>
-        <v>7.6052060126000356</v>
+        <f>H19-(SUM(F19,G19,I19,J19))</f>
+        <v>14.680315971239963</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -3273,30 +3445,30 @@
         <v>7</v>
       </c>
       <c r="P19" s="5">
-        <v>220.71070008269999</v>
+        <v>192.85927190780004</v>
       </c>
       <c r="Q19" s="5">
-        <v>110.47700002196</v>
+        <v>107.690000021475</v>
       </c>
       <c r="R19" s="5">
-        <v>74.096838903429983</v>
+        <v>73.419461238389999</v>
       </c>
       <c r="S19" s="5">
-        <v>417.11351168160002</v>
+        <v>387.98348084689997</v>
       </c>
       <c r="T19" s="5">
-        <v>3.2009999990461999</v>
+        <v>4.5090000033386</v>
       </c>
       <c r="U19" s="5">
-        <v>211.57528183561894</v>
+        <v>149.250454951162</v>
       </c>
       <c r="V19" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" ht="30">
       <c r="A20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -3311,58 +3483,58 @@
         <v>1024</v>
       </c>
       <c r="F20" s="5">
-        <v>711.83364296000002</v>
+        <v>712.20381307599996</v>
       </c>
       <c r="G20" s="5">
-        <v>38.574496030799999</v>
+        <v>35.784937858600003</v>
       </c>
       <c r="H20" s="5">
-        <v>815.74461007100001</v>
+        <v>809.29317307500003</v>
       </c>
       <c r="I20" s="5">
-        <v>52.799999952299999</v>
+        <v>51.090000152599998</v>
       </c>
       <c r="J20" s="5">
-        <v>3.9300000667599999</v>
+        <v>1.84999990463</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="0"/>
-        <v>8.6064710611399278</v>
+        <f>H20-(SUM(F20,G20,I20,J20))</f>
+        <v>8.3644220831702114</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="N20" t="s">
-        <v>46</v>
+      <c r="N20" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="P20" s="5">
-        <v>791.47931707024998</v>
+        <v>202.29683916580001</v>
       </c>
       <c r="Q20" s="5">
-        <v>139.105000019025</v>
+        <v>530.27274999660006</v>
       </c>
       <c r="R20" s="5">
-        <v>32.687105536450005</v>
+        <v>88.333802127830012</v>
       </c>
       <c r="S20" s="5">
-        <v>983.90155047050007</v>
+        <v>1340.971093464</v>
       </c>
       <c r="T20" s="5">
-        <v>2.1349999904625001</v>
+        <v>5.7966250097770011</v>
       </c>
       <c r="U20" s="5">
-        <v>836.59676399746229</v>
+        <v>164.96353042366795</v>
       </c>
       <c r="V20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -3377,50 +3549,50 @@
         <v>1024</v>
       </c>
       <c r="F21" s="5">
-        <v>159.88556003599999</v>
+        <v>167.37656402600001</v>
       </c>
       <c r="G21" s="5">
-        <v>44.3581089973</v>
+        <v>83.876055002200005</v>
       </c>
       <c r="H21" s="5">
-        <v>329.81398510899999</v>
+        <v>362.74508500100001</v>
       </c>
       <c r="I21" s="5">
-        <v>105.130000114</v>
+        <v>97.380000114400005</v>
       </c>
       <c r="J21" s="5">
-        <v>5.7599999904599999</v>
+        <v>6.7599999904599999</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="0"/>
-        <v>14.680315971239963</v>
+        <f>H21-(SUM(F21,G21,I21,J21))</f>
+        <v>7.3524658679399977</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="P21" s="5">
-        <v>202.29683916580001</v>
+        <v>1004.747153429</v>
       </c>
       <c r="Q21" s="5">
-        <v>530.27274999660006</v>
+        <v>89.160000012461538</v>
       </c>
       <c r="R21" s="5">
-        <v>88.333802127829998</v>
+        <v>35.046352753261537</v>
       </c>
       <c r="S21" s="5">
-        <v>1340.971093464</v>
+        <v>1142.9714504012304</v>
       </c>
       <c r="T21" s="5">
-        <v>5.7966250097770002</v>
+        <v>2.6999999926640763</v>
       </c>
       <c r="U21" s="5">
-        <v>164.9635304236692</v>
+        <v>646.51008454413045</v>
       </c>
       <c r="V21" s="5">
         <v>4</v>
@@ -3428,7 +3600,7 @@
     </row>
     <row r="22" spans="1:22" ht="30">
       <c r="A22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -3443,32 +3615,32 @@
         <v>1024</v>
       </c>
       <c r="F22" s="5">
-        <v>712.20381307599996</v>
+        <v>2002.243119</v>
       </c>
       <c r="G22" s="5">
-        <v>35.784937858600003</v>
+        <v>40.4865391254</v>
       </c>
       <c r="H22" s="5">
-        <v>809.29317307500003</v>
+        <v>2154.2311692200001</v>
       </c>
       <c r="I22" s="5">
-        <v>51.090000152599998</v>
+        <v>100.359999895</v>
       </c>
       <c r="J22" s="5">
-        <v>1.84999990463</v>
+        <v>3.9900000095400001</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3644220831702114</v>
+        <f>H22-(SUM(F22,G22,I22,J22))</f>
+        <v>7.1515111900603188</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P22" s="5">
         <v>1929.87040639</v>
@@ -3480,21 +3652,21 @@
         <v>47.387634336937495</v>
       </c>
       <c r="S22" s="5">
-        <v>4175.3527931275003</v>
+        <v>4175.3527931274994</v>
       </c>
       <c r="T22" s="5">
-        <v>3.4829062491675002</v>
+        <v>3.4829062491674998</v>
       </c>
       <c r="U22" s="5">
-        <v>662.50749393532953</v>
+        <v>662.50749393533283</v>
       </c>
       <c r="V22" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -3509,23 +3681,23 @@
         <v>1024</v>
       </c>
       <c r="F23" s="5">
-        <v>167.37656402600001</v>
+        <v>162.53147912</v>
       </c>
       <c r="G23" s="5">
-        <v>83.876055002200005</v>
+        <v>82.347364902500004</v>
       </c>
       <c r="H23" s="5">
-        <v>362.74508500100001</v>
+        <v>356.379965067</v>
       </c>
       <c r="I23" s="5">
-        <v>97.380000114400005</v>
+        <v>98.759999990500006</v>
       </c>
       <c r="J23" s="5">
-        <v>6.7599999904599999</v>
+        <v>5.1900000572199998</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="0"/>
-        <v>7.3524658679399977</v>
+        <f>H23-(SUM(F23,G23,I23,J23))</f>
+        <v>7.5511209967799573</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
@@ -3534,27 +3706,27 @@
         <v>17</v>
       </c>
       <c r="P23" s="5">
-        <v>620.09684596865134</v>
+        <v>541.41114161245616</v>
       </c>
       <c r="Q23" s="5">
-        <v>434.92403379190273</v>
+        <v>273.34407956055753</v>
       </c>
       <c r="R23" s="5">
-        <v>98.545750031597308</v>
+        <v>135.5000644633364</v>
       </c>
       <c r="S23" s="5">
-        <v>1531.654686786</v>
+        <v>1166.8507527942422</v>
       </c>
       <c r="T23" s="5">
-        <v>3.7907973015638374</v>
+        <v>3.7118106052737616</v>
       </c>
       <c r="U23" s="5">
-        <v>1517.5226628650964</v>
+        <v>1244.024348571588</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -3569,23 +3741,23 @@
         <v>1024</v>
       </c>
       <c r="F24" s="5">
-        <v>2002.243119</v>
+        <v>713.629225969</v>
       </c>
       <c r="G24" s="5">
-        <v>40.4865391254</v>
+        <v>34.643714904799999</v>
       </c>
       <c r="H24" s="5">
-        <v>2154.2311692200001</v>
+        <v>817.61335206000001</v>
       </c>
       <c r="I24" s="5">
-        <v>100.359999895</v>
+        <v>56.420000076299999</v>
       </c>
       <c r="J24" s="5">
-        <v>3.9900000095400001</v>
+        <v>4.0599999427800002</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="0"/>
-        <v>7.1515111900603188</v>
+        <f>H24-(SUM(F24,G24,I24,J24))</f>
+        <v>8.8604111671199917</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
@@ -3593,7 +3765,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -3608,23 +3780,23 @@
         <v>1024</v>
       </c>
       <c r="F25" s="5">
-        <v>162.53147912</v>
+        <v>158.08333611500001</v>
       </c>
       <c r="G25" s="5">
-        <v>82.347364902500004</v>
+        <v>49.553355932199999</v>
       </c>
       <c r="H25" s="5">
-        <v>356.379965067</v>
+        <v>339.21266293500003</v>
       </c>
       <c r="I25" s="5">
-        <v>98.759999990500006</v>
+        <v>110.730000019</v>
       </c>
       <c r="J25" s="5">
-        <v>5.1900000572199998</v>
+        <v>5.8199999332400001</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="0"/>
-        <v>7.5511209967799573</v>
+        <f>H25-(SUM(F25,G25,I25,J25))</f>
+        <v>15.025970935559997</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
@@ -3632,7 +3804,7 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -3647,23 +3819,23 @@
         <v>1024</v>
       </c>
       <c r="F26" s="5">
-        <v>713.629225969</v>
+        <v>754.98489308399996</v>
       </c>
       <c r="G26" s="5">
-        <v>34.643714904799999</v>
+        <v>34.906085967999999</v>
       </c>
       <c r="H26" s="5">
-        <v>817.61335206000001</v>
+        <v>855.21460199399996</v>
       </c>
       <c r="I26" s="5">
-        <v>56.420000076299999</v>
+        <v>56.350000143099997</v>
       </c>
       <c r="J26" s="5">
-        <v>4.0599999427800002</v>
+        <v>0.78999996185300003</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="0"/>
-        <v>8.8604111671199917</v>
+        <f>H26-(SUM(F26,G26,I26,J26))</f>
+        <v>8.1836228370469826</v>
       </c>
       <c r="L26" t="s">
         <v>23</v>
@@ -3671,7 +3843,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -3686,23 +3858,23 @@
         <v>1024</v>
       </c>
       <c r="F27" s="5">
-        <v>158.08333611500001</v>
+        <v>171.67495202999999</v>
       </c>
       <c r="G27" s="5">
-        <v>49.553355932199999</v>
+        <v>94.932879924800005</v>
       </c>
       <c r="H27" s="5">
-        <v>339.21266293500003</v>
+        <v>378.10926198999999</v>
       </c>
       <c r="I27" s="5">
-        <v>110.730000019</v>
+        <v>102.25</v>
       </c>
       <c r="J27" s="5">
-        <v>5.8199999332400001</v>
+        <v>1.84000015259</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="0"/>
-        <v>15.025970935559997</v>
+        <f>H27-(SUM(F27,G27,I27,J27))</f>
+        <v>7.4114298826100367</v>
       </c>
       <c r="L27" t="s">
         <v>23</v>
@@ -3710,7 +3882,7 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -3725,23 +3897,23 @@
         <v>1024</v>
       </c>
       <c r="F28" s="5">
-        <v>754.98489308399996</v>
+        <v>708.07976603500003</v>
       </c>
       <c r="G28" s="5">
-        <v>34.906085967999999</v>
+        <v>32.472221851299999</v>
       </c>
       <c r="H28" s="5">
-        <v>855.21460199399996</v>
+        <v>835.98509693100004</v>
       </c>
       <c r="I28" s="5">
-        <v>56.350000143099997</v>
+        <v>84.539999961899994</v>
       </c>
       <c r="J28" s="5">
-        <v>0.78999996185300003</v>
+        <v>3.0599999427800002</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="0"/>
-        <v>8.1836228370469826</v>
+        <f>H28-(SUM(F28,G28,I28,J28))</f>
+        <v>7.8331091400200421</v>
       </c>
       <c r="L28" t="s">
         <v>23</v>
@@ -3749,7 +3921,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -3764,23 +3936,23 @@
         <v>1024</v>
       </c>
       <c r="F29" s="5">
-        <v>171.67495202999999</v>
+        <v>159.795846939</v>
       </c>
       <c r="G29" s="5">
-        <v>94.932879924800005</v>
+        <v>82.0572190285</v>
       </c>
       <c r="H29" s="5">
-        <v>378.10926198999999</v>
+        <v>359.37256908400002</v>
       </c>
       <c r="I29" s="5">
-        <v>102.25</v>
+        <v>103.919999838</v>
       </c>
       <c r="J29" s="5">
-        <v>1.84000015259</v>
+        <v>5.5</v>
       </c>
       <c r="K29" s="7">
-        <f t="shared" si="0"/>
-        <v>7.4114298826100367</v>
+        <f>H29-(SUM(F29,G29,I29,J29))</f>
+        <v>8.0995032785000376</v>
       </c>
       <c r="L29" t="s">
         <v>23</v>
@@ -3788,13 +3960,13 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3802,38 +3974,38 @@
       <c r="E30">
         <v>1024</v>
       </c>
-      <c r="F30" s="5">
-        <v>708.07976603500003</v>
-      </c>
-      <c r="G30" s="5">
-        <v>32.472221851299999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>835.98509693100004</v>
-      </c>
-      <c r="I30" s="5">
-        <v>84.539999961899994</v>
-      </c>
-      <c r="J30" s="5">
-        <v>3.0599999427800002</v>
+      <c r="F30">
+        <v>153.41368102999999</v>
+      </c>
+      <c r="G30">
+        <v>43.968811988799999</v>
+      </c>
+      <c r="H30">
+        <v>266.67451405499997</v>
+      </c>
+      <c r="I30">
+        <v>57.149999856900003</v>
+      </c>
+      <c r="J30">
+        <v>3.2900002002700002</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="0"/>
-        <v>7.8331091400200421</v>
+        <f>H30-(SUM(F30,G30,I30,J30))</f>
+        <v>8.8520209790299873</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3841,32 +4013,32 @@
       <c r="E31">
         <v>1024</v>
       </c>
-      <c r="F31" s="5">
-        <v>159.795846939</v>
-      </c>
-      <c r="G31" s="5">
-        <v>82.0572190285</v>
-      </c>
-      <c r="H31" s="5">
-        <v>359.37256908400002</v>
-      </c>
-      <c r="I31" s="5">
-        <v>103.919999838</v>
-      </c>
-      <c r="J31" s="5">
-        <v>5.5</v>
+      <c r="F31">
+        <v>167.724998951</v>
+      </c>
+      <c r="G31">
+        <v>76.002597093600002</v>
+      </c>
+      <c r="H31">
+        <v>301.00753998800002</v>
+      </c>
+      <c r="I31">
+        <v>45.920000076299999</v>
+      </c>
+      <c r="J31">
+        <v>2.9800000190699998</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="0"/>
-        <v>8.0995032785000376</v>
+        <f>H31-(SUM(F31,G31,I31,J31))</f>
+        <v>8.3799438480299955</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -3881,23 +4053,23 @@
         <v>1024</v>
       </c>
       <c r="F32">
-        <v>153.41368102999999</v>
+        <v>155.02358794200001</v>
       </c>
       <c r="G32">
-        <v>43.968811988799999</v>
+        <v>50.976006030999997</v>
       </c>
       <c r="H32">
-        <v>266.67451405499997</v>
+        <v>279.27387380599998</v>
       </c>
       <c r="I32">
-        <v>57.149999856900003</v>
+        <v>55.349999904599997</v>
       </c>
       <c r="J32">
-        <v>3.2900002002700002</v>
+        <v>4.4600000381499996</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="0"/>
-        <v>8.8520209790299873</v>
+        <f>H32-(SUM(F32,G32,I32,J32))</f>
+        <v>13.464279890249998</v>
       </c>
       <c r="L32" t="s">
         <v>31</v>
@@ -3905,7 +4077,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -3920,23 +4092,23 @@
         <v>1024</v>
       </c>
       <c r="F33">
-        <v>167.724998951</v>
+        <v>175.75231814399999</v>
       </c>
       <c r="G33">
-        <v>76.002597093600002</v>
+        <v>44.699809074400001</v>
       </c>
       <c r="H33">
-        <v>301.00753998800002</v>
+        <v>317.88112521199997</v>
       </c>
       <c r="I33">
-        <v>45.920000076299999</v>
+        <v>87.0400002003</v>
       </c>
       <c r="J33">
-        <v>2.9800000190699998</v>
+        <v>1.9199998378800001</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3799438480299955</v>
+        <f>H33-(SUM(F33,G33,I33,J33))</f>
+        <v>8.4689979554199795</v>
       </c>
       <c r="L33" t="s">
         <v>31</v>
@@ -3944,7 +4116,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -3959,23 +4131,23 @@
         <v>1024</v>
       </c>
       <c r="F34">
-        <v>155.02358794200001</v>
+        <v>159.14578890799999</v>
       </c>
       <c r="G34">
-        <v>50.976006030999997</v>
+        <v>82.960606098200003</v>
       </c>
       <c r="H34">
-        <v>279.27387380599998</v>
+        <v>371.66165089600003</v>
       </c>
       <c r="I34">
-        <v>55.349999904599997</v>
+        <v>121.110000134</v>
       </c>
       <c r="J34">
-        <v>4.4600000381499996</v>
+        <v>0.68999981880200001</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="0"/>
-        <v>13.464279890249998</v>
+        <f>H34-(SUM(F34,G34,I34,J34))</f>
+        <v>7.7552559369980258</v>
       </c>
       <c r="L34" t="s">
         <v>31</v>
@@ -3983,7 +4155,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -3998,23 +4170,23 @@
         <v>1024</v>
       </c>
       <c r="F35">
-        <v>175.75231814399999</v>
+        <v>179.50864315000001</v>
       </c>
       <c r="G35">
-        <v>44.699809074400001</v>
+        <v>82.362717866899999</v>
       </c>
       <c r="H35">
-        <v>317.88112521199997</v>
+        <v>680.41716098799998</v>
       </c>
       <c r="I35">
-        <v>87.0400002003</v>
+        <v>409.81999993300002</v>
       </c>
       <c r="J35">
-        <v>1.9199998378800001</v>
+        <v>1.5300002098100001</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="0"/>
-        <v>8.4689979554199795</v>
+        <f>H35-(SUM(F35,G35,I35,J35))</f>
+        <v>7.195799828289978</v>
       </c>
       <c r="L35" t="s">
         <v>31</v>
@@ -4022,7 +4194,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -4037,23 +4209,23 @@
         <v>1024</v>
       </c>
       <c r="F36">
-        <v>159.14578890799999</v>
+        <v>159.794485807</v>
       </c>
       <c r="G36">
-        <v>82.960606098200003</v>
+        <v>82.955249071099999</v>
       </c>
       <c r="H36">
-        <v>371.66165089600003</v>
+        <v>362.25430393200003</v>
       </c>
       <c r="I36">
-        <v>121.110000134</v>
+        <v>107.370000124</v>
       </c>
       <c r="J36">
-        <v>0.68999981880200001</v>
+        <v>4.6799998283399997</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="0"/>
-        <v>7.7552559369980258</v>
+        <f>H36-(SUM(F36,G36,I36,J36))</f>
+        <v>7.4545691015600255</v>
       </c>
       <c r="L36" t="s">
         <v>31</v>
@@ -4061,7 +4233,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -4076,23 +4248,23 @@
         <v>1024</v>
       </c>
       <c r="F37">
-        <v>179.50864315000001</v>
+        <v>164.00699496300001</v>
       </c>
       <c r="G37">
-        <v>82.362717866899999</v>
+        <v>94.192369937899997</v>
       </c>
       <c r="H37">
-        <v>680.41716098799998</v>
+        <v>315.48400592799999</v>
       </c>
       <c r="I37">
-        <v>409.81999993300002</v>
+        <v>46.210000038099999</v>
       </c>
       <c r="J37">
-        <v>1.5300002098100001</v>
+        <v>2.0699999332400001</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="0"/>
-        <v>7.195799828289978</v>
+        <f>H37-(SUM(F37,G37,I37,J37))</f>
+        <v>9.0046410557599188</v>
       </c>
       <c r="L37" t="s">
         <v>31</v>
@@ -4100,7 +4272,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -4115,23 +4287,23 @@
         <v>1024</v>
       </c>
       <c r="F38">
-        <v>159.794485807</v>
+        <v>201.021460056</v>
       </c>
       <c r="G38">
-        <v>82.955249071099999</v>
+        <v>91.1538639069</v>
       </c>
       <c r="H38">
-        <v>362.25430393200003</v>
+        <v>359.501757145</v>
       </c>
       <c r="I38">
-        <v>107.370000124</v>
+        <v>53.029999971400002</v>
       </c>
       <c r="J38">
-        <v>4.6799998283399997</v>
+        <v>5.75</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="0"/>
-        <v>7.4545691015600255</v>
+        <f>H38-(SUM(F38,G38,I38,J38))</f>
+        <v>8.5464332107000018</v>
       </c>
       <c r="L38" t="s">
         <v>31</v>
@@ -4139,7 +4311,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -4154,23 +4326,23 @@
         <v>1024</v>
       </c>
       <c r="F39">
-        <v>164.00699496300001</v>
+        <v>691.71504187599999</v>
       </c>
       <c r="G39">
-        <v>94.192369937899997</v>
+        <v>91.696357965499999</v>
       </c>
       <c r="H39">
-        <v>315.48400592799999</v>
+        <v>916.97918486599997</v>
       </c>
       <c r="I39">
-        <v>46.210000038099999</v>
+        <v>121.769999981</v>
       </c>
       <c r="J39">
-        <v>2.0699999332400001</v>
+        <v>4.6400001049000004</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" si="0"/>
-        <v>9.0046410557599188</v>
+        <f>H39-(SUM(F39,G39,I39,J39))</f>
+        <v>7.1577849386000025</v>
       </c>
       <c r="L39" t="s">
         <v>31</v>
@@ -4178,13 +4350,13 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4193,23 +4365,23 @@
         <v>1024</v>
       </c>
       <c r="F40">
-        <v>201.021460056</v>
+        <v>326.00109910999998</v>
       </c>
       <c r="G40">
-        <v>91.1538639069</v>
+        <v>29.4648599625</v>
       </c>
       <c r="H40">
-        <v>359.501757145</v>
+        <v>424.80244493499998</v>
       </c>
       <c r="I40">
-        <v>53.029999971400002</v>
+        <v>29.759999990499999</v>
       </c>
       <c r="J40">
-        <v>5.75</v>
+        <v>1.7799999713900001</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="0"/>
-        <v>8.5464332107000018</v>
+        <f>H40-(SUM(F40,G40,I40,J40))</f>
+        <v>37.796485900610037</v>
       </c>
       <c r="L40" t="s">
         <v>31</v>
@@ -4217,13 +4389,13 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4232,23 +4404,23 @@
         <v>1024</v>
       </c>
       <c r="F41">
-        <v>691.71504187599999</v>
+        <v>408.57445120800003</v>
       </c>
       <c r="G41">
-        <v>91.696357965499999</v>
+        <v>32.547425985300002</v>
       </c>
       <c r="H41">
-        <v>916.97918486599997</v>
+        <v>480.344675064</v>
       </c>
       <c r="I41">
-        <v>121.769999981</v>
+        <v>22.180000066800002</v>
       </c>
       <c r="J41">
-        <v>4.6400001049000004</v>
+        <v>3.6600000858300001</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="0"/>
-        <v>7.1577849386000025</v>
+        <f>H41-(SUM(F41,G41,I41,J41))</f>
+        <v>13.38279771806998</v>
       </c>
       <c r="L41" t="s">
         <v>31</v>
@@ -4256,13 +4428,13 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4271,23 +4443,23 @@
         <v>1024</v>
       </c>
       <c r="F42">
-        <v>326.00109910999998</v>
+        <v>1708.15698195</v>
       </c>
       <c r="G42">
-        <v>29.4648599625</v>
+        <v>35.188234090800002</v>
       </c>
       <c r="H42">
-        <v>424.80244493499998</v>
+        <v>2211.25476789</v>
       </c>
       <c r="I42">
-        <v>29.759999990499999</v>
+        <v>455.17000007600001</v>
       </c>
       <c r="J42">
-        <v>1.7799999713900001</v>
+        <v>1.0699999332400001</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="0"/>
-        <v>37.796485900610037</v>
+        <f>H42-(SUM(F42,G42,I42,J42))</f>
+        <v>11.669551839959695</v>
       </c>
       <c r="L42" t="s">
         <v>31</v>
@@ -4295,13 +4467,13 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4310,23 +4482,23 @@
         <v>1024</v>
       </c>
       <c r="F43">
-        <v>408.57445120800003</v>
+        <v>723.18473601300002</v>
       </c>
       <c r="G43">
-        <v>32.547425985300002</v>
+        <v>33.547902107200002</v>
       </c>
       <c r="H43">
-        <v>480.344675064</v>
+        <v>819.20431399300003</v>
       </c>
       <c r="I43">
-        <v>22.180000066800002</v>
+        <v>49.309999942799998</v>
       </c>
       <c r="J43">
-        <v>3.6600000858300001</v>
+        <v>2.0299999713900001</v>
       </c>
       <c r="K43" s="7">
-        <f t="shared" si="0"/>
-        <v>13.38279771806998</v>
+        <f>H43-(SUM(F43,G43,I43,J43))</f>
+        <v>11.131675958610003</v>
       </c>
       <c r="L43" t="s">
         <v>31</v>
@@ -4334,13 +4506,13 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4349,23 +4521,23 @@
         <v>1024</v>
       </c>
       <c r="F44">
-        <v>1708.15698195</v>
+        <v>29.707263946499999</v>
       </c>
       <c r="G44">
-        <v>35.188234090800002</v>
+        <v>64.187892198599997</v>
       </c>
       <c r="H44">
-        <v>2211.25476789</v>
+        <v>124.951183081</v>
       </c>
       <c r="I44">
-        <v>455.17000007600001</v>
+        <v>18.379999875999999</v>
       </c>
       <c r="J44">
-        <v>1.0699999332400001</v>
+        <v>3.92000007629</v>
       </c>
       <c r="K44" s="7">
-        <f t="shared" si="0"/>
-        <v>11.669551839959695</v>
+        <f t="shared" ref="K44:K66" si="1">H44-(SUM(F44,G44,I44,J44))</f>
+        <v>8.7560269836099991</v>
       </c>
       <c r="L44" t="s">
         <v>31</v>
@@ -4373,13 +4545,13 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4388,23 +4560,23 @@
         <v>1024</v>
       </c>
       <c r="F45">
-        <v>723.18473601300002</v>
+        <v>23.4599649906</v>
       </c>
       <c r="G45">
-        <v>33.547902107200002</v>
+        <v>53.7772819996</v>
       </c>
       <c r="H45">
-        <v>819.20431399300003</v>
+        <v>102.28686881100001</v>
       </c>
       <c r="I45">
-        <v>49.309999942799998</v>
+        <v>14.9800000191</v>
       </c>
       <c r="J45">
-        <v>2.0299999713900001</v>
+        <v>1.44000005722</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" si="0"/>
-        <v>11.131675958610003</v>
+        <f t="shared" si="1"/>
+        <v>8.629621744480005</v>
       </c>
       <c r="L45" t="s">
         <v>31</v>
@@ -4412,7 +4584,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -4427,23 +4599,23 @@
         <v>1024</v>
       </c>
       <c r="F46">
-        <v>29.707263946499999</v>
+        <v>16.788008928300002</v>
       </c>
       <c r="G46">
-        <v>64.187892198599997</v>
+        <v>377.41170692399999</v>
       </c>
       <c r="H46">
-        <v>124.951183081</v>
+        <v>417.24973487900002</v>
       </c>
       <c r="I46">
-        <v>18.379999875999999</v>
+        <v>13.9300000668</v>
       </c>
       <c r="J46">
-        <v>3.92000007629</v>
+        <v>1.6699998378799998</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" ref="K46:K68" si="1">H46-(SUM(F46,G46,I46,J46))</f>
-        <v>8.7560269836099991</v>
+        <f t="shared" si="1"/>
+        <v>7.4500191220200236</v>
       </c>
       <c r="L46" t="s">
         <v>31</v>
@@ -4451,7 +4623,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -4466,23 +4638,23 @@
         <v>1024</v>
       </c>
       <c r="F47">
-        <v>23.4599649906</v>
+        <v>21.6351509094</v>
       </c>
       <c r="G47">
-        <v>53.7772819996</v>
+        <v>440.760473967</v>
       </c>
       <c r="H47">
-        <v>102.28686881100001</v>
+        <v>489.46177983299998</v>
       </c>
       <c r="I47">
-        <v>14.9800000191</v>
+        <v>14.170000076299999</v>
       </c>
       <c r="J47">
-        <v>1.44000005722</v>
+        <v>4.3199999332400001</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="1"/>
-        <v>8.629621744480005</v>
+        <v>8.5761549470599903</v>
       </c>
       <c r="L47" t="s">
         <v>31</v>
@@ -4490,7 +4662,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -4505,101 +4677,101 @@
         <v>1024</v>
       </c>
       <c r="F48">
-        <v>16.788008928300002</v>
+        <v>17.037000179300001</v>
       </c>
       <c r="G48">
-        <v>377.41170692399999</v>
+        <v>575.899488926</v>
       </c>
       <c r="H48">
-        <v>417.24973487900002</v>
+        <v>617.99924611999995</v>
       </c>
       <c r="I48">
-        <v>13.9300000668</v>
+        <v>14.009999990500001</v>
       </c>
       <c r="J48">
-        <v>1.6699998378799998</v>
+        <v>2.5300002098099998</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="1"/>
-        <v>7.4500191220200236</v>
+        <v>8.5227568143899362</v>
       </c>
       <c r="L48" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1024</v>
-      </c>
-      <c r="F49">
-        <v>21.6351509094</v>
-      </c>
-      <c r="G49">
-        <v>440.760473967</v>
-      </c>
-      <c r="H49">
-        <v>489.46177983299998</v>
-      </c>
-      <c r="I49">
-        <v>14.170000076299999</v>
-      </c>
-      <c r="J49">
-        <v>4.3199999332400001</v>
+      <c r="A49" s="9">
+        <v>0</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="9">
+        <v>40</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F49" s="9">
+        <v>3292.7151110200002</v>
+      </c>
+      <c r="G49" s="9">
+        <v>49.669698953599998</v>
+      </c>
+      <c r="H49" s="9">
+        <v>5451.5510759400004</v>
+      </c>
+      <c r="I49" s="9">
+        <v>1102.5932499999999</v>
+      </c>
+      <c r="J49" s="9">
+        <v>3.36800001264</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="1"/>
-        <v>8.5761549470599903</v>
+        <v>1003.2050159537603</v>
       </c>
       <c r="L49" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1024</v>
-      </c>
-      <c r="F50">
-        <v>17.037000179300001</v>
-      </c>
-      <c r="G50">
-        <v>575.899488926</v>
-      </c>
-      <c r="H50">
-        <v>617.99924611999995</v>
-      </c>
-      <c r="I50">
-        <v>14.009999990500001</v>
-      </c>
-      <c r="J50">
-        <v>2.5300002098099998</v>
+      <c r="A50" s="9">
+        <v>1</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="9">
+        <v>40</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1510.60332608</v>
+      </c>
+      <c r="G50" s="9">
+        <v>49.387537002599998</v>
+      </c>
+      <c r="H50" s="9">
+        <v>3526.6359269599998</v>
+      </c>
+      <c r="I50" s="9">
+        <v>1031.83825</v>
+      </c>
+      <c r="J50" s="9">
+        <v>2.8239999949899999</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="1"/>
-        <v>8.5227568143899362</v>
+        <v>931.98281388240957</v>
       </c>
       <c r="L50" t="s">
         <v>31</v>
@@ -4607,10 +4779,10 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>42</v>
@@ -4622,23 +4794,23 @@
         <v>1024</v>
       </c>
       <c r="F51" s="9">
-        <v>3292.7151110200002</v>
+        <v>1709.7597661</v>
       </c>
       <c r="G51" s="9">
-        <v>49.669698953599998</v>
+        <v>43.468255042999999</v>
       </c>
       <c r="H51" s="9">
-        <v>5451.5510759400004</v>
+        <v>3920.4964511399999</v>
       </c>
       <c r="I51" s="9">
-        <v>1102.5932499999999</v>
+        <v>1122.9845</v>
       </c>
       <c r="J51" s="9">
-        <v>3.36800001264</v>
+        <v>3.15425001383</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="1"/>
-        <v>1003.2050159537603</v>
+        <v>1041.1296799831698</v>
       </c>
       <c r="L51" t="s">
         <v>31</v>
@@ -4646,10 +4818,10 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>42</v>
@@ -4661,23 +4833,23 @@
         <v>1024</v>
       </c>
       <c r="F52" s="9">
-        <v>1510.60332608</v>
+        <v>2592.2150978999998</v>
       </c>
       <c r="G52" s="9">
-        <v>49.387537002599998</v>
+        <v>49.294908046700002</v>
       </c>
       <c r="H52" s="9">
-        <v>3526.6359269599998</v>
+        <v>4692.7860889399999</v>
       </c>
       <c r="I52" s="9">
-        <v>1031.83825</v>
+        <v>1036.7059999999999</v>
       </c>
       <c r="J52" s="9">
-        <v>2.8239999949899999</v>
+        <v>3.1137499928499999</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="1"/>
-        <v>931.98281388240957</v>
+        <v>1011.4563330004503</v>
       </c>
       <c r="L52" t="s">
         <v>31</v>
@@ -4685,10 +4857,10 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>42</v>
@@ -4700,23 +4872,23 @@
         <v>1024</v>
       </c>
       <c r="F53" s="9">
-        <v>1709.7597661</v>
+        <v>1849.0491790799999</v>
       </c>
       <c r="G53" s="9">
-        <v>43.468255042999999</v>
+        <v>46.814173936800003</v>
       </c>
       <c r="H53" s="9">
-        <v>3920.4964511399999</v>
+        <v>4417.4567010399996</v>
       </c>
       <c r="I53" s="9">
-        <v>1122.9845</v>
+        <v>1122.83800002</v>
       </c>
       <c r="J53" s="9">
-        <v>3.15425001383</v>
+        <v>2.8917499959500002</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="1"/>
-        <v>1041.1296799831698</v>
+        <v>1395.8635980072499</v>
       </c>
       <c r="L53" t="s">
         <v>31</v>
@@ -4724,10 +4896,10 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>42</v>
@@ -4739,101 +4911,101 @@
         <v>1024</v>
       </c>
       <c r="F54" s="9">
-        <v>2592.2150978999998</v>
+        <v>1105.9794080300001</v>
       </c>
       <c r="G54" s="9">
-        <v>49.294908046700002</v>
+        <v>46.863272905300001</v>
       </c>
       <c r="H54" s="9">
-        <v>4692.7860889399999</v>
+        <v>3702.10813594</v>
       </c>
       <c r="I54" s="9">
-        <v>1036.7059999999999</v>
+        <v>1459.53800002</v>
       </c>
       <c r="J54" s="9">
-        <v>3.1137499928499999</v>
+        <v>2.2719999671000002</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="1"/>
-        <v>1011.4563330004503</v>
+        <v>1087.4554550176003</v>
       </c>
       <c r="L54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="9">
-        <v>4</v>
+      <c r="A55">
+        <v>6</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55">
         <v>40</v>
       </c>
-      <c r="E55" s="9">
-        <v>1024</v>
-      </c>
-      <c r="F55" s="9">
-        <v>1849.0491790799999</v>
-      </c>
-      <c r="G55" s="9">
-        <v>46.814173936800003</v>
-      </c>
-      <c r="H55" s="9">
-        <v>4417.4567010399996</v>
-      </c>
-      <c r="I55" s="9">
-        <v>1122.83800002</v>
-      </c>
-      <c r="J55" s="9">
-        <v>2.8917499959500002</v>
+      <c r="E55">
+        <v>1024</v>
+      </c>
+      <c r="F55">
+        <v>1410.5814979100001</v>
+      </c>
+      <c r="G55">
+        <v>46.588794946699998</v>
+      </c>
+      <c r="H55">
+        <v>3537.2294130300002</v>
+      </c>
+      <c r="I55">
+        <v>1072.2957499900001</v>
+      </c>
+      <c r="J55">
+        <v>6.9882500290899996</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="1"/>
-        <v>1395.8635980072499</v>
+        <v>1000.7751201542096</v>
       </c>
       <c r="L55" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="9">
-        <v>5</v>
+      <c r="A56">
+        <v>7</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56">
         <v>40</v>
       </c>
-      <c r="E56" s="9">
-        <v>1024</v>
-      </c>
-      <c r="F56" s="9">
-        <v>1105.9794080300001</v>
-      </c>
-      <c r="G56" s="9">
-        <v>46.863272905300001</v>
-      </c>
-      <c r="H56" s="9">
-        <v>3702.10813594</v>
-      </c>
-      <c r="I56" s="9">
-        <v>1459.53800002</v>
-      </c>
-      <c r="J56" s="9">
-        <v>2.2719999671000002</v>
+      <c r="E56">
+        <v>1024</v>
+      </c>
+      <c r="F56">
+        <v>1968.0598649999999</v>
+      </c>
+      <c r="G56">
+        <v>47.014433860799997</v>
+      </c>
+      <c r="H56">
+        <v>4154.5585520300001</v>
+      </c>
+      <c r="I56">
+        <v>1104.00799998</v>
+      </c>
+      <c r="J56">
+        <v>3.25124998689</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="1"/>
-        <v>1087.4554550176003</v>
+        <v>1032.2250032023103</v>
       </c>
       <c r="L56" t="s">
         <v>31</v>
@@ -4841,13 +5013,13 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>6</v>
-      </c>
-      <c r="B57" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
         <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D57">
         <v>40</v>
@@ -4856,23 +5028,23 @@
         <v>1024</v>
       </c>
       <c r="F57">
-        <v>1410.5814979100001</v>
+        <v>157.879931927</v>
       </c>
       <c r="G57">
-        <v>46.588794946699998</v>
+        <v>59.8729500771</v>
       </c>
       <c r="H57">
-        <v>3537.2294130300002</v>
+        <v>1262.1418469</v>
       </c>
       <c r="I57">
-        <v>1072.2957499900001</v>
+        <v>465.93199999299998</v>
       </c>
       <c r="J57">
-        <v>6.9882500290899996</v>
+        <v>5.4545000255099998</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="1"/>
-        <v>1000.7751201542096</v>
+        <v>573.00246487739003</v>
       </c>
       <c r="L57" t="s">
         <v>31</v>
@@ -4880,13 +5052,13 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>7</v>
-      </c>
-      <c r="B58" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
         <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D58">
         <v>40</v>
@@ -4895,23 +5067,23 @@
         <v>1024</v>
       </c>
       <c r="F58">
-        <v>1968.0598649999999</v>
+        <v>167.587552071</v>
       </c>
       <c r="G58">
-        <v>47.014433860799997</v>
+        <v>93.305170059199995</v>
       </c>
       <c r="H58">
-        <v>4154.5585520300001</v>
+        <v>1325.52337098</v>
       </c>
       <c r="I58">
-        <v>1104.00799998</v>
+        <v>480.34525001600002</v>
       </c>
       <c r="J58">
-        <v>3.25124998689</v>
+        <v>6.1112500011900002</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="1"/>
-        <v>1032.2250032023103</v>
+        <v>578.17414883260994</v>
       </c>
       <c r="L58" t="s">
         <v>31</v>
@@ -4919,13 +5091,13 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59">
         <v>40</v>
@@ -4934,23 +5106,23 @@
         <v>1024</v>
       </c>
       <c r="F59">
-        <v>157.879931927</v>
+        <v>333.38520407700003</v>
       </c>
       <c r="G59">
-        <v>59.8729500771</v>
+        <v>81.887583970999998</v>
       </c>
       <c r="H59">
-        <v>1262.1418469</v>
+        <v>1521.82496309</v>
       </c>
       <c r="I59">
-        <v>465.93199999299998</v>
+        <v>549.14025000300001</v>
       </c>
       <c r="J59">
-        <v>5.4545000255099998</v>
+        <v>5.9302499949899996</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="1"/>
-        <v>573.00246487739003</v>
+        <v>551.48167504400988</v>
       </c>
       <c r="L59" t="s">
         <v>31</v>
@@ -4958,13 +5130,13 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D60">
         <v>40</v>
@@ -4973,23 +5145,23 @@
         <v>1024</v>
       </c>
       <c r="F60">
-        <v>167.587552071</v>
+        <v>160.991422892</v>
       </c>
       <c r="G60">
-        <v>93.305170059199995</v>
+        <v>99.748240947699998</v>
       </c>
       <c r="H60">
-        <v>1325.52337098</v>
+        <v>1164.8700099</v>
       </c>
       <c r="I60">
-        <v>480.34525001600002</v>
+        <v>453.257999998</v>
       </c>
       <c r="J60">
-        <v>6.1112500011900002</v>
+        <v>10.2109999955</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="1"/>
-        <v>578.17414883260994</v>
+        <v>440.66134606680009</v>
       </c>
       <c r="L60" t="s">
         <v>31</v>
@@ -4997,13 +5169,13 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D61">
         <v>40</v>
@@ -5012,23 +5184,23 @@
         <v>1024</v>
       </c>
       <c r="F61">
-        <v>333.38520407700003</v>
+        <v>367.39415502499998</v>
       </c>
       <c r="G61">
-        <v>81.887583970999998</v>
+        <v>82.062947034800004</v>
       </c>
       <c r="H61">
-        <v>1521.82496309</v>
+        <v>1349.5291480999999</v>
       </c>
       <c r="I61">
-        <v>549.14025000300001</v>
+        <v>442.01149998900001</v>
       </c>
       <c r="J61">
-        <v>5.9302499949899996</v>
+        <v>5.60025001168</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="1"/>
-        <v>551.48167504400988</v>
+        <v>452.4602960395199</v>
       </c>
       <c r="L61" t="s">
         <v>31</v>
@@ -5036,13 +5208,13 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62">
         <v>40</v>
@@ -5051,23 +5223,23 @@
         <v>1024</v>
       </c>
       <c r="F62">
-        <v>160.991422892</v>
+        <v>162.182951927</v>
       </c>
       <c r="G62">
-        <v>99.748240947699998</v>
+        <v>93.295397043199998</v>
       </c>
       <c r="H62">
-        <v>1164.8700099</v>
+        <v>1511.1965069800001</v>
       </c>
       <c r="I62">
-        <v>453.257999998</v>
+        <v>691.81049998399999</v>
       </c>
       <c r="J62">
-        <v>10.2109999955</v>
+        <v>3.8915000200300001</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="1"/>
-        <v>440.66134606680009</v>
+        <v>560.01615800577019</v>
       </c>
       <c r="L62" t="s">
         <v>31</v>
@@ -5075,13 +5247,13 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63">
         <v>40</v>
@@ -5090,23 +5262,23 @@
         <v>1024</v>
       </c>
       <c r="F63">
-        <v>367.39415502499998</v>
+        <v>165.01680493399999</v>
       </c>
       <c r="G63">
-        <v>82.062947034800004</v>
+        <v>91.365287065499999</v>
       </c>
       <c r="H63">
-        <v>1349.5291480999999</v>
+        <v>1431.0721168499999</v>
       </c>
       <c r="I63">
-        <v>442.01149998900001</v>
+        <v>655.00049999999999</v>
       </c>
       <c r="J63">
-        <v>5.60025001168</v>
+        <v>5.1365000188399996</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="1"/>
-        <v>452.4602960395199</v>
+        <v>514.55302483165997</v>
       </c>
       <c r="L63" t="s">
         <v>31</v>
@@ -5114,13 +5286,13 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64">
         <v>40</v>
@@ -5129,23 +5301,23 @@
         <v>1024</v>
       </c>
       <c r="F64">
-        <v>162.182951927</v>
+        <v>173.91448092499999</v>
       </c>
       <c r="G64">
-        <v>93.295397043199998</v>
+        <v>95.688024997699998</v>
       </c>
       <c r="H64">
-        <v>1511.1965069800001</v>
+        <v>1016.85612583</v>
       </c>
       <c r="I64">
-        <v>691.81049998399999</v>
+        <v>360.02674998600003</v>
       </c>
       <c r="J64">
-        <v>3.8915000200300001</v>
+        <v>5.0845000147799997</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="1"/>
-        <v>560.01615800577019</v>
+        <v>382.14236990651989</v>
       </c>
       <c r="L64" t="s">
         <v>31</v>
@@ -5153,13 +5325,13 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D65">
         <v>40</v>
@@ -5168,23 +5340,23 @@
         <v>1024</v>
       </c>
       <c r="F65">
-        <v>165.01680493399999</v>
+        <v>170.93446493100001</v>
       </c>
       <c r="G65">
-        <v>91.365287065499999</v>
+        <v>94.859182119400003</v>
       </c>
       <c r="H65">
-        <v>1431.0721168499999</v>
+        <v>1308.35150099</v>
       </c>
       <c r="I65">
-        <v>655.00049999999999</v>
+        <v>507.67774998499999</v>
       </c>
       <c r="J65">
-        <v>5.1365000188399996</v>
+        <v>4.0910000264599997</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="1"/>
-        <v>514.55302483165997</v>
+        <v>530.78910392813987</v>
       </c>
       <c r="L65" t="s">
         <v>31</v>
@@ -5192,13 +5364,13 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D66">
         <v>40</v>
@@ -5207,23 +5379,23 @@
         <v>1024</v>
       </c>
       <c r="F66">
-        <v>173.91448092499999</v>
+        <v>163.68142294899999</v>
       </c>
       <c r="G66">
-        <v>95.688024997699998</v>
+        <v>91.253237962699998</v>
       </c>
       <c r="H66">
-        <v>1016.85612583</v>
+        <v>1518.34534502</v>
       </c>
       <c r="I66">
-        <v>360.02674998600003</v>
+        <v>697.52500001199996</v>
       </c>
       <c r="J66">
-        <v>5.0845000147799997</v>
+        <v>6.4554999887899998</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="1"/>
-        <v>382.14236990651989</v>
+        <v>559.43018410750994</v>
       </c>
       <c r="L66" t="s">
         <v>31</v>
@@ -5231,38 +5403,38 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D67">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>1024</v>
       </c>
       <c r="F67">
-        <v>170.93446493100001</v>
+        <v>122.625741959</v>
       </c>
       <c r="G67">
-        <v>94.859182119400003</v>
+        <v>406.30978512799999</v>
       </c>
       <c r="H67">
-        <v>1308.35150099</v>
+        <v>558.12237095800003</v>
       </c>
       <c r="I67">
-        <v>507.67774998499999</v>
+        <v>22.990000009500001</v>
       </c>
       <c r="J67">
-        <v>4.0910000264599997</v>
+        <v>3.65999984741</v>
       </c>
       <c r="K67" s="7">
-        <f t="shared" si="1"/>
-        <v>530.78910392813987</v>
+        <f t="shared" ref="K67:K76" si="2">H67-(SUM(F67,G67,I67,J67))</f>
+        <v>2.536844014090093</v>
       </c>
       <c r="L67" t="s">
         <v>31</v>
@@ -5270,53 +5442,359 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D68">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1024</v>
       </c>
       <c r="F68">
-        <v>163.68142294899999</v>
+        <v>122.455549955</v>
       </c>
       <c r="G68">
-        <v>91.253237962699998</v>
+        <v>368.07666397100002</v>
       </c>
       <c r="H68">
-        <v>1518.34534502</v>
+        <v>511.69023394599998</v>
       </c>
       <c r="I68">
-        <v>697.52500001199996</v>
+        <v>19.190000057199999</v>
       </c>
       <c r="J68">
-        <v>6.4554999887899998</v>
+        <v>0.37000012397799997</v>
       </c>
       <c r="K68" s="7">
-        <f t="shared" si="1"/>
-        <v>559.43018410750994</v>
+        <f t="shared" si="2"/>
+        <v>1.5980198388219833</v>
       </c>
       <c r="L68" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1024</v>
+      </c>
+      <c r="F69">
+        <v>123.313658953</v>
+      </c>
+      <c r="G69">
+        <v>441.78992700600003</v>
+      </c>
+      <c r="H69">
+        <v>634.44569206200003</v>
+      </c>
+      <c r="I69">
+        <v>64.230000019100004</v>
+      </c>
+      <c r="J69">
+        <v>2.4500000476800001</v>
+      </c>
+      <c r="K69" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6621060362200524</v>
+      </c>
+      <c r="L69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1024</v>
+      </c>
+      <c r="F70">
+        <v>122.516154051</v>
+      </c>
+      <c r="G70">
+        <v>420.93793296799998</v>
+      </c>
+      <c r="H70">
+        <v>581.68988704699996</v>
+      </c>
+      <c r="I70">
+        <v>29.419999837900001</v>
+      </c>
+      <c r="J70">
+        <v>4.9500000476799997</v>
+      </c>
+      <c r="K70" s="7">
+        <f t="shared" si="2"/>
+        <v>3.8658001424199711</v>
+      </c>
+      <c r="L70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1024</v>
+      </c>
+      <c r="F71">
+        <v>122.230736971</v>
+      </c>
+      <c r="G71">
+        <v>477.67605185500003</v>
+      </c>
+      <c r="H71">
+        <v>630.133245945</v>
+      </c>
+      <c r="I71">
+        <v>26.600000143100001</v>
+      </c>
+      <c r="J71">
+        <v>0.88999986648600005</v>
+      </c>
+      <c r="K71" s="7">
+        <f t="shared" si="2"/>
+        <v>2.736457109413891</v>
+      </c>
+      <c r="L71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1024</v>
+      </c>
+      <c r="F72">
+        <v>122.937199116</v>
+      </c>
+      <c r="G72">
+        <v>488.21469998399999</v>
+      </c>
+      <c r="H72">
+        <v>634.325598001</v>
+      </c>
+      <c r="I72">
+        <v>21.920000076299999</v>
+      </c>
+      <c r="J72">
+        <v>9.9999904632600001E-3</v>
+      </c>
+      <c r="K72" s="7">
+        <f t="shared" si="2"/>
+        <v>1.2436988342367385</v>
+      </c>
+      <c r="L72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1024</v>
+      </c>
+      <c r="F73">
+        <v>130.94049096099999</v>
+      </c>
+      <c r="G73">
+        <v>385.66926407800003</v>
+      </c>
+      <c r="H73">
+        <v>563.85909795800001</v>
+      </c>
+      <c r="I73">
+        <v>41.470000028599998</v>
+      </c>
+      <c r="J73">
+        <v>3.2400000095400001</v>
+      </c>
+      <c r="K73" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5393428808599765</v>
+      </c>
+      <c r="L73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1024</v>
+      </c>
+      <c r="F74">
+        <v>131.086699009</v>
+      </c>
+      <c r="G74">
+        <v>357.81737399100001</v>
+      </c>
+      <c r="H74">
+        <v>518.10444998699995</v>
+      </c>
+      <c r="I74">
+        <v>25.350000143100001</v>
+      </c>
+      <c r="J74">
+        <v>1.2799999713900001</v>
+      </c>
+      <c r="K74" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5703768725098826</v>
+      </c>
+      <c r="L74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1024</v>
+      </c>
+      <c r="F75">
+        <v>122.829023838</v>
+      </c>
+      <c r="G75">
+        <v>352.59382700899999</v>
+      </c>
+      <c r="H75">
+        <v>506.61129689199998</v>
+      </c>
+      <c r="I75">
+        <v>26.75</v>
+      </c>
+      <c r="J75">
+        <v>2.5299999713900001</v>
+      </c>
+      <c r="K75" s="7">
+        <f t="shared" si="2"/>
+        <v>1.90844607360998</v>
+      </c>
+      <c r="L75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1024</v>
+      </c>
+      <c r="F76">
+        <v>122.742627144</v>
+      </c>
+      <c r="G76">
+        <v>545.45097804099998</v>
+      </c>
+      <c r="H76">
+        <v>690.387247086</v>
+      </c>
+      <c r="I76">
+        <v>18.9100000858</v>
+      </c>
+      <c r="J76">
+        <v>0.60999989509600006</v>
+      </c>
+      <c r="K76" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6736419201039325</v>
+      </c>
+      <c r="L76" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L31">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="O16:U23">
-    <sortCondition ref="Q18"/>
+  <autoFilter ref="A1:L77"/>
+  <sortState ref="O15:U23">
+    <sortCondition ref="P17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5331,10 +5809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J22"/>
+      <selection activeCell="D13" sqref="D13:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5350,7 +5828,7 @@
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5388,7 +5866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -5426,7 +5904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -5464,7 +5942,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -5502,7 +5980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -5540,7 +6018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -5578,7 +6056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -5616,7 +6094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -5654,7 +6132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -5692,7 +6170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -5730,7 +6208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5768,7 +6246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>7</v>
       </c>
@@ -5806,7 +6284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>0</v>
       </c>
@@ -5814,7 +6292,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>40</v>
@@ -5843,8 +6321,11 @@
       <c r="L13" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5852,7 +6333,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>40</v>
@@ -5881,8 +6362,11 @@
       <c r="L14" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5890,7 +6374,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>40</v>
@@ -5919,8 +6403,11 @@
       <c r="L15" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5928,7 +6415,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>40</v>
@@ -5957,8 +6444,11 @@
       <c r="L16" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5966,7 +6456,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -5995,8 +6485,11 @@
       <c r="L17" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>5</v>
       </c>
@@ -6004,7 +6497,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>40</v>
@@ -6033,8 +6526,11 @@
       <c r="L18" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6042,7 +6538,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>40</v>
@@ -6071,8 +6567,11 @@
       <c r="L19" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>7</v>
       </c>
@@ -6080,7 +6579,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>40</v>
@@ -6109,8 +6608,11 @@
       <c r="L20" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>8</v>
       </c>
@@ -6118,7 +6620,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>40</v>
@@ -6147,8 +6649,11 @@
       <c r="L21" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>9</v>
       </c>
@@ -6156,7 +6661,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>40</v>
@@ -6184,6 +6689,1537 @@
       </c>
       <c r="L22" s="9" t="s">
         <v>43</v>
+      </c>
+      <c r="M22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>1024</v>
+      </c>
+      <c r="F23">
+        <v>71.183562993999999</v>
+      </c>
+      <c r="G23">
+        <v>91.931576013599994</v>
+      </c>
+      <c r="H23">
+        <v>1201.8423779</v>
+      </c>
+      <c r="I23">
+        <v>582.30349999700002</v>
+      </c>
+      <c r="J23">
+        <v>4.5035000026200001</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1012.8</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>1024</v>
+      </c>
+      <c r="F24">
+        <v>168.71706891100001</v>
+      </c>
+      <c r="G24">
+        <v>97.206269979499993</v>
+      </c>
+      <c r="H24">
+        <v>1230.13108397</v>
+      </c>
+      <c r="I24">
+        <v>519.33949999799995</v>
+      </c>
+      <c r="J24">
+        <v>4.2362499892700001</v>
+      </c>
+      <c r="K24" s="10">
+        <v>1013.8</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>1024</v>
+      </c>
+      <c r="F25">
+        <v>177.20679187799999</v>
+      </c>
+      <c r="G25">
+        <v>73.704523086500004</v>
+      </c>
+      <c r="H25">
+        <v>1216.9588329799999</v>
+      </c>
+      <c r="I25">
+        <v>568.75224998600004</v>
+      </c>
+      <c r="J25">
+        <v>3.90950003266</v>
+      </c>
+      <c r="K25" s="10">
+        <v>1014.8</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:J45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1024</v>
+      </c>
+      <c r="F2">
+        <v>308.80335187899999</v>
+      </c>
+      <c r="G2">
+        <v>368.69949197800003</v>
+      </c>
+      <c r="H2">
+        <v>702.60343480100005</v>
+      </c>
+      <c r="I2">
+        <v>12.8199999332</v>
+      </c>
+      <c r="J2">
+        <v>3.3200001716599998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1024</v>
+      </c>
+      <c r="F3">
+        <v>162.707400084</v>
+      </c>
+      <c r="G3">
+        <v>68.354622840900007</v>
+      </c>
+      <c r="H3">
+        <v>366.30230307599999</v>
+      </c>
+      <c r="I3">
+        <v>116.230000019</v>
+      </c>
+      <c r="J3">
+        <v>4.4500000476799997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1024</v>
+      </c>
+      <c r="F4">
+        <v>631.78733897200004</v>
+      </c>
+      <c r="G4">
+        <v>80.188972949999993</v>
+      </c>
+      <c r="H4">
+        <v>845.18161511400001</v>
+      </c>
+      <c r="I4">
+        <v>120.150000095</v>
+      </c>
+      <c r="J4">
+        <v>5.1199998855600004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>32.281590938599997</v>
+      </c>
+      <c r="G5">
+        <v>53.9475212097</v>
+      </c>
+      <c r="H5">
+        <v>117.367043972</v>
+      </c>
+      <c r="I5">
+        <v>13.599999904600001</v>
+      </c>
+      <c r="J5">
+        <v>4.17000007629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>17.992821216599999</v>
+      </c>
+      <c r="G6">
+        <v>75.546770811100004</v>
+      </c>
+      <c r="H6">
+        <v>120.786075115</v>
+      </c>
+      <c r="I6">
+        <v>15.2100000381</v>
+      </c>
+      <c r="J6">
+        <v>4.1400001049000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>19.408075094200001</v>
+      </c>
+      <c r="G7">
+        <v>74.8276648521</v>
+      </c>
+      <c r="H7">
+        <v>121.42557096500001</v>
+      </c>
+      <c r="I7">
+        <v>17.7699999809</v>
+      </c>
+      <c r="J7">
+        <v>1.1800000667599999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>126.943170071</v>
+      </c>
+      <c r="G8">
+        <v>34.313523054100003</v>
+      </c>
+      <c r="H8">
+        <v>180.41024804099999</v>
+      </c>
+      <c r="I8">
+        <v>9.4400000572200007</v>
+      </c>
+      <c r="J8">
+        <v>1.09999990463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <v>20.925189018200001</v>
+      </c>
+      <c r="G9">
+        <v>76.314666032800005</v>
+      </c>
+      <c r="H9">
+        <v>122.424413919</v>
+      </c>
+      <c r="I9">
+        <v>13.5399999619</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>91.188610076900005</v>
+      </c>
+      <c r="G10">
+        <v>38.8096108437</v>
+      </c>
+      <c r="H10">
+        <v>159.18596100799999</v>
+      </c>
+      <c r="I10">
+        <v>16.4100000858</v>
+      </c>
+      <c r="J10">
+        <v>4.5699999332400001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>128</v>
+      </c>
+      <c r="F11">
+        <v>19.852886915199999</v>
+      </c>
+      <c r="G11">
+        <v>44.359246015499998</v>
+      </c>
+      <c r="H11">
+        <v>99.422956943499997</v>
+      </c>
+      <c r="I11">
+        <v>16.650000095399999</v>
+      </c>
+      <c r="J11">
+        <v>5.1299998760200003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>128</v>
+      </c>
+      <c r="F12">
+        <v>93.417258977900005</v>
+      </c>
+      <c r="G12">
+        <v>34.373111009600002</v>
+      </c>
+      <c r="H12">
+        <v>156.98407197</v>
+      </c>
+      <c r="I12">
+        <v>17.849999904600001</v>
+      </c>
+      <c r="J12">
+        <v>3.09000015259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>128</v>
+      </c>
+      <c r="F13">
+        <v>38.531898021700002</v>
+      </c>
+      <c r="G13">
+        <v>70.455085039099998</v>
+      </c>
+      <c r="H13">
+        <v>130.146358013</v>
+      </c>
+      <c r="I13">
+        <v>11.8100001812</v>
+      </c>
+      <c r="J13">
+        <v>1.1699998378800001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1024</v>
+      </c>
+      <c r="F14">
+        <v>164.963943005</v>
+      </c>
+      <c r="G14">
+        <v>49.645243167899999</v>
+      </c>
+      <c r="H14">
+        <v>334.128916979</v>
+      </c>
+      <c r="I14">
+        <v>100.49000001</v>
+      </c>
+      <c r="J14">
+        <v>5.92000007629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1024</v>
+      </c>
+      <c r="F15">
+        <v>1856.70376205</v>
+      </c>
+      <c r="G15">
+        <v>38.092552900299999</v>
+      </c>
+      <c r="H15">
+        <v>1976.1700248699999</v>
+      </c>
+      <c r="I15">
+        <v>69.259999990500006</v>
+      </c>
+      <c r="J15">
+        <v>3.9700000286099999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1024</v>
+      </c>
+      <c r="F16">
+        <v>185.32842993700001</v>
+      </c>
+      <c r="G16">
+        <v>85.434698104899994</v>
+      </c>
+      <c r="H16">
+        <v>388.31233096099999</v>
+      </c>
+      <c r="I16">
+        <v>103.910000086</v>
+      </c>
+      <c r="J16">
+        <v>5.1999998092700004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1024</v>
+      </c>
+      <c r="F17">
+        <v>692.01664090199995</v>
+      </c>
+      <c r="G17">
+        <v>34.557440042499998</v>
+      </c>
+      <c r="H17">
+        <v>816.00404596299995</v>
+      </c>
+      <c r="I17">
+        <v>80.5</v>
+      </c>
+      <c r="J17">
+        <v>1.61000013351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1024</v>
+      </c>
+      <c r="F18">
+        <v>315.39937710800001</v>
+      </c>
+      <c r="G18">
+        <v>84.239410877200001</v>
+      </c>
+      <c r="H18">
+        <v>607.498153925</v>
+      </c>
+      <c r="I18">
+        <v>197.910000086</v>
+      </c>
+      <c r="J18">
+        <v>2.8399999141699999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1024</v>
+      </c>
+      <c r="F19">
+        <v>1744.1008632200001</v>
+      </c>
+      <c r="G19">
+        <v>35.336174964900003</v>
+      </c>
+      <c r="H19">
+        <v>1842.7665791500001</v>
+      </c>
+      <c r="I19">
+        <v>51.3399999142</v>
+      </c>
+      <c r="J19">
+        <v>3.2999999523199999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1024</v>
+      </c>
+      <c r="F20">
+        <v>157.73092603699999</v>
+      </c>
+      <c r="G20">
+        <v>86.861287832299993</v>
+      </c>
+      <c r="H20">
+        <v>374.15741992</v>
+      </c>
+      <c r="I20">
+        <v>110.230000019</v>
+      </c>
+      <c r="J20">
+        <v>11.7300000191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1024</v>
+      </c>
+      <c r="F21">
+        <v>711.83364296000002</v>
+      </c>
+      <c r="G21">
+        <v>38.574496030799999</v>
+      </c>
+      <c r="H21">
+        <v>815.74461007100001</v>
+      </c>
+      <c r="I21">
+        <v>52.799999952299999</v>
+      </c>
+      <c r="J21">
+        <v>3.9300000667599999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1024</v>
+      </c>
+      <c r="F22">
+        <v>159.88556003599999</v>
+      </c>
+      <c r="G22">
+        <v>44.3581089973</v>
+      </c>
+      <c r="H22">
+        <v>329.81398510899999</v>
+      </c>
+      <c r="I22">
+        <v>105.130000114</v>
+      </c>
+      <c r="J22">
+        <v>5.7599999904599999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1024</v>
+      </c>
+      <c r="F23">
+        <v>712.20381307599996</v>
+      </c>
+      <c r="G23">
+        <v>35.784937858600003</v>
+      </c>
+      <c r="H23">
+        <v>809.29317307500003</v>
+      </c>
+      <c r="I23">
+        <v>51.090000152599998</v>
+      </c>
+      <c r="J23">
+        <v>1.84999990463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1024</v>
+      </c>
+      <c r="F24">
+        <v>167.37656402600001</v>
+      </c>
+      <c r="G24">
+        <v>83.876055002200005</v>
+      </c>
+      <c r="H24">
+        <v>362.74508500100001</v>
+      </c>
+      <c r="I24">
+        <v>97.380000114400005</v>
+      </c>
+      <c r="J24">
+        <v>6.7599999904599999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1024</v>
+      </c>
+      <c r="F25">
+        <v>2002.243119</v>
+      </c>
+      <c r="G25">
+        <v>40.4865391254</v>
+      </c>
+      <c r="H25">
+        <v>2154.2311692200001</v>
+      </c>
+      <c r="I25">
+        <v>100.359999895</v>
+      </c>
+      <c r="J25">
+        <v>3.9900000095400001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1024</v>
+      </c>
+      <c r="F26">
+        <v>162.53147912</v>
+      </c>
+      <c r="G26">
+        <v>82.347364902500004</v>
+      </c>
+      <c r="H26">
+        <v>356.379965067</v>
+      </c>
+      <c r="I26">
+        <v>98.759999990500006</v>
+      </c>
+      <c r="J26">
+        <v>5.1900000572199998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1024</v>
+      </c>
+      <c r="F27">
+        <v>713.629225969</v>
+      </c>
+      <c r="G27">
+        <v>34.643714904799999</v>
+      </c>
+      <c r="H27">
+        <v>817.61335206000001</v>
+      </c>
+      <c r="I27">
+        <v>56.420000076299999</v>
+      </c>
+      <c r="J27">
+        <v>4.0599999427800002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1024</v>
+      </c>
+      <c r="F28">
+        <v>158.08333611500001</v>
+      </c>
+      <c r="G28">
+        <v>49.553355932199999</v>
+      </c>
+      <c r="H28">
+        <v>339.21266293500003</v>
+      </c>
+      <c r="I28">
+        <v>110.730000019</v>
+      </c>
+      <c r="J28">
+        <v>5.8199999332400001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1024</v>
+      </c>
+      <c r="F29">
+        <v>754.98489308399996</v>
+      </c>
+      <c r="G29">
+        <v>34.906085967999999</v>
+      </c>
+      <c r="H29">
+        <v>855.21460199399996</v>
+      </c>
+      <c r="I29">
+        <v>56.350000143099997</v>
+      </c>
+      <c r="J29">
+        <v>0.78999996185300003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1024</v>
+      </c>
+      <c r="F30">
+        <v>171.67495202999999</v>
+      </c>
+      <c r="G30">
+        <v>94.932879924800005</v>
+      </c>
+      <c r="H30">
+        <v>378.10926198999999</v>
+      </c>
+      <c r="I30">
+        <v>102.25</v>
+      </c>
+      <c r="J30">
+        <v>1.84000015259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1024</v>
+      </c>
+      <c r="F31">
+        <v>708.07976603500003</v>
+      </c>
+      <c r="G31">
+        <v>32.472221851299999</v>
+      </c>
+      <c r="H31">
+        <v>835.98509693100004</v>
+      </c>
+      <c r="I31">
+        <v>84.539999961899994</v>
+      </c>
+      <c r="J31">
+        <v>3.0599999427800002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1024</v>
+      </c>
+      <c r="F32">
+        <v>159.795846939</v>
+      </c>
+      <c r="G32">
+        <v>82.0572190285</v>
+      </c>
+      <c r="H32">
+        <v>359.37256908400002</v>
+      </c>
+      <c r="I32">
+        <v>103.919999838</v>
+      </c>
+      <c r="J32">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1024</v>
+      </c>
+      <c r="F33">
+        <v>1227.46902084</v>
+      </c>
+      <c r="G33">
+        <v>34.446505069700002</v>
+      </c>
+      <c r="H33">
+        <v>1700.50593901</v>
+      </c>
+      <c r="I33">
+        <v>427.24000001000002</v>
+      </c>
+      <c r="J33">
+        <v>4.2000000476799997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1024</v>
+      </c>
+      <c r="F36">
+        <v>122.625741959</v>
+      </c>
+      <c r="G36">
+        <v>406.30978512799999</v>
+      </c>
+      <c r="H36">
+        <v>558.12237095800003</v>
+      </c>
+      <c r="I36">
+        <v>22.990000009500001</v>
+      </c>
+      <c r="J36">
+        <v>3.65999984741</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1024</v>
+      </c>
+      <c r="F37">
+        <v>122.455549955</v>
+      </c>
+      <c r="G37">
+        <v>368.07666397100002</v>
+      </c>
+      <c r="H37">
+        <v>511.69023394599998</v>
+      </c>
+      <c r="I37">
+        <v>19.190000057199999</v>
+      </c>
+      <c r="J37">
+        <v>0.37000012397799997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1024</v>
+      </c>
+      <c r="F38">
+        <v>123.313658953</v>
+      </c>
+      <c r="G38">
+        <v>441.78992700600003</v>
+      </c>
+      <c r="H38">
+        <v>634.44569206200003</v>
+      </c>
+      <c r="I38">
+        <v>64.230000019100004</v>
+      </c>
+      <c r="J38">
+        <v>2.4500000476800001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1024</v>
+      </c>
+      <c r="F39">
+        <v>122.516154051</v>
+      </c>
+      <c r="G39">
+        <v>420.93793296799998</v>
+      </c>
+      <c r="H39">
+        <v>581.68988704699996</v>
+      </c>
+      <c r="I39">
+        <v>29.419999837900001</v>
+      </c>
+      <c r="J39">
+        <v>4.9500000476799997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1024</v>
+      </c>
+      <c r="F40">
+        <v>122.230736971</v>
+      </c>
+      <c r="G40">
+        <v>477.67605185500003</v>
+      </c>
+      <c r="H40">
+        <v>630.133245945</v>
+      </c>
+      <c r="I40">
+        <v>26.600000143100001</v>
+      </c>
+      <c r="J40">
+        <v>0.88999986648600005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1024</v>
+      </c>
+      <c r="F41">
+        <v>122.937199116</v>
+      </c>
+      <c r="G41">
+        <v>488.21469998399999</v>
+      </c>
+      <c r="H41">
+        <v>634.325598001</v>
+      </c>
+      <c r="I41">
+        <v>21.920000076299999</v>
+      </c>
+      <c r="J41">
+        <v>9.9999904632600001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1024</v>
+      </c>
+      <c r="F42">
+        <v>130.94049096099999</v>
+      </c>
+      <c r="G42">
+        <v>385.66926407800003</v>
+      </c>
+      <c r="H42">
+        <v>563.85909795800001</v>
+      </c>
+      <c r="I42">
+        <v>41.470000028599998</v>
+      </c>
+      <c r="J42">
+        <v>3.2400000095400001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1024</v>
+      </c>
+      <c r="F43">
+        <v>131.086699009</v>
+      </c>
+      <c r="G43">
+        <v>357.81737399100001</v>
+      </c>
+      <c r="H43">
+        <v>518.10444998699995</v>
+      </c>
+      <c r="I43">
+        <v>25.350000143100001</v>
+      </c>
+      <c r="J43">
+        <v>1.2799999713900001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1024</v>
+      </c>
+      <c r="F44">
+        <v>122.829023838</v>
+      </c>
+      <c r="G44">
+        <v>352.59382700899999</v>
+      </c>
+      <c r="H44">
+        <v>506.61129689199998</v>
+      </c>
+      <c r="I44">
+        <v>26.75</v>
+      </c>
+      <c r="J44">
+        <v>2.5299999713900001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1024</v>
+      </c>
+      <c r="F45">
+        <v>122.742627144</v>
+      </c>
+      <c r="G45">
+        <v>545.45097804099998</v>
+      </c>
+      <c r="H45">
+        <v>690.387247086</v>
+      </c>
+      <c r="I45">
+        <v>18.9100000858</v>
+      </c>
+      <c r="J45">
+        <v>0.60999989509600006</v>
       </c>
     </row>
   </sheetData>

--- a/papers/ccpe-cloud12/performance/pd.xlsx
+++ b/papers/ccpe-cloud12/performance/pd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44060" windowHeight="28320" tabRatio="500"/>
+    <workbookView xWindow="19620" yWindow="0" windowWidth="32160" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1 CU" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 CU'!$A$1:$L$76</definedName>
     <definedName name="pd" localSheetId="0">'1 CU'!$A$1:$J$29</definedName>
-    <definedName name="pd" localSheetId="2">scratch!$A$1:$J$45</definedName>
+    <definedName name="pd" localSheetId="2">scratch!$A$1:$J$1</definedName>
+    <definedName name="pd_fg_remote" localSheetId="0">'1 CU'!$A$67:$J$86</definedName>
+    <definedName name="pd_fg_remote" localSheetId="2">scratch!$A$2:$J$11</definedName>
+    <definedName name="pd_fg_remote_1" localSheetId="2">scratch!$A$12:$J$21</definedName>
     <definedName name="pd_multi_cu" localSheetId="1">'n CUs'!$A$1:$J$1</definedName>
     <definedName name="pd_multi_cu_1" localSheetId="0">'1 CU'!$A$49:$J$66</definedName>
     <definedName name="pd_multi_cu_1" localSheetId="1">'n CUs'!$A$2:$J$22</definedName>
@@ -23,7 +26,7 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="19" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -35,7 +38,39 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="pd_multi_cu.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="1" name="pd_fg_remote.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_fg_remote.csv" comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="pd_fg_remote.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_fg_remote.csv" comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="pd_multi_cu.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_multi_cu.txt" comma="1">
       <textFields count="10">
         <textField/>
@@ -51,7 +86,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="pd_multi_cu.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="4" name="pd_multi_cu.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_multi_cu.txt" comma="1">
       <textFields count="10">
         <textField/>
@@ -67,7 +102,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="pd_multi_cu.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="pd_multi_cu.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_multi_cu.txt" comma="1">
       <textFields count="10">
         <textField/>
@@ -83,7 +118,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="pd_random.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="6" name="pd_random.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_random.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -99,7 +134,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="pd.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="7" name="pd.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd.csv" comma="1" qualifier="none">
       <textFields count="10">
         <textField/>
@@ -115,7 +150,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="pd.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="8" name="pd.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -135,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="64">
   <si>
     <t>Run</t>
   </si>
@@ -162,9 +197,6 @@
   </si>
   <si>
     <t>s3://pilot-data-43741208-f203-11e1-a6e4-e61f1322a75c</t>
-  </si>
-  <si>
-    <t>s3://pilot-data-b00a7cc4-f21a-11e1-b9a4-e61f1322a75c</t>
   </si>
   <si>
     <t>s3://pilot-data-a024c3c0-f2c2-11e1-96dc-e61f1322a75c</t>
@@ -309,30 +341,30 @@
     <t>euca+ssh://149.165.146.135:8773/services/Eucalyptus</t>
   </si>
   <si>
-    <t>walrus://149.165.146.135/pilot-data-ce26c50c-f1a5-11e1-a0c8-e61f1322a75c</t>
-  </si>
-  <si>
-    <t>runtime0</t>
-  </si>
-  <si>
-    <t>gs://pilot-data-16341850-f4f2-11e1-9649-00215ec9e3ac</t>
-  </si>
-  <si>
     <t>ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-ecd0c59c-fa57-11e1-b8c6-00215ec9e3ac</t>
   </si>
   <si>
-    <t>Euca/SSH</t>
+    <t>walrus://149.165.146.135/pilot-data-53d8a0ea-fa83-11e1-8ceb-00215ec9e3ac</t>
   </si>
   <si>
-    <t>FutureGrid (Walrus)</t>
+    <t>Euca/SSH/Remote</t>
   </si>
   <si>
-    <t>FutureGrid  
-(SSH)</t>
+    <t>Euca/Walrus/Remote</t>
   </si>
   <si>
     <t>Amazon 
-(40 Cus)</t>
+(40 CUs)</t>
+  </si>
+  <si>
+    <t>walrus://149.165.146.135/pilot-data-6419b3de-fa8f-11e1-acc6-00215ec9e3ac</t>
+  </si>
+  <si>
+    <t>FG (Walrus)</t>
+  </si>
+  <si>
+    <t>FG  
+(SSH)</t>
   </si>
 </sst>
 </file>
@@ -408,8 +440,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -479,7 +519,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="59">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -505,6 +545,10 @@
     <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -530,12 +574,13 @@
     <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -599,16 +644,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FutureGrid (Walrus)</c:v>
+                  <c:v>FG (Walrus)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FutureGrid  _x000d_(SSH)</c:v>
+                  <c:v>FG  _x000d_(SSH)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Amazon</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Amazon _x000d_(40 Cus)</c:v>
+                  <c:v>Amazon _x000d_(40 CUs)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Google</c:v>
@@ -626,7 +671,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>21.72547779082</c:v>
+                  <c:v>61.96700584888001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>124.3677881957</c:v>
@@ -664,8 +709,8 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
@@ -676,16 +721,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FutureGrid (Walrus)</c:v>
+                  <c:v>FG (Walrus)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FutureGrid  _x000d_(SSH)</c:v>
+                  <c:v>FG  _x000d_(SSH)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Amazon</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Amazon _x000d_(40 Cus)</c:v>
+                  <c:v>Amazon _x000d_(40 CUs)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Google</c:v>
@@ -703,10 +748,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.09400000574</c:v>
+                  <c:v>13.52999997138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.68300004006</c:v>
+                  <c:v>29.68300004005999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>107.690000021475</c:v>
@@ -757,10 +802,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>227.9274646583128</c:v>
+                    <c:v>13.31080157479349</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>62.49732102108953</c:v>
+                    <c:v>62.49732102108994</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>149.250454951162</c:v>
@@ -784,10 +829,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>227.9274646583128</c:v>
+                    <c:v>13.31080157479349</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>62.49732102108953</c:v>
+                    <c:v>62.49732102108994</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>149.250454951162</c:v>
@@ -820,16 +865,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FutureGrid (Walrus)</c:v>
+                  <c:v>FG (Walrus)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FutureGrid  _x000d_(SSH)</c:v>
+                  <c:v>FG  _x000d_(SSH)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Amazon</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Amazon _x000d_(40 Cus)</c:v>
+                  <c:v>Amazon _x000d_(40 CUs)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Google</c:v>
@@ -847,10 +892,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>302.40736880304</c:v>
+                  <c:v>78.62730119227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>424.4536504031001</c:v>
+                  <c:v>424.4536504031</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>73.41946123839</c:v>
@@ -894,16 +939,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FutureGrid (Walrus)</c:v>
+                  <c:v>FG (Walrus)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FutureGrid  _x000d_(SSH)</c:v>
+                  <c:v>FG  _x000d_(SSH)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Amazon</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Amazon _x000d_(40 Cus)</c:v>
+                  <c:v>Amazon _x000d_(40 CUs)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Google</c:v>
@@ -921,7 +966,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.776000022888</c:v>
+                  <c:v>2.3430000305168</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.998999977111326</c:v>
@@ -970,7 +1015,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1"/>
+              <a:defRPr sz="2800" b="1"/>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -997,10 +1042,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2800"/>
+                  <a:defRPr sz="3200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE" sz="2800"/>
+                  <a:rPr lang="de-DE" sz="3200"/>
                   <a:t>Time (in sec)</a:t>
                 </a:r>
               </a:p>
@@ -1018,7 +1063,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000"/>
+              <a:defRPr sz="2400"/>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -1028,21 +1073,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1064,16 +1094,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1096,53 +1126,56 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41161.655624189814" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="75">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41161.707964814814" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="86">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K76" sheet="1 CU"/>
+    <worksheetSource ref="A1:K87" sheet="1 CU"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Run" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
     </cacheField>
     <cacheField name="PC" numFmtId="0">
-      <sharedItems count="6">
+      <sharedItems containsBlank="1" count="8">
         <s v="ec2+ssh://aws.amazon.com/"/>
         <s v="gce+ssh://google.com"/>
         <s v="euca://india.futuregrid.org"/>
         <s v="Google (Multi CU)"/>
         <s v="Amazon (Multi CU)"/>
-        <s v="Euca/SSH"/>
+        <s v="Euca/SSH/Remote"/>
+        <s v="Euca/Walrus/Remote"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="PD" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="#jobs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
     </cacheField>
     <cacheField name="MB" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="1024" count="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="128" maxValue="1024" count="3">
         <n v="1024"/>
         <n v="128"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Upload Time" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.788008928300002" maxValue="3292.7151110200002"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="16.788008928300002" maxValue="3292.7151110200002"/>
     </cacheField>
     <cacheField name="Pilot Queue" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.4648599625" maxValue="575.899488926"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="29.4648599625" maxValue="575.899488926"/>
     </cacheField>
     <cacheField name="Total Runtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="99.422956943499997" maxValue="5451.5510759400004"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="99.422956943499997" maxValue="5451.5510759400004"/>
     </cacheField>
     <cacheField name="CU qtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.4400000572200007" maxValue="1459.53800002"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9.4400000572200007" maxValue="1459.53800002"/>
     </cacheField>
     <cacheField name="CU Runtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1" maxValue="11.7300000191"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-1" maxValue="11.7300000191"/>
     </cacheField>
-    <cacheField name="Delta Runtime" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.2436988342367385" maxValue="1395.8635980072499"/>
+    <cacheField name="Delta Runtime" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.2436988342367385" maxValue="1395.8635980072499"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1154,7 +1187,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="75">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="86">
   <r>
     <n v="0"/>
     <x v="0"/>
@@ -2130,31 +2163,177 @@
     <n v="0.60999989509600006"/>
     <n v="2.6736419201039325"/>
   </r>
+  <r>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="walrus://149.165.146.135/pilot-data-53d8a0ea-fa83-11e1-8ceb-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="53.366602897600004"/>
+    <n v="80.853172063800002"/>
+    <n v="155.37746095700001"/>
+    <n v="12.6100001335"/>
+    <n v="2.03999996185"/>
+    <n v="6.5076859002500385"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="6"/>
+    <s v="walrus://149.165.146.135/pilot-data-53d8a0ea-fa83-11e1-8ceb-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="56.949111938500003"/>
+    <n v="85.093046903599998"/>
+    <n v="162.26271295500001"/>
+    <n v="12.7099997997"/>
+    <n v="2.2000000476800001"/>
+    <n v="5.3105542655200111"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="6"/>
+    <s v="walrus://149.165.146.135/pilot-data-53d8a0ea-fa83-11e1-8ceb-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="55.105841875099998"/>
+    <n v="64.546345949200003"/>
+    <n v="138.75628399799999"/>
+    <n v="13.099999904600001"/>
+    <n v="1.61000013351"/>
+    <n v="4.3940961355899901"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="6"/>
+    <s v="walrus://149.165.146.135/pilot-data-53d8a0ea-fa83-11e1-8ceb-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="54.131039857899999"/>
+    <n v="85.2641251087"/>
+    <n v="159.613272905"/>
+    <n v="11.2300000191"/>
+    <n v="3.5599999427800002"/>
+    <n v="5.4281079765200104"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="6"/>
+    <s v="walrus://149.165.146.135/pilot-data-53d8a0ea-fa83-11e1-8ceb-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="68.844893932299996"/>
+    <n v="79.786068916299996"/>
+    <n v="171.87959098799999"/>
+    <n v="13.349999904600001"/>
+    <n v="3.4400000572199998"/>
+    <n v="6.4586281775799819"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="6"/>
+    <s v="walrus://149.165.146.135/pilot-data-53d8a0ea-fa83-11e1-8ceb-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="73.152517080300001"/>
+    <n v="80.949192047099999"/>
+    <n v="174.32444691699999"/>
+    <n v="12.9099998474"/>
+    <n v="1.8100001811999999"/>
+    <n v="5.5027377609999917"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="6"/>
+    <s v="walrus://149.165.146.135/pilot-data-53d8a0ea-fa83-11e1-8ceb-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="66.084551095999998"/>
+    <n v="85.212949991200006"/>
+    <n v="171.531783104"/>
+    <n v="11.1800000668"/>
+    <n v="3.6499998569500001"/>
+    <n v="5.40428209305"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="6"/>
+    <s v="walrus://149.165.146.135/pilot-data-53d8a0ea-fa83-11e1-8ceb-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="70.706746816600003"/>
+    <n v="80.6141541004"/>
+    <n v="171.445933819"/>
+    <n v="13.2000000477"/>
+    <n v="1.09999990463"/>
+    <n v="5.8250329496699749"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="6"/>
+    <s v="walrus://149.165.146.135/pilot-data-53d8a0ea-fa83-11e1-8ceb-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="55.833614110900001"/>
+    <n v="64.349021911600005"/>
+    <n v="141.427967072"/>
+    <n v="13.2999999523"/>
+    <n v="0.87000012397799997"/>
+    <n v="7.0753309732219805"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="6"/>
+    <s v="walrus://149.165.146.135/pilot-data-53d8a0ea-fa83-11e1-8ceb-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="65.495138883600006"/>
+    <n v="79.604934930799999"/>
+    <n v="174.32905793200001"/>
+    <n v="21.710000038099999"/>
+    <n v="3.1500000953699998"/>
+    <n v="4.3689839841300397"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" rowHeaderCaption="" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" rowHeaderCaption="" fieldListSortAscending="1">
   <location ref="O15:U23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="2"/>
+      <items count="9">
+        <item h="1" x="2"/>
+        <item x="6"/>
         <item x="5"/>
         <item x="0"/>
         <item x="4"/>
         <item x="1"/>
         <item x="3"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
+      <items count="4">
         <item h="1" x="1"/>
         <item x="0"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2170,9 +2349,6 @@
   </rowFields>
   <rowItems count="7">
     <i>
-      <x/>
-    </i>
-    <i>
       <x v="1"/>
     </i>
     <i>
@@ -2186,6 +2362,9 @@
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -2226,7 +2405,7 @@
     <dataField name="STABW - Total Runtime" fld="7" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2240,31 +2419,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_2" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2589,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T76" sqref="T76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2635,22 +2826,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -2689,7 +2880,7 @@
         <v>14.560280084419958</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2700,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2728,7 +2919,7 @@
         <v>13.367931842810009</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2739,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2767,7 +2958,7 @@
         <v>7.8964829443000042</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2778,7 +2969,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2806,7 +2997,7 @@
         <v>8.2398309710400071</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2814,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2845,7 +3036,7 @@
         <v>8.6135549540499596</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2856,7 +3047,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2884,7 +3075,7 @@
         <v>12.644558906100002</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2892,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2923,7 +3114,7 @@
         <v>8.2077400683599819</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2934,7 +3125,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2962,7 +3153,7 @@
         <v>13.430824041380006</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2970,10 +3161,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3001,7 +3192,7 @@
         <v>8.253701925309997</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -3012,7 +3203,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3040,7 +3231,7 @@
         <v>8.1793749331200019</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -3051,7 +3242,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3079,7 +3270,7 @@
         <v>13.109730719809988</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -3087,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3118,7 +3309,7 @@
         <v>8.1437099005897835</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>4</v>
@@ -3135,7 +3326,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3163,7 +3354,7 @@
         <v>8.4392030238299753</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -3171,10 +3362,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3202,10 +3393,10 @@
         <v>7.3199648849899859</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -3213,10 +3404,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3244,28 +3435,28 @@
         <v>8.6895410985800936</v>
       </c>
       <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>32</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>24</v>
-      </c>
-      <c r="T16" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -3276,7 +3467,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3304,31 +3495,31 @@
         <v>7.6052060126000356</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N17" t="s">
         <v>62</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="P17" s="5">
-        <v>21.725477790819998</v>
+        <v>61.967005848880014</v>
       </c>
       <c r="Q17" s="5">
-        <v>15.09400000574</v>
+        <v>13.529999971379999</v>
       </c>
       <c r="R17" s="5">
-        <v>302.40736880303996</v>
+        <v>78.627301192269996</v>
       </c>
       <c r="S17" s="5">
-        <v>350.38976254479996</v>
+        <v>162.09485106470001</v>
       </c>
       <c r="T17" s="5">
-        <v>2.7760000228879997</v>
+        <v>2.3430000305167997</v>
       </c>
       <c r="U17" s="5">
-        <v>227.92746465831283</v>
+        <v>13.310801574793494</v>
       </c>
       <c r="V17" s="5">
         <v>1</v>
@@ -3339,10 +3530,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3370,31 +3561,31 @@
         <v>8.6064710611399278</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>63</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P18" s="5">
-        <v>124.3677881957</v>
+        <v>124.36778819570002</v>
       </c>
       <c r="Q18" s="5">
-        <v>29.683000040060005</v>
+        <v>29.683000040059994</v>
       </c>
       <c r="R18" s="5">
-        <v>424.45365040310008</v>
+        <v>424.45365040309997</v>
       </c>
       <c r="S18" s="5">
         <v>582.93691198819999</v>
       </c>
       <c r="T18" s="5">
-        <v>1.9989999771113258</v>
+        <v>1.998999977111326</v>
       </c>
       <c r="U18" s="5">
-        <v>62.497321021089526</v>
+        <v>62.497321021089945</v>
       </c>
       <c r="V18" s="5">
         <v>3</v>
@@ -3408,7 +3599,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3436,10 +3627,10 @@
         <v>14.680315971239963</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>7</v>
@@ -3471,10 +3662,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3502,13 +3693,13 @@
         <v>8.3644220831702114</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P20" s="5">
         <v>202.29683916580001</v>
@@ -3540,7 +3731,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3568,13 +3759,13 @@
         <v>7.3524658679399977</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P21" s="5">
         <v>1004.747153429</v>
@@ -3603,10 +3794,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3634,13 +3825,13 @@
         <v>7.1515111900603188</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P22" s="5">
         <v>1929.87040639</v>
@@ -3672,7 +3863,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3700,28 +3891,28 @@
         <v>7.5511209967799573</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P23" s="5">
-        <v>541.41114161245616</v>
+        <v>510.48138050643394</v>
       </c>
       <c r="Q23" s="5">
-        <v>273.34407956055753</v>
+        <v>254.9371725448155</v>
       </c>
       <c r="R23" s="5">
-        <v>135.5000644633364</v>
+        <v>115.73578059841832</v>
       </c>
       <c r="S23" s="5">
-        <v>1166.8507527942422</v>
+        <v>1082.8330898921547</v>
       </c>
       <c r="T23" s="5">
-        <v>3.7118106052737616</v>
+        <v>3.5849225371661446</v>
       </c>
       <c r="U23" s="5">
-        <v>1244.024348571588</v>
+        <v>1234.32273704049</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -3729,10 +3920,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3760,7 +3951,7 @@
         <v>8.8604111671199917</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -3771,7 +3962,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3799,7 +3990,7 @@
         <v>15.025970935559997</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -3807,10 +3998,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3838,7 +4029,7 @@
         <v>8.1836228370469826</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -3849,7 +4040,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3877,7 +4068,7 @@
         <v>7.4114298826100367</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -3885,10 +4076,10 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3916,7 +4107,7 @@
         <v>7.8331091400200421</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -3927,7 +4118,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3955,7 +4146,7 @@
         <v>8.0995032785000376</v>
       </c>
       <c r="L29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -3966,7 +4157,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3994,7 +4185,7 @@
         <v>8.8520209790299873</v>
       </c>
       <c r="L30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -4005,7 +4196,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -4033,7 +4224,7 @@
         <v>8.3799438480299955</v>
       </c>
       <c r="L31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -4044,7 +4235,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -4072,7 +4263,7 @@
         <v>13.464279890249998</v>
       </c>
       <c r="L32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4083,7 +4274,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -4111,7 +4302,7 @@
         <v>8.4689979554199795</v>
       </c>
       <c r="L33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4122,7 +4313,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -4150,7 +4341,7 @@
         <v>7.7552559369980258</v>
       </c>
       <c r="L34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4161,7 +4352,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -4189,7 +4380,7 @@
         <v>7.195799828289978</v>
       </c>
       <c r="L35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -4200,7 +4391,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -4228,7 +4419,7 @@
         <v>7.4545691015600255</v>
       </c>
       <c r="L36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4239,7 +4430,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -4267,7 +4458,7 @@
         <v>9.0046410557599188</v>
       </c>
       <c r="L37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4278,7 +4469,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -4306,7 +4497,7 @@
         <v>8.5464332107000018</v>
       </c>
       <c r="L38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4317,7 +4508,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4345,7 +4536,7 @@
         <v>7.1577849386000025</v>
       </c>
       <c r="L39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4353,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4384,7 +4575,7 @@
         <v>37.796485900610037</v>
       </c>
       <c r="L40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4392,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4423,7 +4614,7 @@
         <v>13.38279771806998</v>
       </c>
       <c r="L41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4431,10 +4622,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4462,7 +4653,7 @@
         <v>11.669551839959695</v>
       </c>
       <c r="L42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -4470,10 +4661,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4501,7 +4692,7 @@
         <v>11.131675958610003</v>
       </c>
       <c r="L43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4509,10 +4700,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4540,7 +4731,7 @@
         <v>8.7560269836099991</v>
       </c>
       <c r="L44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4548,10 +4739,10 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4579,7 +4770,7 @@
         <v>8.629621744480005</v>
       </c>
       <c r="L45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -4587,10 +4778,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4618,7 +4809,7 @@
         <v>7.4500191220200236</v>
       </c>
       <c r="L46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4626,10 +4817,10 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4657,7 +4848,7 @@
         <v>8.5761549470599903</v>
       </c>
       <c r="L47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4665,10 +4856,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4696,7 +4887,7 @@
         <v>8.5227568143899362</v>
       </c>
       <c r="L48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -4704,10 +4895,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" s="9">
         <v>40</v>
@@ -4735,7 +4926,7 @@
         <v>1003.2050159537603</v>
       </c>
       <c r="L49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4743,10 +4934,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50" s="9">
         <v>40</v>
@@ -4774,7 +4965,7 @@
         <v>931.98281388240957</v>
       </c>
       <c r="L50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -4782,10 +4973,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" s="9">
         <v>40</v>
@@ -4813,7 +5004,7 @@
         <v>1041.1296799831698</v>
       </c>
       <c r="L51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4821,10 +5012,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" s="9">
         <v>40</v>
@@ -4852,7 +5043,7 @@
         <v>1011.4563330004503</v>
       </c>
       <c r="L52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4860,10 +5051,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D53" s="9">
         <v>40</v>
@@ -4891,7 +5082,7 @@
         <v>1395.8635980072499</v>
       </c>
       <c r="L53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4899,10 +5090,10 @@
         <v>5</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D54" s="9">
         <v>40</v>
@@ -4930,7 +5121,7 @@
         <v>1087.4554550176003</v>
       </c>
       <c r="L54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4938,10 +5129,10 @@
         <v>6</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D55">
         <v>40</v>
@@ -4969,7 +5160,7 @@
         <v>1000.7751201542096</v>
       </c>
       <c r="L55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4977,10 +5168,10 @@
         <v>7</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56">
         <v>40</v>
@@ -5008,7 +5199,7 @@
         <v>1032.2250032023103</v>
       </c>
       <c r="L56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -5016,10 +5207,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57">
         <v>40</v>
@@ -5047,7 +5238,7 @@
         <v>573.00246487739003</v>
       </c>
       <c r="L57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -5055,10 +5246,10 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58">
         <v>40</v>
@@ -5086,7 +5277,7 @@
         <v>578.17414883260994</v>
       </c>
       <c r="L58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -5094,10 +5285,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59">
         <v>40</v>
@@ -5125,7 +5316,7 @@
         <v>551.48167504400988</v>
       </c>
       <c r="L59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -5133,10 +5324,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D60">
         <v>40</v>
@@ -5164,7 +5355,7 @@
         <v>440.66134606680009</v>
       </c>
       <c r="L60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -5172,10 +5363,10 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D61">
         <v>40</v>
@@ -5203,7 +5394,7 @@
         <v>452.4602960395199</v>
       </c>
       <c r="L61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -5211,10 +5402,10 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D62">
         <v>40</v>
@@ -5242,7 +5433,7 @@
         <v>560.01615800577019</v>
       </c>
       <c r="L62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -5250,10 +5441,10 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D63">
         <v>40</v>
@@ -5281,7 +5472,7 @@
         <v>514.55302483165997</v>
       </c>
       <c r="L63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -5289,10 +5480,10 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D64">
         <v>40</v>
@@ -5320,7 +5511,7 @@
         <v>382.14236990651989</v>
       </c>
       <c r="L64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -5328,10 +5519,10 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D65">
         <v>40</v>
@@ -5359,7 +5550,7 @@
         <v>530.78910392813987</v>
       </c>
       <c r="L65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -5367,10 +5558,10 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66">
         <v>40</v>
@@ -5398,7 +5589,7 @@
         <v>559.43018410750994</v>
       </c>
       <c r="L66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -5406,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -5437,7 +5628,7 @@
         <v>2.536844014090093</v>
       </c>
       <c r="L67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -5445,10 +5636,10 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -5476,7 +5667,7 @@
         <v>1.5980198388219833</v>
       </c>
       <c r="L68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -5484,10 +5675,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -5515,7 +5706,7 @@
         <v>2.6621060362200524</v>
       </c>
       <c r="L69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -5523,10 +5714,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -5554,7 +5745,7 @@
         <v>3.8658001424199711</v>
       </c>
       <c r="L70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -5562,10 +5753,10 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -5593,7 +5784,7 @@
         <v>2.736457109413891</v>
       </c>
       <c r="L71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -5601,10 +5792,10 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -5632,7 +5823,7 @@
         <v>1.2436988342367385</v>
       </c>
       <c r="L72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -5640,10 +5831,10 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -5671,7 +5862,7 @@
         <v>2.5393428808599765</v>
       </c>
       <c r="L73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -5679,10 +5870,10 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -5710,7 +5901,7 @@
         <v>2.5703768725098826</v>
       </c>
       <c r="L74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -5718,10 +5909,10 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -5749,7 +5940,7 @@
         <v>1.90844607360998</v>
       </c>
       <c r="L75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -5757,10 +5948,10 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -5788,12 +5979,402 @@
         <v>2.6736419201039325</v>
       </c>
       <c r="L76" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1024</v>
+      </c>
+      <c r="F77">
+        <v>53.366602897600004</v>
+      </c>
+      <c r="G77">
+        <v>80.853172063800002</v>
+      </c>
+      <c r="H77">
+        <v>155.37746095700001</v>
+      </c>
+      <c r="I77">
+        <v>12.6100001335</v>
+      </c>
+      <c r="J77">
+        <v>2.03999996185</v>
+      </c>
+      <c r="K77" s="7">
+        <f t="shared" ref="K77:K86" si="3">H77-(SUM(F77,G77,I77,J77))</f>
+        <v>6.5076859002500385</v>
+      </c>
+      <c r="L77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1024</v>
+      </c>
+      <c r="F78">
+        <v>56.949111938500003</v>
+      </c>
+      <c r="G78">
+        <v>85.093046903599998</v>
+      </c>
+      <c r="H78">
+        <v>162.26271295500001</v>
+      </c>
+      <c r="I78">
+        <v>12.7099997997</v>
+      </c>
+      <c r="J78">
+        <v>2.2000000476800001</v>
+      </c>
+      <c r="K78" s="7">
+        <f t="shared" si="3"/>
+        <v>5.3105542655200111</v>
+      </c>
+      <c r="L78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1024</v>
+      </c>
+      <c r="F79">
+        <v>55.105841875099998</v>
+      </c>
+      <c r="G79">
+        <v>64.546345949200003</v>
+      </c>
+      <c r="H79">
+        <v>138.75628399799999</v>
+      </c>
+      <c r="I79">
+        <v>13.099999904600001</v>
+      </c>
+      <c r="J79">
+        <v>1.61000013351</v>
+      </c>
+      <c r="K79" s="7">
+        <f t="shared" si="3"/>
+        <v>4.3940961355899901</v>
+      </c>
+      <c r="L79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1024</v>
+      </c>
+      <c r="F80">
+        <v>54.131039857899999</v>
+      </c>
+      <c r="G80">
+        <v>85.2641251087</v>
+      </c>
+      <c r="H80">
+        <v>159.613272905</v>
+      </c>
+      <c r="I80">
+        <v>11.2300000191</v>
+      </c>
+      <c r="J80">
+        <v>3.5599999427800002</v>
+      </c>
+      <c r="K80" s="7">
+        <f t="shared" si="3"/>
+        <v>5.4281079765200104</v>
+      </c>
+      <c r="L80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1024</v>
+      </c>
+      <c r="F81">
+        <v>68.844893932299996</v>
+      </c>
+      <c r="G81">
+        <v>79.786068916299996</v>
+      </c>
+      <c r="H81">
+        <v>171.87959098799999</v>
+      </c>
+      <c r="I81">
+        <v>13.349999904600001</v>
+      </c>
+      <c r="J81">
+        <v>3.4400000572199998</v>
+      </c>
+      <c r="K81" s="7">
+        <f t="shared" si="3"/>
+        <v>6.4586281775799819</v>
+      </c>
+      <c r="L81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1024</v>
+      </c>
+      <c r="F82">
+        <v>73.152517080300001</v>
+      </c>
+      <c r="G82">
+        <v>80.949192047099999</v>
+      </c>
+      <c r="H82">
+        <v>174.32444691699999</v>
+      </c>
+      <c r="I82">
+        <v>12.9099998474</v>
+      </c>
+      <c r="J82">
+        <v>1.8100001811999999</v>
+      </c>
+      <c r="K82" s="7">
+        <f t="shared" si="3"/>
+        <v>5.5027377609999917</v>
+      </c>
+      <c r="L82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1024</v>
+      </c>
+      <c r="F83">
+        <v>66.084551095999998</v>
+      </c>
+      <c r="G83">
+        <v>85.212949991200006</v>
+      </c>
+      <c r="H83">
+        <v>171.531783104</v>
+      </c>
+      <c r="I83">
+        <v>11.1800000668</v>
+      </c>
+      <c r="J83">
+        <v>3.6499998569500001</v>
+      </c>
+      <c r="K83" s="7">
+        <f t="shared" si="3"/>
+        <v>5.40428209305</v>
+      </c>
+      <c r="L83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1024</v>
+      </c>
+      <c r="F84">
+        <v>70.706746816600003</v>
+      </c>
+      <c r="G84">
+        <v>80.6141541004</v>
+      </c>
+      <c r="H84">
+        <v>171.445933819</v>
+      </c>
+      <c r="I84">
+        <v>13.2000000477</v>
+      </c>
+      <c r="J84">
+        <v>1.09999990463</v>
+      </c>
+      <c r="K84" s="7">
+        <f t="shared" si="3"/>
+        <v>5.8250329496699749</v>
+      </c>
+      <c r="L84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1024</v>
+      </c>
+      <c r="F85">
+        <v>55.833614110900001</v>
+      </c>
+      <c r="G85">
+        <v>64.349021911600005</v>
+      </c>
+      <c r="H85">
+        <v>141.427967072</v>
+      </c>
+      <c r="I85">
+        <v>13.2999999523</v>
+      </c>
+      <c r="J85">
+        <v>0.87000012397799997</v>
+      </c>
+      <c r="K85" s="7">
+        <f t="shared" si="3"/>
+        <v>7.0753309732219805</v>
+      </c>
+      <c r="L85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1024</v>
+      </c>
+      <c r="F86">
+        <v>65.495138883600006</v>
+      </c>
+      <c r="G86">
+        <v>79.604934930799999</v>
+      </c>
+      <c r="H86">
+        <v>174.32905793200001</v>
+      </c>
+      <c r="I86">
+        <v>21.710000038099999</v>
+      </c>
+      <c r="J86">
+        <v>3.1500000953699998</v>
+      </c>
+      <c r="K86" s="7">
+        <f t="shared" si="3"/>
+        <v>4.3689839841300397</v>
+      </c>
+      <c r="L86" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L77"/>
-  <sortState ref="O15:U23">
+  <sortState ref="O15:U24">
     <sortCondition ref="P17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5848,22 +6429,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5871,10 +6452,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="9">
         <v>8</v>
@@ -5901,7 +6482,7 @@
         <v>178.7</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5909,10 +6490,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="9">
         <v>8</v>
@@ -5939,7 +6520,7 @@
         <v>148</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5947,10 +6528,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="9">
         <v>8</v>
@@ -5977,7 +6558,7 @@
         <v>133.4</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5985,10 +6566,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9">
         <v>40</v>
@@ -6015,7 +6596,7 @@
         <v>1003.2</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6023,10 +6604,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="9">
         <v>40</v>
@@ -6053,7 +6634,7 @@
         <v>932</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6061,10 +6642,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9">
         <v>40</v>
@@ -6091,7 +6672,7 @@
         <v>1041.0999999999999</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6099,10 +6680,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9">
         <v>40</v>
@@ -6129,7 +6710,7 @@
         <v>1011.5</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6137,10 +6718,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9">
         <v>40</v>
@@ -6167,7 +6748,7 @@
         <v>1395.9</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6175,10 +6756,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9">
         <v>40</v>
@@ -6205,7 +6786,7 @@
         <v>1087.5</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6213,10 +6794,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>40</v>
@@ -6243,7 +6824,7 @@
         <v>1000.8</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6251,10 +6832,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>40</v>
@@ -6281,7 +6862,7 @@
         <v>1001.8</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6292,7 +6873,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>40</v>
@@ -6319,10 +6900,10 @@
         <v>1002.8</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6333,7 +6914,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>40</v>
@@ -6360,10 +6941,10 @@
         <v>1003.8</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6374,7 +6955,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>40</v>
@@ -6401,10 +6982,10 @@
         <v>1004.8</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -6415,7 +6996,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>40</v>
@@ -6442,10 +7023,10 @@
         <v>1005.8</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -6456,7 +7037,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -6483,10 +7064,10 @@
         <v>1006.8</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -6497,7 +7078,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>40</v>
@@ -6524,10 +7105,10 @@
         <v>1007.8</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -6538,7 +7119,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>40</v>
@@ -6565,10 +7146,10 @@
         <v>1008.8</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -6579,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>40</v>
@@ -6606,10 +7187,10 @@
         <v>1009.8</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -6620,7 +7201,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>40</v>
@@ -6647,10 +7228,10 @@
         <v>1010.8</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -6661,7 +7242,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <v>40</v>
@@ -6688,10 +7269,10 @@
         <v>1011.8</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -6702,7 +7283,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>40</v>
@@ -6729,10 +7310,10 @@
         <v>1012.8</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -6743,7 +7324,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>40</v>
@@ -6770,10 +7351,10 @@
         <v>1013.8</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -6784,7 +7365,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25">
         <v>40</v>
@@ -6811,10 +7392,10 @@
         <v>1014.8</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6830,20 +7411,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:J45"/>
+      <selection activeCell="G12" sqref="G12:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6866,16 +7449,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -6883,11 +7466,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -6895,30 +7478,30 @@
         <v>1024</v>
       </c>
       <c r="F2">
-        <v>308.80335187899999</v>
+        <v>122.625741959</v>
       </c>
       <c r="G2">
-        <v>368.69949197800003</v>
+        <v>406.30978512799999</v>
       </c>
       <c r="H2">
-        <v>702.60343480100005</v>
+        <v>558.12237095800003</v>
       </c>
       <c r="I2">
-        <v>12.8199999332</v>
+        <v>22.990000009500001</v>
       </c>
       <c r="J2">
-        <v>3.3200001716599998</v>
+        <v>3.65999984741</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6927,30 +7510,30 @@
         <v>1024</v>
       </c>
       <c r="F3">
-        <v>162.707400084</v>
+        <v>122.455549955</v>
       </c>
       <c r="G3">
-        <v>68.354622840900007</v>
+        <v>368.07666397100002</v>
       </c>
       <c r="H3">
-        <v>366.30230307599999</v>
+        <v>511.69023394599998</v>
       </c>
       <c r="I3">
-        <v>116.230000019</v>
+        <v>19.190000057199999</v>
       </c>
       <c r="J3">
-        <v>4.4500000476799997</v>
+        <v>0.37000012397799997</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6959,318 +7542,318 @@
         <v>1024</v>
       </c>
       <c r="F4">
-        <v>631.78733897200004</v>
+        <v>123.313658953</v>
       </c>
       <c r="G4">
-        <v>80.188972949999993</v>
+        <v>441.78992700600003</v>
       </c>
       <c r="H4">
-        <v>845.18161511400001</v>
+        <v>634.44569206200003</v>
       </c>
       <c r="I4">
-        <v>120.150000095</v>
+        <v>64.230000019100004</v>
       </c>
       <c r="J4">
-        <v>5.1199998855600004</v>
+        <v>2.4500000476800001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F5">
-        <v>32.281590938599997</v>
+        <v>122.516154051</v>
       </c>
       <c r="G5">
-        <v>53.9475212097</v>
+        <v>420.93793296799998</v>
       </c>
       <c r="H5">
-        <v>117.367043972</v>
+        <v>581.68988704699996</v>
       </c>
       <c r="I5">
-        <v>13.599999904600001</v>
+        <v>29.419999837900001</v>
       </c>
       <c r="J5">
-        <v>4.17000007629</v>
+        <v>4.9500000476799997</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F6">
-        <v>17.992821216599999</v>
+        <v>122.230736971</v>
       </c>
       <c r="G6">
-        <v>75.546770811100004</v>
+        <v>477.67605185500003</v>
       </c>
       <c r="H6">
-        <v>120.786075115</v>
+        <v>630.133245945</v>
       </c>
       <c r="I6">
-        <v>15.2100000381</v>
+        <v>26.600000143100001</v>
       </c>
       <c r="J6">
-        <v>4.1400001049000004</v>
+        <v>0.88999986648600005</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F7">
-        <v>19.408075094200001</v>
+        <v>122.937199116</v>
       </c>
       <c r="G7">
-        <v>74.8276648521</v>
+        <v>488.21469998399999</v>
       </c>
       <c r="H7">
-        <v>121.42557096500001</v>
+        <v>634.325598001</v>
       </c>
       <c r="I7">
-        <v>17.7699999809</v>
+        <v>21.920000076299999</v>
       </c>
       <c r="J7">
-        <v>1.1800000667599999</v>
+        <v>9.9999904632600001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F8">
-        <v>126.943170071</v>
+        <v>130.94049096099999</v>
       </c>
       <c r="G8">
-        <v>34.313523054100003</v>
+        <v>385.66926407800003</v>
       </c>
       <c r="H8">
-        <v>180.41024804099999</v>
+        <v>563.85909795800001</v>
       </c>
       <c r="I8">
-        <v>9.4400000572200007</v>
+        <v>41.470000028599998</v>
       </c>
       <c r="J8">
-        <v>1.09999990463</v>
+        <v>3.2400000095400001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F9">
-        <v>20.925189018200001</v>
+        <v>131.086699009</v>
       </c>
       <c r="G9">
-        <v>76.314666032800005</v>
+        <v>357.81737399100001</v>
       </c>
       <c r="H9">
-        <v>122.424413919</v>
+        <v>518.10444998699995</v>
       </c>
       <c r="I9">
-        <v>13.5399999619</v>
+        <v>25.350000143100001</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>1.2799999713900001</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F10">
-        <v>91.188610076900005</v>
+        <v>122.829023838</v>
       </c>
       <c r="G10">
-        <v>38.8096108437</v>
+        <v>352.59382700899999</v>
       </c>
       <c r="H10">
-        <v>159.18596100799999</v>
+        <v>506.61129689199998</v>
       </c>
       <c r="I10">
-        <v>16.4100000858</v>
+        <v>26.75</v>
       </c>
       <c r="J10">
-        <v>4.5699999332400001</v>
+        <v>2.5299999713900001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F11">
-        <v>19.852886915199999</v>
+        <v>122.742627144</v>
       </c>
       <c r="G11">
-        <v>44.359246015499998</v>
+        <v>545.45097804099998</v>
       </c>
       <c r="H11">
-        <v>99.422956943499997</v>
+        <v>690.387247086</v>
       </c>
       <c r="I11">
-        <v>16.650000095399999</v>
+        <v>18.9100000858</v>
       </c>
       <c r="J11">
-        <v>5.1299998760200003</v>
+        <v>0.60999989509600006</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F12">
-        <v>93.417258977900005</v>
+        <v>80.444903850599999</v>
       </c>
       <c r="G12">
-        <v>34.373111009600002</v>
+        <v>94.621517181399994</v>
       </c>
       <c r="H12">
-        <v>156.98407197</v>
+        <v>204.297996044</v>
       </c>
       <c r="I12">
-        <v>17.849999904600001</v>
+        <v>21.380000114400001</v>
       </c>
       <c r="J12">
-        <v>3.09000015259</v>
+        <v>3.1499998569500001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F13">
-        <v>38.531898021700002</v>
+        <v>70.613453149799994</v>
       </c>
       <c r="G13">
-        <v>70.455085039099998</v>
+        <v>79.199844837200004</v>
       </c>
       <c r="H13">
-        <v>130.146358013</v>
+        <v>179.04170608499999</v>
       </c>
       <c r="I13">
-        <v>11.8100001812</v>
+        <v>21.8900001049</v>
       </c>
       <c r="J13">
-        <v>1.1699998378800001</v>
+        <v>2.6899998188000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -7279,30 +7862,30 @@
         <v>1024</v>
       </c>
       <c r="F14">
-        <v>164.963943005</v>
+        <v>68.524448871600001</v>
       </c>
       <c r="G14">
-        <v>49.645243167899999</v>
+        <v>85.041723012899993</v>
       </c>
       <c r="H14">
-        <v>334.128916979</v>
+        <v>185.87090802200001</v>
       </c>
       <c r="I14">
-        <v>100.49000001</v>
+        <v>22.340000152599998</v>
       </c>
       <c r="J14">
-        <v>5.92000007629</v>
+        <v>2.61999988556</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -7311,30 +7894,30 @@
         <v>1024</v>
       </c>
       <c r="F15">
-        <v>1856.70376205</v>
+        <v>92.479223966600003</v>
       </c>
       <c r="G15">
-        <v>38.092552900299999</v>
+        <v>84.432940006300001</v>
       </c>
       <c r="H15">
-        <v>1976.1700248699999</v>
+        <v>207.16251492500001</v>
       </c>
       <c r="I15">
-        <v>69.259999990500006</v>
+        <v>19.830000162099999</v>
       </c>
       <c r="J15">
-        <v>3.9700000286099999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -7343,30 +7926,30 @@
         <v>1024</v>
       </c>
       <c r="F16">
-        <v>185.32842993700001</v>
+        <v>79.500350952100007</v>
       </c>
       <c r="G16">
-        <v>85.434698104899994</v>
+        <v>89.227121830000002</v>
       </c>
       <c r="H16">
-        <v>388.31233096099999</v>
+        <v>188.94854998599999</v>
       </c>
       <c r="I16">
-        <v>103.910000086</v>
+        <v>13.670000076299999</v>
       </c>
       <c r="J16">
-        <v>5.1999998092700004</v>
+        <v>1.01999998093</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -7375,30 +7958,30 @@
         <v>1024</v>
       </c>
       <c r="F17">
-        <v>692.01664090199995</v>
+        <v>64.690178871200004</v>
       </c>
       <c r="G17">
-        <v>34.557440042499998</v>
+        <v>84.834069013600001</v>
       </c>
       <c r="H17">
-        <v>816.00404596299995</v>
+        <v>166.716521978</v>
       </c>
       <c r="I17">
-        <v>80.5</v>
+        <v>11.129999875999999</v>
       </c>
       <c r="J17">
-        <v>1.61000013351</v>
+        <v>2.8900001048999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7407,30 +7990,30 @@
         <v>1024</v>
       </c>
       <c r="F18">
-        <v>315.39937710800001</v>
+        <v>62.510327816</v>
       </c>
       <c r="G18">
-        <v>84.239410877200001</v>
+        <v>58.212373018299999</v>
       </c>
       <c r="H18">
-        <v>607.498153925</v>
+        <v>141.924422026</v>
       </c>
       <c r="I18">
-        <v>197.910000086</v>
+        <v>10.1800000668</v>
       </c>
       <c r="J18">
-        <v>2.8399999141699999</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -7439,30 +8022,30 @@
         <v>1024</v>
       </c>
       <c r="F19">
-        <v>1744.1008632200001</v>
+        <v>63.705212116200002</v>
       </c>
       <c r="G19">
-        <v>35.336174964900003</v>
+        <v>63.459511995299998</v>
       </c>
       <c r="H19">
-        <v>1842.7665791500001</v>
+        <v>164.43772196800001</v>
       </c>
       <c r="I19">
-        <v>51.3399999142</v>
+        <v>29.159999847400002</v>
       </c>
       <c r="J19">
-        <v>3.2999999523199999</v>
+        <v>4.9400000572199998</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -7471,30 +8054,30 @@
         <v>1024</v>
       </c>
       <c r="F20">
-        <v>157.73092603699999</v>
+        <v>69.231099843999999</v>
       </c>
       <c r="G20">
-        <v>86.861287832299993</v>
+        <v>63.455176115</v>
       </c>
       <c r="H20">
-        <v>374.15741992</v>
+        <v>151.88681888599999</v>
       </c>
       <c r="I20">
-        <v>110.230000019</v>
+        <v>10.2099997997</v>
       </c>
       <c r="J20">
-        <v>11.7300000191</v>
+        <v>4.6400001049000004</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7503,723 +8086,19 @@
         <v>1024</v>
       </c>
       <c r="F21">
-        <v>711.83364296000002</v>
+        <v>65.7373139858</v>
       </c>
       <c r="G21">
-        <v>38.574496030799999</v>
+        <v>68.520640134800004</v>
       </c>
       <c r="H21">
-        <v>815.74461007100001</v>
+        <v>163.50704503099999</v>
       </c>
       <c r="I21">
-        <v>52.799999952299999</v>
+        <v>22.690000057199999</v>
       </c>
       <c r="J21">
-        <v>3.9300000667599999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1024</v>
-      </c>
-      <c r="F22">
-        <v>159.88556003599999</v>
-      </c>
-      <c r="G22">
-        <v>44.3581089973</v>
-      </c>
-      <c r="H22">
-        <v>329.81398510899999</v>
-      </c>
-      <c r="I22">
-        <v>105.130000114</v>
-      </c>
-      <c r="J22">
-        <v>5.7599999904599999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1024</v>
-      </c>
-      <c r="F23">
-        <v>712.20381307599996</v>
-      </c>
-      <c r="G23">
-        <v>35.784937858600003</v>
-      </c>
-      <c r="H23">
-        <v>809.29317307500003</v>
-      </c>
-      <c r="I23">
-        <v>51.090000152599998</v>
-      </c>
-      <c r="J23">
-        <v>1.84999990463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1024</v>
-      </c>
-      <c r="F24">
-        <v>167.37656402600001</v>
-      </c>
-      <c r="G24">
-        <v>83.876055002200005</v>
-      </c>
-      <c r="H24">
-        <v>362.74508500100001</v>
-      </c>
-      <c r="I24">
-        <v>97.380000114400005</v>
-      </c>
-      <c r="J24">
-        <v>6.7599999904599999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1024</v>
-      </c>
-      <c r="F25">
-        <v>2002.243119</v>
-      </c>
-      <c r="G25">
-        <v>40.4865391254</v>
-      </c>
-      <c r="H25">
-        <v>2154.2311692200001</v>
-      </c>
-      <c r="I25">
-        <v>100.359999895</v>
-      </c>
-      <c r="J25">
-        <v>3.9900000095400001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1024</v>
-      </c>
-      <c r="F26">
-        <v>162.53147912</v>
-      </c>
-      <c r="G26">
-        <v>82.347364902500004</v>
-      </c>
-      <c r="H26">
-        <v>356.379965067</v>
-      </c>
-      <c r="I26">
-        <v>98.759999990500006</v>
-      </c>
-      <c r="J26">
-        <v>5.1900000572199998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1024</v>
-      </c>
-      <c r="F27">
-        <v>713.629225969</v>
-      </c>
-      <c r="G27">
-        <v>34.643714904799999</v>
-      </c>
-      <c r="H27">
-        <v>817.61335206000001</v>
-      </c>
-      <c r="I27">
-        <v>56.420000076299999</v>
-      </c>
-      <c r="J27">
-        <v>4.0599999427800002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1024</v>
-      </c>
-      <c r="F28">
-        <v>158.08333611500001</v>
-      </c>
-      <c r="G28">
-        <v>49.553355932199999</v>
-      </c>
-      <c r="H28">
-        <v>339.21266293500003</v>
-      </c>
-      <c r="I28">
-        <v>110.730000019</v>
-      </c>
-      <c r="J28">
-        <v>5.8199999332400001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1024</v>
-      </c>
-      <c r="F29">
-        <v>754.98489308399996</v>
-      </c>
-      <c r="G29">
-        <v>34.906085967999999</v>
-      </c>
-      <c r="H29">
-        <v>855.21460199399996</v>
-      </c>
-      <c r="I29">
-        <v>56.350000143099997</v>
-      </c>
-      <c r="J29">
-        <v>0.78999996185300003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1024</v>
-      </c>
-      <c r="F30">
-        <v>171.67495202999999</v>
-      </c>
-      <c r="G30">
-        <v>94.932879924800005</v>
-      </c>
-      <c r="H30">
-        <v>378.10926198999999</v>
-      </c>
-      <c r="I30">
-        <v>102.25</v>
-      </c>
-      <c r="J30">
-        <v>1.84000015259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1024</v>
-      </c>
-      <c r="F31">
-        <v>708.07976603500003</v>
-      </c>
-      <c r="G31">
-        <v>32.472221851299999</v>
-      </c>
-      <c r="H31">
-        <v>835.98509693100004</v>
-      </c>
-      <c r="I31">
-        <v>84.539999961899994</v>
-      </c>
-      <c r="J31">
-        <v>3.0599999427800002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1024</v>
-      </c>
-      <c r="F32">
-        <v>159.795846939</v>
-      </c>
-      <c r="G32">
-        <v>82.0572190285</v>
-      </c>
-      <c r="H32">
-        <v>359.37256908400002</v>
-      </c>
-      <c r="I32">
-        <v>103.919999838</v>
-      </c>
-      <c r="J32">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1024</v>
-      </c>
-      <c r="F33">
-        <v>1227.46902084</v>
-      </c>
-      <c r="G33">
-        <v>34.446505069700002</v>
-      </c>
-      <c r="H33">
-        <v>1700.50593901</v>
-      </c>
-      <c r="I33">
-        <v>427.24000001000002</v>
-      </c>
-      <c r="J33">
-        <v>4.2000000476799997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1024</v>
-      </c>
-      <c r="F36">
-        <v>122.625741959</v>
-      </c>
-      <c r="G36">
-        <v>406.30978512799999</v>
-      </c>
-      <c r="H36">
-        <v>558.12237095800003</v>
-      </c>
-      <c r="I36">
-        <v>22.990000009500001</v>
-      </c>
-      <c r="J36">
-        <v>3.65999984741</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1024</v>
-      </c>
-      <c r="F37">
-        <v>122.455549955</v>
-      </c>
-      <c r="G37">
-        <v>368.07666397100002</v>
-      </c>
-      <c r="H37">
-        <v>511.69023394599998</v>
-      </c>
-      <c r="I37">
-        <v>19.190000057199999</v>
-      </c>
-      <c r="J37">
-        <v>0.37000012397799997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1024</v>
-      </c>
-      <c r="F38">
-        <v>123.313658953</v>
-      </c>
-      <c r="G38">
-        <v>441.78992700600003</v>
-      </c>
-      <c r="H38">
-        <v>634.44569206200003</v>
-      </c>
-      <c r="I38">
-        <v>64.230000019100004</v>
-      </c>
-      <c r="J38">
-        <v>2.4500000476800001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1024</v>
-      </c>
-      <c r="F39">
-        <v>122.516154051</v>
-      </c>
-      <c r="G39">
-        <v>420.93793296799998</v>
-      </c>
-      <c r="H39">
-        <v>581.68988704699996</v>
-      </c>
-      <c r="I39">
-        <v>29.419999837900001</v>
-      </c>
-      <c r="J39">
-        <v>4.9500000476799997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1024</v>
-      </c>
-      <c r="F40">
-        <v>122.230736971</v>
-      </c>
-      <c r="G40">
-        <v>477.67605185500003</v>
-      </c>
-      <c r="H40">
-        <v>630.133245945</v>
-      </c>
-      <c r="I40">
-        <v>26.600000143100001</v>
-      </c>
-      <c r="J40">
-        <v>0.88999986648600005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1024</v>
-      </c>
-      <c r="F41">
-        <v>122.937199116</v>
-      </c>
-      <c r="G41">
-        <v>488.21469998399999</v>
-      </c>
-      <c r="H41">
-        <v>634.325598001</v>
-      </c>
-      <c r="I41">
-        <v>21.920000076299999</v>
-      </c>
-      <c r="J41">
-        <v>9.9999904632600001E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1024</v>
-      </c>
-      <c r="F42">
-        <v>130.94049096099999</v>
-      </c>
-      <c r="G42">
-        <v>385.66926407800003</v>
-      </c>
-      <c r="H42">
-        <v>563.85909795800001</v>
-      </c>
-      <c r="I42">
-        <v>41.470000028599998</v>
-      </c>
-      <c r="J42">
-        <v>3.2400000095400001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1024</v>
-      </c>
-      <c r="F43">
-        <v>131.086699009</v>
-      </c>
-      <c r="G43">
-        <v>357.81737399100001</v>
-      </c>
-      <c r="H43">
-        <v>518.10444998699995</v>
-      </c>
-      <c r="I43">
-        <v>25.350000143100001</v>
-      </c>
-      <c r="J43">
-        <v>1.2799999713900001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1024</v>
-      </c>
-      <c r="F44">
-        <v>122.829023838</v>
-      </c>
-      <c r="G44">
-        <v>352.59382700899999</v>
-      </c>
-      <c r="H44">
-        <v>506.61129689199998</v>
-      </c>
-      <c r="I44">
-        <v>26.75</v>
-      </c>
-      <c r="J44">
-        <v>2.5299999713900001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1024</v>
-      </c>
-      <c r="F45">
-        <v>122.742627144</v>
-      </c>
-      <c r="G45">
-        <v>545.45097804099998</v>
-      </c>
-      <c r="H45">
-        <v>690.387247086</v>
-      </c>
-      <c r="I45">
-        <v>18.9100000858</v>
-      </c>
-      <c r="J45">
-        <v>0.60999989509600006</v>
+        <v>2.46000003815</v>
       </c>
     </row>
   </sheetData>

--- a/papers/ccpe-cloud12/performance/pd.xlsx
+++ b/papers/ccpe-cloud12/performance/pd.xlsx
@@ -12,12 +12,13 @@
     <sheet name="scratch" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 CU'!$A$1:$L$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 CU'!$A$1:$L$97</definedName>
     <definedName name="pd" localSheetId="0">'1 CU'!$A$1:$J$29</definedName>
     <definedName name="pd" localSheetId="2">scratch!$A$1:$J$1</definedName>
     <definedName name="pd_fg_remote" localSheetId="0">'1 CU'!$A$67:$J$86</definedName>
     <definedName name="pd_fg_remote" localSheetId="2">scratch!$A$2:$J$11</definedName>
     <definedName name="pd_fg_remote_1" localSheetId="2">scratch!$A$12:$J$21</definedName>
+    <definedName name="pd_fg_remote_2" localSheetId="2">scratch!$A$24:$J$65</definedName>
     <definedName name="pd_multi_cu" localSheetId="1">'n CUs'!$A$1:$J$1</definedName>
     <definedName name="pd_multi_cu_1" localSheetId="0">'1 CU'!$A$49:$J$66</definedName>
     <definedName name="pd_multi_cu_1" localSheetId="1">'n CUs'!$A$2:$J$22</definedName>
@@ -26,7 +27,7 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId4"/>
+    <pivotCache cacheId="68" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -70,7 +71,23 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="pd_multi_cu.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="pd_fg_remote.csv2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_fg_remote.csv" comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="pd_multi_cu.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_multi_cu.txt" comma="1">
       <textFields count="10">
         <textField/>
@@ -86,7 +103,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="pd_multi_cu.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="pd_multi_cu.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_multi_cu.txt" comma="1">
       <textFields count="10">
         <textField/>
@@ -102,7 +119,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="pd_multi_cu.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="6" name="pd_multi_cu.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_multi_cu.txt" comma="1">
       <textFields count="10">
         <textField/>
@@ -118,7 +135,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="pd_random.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="7" name="pd_random.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd_random.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -134,7 +151,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="pd.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="8" name="pd.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd.csv" comma="1" qualifier="none">
       <textFields count="10">
         <textField/>
@@ -150,7 +167,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="pd.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="9" name="pd.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:luckow:Dropbox:SAGA:papers:ccpe-cloud12:performance:pd.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -170,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="71">
   <si>
     <t>Run</t>
   </si>
@@ -301,12 +318,6 @@
     <t>/dev/random</t>
   </si>
   <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
     <t>s3://pilot-data-a84f6250-f99b-11e1-818a-02215ecdd90b</t>
   </si>
   <si>
@@ -314,10 +325,6 @@
   </si>
   <si>
     <t>Amazon (Multi CU)</t>
-  </si>
-  <si>
-    <t>Google 
-(40 CUs)</t>
   </si>
   <si>
     <t>s3://pilot-data-3e3b4368-f9c1-11e1-aef1-00215ec9e3ac</t>
@@ -353,18 +360,56 @@
     <t>Euca/Walrus/Remote</t>
   </si>
   <si>
-    <t>Amazon 
-(40 CUs)</t>
-  </si>
-  <si>
     <t>walrus://149.165.146.135/pilot-data-6419b3de-fa8f-11e1-acc6-00215ec9e3ac</t>
   </si>
   <si>
-    <t>FG (Walrus)</t>
+    <t>walrus://149.165.146.135/pilot-data-0fbc2eb6-f6a7-11e1-b11d-e61f1322a75c</t>
   </si>
   <si>
-    <t>FG  
-(SSH)</t>
+    <t>EUCA/Walrus (Multi CU)</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Mittelwert - Order</t>
+  </si>
+  <si>
+    <t>walrus://149.165.146.135/pilot-data-db8d432c-fa94-11e1-ba05-00215ec9e3ac</t>
+  </si>
+  <si>
+    <t>ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-b7923bce-fa9b-11e1-84f8-00215ec9e3ac</t>
+  </si>
+  <si>
+    <t>FG 
+(Multi CU)
+(b3)</t>
+  </si>
+  <si>
+    <t>FG/Walrus
+(b1)</t>
+  </si>
+  <si>
+    <t>FG/SSH
+(b2)</t>
+  </si>
+  <si>
+    <t>Amazon
+(b4)</t>
+  </si>
+  <si>
+    <t>Amazon 
+(Multi CUs)
+(b5)</t>
+  </si>
+  <si>
+    <t>Google 
+(b6)</t>
+  </si>
+  <si>
+    <t>Google 
+(Multi CUs)
+(b7)</t>
   </si>
 </sst>
 </file>
@@ -440,7 +485,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -500,8 +545,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -518,8 +575,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="71">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -549,6 +609,12 @@
     <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -578,6 +644,12 @@
     <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -640,52 +712,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1 CU'!$N$17:$N$22</c:f>
+              <c:f>'1 CU'!$N$17:$N$23</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>FG (Walrus)</c:v>
+                  <c:v>FG/Walrus_x000d_(b1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FG  _x000d_(SSH)</c:v>
+                  <c:v>FG/SSH_x000d_(b2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Amazon</c:v>
+                  <c:v>FG _x000d_(Multi CU)_x000d_(b3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Amazon _x000d_(40 CUs)</c:v>
+                  <c:v>Amazon_x000d_(b4)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Google</c:v>
+                  <c:v>Amazon _x000d_(Multi CUs)_x000d_(b5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Google _x000d_(40 CUs)</c:v>
+                  <c:v>Google _x000d_(b6)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Google _x000d_(Multi CUs)_x000d_(b7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1 CU'!$P$17:$P$22</c:f>
+              <c:f>'1 CU'!$P$17:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>61.96700584888001</c:v>
+                  <c:v>61.96700584888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124.3677881957</c:v>
+                  <c:v>123.8802527189444</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>58.37896791370909</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>192.8592719078</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>202.2968391658</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1004.747153429</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1929.87040639</c:v>
                 </c:pt>
               </c:numCache>
@@ -717,52 +795,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1 CU'!$N$17:$N$22</c:f>
+              <c:f>'1 CU'!$N$17:$N$23</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>FG (Walrus)</c:v>
+                  <c:v>FG/Walrus_x000d_(b1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FG  _x000d_(SSH)</c:v>
+                  <c:v>FG/SSH_x000d_(b2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Amazon</c:v>
+                  <c:v>FG _x000d_(Multi CU)_x000d_(b3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Amazon _x000d_(40 CUs)</c:v>
+                  <c:v>Amazon_x000d_(b4)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Google</c:v>
+                  <c:v>Amazon _x000d_(Multi CUs)_x000d_(b5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Google _x000d_(40 CUs)</c:v>
+                  <c:v>Google _x000d_(b6)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Google _x000d_(Multi CUs)_x000d_(b7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1 CU'!$Q$17:$Q$22</c:f>
+              <c:f>'1 CU'!$Q$17:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>13.52999997138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.68300004005999</c:v>
+                  <c:v>26.33166668150555</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>228.1435000094545</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>107.690000021475</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>530.2727499966</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>89.16000001246154</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1131.60021875125</c:v>
                 </c:pt>
               </c:numCache>
@@ -797,26 +881,29 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'1 CU'!$U$17:$U$22</c:f>
+                <c:f>'1 CU'!$U$17:$U$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>13.31080157479349</c:v>
+                    <c:v>13.31080157479374</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>62.49732102108994</c:v>
+                    <c:v>163.955440347336</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>77.3742373453039</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>149.250454951162</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>164.9635304236679</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>646.5100845441304</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>662.5074939353328</c:v>
                   </c:pt>
                 </c:numCache>
@@ -824,26 +911,29 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'1 CU'!$U$17:$U$22</c:f>
+                <c:f>'1 CU'!$U$17:$U$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>13.31080157479349</c:v>
+                    <c:v>13.31080157479374</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>62.49732102108994</c:v>
+                    <c:v>163.955440347336</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>77.3742373453039</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>149.250454951162</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>164.9635304236679</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>646.5100845441304</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>662.5074939353328</c:v>
                   </c:pt>
                 </c:numCache>
@@ -861,52 +951,58 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'1 CU'!$N$17:$N$22</c:f>
+              <c:f>'1 CU'!$N$17:$N$23</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>FG (Walrus)</c:v>
+                  <c:v>FG/Walrus_x000d_(b1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FG  _x000d_(SSH)</c:v>
+                  <c:v>FG/SSH_x000d_(b2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Amazon</c:v>
+                  <c:v>FG _x000d_(Multi CU)_x000d_(b3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Amazon _x000d_(40 CUs)</c:v>
+                  <c:v>Amazon_x000d_(b4)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Google</c:v>
+                  <c:v>Amazon _x000d_(Multi CUs)_x000d_(b5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Google _x000d_(40 CUs)</c:v>
+                  <c:v>Google _x000d_(b6)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Google _x000d_(Multi CUs)_x000d_(b7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1 CU'!$R$17:$R$22</c:f>
+              <c:f>'1 CU'!$R$17:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>78.62730119227</c:v>
+                  <c:v>78.62730119227001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>424.4536504031</c:v>
+                  <c:v>346.5150267812944</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>70.74218695813637</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>73.41946123839</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>88.33380212783001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>35.04635275326154</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>47.38763433693749</c:v>
                 </c:pt>
               </c:numCache>
@@ -935,52 +1031,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1 CU'!$N$17:$N$22</c:f>
+              <c:f>'1 CU'!$N$17:$N$23</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>FG (Walrus)</c:v>
+                  <c:v>FG/Walrus_x000d_(b1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FG  _x000d_(SSH)</c:v>
+                  <c:v>FG/SSH_x000d_(b2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Amazon</c:v>
+                  <c:v>FG _x000d_(Multi CU)_x000d_(b3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Amazon _x000d_(40 CUs)</c:v>
+                  <c:v>Amazon_x000d_(b4)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Google</c:v>
+                  <c:v>Amazon _x000d_(Multi CUs)_x000d_(b5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Google _x000d_(40 CUs)</c:v>
+                  <c:v>Google _x000d_(b6)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Google _x000d_(Multi CUs)_x000d_(b7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1 CU'!$T$17:$T$22</c:f>
+              <c:f>'1 CU'!$T$17:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.3430000305168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.998999977111326</c:v>
+                  <c:v>1.880555537011626</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14.41801238660636</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4.5090000033386</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.796625009777001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.699999992664076</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.4829062491675</c:v>
                 </c:pt>
               </c:numCache>
@@ -1015,7 +1117,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2800" b="1"/>
+              <a:defRPr sz="2000" b="1"/>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -1094,16 +1196,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1126,16 +1228,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41161.707964814814" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="86">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41161.859489699076" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="104">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K87" sheet="1 CU"/>
+    <worksheetSource ref="A1:M105" sheet="1 CU"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="13">
     <cacheField name="Run" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10"/>
     </cacheField>
     <cacheField name="PC" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems count="8">
         <s v="ec2+ssh://aws.amazon.com/"/>
         <s v="gce+ssh://google.com"/>
         <s v="euca://india.futuregrid.org"/>
@@ -1143,39 +1245,44 @@
         <s v="Amazon (Multi CU)"/>
         <s v="Euca/SSH/Remote"/>
         <s v="Euca/Walrus/Remote"/>
-        <m/>
+        <s v="EUCA/Walrus (Multi CU)"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PD" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="#jobs" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
     </cacheField>
     <cacheField name="MB" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="128" maxValue="1024" count="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="1024" count="2">
         <n v="1024"/>
         <n v="128"/>
-        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Upload Time" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="16.788008928300002" maxValue="3292.7151110200002"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.788008928300002" maxValue="3292.7151110200002"/>
     </cacheField>
     <cacheField name="Pilot Queue" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="29.4648599625" maxValue="575.899488926"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.4648599625" maxValue="575.899488926"/>
     </cacheField>
     <cacheField name="Total Runtime" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="99.422956943499997" maxValue="5451.5510759400004"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="99.422956943499997" maxValue="5451.5510759400004"/>
     </cacheField>
     <cacheField name="CU qtime" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9.4400000572200007" maxValue="1459.53800002"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.4400000572200007" maxValue="1459.53800002"/>
     </cacheField>
     <cacheField name="CU Runtime" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-1" maxValue="11.7300000191"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1" maxValue="21.450499975700001"/>
     </cacheField>
-    <cacheField name="Delta Runtime" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.2436988342367385" maxValue="1395.8635980072499"/>
+    <cacheField name="Delta Runtime" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1499960425369693" maxValue="1395.8635980072499"/>
+    </cacheField>
+    <cacheField name="Remark" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Order" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1187,7 +1294,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="86">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="104">
   <r>
     <n v="0"/>
     <x v="0"/>
@@ -1200,6 +1307,8 @@
     <n v="116.230000019"/>
     <n v="4.4500000476799997"/>
     <n v="14.560280084419958"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="0"/>
@@ -1213,6 +1322,8 @@
     <n v="13.599999904600001"/>
     <n v="4.17000007629"/>
     <n v="13.367931842810009"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="0"/>
@@ -1226,6 +1337,8 @@
     <n v="15.2100000381"/>
     <n v="4.1400001049000004"/>
     <n v="7.8964829443000042"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="0"/>
@@ -1239,6 +1352,8 @@
     <n v="17.7699999809"/>
     <n v="1.1800000667599999"/>
     <n v="8.2398309710400071"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="0"/>
@@ -1252,6 +1367,8 @@
     <n v="9.4400000572200007"/>
     <n v="1.09999990463"/>
     <n v="8.6135549540499596"/>
+    <s v="/dev/zero"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="1"/>
@@ -1265,6 +1382,8 @@
     <n v="13.5399999619"/>
     <n v="-1"/>
     <n v="12.644558906100002"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="1"/>
@@ -1278,6 +1397,8 @@
     <n v="16.4100000858"/>
     <n v="4.5699999332400001"/>
     <n v="8.2077400683599819"/>
+    <s v="/dev/zero"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="2"/>
@@ -1291,6 +1412,8 @@
     <n v="16.650000095399999"/>
     <n v="5.1299998760200003"/>
     <n v="13.430824041380006"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="2"/>
@@ -1304,6 +1427,8 @@
     <n v="17.849999904600001"/>
     <n v="3.09000015259"/>
     <n v="8.253701925309997"/>
+    <s v="/dev/zero"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="3"/>
@@ -1317,6 +1442,8 @@
     <n v="11.8100001812"/>
     <n v="1.1699998378800001"/>
     <n v="8.1793749331200019"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="0"/>
@@ -1330,6 +1457,8 @@
     <n v="100.49000001"/>
     <n v="5.92000007629"/>
     <n v="13.109730719809988"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="0"/>
@@ -1343,6 +1472,8 @@
     <n v="69.259999990500006"/>
     <n v="3.9700000286099999"/>
     <n v="8.1437099005897835"/>
+    <s v="/dev/zero"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="1"/>
@@ -1356,6 +1487,8 @@
     <n v="103.910000086"/>
     <n v="5.1999998092700004"/>
     <n v="8.4392030238299753"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="1"/>
@@ -1369,6 +1502,8 @@
     <n v="80.5"/>
     <n v="1.61000013351"/>
     <n v="7.3199648849899859"/>
+    <s v="/dev/zero"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="2"/>
@@ -1382,6 +1517,8 @@
     <n v="51.3399999142"/>
     <n v="3.2999999523199999"/>
     <n v="8.6895410985800936"/>
+    <s v="/dev/zero"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="3"/>
@@ -1395,6 +1532,8 @@
     <n v="110.230000019"/>
     <n v="11.7300000191"/>
     <n v="7.6052060126000356"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="3"/>
@@ -1408,6 +1547,8 @@
     <n v="52.799999952299999"/>
     <n v="3.9300000667599999"/>
     <n v="8.6064710611399278"/>
+    <s v="/dev/zero"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="4"/>
@@ -1421,6 +1562,8 @@
     <n v="105.130000114"/>
     <n v="5.7599999904599999"/>
     <n v="14.680315971239963"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="4"/>
@@ -1434,6 +1577,8 @@
     <n v="51.090000152599998"/>
     <n v="1.84999990463"/>
     <n v="8.3644220831702114"/>
+    <s v="/dev/zero"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="5"/>
@@ -1447,6 +1592,8 @@
     <n v="97.380000114400005"/>
     <n v="6.7599999904599999"/>
     <n v="7.3524658679399977"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="5"/>
@@ -1460,6 +1607,8 @@
     <n v="100.359999895"/>
     <n v="3.9900000095400001"/>
     <n v="7.1515111900603188"/>
+    <s v="/dev/zero"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="6"/>
@@ -1473,6 +1622,8 @@
     <n v="98.759999990500006"/>
     <n v="5.1900000572199998"/>
     <n v="7.5511209967799573"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="6"/>
@@ -1486,6 +1637,8 @@
     <n v="56.420000076299999"/>
     <n v="4.0599999427800002"/>
     <n v="8.8604111671199917"/>
+    <s v="/dev/zero"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="7"/>
@@ -1499,6 +1652,8 @@
     <n v="110.730000019"/>
     <n v="5.8199999332400001"/>
     <n v="15.025970935559997"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="7"/>
@@ -1512,6 +1667,8 @@
     <n v="56.350000143099997"/>
     <n v="0.78999996185300003"/>
     <n v="8.1836228370469826"/>
+    <s v="/dev/zero"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="8"/>
@@ -1525,6 +1682,8 @@
     <n v="102.25"/>
     <n v="1.84000015259"/>
     <n v="7.4114298826100367"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="8"/>
@@ -1538,6 +1697,8 @@
     <n v="84.539999961899994"/>
     <n v="3.0599999427800002"/>
     <n v="7.8331091400200421"/>
+    <s v="/dev/zero"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="9"/>
@@ -1551,6 +1712,8 @@
     <n v="103.919999838"/>
     <n v="5.5"/>
     <n v="8.0995032785000376"/>
+    <s v="/dev/zero"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="0"/>
@@ -1564,6 +1727,8 @@
     <n v="57.149999856900003"/>
     <n v="3.2900002002700002"/>
     <n v="8.8520209790299873"/>
+    <s v="/dev/urandom"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="1"/>
@@ -1577,6 +1742,8 @@
     <n v="45.920000076299999"/>
     <n v="2.9800000190699998"/>
     <n v="8.3799438480299955"/>
+    <s v="/dev/urandom"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="2"/>
@@ -1590,6 +1757,8 @@
     <n v="55.349999904599997"/>
     <n v="4.4600000381499996"/>
     <n v="13.464279890249998"/>
+    <s v="/dev/urandom"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="3"/>
@@ -1603,6 +1772,8 @@
     <n v="87.0400002003"/>
     <n v="1.9199998378800001"/>
     <n v="8.4689979554199795"/>
+    <s v="/dev/urandom"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="4"/>
@@ -1616,6 +1787,8 @@
     <n v="121.110000134"/>
     <n v="0.68999981880200001"/>
     <n v="7.7552559369980258"/>
+    <s v="/dev/urandom"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="5"/>
@@ -1629,6 +1802,8 @@
     <n v="409.81999993300002"/>
     <n v="1.5300002098100001"/>
     <n v="7.195799828289978"/>
+    <s v="/dev/urandom"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="6"/>
@@ -1642,6 +1817,8 @@
     <n v="107.370000124"/>
     <n v="4.6799998283399997"/>
     <n v="7.4545691015600255"/>
+    <s v="/dev/urandom"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="7"/>
@@ -1655,6 +1832,8 @@
     <n v="46.210000038099999"/>
     <n v="2.0699999332400001"/>
     <n v="9.0046410557599188"/>
+    <s v="/dev/urandom"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="8"/>
@@ -1668,6 +1847,8 @@
     <n v="53.029999971400002"/>
     <n v="5.75"/>
     <n v="8.5464332107000018"/>
+    <s v="/dev/urandom"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="9"/>
@@ -1681,6 +1862,8 @@
     <n v="121.769999981"/>
     <n v="4.6400001049000004"/>
     <n v="7.1577849386000025"/>
+    <s v="/dev/urandom"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="0"/>
@@ -1694,6 +1877,8 @@
     <n v="29.759999990499999"/>
     <n v="1.7799999713900001"/>
     <n v="37.796485900610037"/>
+    <s v="/dev/urandom"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="2"/>
@@ -1707,6 +1892,8 @@
     <n v="22.180000066800002"/>
     <n v="3.6600000858300001"/>
     <n v="13.38279771806998"/>
+    <s v="/dev/urandom"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="5"/>
@@ -1720,6 +1907,8 @@
     <n v="455.17000007600001"/>
     <n v="1.0699999332400001"/>
     <n v="11.669551839959695"/>
+    <s v="/dev/urandom"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="6"/>
@@ -1733,6 +1922,8 @@
     <n v="49.309999942799998"/>
     <n v="2.0299999713900001"/>
     <n v="11.131675958610003"/>
+    <s v="/dev/urandom"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="1"/>
@@ -1746,6 +1937,8 @@
     <n v="18.379999875999999"/>
     <n v="3.92000007629"/>
     <n v="8.7560269836099991"/>
+    <s v="/dev/urandom"/>
+    <m/>
   </r>
   <r>
     <n v="2"/>
@@ -1759,6 +1952,8 @@
     <n v="14.9800000191"/>
     <n v="1.44000005722"/>
     <n v="8.629621744480005"/>
+    <s v="/dev/urandom"/>
+    <m/>
   </r>
   <r>
     <n v="3"/>
@@ -1772,6 +1967,8 @@
     <n v="13.9300000668"/>
     <n v="1.6699998378799998"/>
     <n v="7.4500191220200236"/>
+    <s v="/dev/urandom"/>
+    <m/>
   </r>
   <r>
     <n v="4"/>
@@ -1785,6 +1982,8 @@
     <n v="14.170000076299999"/>
     <n v="4.3199999332400001"/>
     <n v="8.5761549470599903"/>
+    <s v="/dev/urandom"/>
+    <m/>
   </r>
   <r>
     <n v="5"/>
@@ -1798,6 +1997,8 @@
     <n v="14.009999990500001"/>
     <n v="2.5300002098099998"/>
     <n v="8.5227568143899362"/>
+    <s v="/dev/urandom"/>
+    <m/>
   </r>
   <r>
     <n v="0"/>
@@ -1811,6 +2012,8 @@
     <n v="1102.5932499999999"/>
     <n v="3.36800001264"/>
     <n v="1003.2050159537603"/>
+    <s v="/dev/urandom"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="1"/>
@@ -1824,6 +2027,8 @@
     <n v="1031.83825"/>
     <n v="2.8239999949899999"/>
     <n v="931.98281388240957"/>
+    <s v="/dev/urandom"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="2"/>
@@ -1837,6 +2042,8 @@
     <n v="1122.9845"/>
     <n v="3.15425001383"/>
     <n v="1041.1296799831698"/>
+    <s v="/dev/urandom"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="3"/>
@@ -1850,6 +2057,8 @@
     <n v="1036.7059999999999"/>
     <n v="3.1137499928499999"/>
     <n v="1011.4563330004503"/>
+    <s v="/dev/urandom"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="4"/>
@@ -1863,6 +2072,8 @@
     <n v="1122.83800002"/>
     <n v="2.8917499959500002"/>
     <n v="1395.8635980072499"/>
+    <s v="/dev/urandom"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="5"/>
@@ -1876,6 +2087,8 @@
     <n v="1459.53800002"/>
     <n v="2.2719999671000002"/>
     <n v="1087.4554550176003"/>
+    <s v="/dev/urandom"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="6"/>
@@ -1889,6 +2102,8 @@
     <n v="1072.2957499900001"/>
     <n v="6.9882500290899996"/>
     <n v="1000.7751201542096"/>
+    <s v="/dev/urandom"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="7"/>
@@ -1902,6 +2117,8 @@
     <n v="1104.00799998"/>
     <n v="3.25124998689"/>
     <n v="1032.2250032023103"/>
+    <s v="/dev/urandom"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="0"/>
@@ -1915,6 +2132,8 @@
     <n v="465.93199999299998"/>
     <n v="5.4545000255099998"/>
     <n v="573.00246487739003"/>
+    <s v="/dev/urandom"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="1"/>
@@ -1928,6 +2147,8 @@
     <n v="480.34525001600002"/>
     <n v="6.1112500011900002"/>
     <n v="578.17414883260994"/>
+    <s v="/dev/urandom"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="2"/>
@@ -1941,6 +2162,8 @@
     <n v="549.14025000300001"/>
     <n v="5.9302499949899996"/>
     <n v="551.48167504400988"/>
+    <s v="/dev/urandom"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="3"/>
@@ -1954,6 +2177,8 @@
     <n v="453.257999998"/>
     <n v="10.2109999955"/>
     <n v="440.66134606680009"/>
+    <s v="/dev/urandom"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="4"/>
@@ -1967,6 +2192,8 @@
     <n v="442.01149998900001"/>
     <n v="5.60025001168"/>
     <n v="452.4602960395199"/>
+    <s v="/dev/urandom"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="5"/>
@@ -1980,6 +2207,8 @@
     <n v="691.81049998399999"/>
     <n v="3.8915000200300001"/>
     <n v="560.01615800577019"/>
+    <s v="/dev/urandom"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="6"/>
@@ -1993,6 +2222,8 @@
     <n v="655.00049999999999"/>
     <n v="5.1365000188399996"/>
     <n v="514.55302483165997"/>
+    <s v="/dev/urandom"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="7"/>
@@ -2006,6 +2237,8 @@
     <n v="360.02674998600003"/>
     <n v="5.0845000147799997"/>
     <n v="382.14236990651989"/>
+    <s v="/dev/urandom"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="8"/>
@@ -2019,6 +2252,8 @@
     <n v="507.67774998499999"/>
     <n v="4.0910000264599997"/>
     <n v="530.78910392813987"/>
+    <s v="/dev/urandom"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="9"/>
@@ -2032,6 +2267,8 @@
     <n v="697.52500001199996"/>
     <n v="6.4554999887899998"/>
     <n v="559.43018410750994"/>
+    <s v="/dev/urandom"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="0"/>
@@ -2045,6 +2282,8 @@
     <n v="22.990000009500001"/>
     <n v="3.65999984741"/>
     <n v="2.536844014090093"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="1"/>
@@ -2058,6 +2297,8 @@
     <n v="19.190000057199999"/>
     <n v="0.37000012397799997"/>
     <n v="1.5980198388219833"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="2"/>
@@ -2071,6 +2312,8 @@
     <n v="64.230000019100004"/>
     <n v="2.4500000476800001"/>
     <n v="2.6621060362200524"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="3"/>
@@ -2084,6 +2327,8 @@
     <n v="29.419999837900001"/>
     <n v="4.9500000476799997"/>
     <n v="3.8658001424199711"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="4"/>
@@ -2097,6 +2342,8 @@
     <n v="26.600000143100001"/>
     <n v="0.88999986648600005"/>
     <n v="2.736457109413891"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="5"/>
@@ -2110,6 +2357,8 @@
     <n v="21.920000076299999"/>
     <n v="9.9999904632600001E-3"/>
     <n v="1.2436988342367385"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="6"/>
@@ -2123,6 +2372,8 @@
     <n v="41.470000028599998"/>
     <n v="3.2400000095400001"/>
     <n v="2.5393428808599765"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="7"/>
@@ -2136,6 +2387,8 @@
     <n v="25.350000143100001"/>
     <n v="1.2799999713900001"/>
     <n v="2.5703768725098826"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="8"/>
@@ -2149,6 +2402,8 @@
     <n v="26.75"/>
     <n v="2.5299999713900001"/>
     <n v="1.90844607360998"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="9"/>
@@ -2162,6 +2417,8 @@
     <n v="18.9100000858"/>
     <n v="0.60999989509600006"/>
     <n v="2.6736419201039325"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="0"/>
@@ -2175,6 +2432,8 @@
     <n v="12.6100001335"/>
     <n v="2.03999996185"/>
     <n v="6.5076859002500385"/>
+    <s v="/dev/urandom"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="1"/>
@@ -2188,6 +2447,8 @@
     <n v="12.7099997997"/>
     <n v="2.2000000476800001"/>
     <n v="5.3105542655200111"/>
+    <s v="/dev/urandom"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="2"/>
@@ -2201,6 +2462,8 @@
     <n v="13.099999904600001"/>
     <n v="1.61000013351"/>
     <n v="4.3940961355899901"/>
+    <s v="/dev/urandom"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="3"/>
@@ -2214,6 +2477,8 @@
     <n v="11.2300000191"/>
     <n v="3.5599999427800002"/>
     <n v="5.4281079765200104"/>
+    <s v="/dev/urandom"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="4"/>
@@ -2227,6 +2492,8 @@
     <n v="13.349999904600001"/>
     <n v="3.4400000572199998"/>
     <n v="6.4586281775799819"/>
+    <s v="/dev/urandom"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="5"/>
@@ -2240,6 +2507,8 @@
     <n v="12.9099998474"/>
     <n v="1.8100001811999999"/>
     <n v="5.5027377609999917"/>
+    <s v="/dev/urandom"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="6"/>
@@ -2253,6 +2522,8 @@
     <n v="11.1800000668"/>
     <n v="3.6499998569500001"/>
     <n v="5.40428209305"/>
+    <s v="/dev/urandom"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="7"/>
@@ -2266,6 +2537,8 @@
     <n v="13.2000000477"/>
     <n v="1.09999990463"/>
     <n v="5.8250329496699749"/>
+    <s v="/dev/urandom"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="8"/>
@@ -2279,6 +2552,8 @@
     <n v="13.2999999523"/>
     <n v="0.87000012397799997"/>
     <n v="7.0753309732219805"/>
+    <s v="/dev/urandom"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="9"/>
@@ -2292,48 +2567,321 @@
     <n v="21.710000038099999"/>
     <n v="3.1500000953699998"/>
     <n v="4.3689839841300397"/>
+    <s v="/dev/urandom"/>
+    <n v="1"/>
   </r>
   <r>
-    <m/>
+    <n v="0"/>
     <x v="7"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="walrus://149.165.146.135/pilot-data-0fbc2eb6-f6a7-11e1-b11d-e61f1322a75c"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="53.293555974999997"/>
+    <n v="63.949846983"/>
+    <n v="585.47535395600005"/>
+    <n v="216.69300001900001"/>
+    <n v="10.268000006699999"/>
+    <n v="241.27095097230006"/>
+    <s v="/dev/urandom"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="7"/>
+    <s v="walrus://149.165.146.135/pilot-data-0fbc2eb6-f6a7-11e1-b11d-e61f1322a75c"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="57.179358005499999"/>
+    <n v="79.854781866099998"/>
+    <n v="700.96896386100002"/>
+    <n v="202.09049999699999"/>
+    <n v="12.360499966100001"/>
+    <n v="349.48382402630006"/>
+    <s v="/dev/urandom"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="walrus://149.165.146.135/pilot-data-0fbc2eb6-f6a7-11e1-b11d-e61f1322a75c"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="51.236378908200003"/>
+    <n v="84.941802024799998"/>
+    <n v="820.180227995"/>
+    <n v="340.305999982"/>
+    <n v="13.7950000405"/>
+    <n v="329.90104703949999"/>
+    <s v="/dev/urandom"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="7"/>
+    <s v="walrus://149.165.146.135/pilot-data-0fbc2eb6-f6a7-11e1-b11d-e61f1322a75c"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="58.321747064599997"/>
+    <n v="63.5729289055"/>
+    <n v="637.76231908800003"/>
+    <n v="202.55399999599999"/>
+    <n v="9.9389999985700008"/>
+    <n v="303.37464312333003"/>
+    <s v="/dev/urandom"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="7"/>
+    <s v="walrus://149.165.146.135/pilot-data-0fbc2eb6-f6a7-11e1-b11d-e61f1322a75c"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="53.636791944499997"/>
+    <n v="68.454221010200001"/>
+    <n v="700.02138185499996"/>
+    <n v="274.82850002100002"/>
+    <n v="14.7134999633"/>
+    <n v="288.38836891599988"/>
+    <s v="/dev/urandom"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="7"/>
+    <s v="walrus://149.165.146.135/pilot-data-0fbc2eb6-f6a7-11e1-b11d-e61f1322a75c"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="45.873862981800002"/>
+    <n v="79.230880021999994"/>
+    <n v="636.97947311400003"/>
+    <n v="189.13450001499999"/>
+    <n v="15.982499992799999"/>
+    <n v="306.75773010240005"/>
+    <s v="/dev/urandom"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="7"/>
+    <s v="walrus://149.165.146.135/pilot-data-0fbc2eb6-f6a7-11e1-b11d-e61f1322a75c"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="84.478932142299996"/>
+    <n v="79.4276938438"/>
+    <n v="615.74791407600003"/>
+    <n v="194.118500006"/>
+    <n v="11.0694999814"/>
+    <n v="246.65328810250003"/>
+    <s v="/dev/urandom"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="7"/>
+    <s v="walrus://149.165.146.135/pilot-data-0fbc2eb6-f6a7-11e1-b11d-e61f1322a75c"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="55.941787958100001"/>
+    <n v="84.076435089100002"/>
+    <n v="719.96491408300005"/>
+    <n v="197.83200001700001"/>
+    <n v="19.642499983299999"/>
+    <n v="362.47219103550003"/>
+    <s v="/dev/urandom"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="7"/>
+    <s v="walrus://149.165.146.135/pilot-data-0fbc2eb6-f6a7-11e1-b11d-e61f1322a75c"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="69.455506086300005"/>
+    <n v="48.123298883399997"/>
+    <n v="579.43609404599999"/>
+    <n v="206.392000043"/>
+    <n v="21.450499975700001"/>
+    <n v="234.01478905760001"/>
+    <s v="/dev/urandom"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="7"/>
+    <s v="walrus://149.165.146.135/pilot-data-0fbc2eb6-f6a7-11e1-b11d-e61f1322a75c"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="52.019035100899998"/>
+    <n v="68.4255459309"/>
+    <n v="548.25625109700002"/>
+    <n v="244.77800000900001"/>
+    <n v="15.4436363524"/>
+    <n v="167.59003370379997"/>
+    <s v="/dev/urandom"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="7"/>
+    <s v="walrus://149.165.146.135/pilot-data-0fbc2eb6-f6a7-11e1-b11d-e61f1322a75c"/>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="60.731690883600002"/>
+    <n v="58.106621980699998"/>
+    <n v="642.75288891800005"/>
+    <n v="240.851499999"/>
+    <n v="13.9334999919"/>
+    <n v="269.12957606280003"/>
+    <s v="/dev/urandom"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-b7923bce-fa9b-11e1-84f8-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="127.366926908"/>
+    <n v="441.673402071"/>
+    <n v="591.22588586799998"/>
+    <n v="18.299999952299999"/>
+    <n v="1.17000007629"/>
+    <n v="2.7155568604099471"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-b7923bce-fa9b-11e1-84f8-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.46329093"/>
+    <n v="73.640522003200005"/>
+    <n v="219.26736497900001"/>
+    <n v="18.569999933199998"/>
+    <n v="2.2699999809300002"/>
+    <n v="2.3235521316699987"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-b7923bce-fa9b-11e1-84f8-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.564983845"/>
+    <n v="337.802927017"/>
+    <n v="483.538281918"/>
+    <n v="21.450000047700001"/>
+    <n v="0.44000005722000002"/>
+    <n v="1.2803709510799877"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-b7923bce-fa9b-11e1-84f8-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.930903196"/>
+    <n v="73.627982854799995"/>
+    <n v="219.725349188"/>
+    <n v="20.720000028600001"/>
+    <n v="0.63999986648600005"/>
+    <n v="1.8064632421140061"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-b7923bce-fa9b-11e1-84f8-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.914136171"/>
+    <n v="73.746207952500001"/>
+    <n v="221.83034014699999"/>
+    <n v="23.759999990499999"/>
+    <n v="0.25999999046299999"/>
+    <n v="1.1499960425369693"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-b7923bce-fa9b-11e1-84f8-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.432168007"/>
+    <n v="549.52785706500003"/>
+    <n v="694.16436600700001"/>
+    <n v="19.2699999809"/>
+    <n v="0.74000000953699996"/>
+    <n v="2.1943409445630095"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-b7923bce-fa9b-11e1-84f8-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.699822903"/>
+    <n v="78.8047130108"/>
+    <n v="232.69743394899999"/>
+    <n v="24.029999971399999"/>
+    <n v="4.9600000381499996"/>
+    <n v="2.2028980256500006"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="5"/>
+    <s v="ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-b7923bce-fa9b-11e1-84f8-00215ec9e3ac"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="122.79443502399999"/>
+    <n v="363.91036605800002"/>
+    <n v="523.91887497899995"/>
+    <n v="31.039999961900001"/>
+    <n v="3.3799998760199998"/>
+    <n v="2.7940740590800033"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" rowHeaderCaption="" fieldListSortAscending="1">
-  <location ref="O15:U23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" rowHeaderCaption="" customListSort="0">
+  <location ref="O15:V24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="9">
-        <item h="1" x="2"/>
         <item x="6"/>
         <item x="5"/>
+        <item x="7"/>
         <item x="0"/>
         <item x="4"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item x="3"/>
-        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
+      <items count="3">
         <item h="1" x="1"/>
         <item x="0"/>
-        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2343,11 +2891,16 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -2361,10 +2914,10 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -2373,7 +2926,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="7">
     <i>
       <x/>
     </i>
@@ -2392,17 +2945,21 @@
     <i i="5">
       <x v="5"/>
     </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="4" hier="-1"/>
   </pageFields>
-  <dataFields count="6">
+  <dataFields count="7">
     <dataField name="Upload (FG - Cloud Storage)" fld="5" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Download (Cloud Storage - VM)" fld="8" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Pilot Queue " fld="6" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Mittelwert - Total Runtime" fld="7" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="CU Compute " fld="9" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="STABW - Total Runtime" fld="7" subtotal="stdDev" baseField="0" baseItem="0"/>
+    <dataField name="Mittelwert - Order" fld="12" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
     <format dxfId="0">
@@ -2423,39 +2980,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_2" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_2" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote_2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2780,10 +3341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T76" sqref="T76"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2804,9 +3365,10 @@
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
     <col min="21" max="21" width="20.1640625" customWidth="1"/>
+    <col min="22" max="22" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2843,8 +3405,11 @@
       <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="M1" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2882,8 +3447,11 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="M2" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2921,8 +3489,11 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="M3" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2960,8 +3531,11 @@
       <c r="L4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="M4" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2999,8 +3573,11 @@
       <c r="L5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="M5" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3038,8 +3615,11 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="M6" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3077,8 +3657,11 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="M7" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3116,8 +3699,11 @@
       <c r="L8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="M8" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3155,8 +3741,11 @@
       <c r="L9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="M9" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3194,8 +3783,11 @@
       <c r="L10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="M10" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3233,8 +3825,11 @@
       <c r="L11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="M11" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3272,8 +3867,11 @@
       <c r="L12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="M12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3311,6 +3909,9 @@
       <c r="L13" t="s">
         <v>22</v>
       </c>
+      <c r="M13" s="13">
+        <v>6</v>
+      </c>
       <c r="O13" s="3" t="s">
         <v>4</v>
       </c>
@@ -3318,7 +3919,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3356,8 +3957,11 @@
       <c r="L14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="M14" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3395,11 +3999,14 @@
       <c r="L15" t="s">
         <v>22</v>
       </c>
+      <c r="M15" s="13">
+        <v>6</v>
+      </c>
       <c r="P15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3437,6 +4044,9 @@
       <c r="L16" t="s">
         <v>22</v>
       </c>
+      <c r="M16" s="13">
+        <v>6</v>
+      </c>
       <c r="O16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3458,8 +4068,11 @@
       <c r="U16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="V16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="30">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3497,29 +4110,32 @@
       <c r="L17" t="s">
         <v>22</v>
       </c>
-      <c r="N17" t="s">
-        <v>62</v>
+      <c r="M17" s="13">
+        <v>4</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P17" s="5">
-        <v>61.967005848880014</v>
+        <v>61.96700584888</v>
       </c>
       <c r="Q17" s="5">
-        <v>13.529999971379999</v>
+        <v>13.529999971380002</v>
       </c>
       <c r="R17" s="5">
-        <v>78.627301192269996</v>
+        <v>78.627301192270011</v>
       </c>
       <c r="S17" s="5">
-        <v>162.09485106470001</v>
+        <v>162.09485106469998</v>
       </c>
       <c r="T17" s="5">
         <v>2.3430000305167997</v>
       </c>
       <c r="U17" s="5">
-        <v>13.310801574793494</v>
+        <v>13.310801574793736</v>
       </c>
       <c r="V17" s="5">
         <v>1</v>
@@ -3563,35 +4179,38 @@
       <c r="L18" t="s">
         <v>22</v>
       </c>
+      <c r="M18" s="13">
+        <v>6</v>
+      </c>
       <c r="N18" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P18" s="5">
-        <v>124.36778819570002</v>
+        <v>123.88025271894445</v>
       </c>
       <c r="Q18" s="5">
-        <v>29.683000040059994</v>
+        <v>26.331666681505553</v>
       </c>
       <c r="R18" s="5">
-        <v>424.45365040309997</v>
+        <v>346.51502678129441</v>
       </c>
       <c r="S18" s="5">
-        <v>582.93691198819999</v>
+        <v>500.87427871761128</v>
       </c>
       <c r="T18" s="5">
-        <v>1.998999977111326</v>
+        <v>1.8805555370116258</v>
       </c>
       <c r="U18" s="5">
-        <v>62.497321021089945</v>
+        <v>163.95544034733592</v>
       </c>
       <c r="V18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="45">
       <c r="A19">
         <v>4</v>
       </c>
@@ -3629,32 +4248,35 @@
       <c r="L19" t="s">
         <v>22</v>
       </c>
-      <c r="N19" t="s">
-        <v>43</v>
+      <c r="M19" s="13">
+        <v>4</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="P19" s="5">
-        <v>192.85927190780004</v>
+        <v>58.37896791370909</v>
       </c>
       <c r="Q19" s="5">
-        <v>107.690000021475</v>
+        <v>228.14350000945453</v>
       </c>
       <c r="R19" s="5">
-        <v>73.419461238389999</v>
+        <v>70.742186958136372</v>
       </c>
       <c r="S19" s="5">
-        <v>387.98348084689997</v>
+        <v>653.41325291718192</v>
       </c>
       <c r="T19" s="5">
-        <v>4.5090000033386</v>
+        <v>14.418012386606364</v>
       </c>
       <c r="U19" s="5">
-        <v>149.250454951162</v>
+        <v>77.374237345303897</v>
       </c>
       <c r="V19" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30">
@@ -3695,35 +4317,38 @@
       <c r="L20" t="s">
         <v>22</v>
       </c>
+      <c r="M20" s="13">
+        <v>6</v>
+      </c>
       <c r="N20" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="P20" s="5">
-        <v>202.29683916580001</v>
+        <v>192.85927190780004</v>
       </c>
       <c r="Q20" s="5">
-        <v>530.27274999660006</v>
+        <v>107.690000021475</v>
       </c>
       <c r="R20" s="5">
-        <v>88.333802127830012</v>
+        <v>73.419461238389999</v>
       </c>
       <c r="S20" s="5">
-        <v>1340.971093464</v>
+        <v>387.98348084689997</v>
       </c>
       <c r="T20" s="5">
-        <v>5.7966250097770011</v>
+        <v>4.5090000033386</v>
       </c>
       <c r="U20" s="5">
-        <v>164.96353042366795</v>
+        <v>149.250454951162</v>
       </c>
       <c r="V20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="45">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3761,32 +4386,35 @@
       <c r="L21" t="s">
         <v>22</v>
       </c>
+      <c r="M21" s="13">
+        <v>4</v>
+      </c>
       <c r="N21" s="11" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="P21" s="5">
-        <v>1004.747153429</v>
+        <v>202.29683916580001</v>
       </c>
       <c r="Q21" s="5">
-        <v>89.160000012461538</v>
+        <v>530.27274999660006</v>
       </c>
       <c r="R21" s="5">
-        <v>35.046352753261537</v>
+        <v>88.333802127830012</v>
       </c>
       <c r="S21" s="5">
-        <v>1142.9714504012304</v>
+        <v>1340.971093464</v>
       </c>
       <c r="T21" s="5">
-        <v>2.6999999926640763</v>
+        <v>5.7966250097770011</v>
       </c>
       <c r="U21" s="5">
-        <v>646.51008454413045</v>
+        <v>164.96353042366795</v>
       </c>
       <c r="V21" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="30">
@@ -3827,35 +4455,38 @@
       <c r="L22" t="s">
         <v>22</v>
       </c>
+      <c r="M22" s="13">
+        <v>6</v>
+      </c>
       <c r="N22" s="11" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="P22" s="5">
-        <v>1929.87040639</v>
+        <v>1004.747153429</v>
       </c>
       <c r="Q22" s="5">
-        <v>1131.6002187512499</v>
+        <v>89.160000012461538</v>
       </c>
       <c r="R22" s="5">
-        <v>47.387634336937495</v>
+        <v>35.046352753261537</v>
       </c>
       <c r="S22" s="5">
-        <v>4175.3527931274994</v>
+        <v>1142.9714504012304</v>
       </c>
       <c r="T22" s="5">
-        <v>3.4829062491674998</v>
+        <v>2.6999999926640763</v>
       </c>
       <c r="U22" s="5">
-        <v>662.50749393533283</v>
+        <v>646.51008454413045</v>
       </c>
       <c r="V22" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" ht="45">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3893,26 +4524,35 @@
       <c r="L23" t="s">
         <v>22</v>
       </c>
+      <c r="M23" s="13">
+        <v>4</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="O23" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="P23" s="5">
-        <v>510.48138050643394</v>
+        <v>1929.87040639</v>
       </c>
       <c r="Q23" s="5">
-        <v>254.9371725448155</v>
+        <v>1131.6002187512499</v>
       </c>
       <c r="R23" s="5">
-        <v>115.73578059841832</v>
+        <v>47.387634336937495</v>
       </c>
       <c r="S23" s="5">
-        <v>1082.8330898921547</v>
+        <v>4175.3527931274994</v>
       </c>
       <c r="T23" s="5">
-        <v>3.5849225371661446</v>
+        <v>3.4829062491674998</v>
       </c>
       <c r="U23" s="5">
-        <v>1234.32273704049</v>
+        <v>662.50749393533283</v>
+      </c>
+      <c r="V23" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -3953,6 +4593,33 @@
       <c r="L24" t="s">
         <v>22</v>
       </c>
+      <c r="M24" s="13">
+        <v>6</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="5">
+        <v>420.80570366657332</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>230.96953056280444</v>
+      </c>
+      <c r="R24" s="5">
+        <v>122.09042730066113</v>
+      </c>
+      <c r="S24" s="5">
+        <v>969.50070068296679</v>
+      </c>
+      <c r="T24" s="5">
+        <v>4.7443070698506924</v>
+      </c>
+      <c r="U24" s="5">
+        <v>1119.7914290996948</v>
+      </c>
+      <c r="V24" s="5">
+        <v>3.8111111111111109</v>
+      </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25">
@@ -3992,6 +4659,9 @@
       <c r="L25" t="s">
         <v>22</v>
       </c>
+      <c r="M25" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26">
@@ -4031,6 +4701,9 @@
       <c r="L26" t="s">
         <v>22</v>
       </c>
+      <c r="M26" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27">
@@ -4070,6 +4743,9 @@
       <c r="L27" t="s">
         <v>22</v>
       </c>
+      <c r="M27" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28">
@@ -4109,6 +4785,9 @@
       <c r="L28" t="s">
         <v>22</v>
       </c>
+      <c r="M28" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29">
@@ -4148,6 +4827,9 @@
       <c r="L29" t="s">
         <v>22</v>
       </c>
+      <c r="M29" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30">
@@ -4187,6 +4869,9 @@
       <c r="L30" t="s">
         <v>30</v>
       </c>
+      <c r="M30" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31">
@@ -4226,6 +4911,9 @@
       <c r="L31" t="s">
         <v>30</v>
       </c>
+      <c r="M31" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32">
@@ -4265,8 +4953,11 @@
       <c r="L32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>3</v>
       </c>
@@ -4304,8 +4995,11 @@
       <c r="L33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>4</v>
       </c>
@@ -4343,8 +5037,11 @@
       <c r="L34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>5</v>
       </c>
@@ -4382,8 +5079,11 @@
       <c r="L35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>6</v>
       </c>
@@ -4421,8 +5121,11 @@
       <c r="L36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>7</v>
       </c>
@@ -4460,8 +5163,11 @@
       <c r="L37" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>8</v>
       </c>
@@ -4499,8 +5205,11 @@
       <c r="L38" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>9</v>
       </c>
@@ -4538,8 +5247,11 @@
       <c r="L39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>0</v>
       </c>
@@ -4577,8 +5289,11 @@
       <c r="L40" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>2</v>
       </c>
@@ -4616,8 +5331,11 @@
       <c r="L41" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>5</v>
       </c>
@@ -4655,8 +5373,11 @@
       <c r="L42" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>6</v>
       </c>
@@ -4694,8 +5415,11 @@
       <c r="L43" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>1</v>
       </c>
@@ -4734,7 +5458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>2</v>
       </c>
@@ -4773,7 +5497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>3</v>
       </c>
@@ -4812,7 +5536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>4</v>
       </c>
@@ -4851,7 +5575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>5</v>
       </c>
@@ -4890,12 +5614,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13">
       <c r="A49" s="9">
         <v>0</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>41</v>
@@ -4928,13 +5652,16 @@
       <c r="L49" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="9">
         <v>1</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>41</v>
@@ -4967,13 +5694,16 @@
       <c r="L50" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="9">
         <v>2</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>41</v>
@@ -5006,13 +5736,16 @@
       <c r="L51" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="9">
         <v>3</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>41</v>
@@ -5045,13 +5778,16 @@
       <c r="L52" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="9">
         <v>4</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>41</v>
@@ -5084,13 +5820,16 @@
       <c r="L53" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="9">
         <v>5</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>41</v>
@@ -5123,13 +5862,16 @@
       <c r="L54" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>6</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
         <v>41</v>
@@ -5162,13 +5904,16 @@
       <c r="L55" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>7</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
         <v>41</v>
@@ -5201,16 +5946,19 @@
       <c r="L56" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D57">
         <v>40</v>
@@ -5240,16 +5988,19 @@
       <c r="L57" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D58">
         <v>40</v>
@@ -5279,16 +6030,19 @@
       <c r="L58" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D59">
         <v>40</v>
@@ -5318,16 +6072,19 @@
       <c r="L59" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D60">
         <v>40</v>
@@ -5357,16 +6114,19 @@
       <c r="L60" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D61">
         <v>40</v>
@@ -5396,16 +6156,19 @@
       <c r="L61" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D62">
         <v>40</v>
@@ -5435,16 +6198,19 @@
       <c r="L62" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D63">
         <v>40</v>
@@ -5474,16 +6240,19 @@
       <c r="L63" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D64">
         <v>40</v>
@@ -5513,16 +6282,19 @@
       <c r="L64" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D65">
         <v>40</v>
@@ -5552,16 +6324,19 @@
       <c r="L65" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D66">
         <v>40</v>
@@ -5591,16 +6366,19 @@
       <c r="L66" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -5630,16 +6408,19 @@
       <c r="L67" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -5669,16 +6450,19 @@
       <c r="L68" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -5708,16 +6492,19 @@
       <c r="L69" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -5747,16 +6534,19 @@
       <c r="L70" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -5786,16 +6576,19 @@
       <c r="L71" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -5825,16 +6618,19 @@
       <c r="L72" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -5864,16 +6660,19 @@
       <c r="L73" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -5903,16 +6702,19 @@
       <c r="L74" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -5942,16 +6744,19 @@
       <c r="L75" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -5981,16 +6786,19 @@
       <c r="L76" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -6020,16 +6828,19 @@
       <c r="L77" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -6059,16 +6870,19 @@
       <c r="L78" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -6098,16 +6912,19 @@
       <c r="L79" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -6137,16 +6954,19 @@
       <c r="L80" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -6176,16 +6996,19 @@
       <c r="L81" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -6215,16 +7038,19 @@
       <c r="L82" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -6254,16 +7080,19 @@
       <c r="L83" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -6293,16 +7122,19 @@
       <c r="L84" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -6332,16 +7164,19 @@
       <c r="L85" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -6371,11 +7206,812 @@
       <c r="L86" t="s">
         <v>30</v>
       </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87">
+        <v>20</v>
+      </c>
+      <c r="E87">
+        <v>1024</v>
+      </c>
+      <c r="F87">
+        <v>53.293555974999997</v>
+      </c>
+      <c r="G87">
+        <v>63.949846983</v>
+      </c>
+      <c r="H87">
+        <v>585.47535395600005</v>
+      </c>
+      <c r="I87">
+        <v>216.69300001900001</v>
+      </c>
+      <c r="J87">
+        <v>10.268000006699999</v>
+      </c>
+      <c r="K87" s="7">
+        <f t="shared" ref="K87:K97" si="4">H87-(SUM(F87,G87,I87,J87))</f>
+        <v>241.27095097230006</v>
+      </c>
+      <c r="L87" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88">
+        <v>20</v>
+      </c>
+      <c r="E88">
+        <v>1024</v>
+      </c>
+      <c r="F88">
+        <v>57.179358005499999</v>
+      </c>
+      <c r="G88">
+        <v>79.854781866099998</v>
+      </c>
+      <c r="H88">
+        <v>700.96896386100002</v>
+      </c>
+      <c r="I88">
+        <v>202.09049999699999</v>
+      </c>
+      <c r="J88">
+        <v>12.360499966100001</v>
+      </c>
+      <c r="K88" s="7">
+        <f t="shared" si="4"/>
+        <v>349.48382402630006</v>
+      </c>
+      <c r="L88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <v>1024</v>
+      </c>
+      <c r="F89">
+        <v>51.236378908200003</v>
+      </c>
+      <c r="G89">
+        <v>84.941802024799998</v>
+      </c>
+      <c r="H89">
+        <v>820.180227995</v>
+      </c>
+      <c r="I89">
+        <v>340.305999982</v>
+      </c>
+      <c r="J89">
+        <v>13.7950000405</v>
+      </c>
+      <c r="K89" s="7">
+        <f t="shared" si="4"/>
+        <v>329.90104703949999</v>
+      </c>
+      <c r="L89" t="s">
+        <v>30</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
+      <c r="E90">
+        <v>1024</v>
+      </c>
+      <c r="F90">
+        <v>58.321747064599997</v>
+      </c>
+      <c r="G90">
+        <v>63.5729289055</v>
+      </c>
+      <c r="H90">
+        <v>637.76231908800003</v>
+      </c>
+      <c r="I90">
+        <v>202.55399999599999</v>
+      </c>
+      <c r="J90">
+        <v>9.9389999985700008</v>
+      </c>
+      <c r="K90" s="7">
+        <f t="shared" si="4"/>
+        <v>303.37464312333003</v>
+      </c>
+      <c r="L90" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
+      </c>
+      <c r="E91">
+        <v>1024</v>
+      </c>
+      <c r="F91">
+        <v>53.636791944499997</v>
+      </c>
+      <c r="G91">
+        <v>68.454221010200001</v>
+      </c>
+      <c r="H91">
+        <v>700.02138185499996</v>
+      </c>
+      <c r="I91">
+        <v>274.82850002100002</v>
+      </c>
+      <c r="J91">
+        <v>14.7134999633</v>
+      </c>
+      <c r="K91" s="7">
+        <f t="shared" si="4"/>
+        <v>288.38836891599988</v>
+      </c>
+      <c r="L91" t="s">
+        <v>30</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92">
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <v>1024</v>
+      </c>
+      <c r="F92">
+        <v>45.873862981800002</v>
+      </c>
+      <c r="G92">
+        <v>79.230880021999994</v>
+      </c>
+      <c r="H92">
+        <v>636.97947311400003</v>
+      </c>
+      <c r="I92">
+        <v>189.13450001499999</v>
+      </c>
+      <c r="J92">
+        <v>15.982499992799999</v>
+      </c>
+      <c r="K92" s="7">
+        <f t="shared" si="4"/>
+        <v>306.75773010240005</v>
+      </c>
+      <c r="L92" t="s">
+        <v>30</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>1024</v>
+      </c>
+      <c r="F93">
+        <v>84.478932142299996</v>
+      </c>
+      <c r="G93">
+        <v>79.4276938438</v>
+      </c>
+      <c r="H93">
+        <v>615.74791407600003</v>
+      </c>
+      <c r="I93">
+        <v>194.118500006</v>
+      </c>
+      <c r="J93">
+        <v>11.0694999814</v>
+      </c>
+      <c r="K93" s="7">
+        <f t="shared" si="4"/>
+        <v>246.65328810250003</v>
+      </c>
+      <c r="L93" t="s">
+        <v>30</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>1024</v>
+      </c>
+      <c r="F94">
+        <v>55.941787958100001</v>
+      </c>
+      <c r="G94">
+        <v>84.076435089100002</v>
+      </c>
+      <c r="H94">
+        <v>719.96491408300005</v>
+      </c>
+      <c r="I94">
+        <v>197.83200001700001</v>
+      </c>
+      <c r="J94">
+        <v>19.642499983299999</v>
+      </c>
+      <c r="K94" s="7">
+        <f t="shared" si="4"/>
+        <v>362.47219103550003</v>
+      </c>
+      <c r="L94" t="s">
+        <v>30</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
+      </c>
+      <c r="E95">
+        <v>1024</v>
+      </c>
+      <c r="F95">
+        <v>69.455506086300005</v>
+      </c>
+      <c r="G95">
+        <v>48.123298883399997</v>
+      </c>
+      <c r="H95">
+        <v>579.43609404599999</v>
+      </c>
+      <c r="I95">
+        <v>206.392000043</v>
+      </c>
+      <c r="J95">
+        <v>21.450499975700001</v>
+      </c>
+      <c r="K95" s="7">
+        <f t="shared" si="4"/>
+        <v>234.01478905760001</v>
+      </c>
+      <c r="L95" t="s">
+        <v>30</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>1024</v>
+      </c>
+      <c r="F96">
+        <v>52.019035100899998</v>
+      </c>
+      <c r="G96">
+        <v>68.4255459309</v>
+      </c>
+      <c r="H96">
+        <v>548.25625109700002</v>
+      </c>
+      <c r="I96">
+        <v>244.77800000900001</v>
+      </c>
+      <c r="J96">
+        <v>15.4436363524</v>
+      </c>
+      <c r="K96" s="7">
+        <f t="shared" si="4"/>
+        <v>167.59003370379997</v>
+      </c>
+      <c r="L96" t="s">
+        <v>30</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>1024</v>
+      </c>
+      <c r="F97">
+        <v>60.731690883600002</v>
+      </c>
+      <c r="G97">
+        <v>58.106621980699998</v>
+      </c>
+      <c r="H97">
+        <v>642.75288891800005</v>
+      </c>
+      <c r="I97">
+        <v>240.851499999</v>
+      </c>
+      <c r="J97">
+        <v>13.9334999919</v>
+      </c>
+      <c r="K97" s="7">
+        <f t="shared" si="4"/>
+        <v>269.12957606280003</v>
+      </c>
+      <c r="L97" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1024</v>
+      </c>
+      <c r="F98">
+        <v>127.366926908</v>
+      </c>
+      <c r="G98">
+        <v>441.673402071</v>
+      </c>
+      <c r="H98">
+        <v>591.22588586799998</v>
+      </c>
+      <c r="I98">
+        <v>18.299999952299999</v>
+      </c>
+      <c r="J98">
+        <v>1.17000007629</v>
+      </c>
+      <c r="K98" s="7">
+        <f t="shared" ref="K98:K105" si="5">H98-(SUM(F98,G98,I98,J98))</f>
+        <v>2.7155568604099471</v>
+      </c>
+      <c r="L98" t="s">
+        <v>30</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1024</v>
+      </c>
+      <c r="F99">
+        <v>122.46329093</v>
+      </c>
+      <c r="G99">
+        <v>73.640522003200005</v>
+      </c>
+      <c r="H99">
+        <v>219.26736497900001</v>
+      </c>
+      <c r="I99">
+        <v>18.569999933199998</v>
+      </c>
+      <c r="J99">
+        <v>2.2699999809300002</v>
+      </c>
+      <c r="K99" s="7">
+        <f t="shared" si="5"/>
+        <v>2.3235521316699987</v>
+      </c>
+      <c r="L99" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1024</v>
+      </c>
+      <c r="F100">
+        <v>122.564983845</v>
+      </c>
+      <c r="G100">
+        <v>337.802927017</v>
+      </c>
+      <c r="H100">
+        <v>483.538281918</v>
+      </c>
+      <c r="I100">
+        <v>21.450000047700001</v>
+      </c>
+      <c r="J100">
+        <v>0.44000005722000002</v>
+      </c>
+      <c r="K100" s="7">
+        <f t="shared" si="5"/>
+        <v>1.2803709510799877</v>
+      </c>
+      <c r="L100" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1024</v>
+      </c>
+      <c r="F101">
+        <v>122.930903196</v>
+      </c>
+      <c r="G101">
+        <v>73.627982854799995</v>
+      </c>
+      <c r="H101">
+        <v>219.725349188</v>
+      </c>
+      <c r="I101">
+        <v>20.720000028600001</v>
+      </c>
+      <c r="J101">
+        <v>0.63999986648600005</v>
+      </c>
+      <c r="K101" s="7">
+        <f t="shared" si="5"/>
+        <v>1.8064632421140061</v>
+      </c>
+      <c r="L101" t="s">
+        <v>30</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1024</v>
+      </c>
+      <c r="F102">
+        <v>122.914136171</v>
+      </c>
+      <c r="G102">
+        <v>73.746207952500001</v>
+      </c>
+      <c r="H102">
+        <v>221.83034014699999</v>
+      </c>
+      <c r="I102">
+        <v>23.759999990499999</v>
+      </c>
+      <c r="J102">
+        <v>0.25999999046299999</v>
+      </c>
+      <c r="K102" s="7">
+        <f t="shared" si="5"/>
+        <v>1.1499960425369693</v>
+      </c>
+      <c r="L102" t="s">
+        <v>30</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1024</v>
+      </c>
+      <c r="F103">
+        <v>122.432168007</v>
+      </c>
+      <c r="G103">
+        <v>549.52785706500003</v>
+      </c>
+      <c r="H103">
+        <v>694.16436600700001</v>
+      </c>
+      <c r="I103">
+        <v>19.2699999809</v>
+      </c>
+      <c r="J103">
+        <v>0.74000000953699996</v>
+      </c>
+      <c r="K103" s="7">
+        <f t="shared" si="5"/>
+        <v>2.1943409445630095</v>
+      </c>
+      <c r="L103" t="s">
+        <v>30</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1024</v>
+      </c>
+      <c r="F104">
+        <v>122.699822903</v>
+      </c>
+      <c r="G104">
+        <v>78.8047130108</v>
+      </c>
+      <c r="H104">
+        <v>232.69743394899999</v>
+      </c>
+      <c r="I104">
+        <v>24.029999971399999</v>
+      </c>
+      <c r="J104">
+        <v>4.9600000381499996</v>
+      </c>
+      <c r="K104" s="7">
+        <f t="shared" si="5"/>
+        <v>2.2028980256500006</v>
+      </c>
+      <c r="L104" t="s">
+        <v>30</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1024</v>
+      </c>
+      <c r="F105">
+        <v>122.79443502399999</v>
+      </c>
+      <c r="G105">
+        <v>363.91036605800002</v>
+      </c>
+      <c r="H105">
+        <v>523.91887497899995</v>
+      </c>
+      <c r="I105">
+        <v>31.039999961900001</v>
+      </c>
+      <c r="J105">
+        <v>3.3799998760199998</v>
+      </c>
+      <c r="K105" s="7">
+        <f t="shared" si="5"/>
+        <v>2.7940740590800033</v>
+      </c>
+      <c r="L105" t="s">
+        <v>30</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L77"/>
-  <sortState ref="O15:U24">
-    <sortCondition ref="P17"/>
+  <autoFilter ref="A1:L97"/>
+  <sortState ref="O15:V22">
+    <sortCondition ref="V17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6873,7 +8509,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>40</v>
@@ -6903,7 +8539,7 @@
         <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6914,7 +8550,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>40</v>
@@ -6944,7 +8580,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6955,7 +8591,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>40</v>
@@ -6985,7 +8621,7 @@
         <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -6996,7 +8632,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>40</v>
@@ -7026,7 +8662,7 @@
         <v>42</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -7037,7 +8673,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -7067,7 +8703,7 @@
         <v>42</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7078,7 +8714,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>40</v>
@@ -7108,7 +8744,7 @@
         <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -7119,7 +8755,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>40</v>
@@ -7149,7 +8785,7 @@
         <v>42</v>
       </c>
       <c r="M19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -7160,7 +8796,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>40</v>
@@ -7190,7 +8826,7 @@
         <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -7201,7 +8837,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>40</v>
@@ -7231,7 +8867,7 @@
         <v>42</v>
       </c>
       <c r="M21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -7242,7 +8878,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>40</v>
@@ -7272,7 +8908,7 @@
         <v>42</v>
       </c>
       <c r="M22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7283,7 +8919,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>40</v>
@@ -7313,7 +8949,7 @@
         <v>42</v>
       </c>
       <c r="M23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -7324,7 +8960,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>40</v>
@@ -7354,7 +8990,7 @@
         <v>42</v>
       </c>
       <c r="M24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -7365,7 +9001,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>40</v>
@@ -7395,7 +9031,7 @@
         <v>42</v>
       </c>
       <c r="M25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -7411,17 +9047,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G21"/>
+      <selection activeCell="A57" sqref="A57:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -7449,16 +9085,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -7466,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -7498,10 +9134,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7530,10 +9166,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -7562,10 +9198,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7594,10 +9230,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -7626,10 +9262,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -7658,10 +9294,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -7690,10 +9326,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -7722,10 +9358,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -7754,10 +9390,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -7786,10 +9422,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -7818,10 +9454,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -7850,10 +9486,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -7882,10 +9518,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -7914,10 +9550,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -7946,10 +9582,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -7978,10 +9614,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -8010,10 +9646,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -8042,10 +9678,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -8074,10 +9710,10 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8099,6 +9735,1254 @@
       </c>
       <c r="J21">
         <v>2.46000003815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1024</v>
+      </c>
+      <c r="F25">
+        <v>122.625741959</v>
+      </c>
+      <c r="G25">
+        <v>406.30978512799999</v>
+      </c>
+      <c r="H25">
+        <v>558.12237095800003</v>
+      </c>
+      <c r="I25">
+        <v>22.990000009500001</v>
+      </c>
+      <c r="J25">
+        <v>3.65999984741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1024</v>
+      </c>
+      <c r="F26">
+        <v>122.455549955</v>
+      </c>
+      <c r="G26">
+        <v>368.07666397100002</v>
+      </c>
+      <c r="H26">
+        <v>511.69023394599998</v>
+      </c>
+      <c r="I26">
+        <v>19.190000057199999</v>
+      </c>
+      <c r="J26">
+        <v>0.37000012397799997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1024</v>
+      </c>
+      <c r="F27">
+        <v>123.313658953</v>
+      </c>
+      <c r="G27">
+        <v>441.78992700600003</v>
+      </c>
+      <c r="H27">
+        <v>634.44569206200003</v>
+      </c>
+      <c r="I27">
+        <v>64.230000019100004</v>
+      </c>
+      <c r="J27">
+        <v>2.4500000476800001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1024</v>
+      </c>
+      <c r="F28">
+        <v>122.516154051</v>
+      </c>
+      <c r="G28">
+        <v>420.93793296799998</v>
+      </c>
+      <c r="H28">
+        <v>581.68988704699996</v>
+      </c>
+      <c r="I28">
+        <v>29.419999837900001</v>
+      </c>
+      <c r="J28">
+        <v>4.9500000476799997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1024</v>
+      </c>
+      <c r="F29">
+        <v>122.230736971</v>
+      </c>
+      <c r="G29">
+        <v>477.67605185500003</v>
+      </c>
+      <c r="H29">
+        <v>630.133245945</v>
+      </c>
+      <c r="I29">
+        <v>26.600000143100001</v>
+      </c>
+      <c r="J29">
+        <v>0.88999986648600005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1024</v>
+      </c>
+      <c r="F30">
+        <v>122.937199116</v>
+      </c>
+      <c r="G30">
+        <v>488.21469998399999</v>
+      </c>
+      <c r="H30">
+        <v>634.325598001</v>
+      </c>
+      <c r="I30">
+        <v>21.920000076299999</v>
+      </c>
+      <c r="J30">
+        <v>9.9999904632600001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1024</v>
+      </c>
+      <c r="F31">
+        <v>130.94049096099999</v>
+      </c>
+      <c r="G31">
+        <v>385.66926407800003</v>
+      </c>
+      <c r="H31">
+        <v>563.85909795800001</v>
+      </c>
+      <c r="I31">
+        <v>41.470000028599998</v>
+      </c>
+      <c r="J31">
+        <v>3.2400000095400001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1024</v>
+      </c>
+      <c r="F32">
+        <v>131.086699009</v>
+      </c>
+      <c r="G32">
+        <v>357.81737399100001</v>
+      </c>
+      <c r="H32">
+        <v>518.10444998699995</v>
+      </c>
+      <c r="I32">
+        <v>25.350000143100001</v>
+      </c>
+      <c r="J32">
+        <v>1.2799999713900001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1024</v>
+      </c>
+      <c r="F33">
+        <v>122.829023838</v>
+      </c>
+      <c r="G33">
+        <v>352.59382700899999</v>
+      </c>
+      <c r="H33">
+        <v>506.61129689199998</v>
+      </c>
+      <c r="I33">
+        <v>26.75</v>
+      </c>
+      <c r="J33">
+        <v>2.5299999713900001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1024</v>
+      </c>
+      <c r="F34">
+        <v>122.742627144</v>
+      </c>
+      <c r="G34">
+        <v>545.45097804099998</v>
+      </c>
+      <c r="H34">
+        <v>690.387247086</v>
+      </c>
+      <c r="I34">
+        <v>18.9100000858</v>
+      </c>
+      <c r="J34">
+        <v>0.60999989509600006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1024</v>
+      </c>
+      <c r="F35">
+        <v>80.444903850599999</v>
+      </c>
+      <c r="G35">
+        <v>94.621517181399994</v>
+      </c>
+      <c r="H35">
+        <v>204.297996044</v>
+      </c>
+      <c r="I35">
+        <v>21.380000114400001</v>
+      </c>
+      <c r="J35">
+        <v>3.1499998569500001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1024</v>
+      </c>
+      <c r="F36">
+        <v>70.613453149799994</v>
+      </c>
+      <c r="G36">
+        <v>79.199844837200004</v>
+      </c>
+      <c r="H36">
+        <v>179.04170608499999</v>
+      </c>
+      <c r="I36">
+        <v>21.8900001049</v>
+      </c>
+      <c r="J36">
+        <v>2.6899998188000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1024</v>
+      </c>
+      <c r="F37">
+        <v>68.524448871600001</v>
+      </c>
+      <c r="G37">
+        <v>85.041723012899993</v>
+      </c>
+      <c r="H37">
+        <v>185.87090802200001</v>
+      </c>
+      <c r="I37">
+        <v>22.340000152599998</v>
+      </c>
+      <c r="J37">
+        <v>2.61999988556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1024</v>
+      </c>
+      <c r="F38">
+        <v>92.479223966600003</v>
+      </c>
+      <c r="G38">
+        <v>84.432940006300001</v>
+      </c>
+      <c r="H38">
+        <v>207.16251492500001</v>
+      </c>
+      <c r="I38">
+        <v>19.830000162099999</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1024</v>
+      </c>
+      <c r="F39">
+        <v>79.500350952100007</v>
+      </c>
+      <c r="G39">
+        <v>89.227121830000002</v>
+      </c>
+      <c r="H39">
+        <v>188.94854998599999</v>
+      </c>
+      <c r="I39">
+        <v>13.670000076299999</v>
+      </c>
+      <c r="J39">
+        <v>1.01999998093</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1024</v>
+      </c>
+      <c r="F40">
+        <v>64.690178871200004</v>
+      </c>
+      <c r="G40">
+        <v>84.834069013600001</v>
+      </c>
+      <c r="H40">
+        <v>166.716521978</v>
+      </c>
+      <c r="I40">
+        <v>11.129999875999999</v>
+      </c>
+      <c r="J40">
+        <v>2.8900001048999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1024</v>
+      </c>
+      <c r="F41">
+        <v>62.510327816</v>
+      </c>
+      <c r="G41">
+        <v>58.212373018299999</v>
+      </c>
+      <c r="H41">
+        <v>141.924422026</v>
+      </c>
+      <c r="I41">
+        <v>10.1800000668</v>
+      </c>
+      <c r="J41">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1024</v>
+      </c>
+      <c r="F42">
+        <v>63.705212116200002</v>
+      </c>
+      <c r="G42">
+        <v>63.459511995299998</v>
+      </c>
+      <c r="H42">
+        <v>164.43772196800001</v>
+      </c>
+      <c r="I42">
+        <v>29.159999847400002</v>
+      </c>
+      <c r="J42">
+        <v>4.9400000572199998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1024</v>
+      </c>
+      <c r="F43">
+        <v>69.231099843999999</v>
+      </c>
+      <c r="G43">
+        <v>63.455176115</v>
+      </c>
+      <c r="H43">
+        <v>151.88681888599999</v>
+      </c>
+      <c r="I43">
+        <v>10.2099997997</v>
+      </c>
+      <c r="J43">
+        <v>4.6400001049000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1024</v>
+      </c>
+      <c r="F44">
+        <v>65.7373139858</v>
+      </c>
+      <c r="G44">
+        <v>68.520640134800004</v>
+      </c>
+      <c r="H44">
+        <v>163.50704503099999</v>
+      </c>
+      <c r="I44">
+        <v>22.690000057199999</v>
+      </c>
+      <c r="J44">
+        <v>2.46000003815</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1024</v>
+      </c>
+      <c r="F45">
+        <v>85.028253078500001</v>
+      </c>
+      <c r="G45">
+        <v>79.540381908399993</v>
+      </c>
+      <c r="H45">
+        <v>189.82346606300001</v>
+      </c>
+      <c r="I45">
+        <v>15.7300000191</v>
+      </c>
+      <c r="J45">
+        <v>4.3199999332400001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1024</v>
+      </c>
+      <c r="F47">
+        <v>88.095711946500003</v>
+      </c>
+      <c r="G47">
+        <v>68.750411033600002</v>
+      </c>
+      <c r="H47">
+        <v>182.10254001600001</v>
+      </c>
+      <c r="I47">
+        <v>17.080000162099999</v>
+      </c>
+      <c r="J47">
+        <v>2.7199997901900002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1024</v>
+      </c>
+      <c r="F48">
+        <v>77.566933870300005</v>
+      </c>
+      <c r="G48">
+        <v>80.291722059199998</v>
+      </c>
+      <c r="H48">
+        <v>182.08835697200001</v>
+      </c>
+      <c r="I48">
+        <v>15.7300000191</v>
+      </c>
+      <c r="J48">
+        <v>4.3599998950999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1024</v>
+      </c>
+      <c r="F49">
+        <v>73.556305170100003</v>
+      </c>
+      <c r="G49">
+        <v>89.513612985600005</v>
+      </c>
+      <c r="H49">
+        <v>181.280589104</v>
+      </c>
+      <c r="I49">
+        <v>11.6800000668</v>
+      </c>
+      <c r="J49">
+        <v>2.3399999141699999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1024</v>
+      </c>
+      <c r="F50">
+        <v>83.762733936299995</v>
+      </c>
+      <c r="G50">
+        <v>84.260221958200006</v>
+      </c>
+      <c r="H50">
+        <v>193.284825802</v>
+      </c>
+      <c r="I50">
+        <v>15.9500000477</v>
+      </c>
+      <c r="J50">
+        <v>3.4499998092699999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1024</v>
+      </c>
+      <c r="F51">
+        <v>94.2120270729</v>
+      </c>
+      <c r="G51">
+        <v>63.980871915800002</v>
+      </c>
+      <c r="H51">
+        <v>178.407670975</v>
+      </c>
+      <c r="I51">
+        <v>13.7300000191</v>
+      </c>
+      <c r="J51">
+        <v>1.0800001621199999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1024</v>
+      </c>
+      <c r="F52">
+        <v>95.793176889400002</v>
+      </c>
+      <c r="G52">
+        <v>84.414859056500006</v>
+      </c>
+      <c r="H52">
+        <v>205.508044004</v>
+      </c>
+      <c r="I52">
+        <v>16.1600000858</v>
+      </c>
+      <c r="J52">
+        <v>1.26999998093</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1024</v>
+      </c>
+      <c r="F53">
+        <v>73.288882017099994</v>
+      </c>
+      <c r="G53">
+        <v>79.355859994900001</v>
+      </c>
+      <c r="H53">
+        <v>173.885002136</v>
+      </c>
+      <c r="I53">
+        <v>14.740000009499999</v>
+      </c>
+      <c r="J53">
+        <v>0.67999982833899997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1024</v>
+      </c>
+      <c r="F54">
+        <v>65.513721942900006</v>
+      </c>
+      <c r="G54">
+        <v>63.811318874400001</v>
+      </c>
+      <c r="H54">
+        <v>159.57560586899999</v>
+      </c>
+      <c r="I54">
+        <v>23.529999971399999</v>
+      </c>
+      <c r="J54">
+        <v>1.5099999904600001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1024</v>
+      </c>
+      <c r="F55">
+        <v>80.013221979099995</v>
+      </c>
+      <c r="G55">
+        <v>89.720234155699998</v>
+      </c>
+      <c r="H55">
+        <v>189.95108413700001</v>
+      </c>
+      <c r="I55">
+        <v>11.559999942799999</v>
+      </c>
+      <c r="J55">
+        <v>3.0699999332400001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1024</v>
+      </c>
+      <c r="F57">
+        <v>127.366926908</v>
+      </c>
+      <c r="G57">
+        <v>441.673402071</v>
+      </c>
+      <c r="H57">
+        <v>591.22588586799998</v>
+      </c>
+      <c r="I57">
+        <v>18.299999952299999</v>
+      </c>
+      <c r="J57">
+        <v>1.17000007629</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1024</v>
+      </c>
+      <c r="F58">
+        <v>122.46329093</v>
+      </c>
+      <c r="G58">
+        <v>73.640522003200005</v>
+      </c>
+      <c r="H58">
+        <v>219.26736497900001</v>
+      </c>
+      <c r="I58">
+        <v>18.569999933199998</v>
+      </c>
+      <c r="J58">
+        <v>2.2699999809300002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1024</v>
+      </c>
+      <c r="F59">
+        <v>122.564983845</v>
+      </c>
+      <c r="G59">
+        <v>337.802927017</v>
+      </c>
+      <c r="H59">
+        <v>483.538281918</v>
+      </c>
+      <c r="I59">
+        <v>21.450000047700001</v>
+      </c>
+      <c r="J59">
+        <v>0.44000005722000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1024</v>
+      </c>
+      <c r="F60">
+        <v>122.930903196</v>
+      </c>
+      <c r="G60">
+        <v>73.627982854799995</v>
+      </c>
+      <c r="H60">
+        <v>219.725349188</v>
+      </c>
+      <c r="I60">
+        <v>20.720000028600001</v>
+      </c>
+      <c r="J60">
+        <v>0.63999986648600005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1024</v>
+      </c>
+      <c r="F61">
+        <v>122.914136171</v>
+      </c>
+      <c r="G61">
+        <v>73.746207952500001</v>
+      </c>
+      <c r="H61">
+        <v>221.83034014699999</v>
+      </c>
+      <c r="I61">
+        <v>23.759999990499999</v>
+      </c>
+      <c r="J61">
+        <v>0.25999999046299999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1024</v>
+      </c>
+      <c r="F62">
+        <v>122.432168007</v>
+      </c>
+      <c r="G62">
+        <v>549.52785706500003</v>
+      </c>
+      <c r="H62">
+        <v>694.16436600700001</v>
+      </c>
+      <c r="I62">
+        <v>19.2699999809</v>
+      </c>
+      <c r="J62">
+        <v>0.74000000953699996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1024</v>
+      </c>
+      <c r="F63">
+        <v>122.699822903</v>
+      </c>
+      <c r="G63">
+        <v>78.8047130108</v>
+      </c>
+      <c r="H63">
+        <v>232.69743394899999</v>
+      </c>
+      <c r="I63">
+        <v>24.029999971399999</v>
+      </c>
+      <c r="J63">
+        <v>4.9600000381499996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1024</v>
+      </c>
+      <c r="F64">
+        <v>122.79443502399999</v>
+      </c>
+      <c r="G64">
+        <v>363.91036605800002</v>
+      </c>
+      <c r="H64">
+        <v>523.91887497899995</v>
+      </c>
+      <c r="I64">
+        <v>31.039999961900001</v>
+      </c>
+      <c r="J64">
+        <v>3.3799998760199998</v>
       </c>
     </row>
   </sheetData>

--- a/papers/ccpe-cloud12/performance/pd.xlsx
+++ b/papers/ccpe-cloud12/performance/pd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19620" yWindow="0" windowWidth="32160" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="0" windowWidth="48160" windowHeight="28300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1 CU" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="scratch" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 CU'!$A$1:$L$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 CU'!$A$1:$L$110</definedName>
     <definedName name="pd" localSheetId="0">'1 CU'!$A$1:$J$29</definedName>
     <definedName name="pd" localSheetId="2">scratch!$A$1:$J$1</definedName>
     <definedName name="pd_fg_remote" localSheetId="0">'1 CU'!$A$67:$J$86</definedName>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="68" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="73">
   <si>
     <t>Run</t>
   </si>
@@ -282,9 +282,6 @@
     <t>/dev/urandom</t>
   </si>
   <si>
-    <t xml:space="preserve">Pilot Queue </t>
-  </si>
-  <si>
     <t xml:space="preserve">CU Compute </t>
   </si>
   <si>
@@ -295,9 +292,6 @@
   </si>
   <si>
     <t>walrus</t>
-  </si>
-  <si>
-    <t>euca://india.futuregrid.org</t>
   </si>
   <si>
     <t>Pilot Qtime</t>
@@ -381,11 +375,6 @@
     <t>ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-b7923bce-fa9b-11e1-84f8-00215ec9e3ac</t>
   </si>
   <si>
-    <t>FG 
-(Multi CU)
-(b3)</t>
-  </si>
-  <si>
     <t>FG/Walrus
 (b1)</t>
   </si>
@@ -410,6 +399,23 @@
     <t>Google 
 (Multi CUs)
 (b7)</t>
+  </si>
+  <si>
+    <t>ssh://melrom@india.futuregrid.org/tmp/pilot-data-6e73a1d6-fa81-11e1-b756-e61f1322a75c</t>
+  </si>
+  <si>
+    <t>Euca/SSH/Local</t>
+  </si>
+  <si>
+    <t>Euca/Walrus/Local</t>
+  </si>
+  <si>
+    <t>Pilot Queue (VM Startup)</t>
+  </si>
+  <si>
+    <t>FG/Walrus
+(Multi CU)
+(b3)</t>
   </si>
 </sst>
 </file>
@@ -485,8 +491,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -579,7 +595,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="81">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -615,6 +631,11 @@
     <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -650,9 +671,20 @@
     <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -722,7 +754,7 @@
                   <c:v>FG/SSH_x000d_(b2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FG _x000d_(Multi CU)_x000d_(b3)</c:v>
+                  <c:v>FG/Walrus_x000d_(Multi CU)_x000d_(b3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Amazon_x000d_(b4)</c:v>
@@ -746,10 +778,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>61.96700584888</c:v>
+                  <c:v>21.72547779082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.8802527189444</c:v>
+                  <c:v>17.95413975718</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>58.37896791370909</c:v>
@@ -805,7 +837,7 @@
                   <c:v>FG/SSH_x000d_(b2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FG _x000d_(Multi CU)_x000d_(b3)</c:v>
+                  <c:v>FG/Walrus_x000d_(Multi CU)_x000d_(b3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Amazon_x000d_(b4)</c:v>
@@ -829,10 +861,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.52999997138</c:v>
+                  <c:v>15.09400000574</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.33166668150555</c:v>
+                  <c:v>35.39400010108</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>228.1435000094545</c:v>
@@ -862,7 +894,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pilot Queue </c:v>
+                  <c:v>Pilot Queue (VM Startup)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -886,13 +918,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>13.31080157479374</c:v>
+                    <c:v>227.9274646583128</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>163.955440347336</c:v>
+                    <c:v>16.91767419295345</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>77.3742373453039</c:v>
+                    <c:v>77.3742373453051</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>149.250454951162</c:v>
@@ -916,13 +948,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>13.31080157479374</c:v>
+                    <c:v>227.9274646583128</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>163.955440347336</c:v>
+                    <c:v>16.91767419295345</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>77.3742373453039</c:v>
+                    <c:v>77.3742373453051</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>149.250454951162</c:v>
@@ -961,7 +993,7 @@
                   <c:v>FG/SSH_x000d_(b2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FG _x000d_(Multi CU)_x000d_(b3)</c:v>
+                  <c:v>FG/Walrus_x000d_(Multi CU)_x000d_(b3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Amazon_x000d_(b4)</c:v>
@@ -985,10 +1017,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>78.62730119227001</c:v>
+                  <c:v>302.40736880304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>346.5150267812944</c:v>
+                  <c:v>65.01537723542</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70.74218695813637</c:v>
@@ -1041,7 +1073,7 @@
                   <c:v>FG/SSH_x000d_(b2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FG _x000d_(Multi CU)_x000d_(b3)</c:v>
+                  <c:v>FG/Walrus_x000d_(Multi CU)_x000d_(b3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Amazon_x000d_(b4)</c:v>
@@ -1065,10 +1097,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3430000305168</c:v>
+                  <c:v>2.776000022888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.880555537011626</c:v>
+                  <c:v>1.2299999713914</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.41801238660636</c:v>
@@ -1099,11 +1131,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2088559944"/>
-        <c:axId val="2088563000"/>
+        <c:axId val="-2120461752"/>
+        <c:axId val="-2120459016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2088559944"/>
+        <c:axId val="-2120461752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1154,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088563000"/>
+        <c:crossAx val="-2120459016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1130,8 +1162,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088563000"/>
+        <c:axId val="-2120459016"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1170,11 +1203,26 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088559944"/>
+        <c:crossAx val="-2120461752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1228,24 +1276,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41161.859489699076" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="104">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41161.924891898147" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="109">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:M105" sheet="1 CU"/>
+    <worksheetSource ref="A1:M110" sheet="1 CU"/>
   </cacheSource>
   <cacheFields count="13">
     <cacheField name="Run" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10"/>
     </cacheField>
     <cacheField name="PC" numFmtId="0">
-      <sharedItems count="8">
+      <sharedItems count="9">
         <s v="ec2+ssh://aws.amazon.com/"/>
         <s v="gce+ssh://google.com"/>
-        <s v="euca://india.futuregrid.org"/>
+        <s v="Euca/Walrus/Local"/>
         <s v="Google (Multi CU)"/>
         <s v="Amazon (Multi CU)"/>
         <s v="Euca/SSH/Remote"/>
         <s v="Euca/Walrus/Remote"/>
         <s v="EUCA/Walrus (Multi CU)"/>
+        <s v="Euca/SSH/Local"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PD" numFmtId="0">
@@ -1267,7 +1316,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.4648599625" maxValue="575.899488926"/>
     </cacheField>
     <cacheField name="Total Runtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="99.422956943499997" maxValue="5451.5510759400004"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="97.345947980899993" maxValue="5451.5510759400004"/>
     </cacheField>
     <cacheField name="CU qtime" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.4400000572200007" maxValue="1459.53800002"/>
@@ -1282,7 +1331,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Order" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1294,7 +1343,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="104">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="109">
   <r>
     <n v="0"/>
     <x v="0"/>
@@ -1938,7 +1987,7 @@
     <n v="3.92000007629"/>
     <n v="8.7560269836099991"/>
     <s v="/dev/urandom"/>
-    <m/>
+    <n v="1"/>
   </r>
   <r>
     <n v="2"/>
@@ -1953,7 +2002,7 @@
     <n v="1.44000005722"/>
     <n v="8.629621744480005"/>
     <s v="/dev/urandom"/>
-    <m/>
+    <n v="1"/>
   </r>
   <r>
     <n v="3"/>
@@ -1968,7 +2017,7 @@
     <n v="1.6699998378799998"/>
     <n v="7.4500191220200236"/>
     <s v="/dev/urandom"/>
-    <m/>
+    <n v="1"/>
   </r>
   <r>
     <n v="4"/>
@@ -1983,7 +2032,7 @@
     <n v="4.3199999332400001"/>
     <n v="8.5761549470599903"/>
     <s v="/dev/urandom"/>
-    <m/>
+    <n v="1"/>
   </r>
   <r>
     <n v="5"/>
@@ -1998,7 +2047,7 @@
     <n v="2.5300002098099998"/>
     <n v="8.5227568143899362"/>
     <s v="/dev/urandom"/>
-    <m/>
+    <n v="1"/>
   </r>
   <r>
     <n v="0"/>
@@ -2855,24 +2904,100 @@
     <s v="/dev/urandom"/>
     <n v="2"/>
   </r>
+  <r>
+    <n v="0"/>
+    <x v="8"/>
+    <s v="ssh://melrom@india.futuregrid.org/tmp/pilot-data-6e73a1d6-fa81-11e1-b756-e61f1322a75c"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="17.3583030701"/>
+    <n v="64.033715009700003"/>
+    <n v="138.457458019"/>
+    <n v="53.830000162099999"/>
+    <n v="1.7799999713900001"/>
+    <n v="1.4554398057100002"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="8"/>
+    <s v="ssh://melrom@india.futuregrid.org/tmp/pilot-data-6e73a1d6-fa81-11e1-b756-e61f1322a75c"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="19.069396972700002"/>
+    <n v="58.551896095300002"/>
+    <n v="138.69708108899999"/>
+    <n v="51.809999942799998"/>
+    <n v="2.0499999523199999"/>
+    <n v="7.2157881258799819"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="8"/>
+    <s v="ssh://melrom@india.futuregrid.org/tmp/pilot-data-6e73a1d6-fa81-11e1-b756-e61f1322a75c"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="17.319866895699999"/>
+    <n v="63.933881044400003"/>
+    <n v="122.312963963"/>
+    <n v="32.9100000858"/>
+    <n v="0.75"/>
+    <n v="7.3992159371000099"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="8"/>
+    <s v="ssh://melrom@india.futuregrid.org/tmp/pilot-data-6e73a1d6-fa81-11e1-b756-e61f1322a75c"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="17.385205984100001"/>
+    <n v="58.9230599403"/>
+    <n v="97.345947980899993"/>
+    <n v="18.330000162099999"/>
+    <n v="1.38999986649"/>
+    <n v="1.3176820279099815"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="8"/>
+    <s v="ssh://melrom@india.futuregrid.org/tmp/pilot-data-6e73a1d6-fa81-11e1-b756-e61f1322a75c"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="18.637925863300001"/>
+    <n v="79.634334087400006"/>
+    <n v="121.311702013"/>
+    <n v="20.090000152599998"/>
+    <n v="0.180000066757"/>
+    <n v="2.7694418429429959"/>
+    <s v="/dev/urandom"/>
+    <n v="2"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" rowHeaderCaption="" customListSort="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" rowHeaderCaption="" customListSort="0">
   <location ref="O15:V24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="6"/>
-        <item x="5"/>
+      <items count="10">
+        <item x="2"/>
+        <item x="8"/>
         <item x="7"/>
         <item x="0"/>
         <item x="4"/>
-        <item h="1" x="2"/>
         <item x="1"/>
         <item x="3"/>
+        <item h="1" x="6"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2914,10 +3039,10 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -2955,14 +3080,14 @@
   <dataFields count="7">
     <dataField name="Upload (FG - Cloud Storage)" fld="5" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Download (Cloud Storage - VM)" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Pilot Queue " fld="6" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Pilot Queue (VM Startup)" fld="6" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Mittelwert - Total Runtime" fld="7" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="CU Compute " fld="9" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="STABW - Total Runtime" fld="7" subtotal="stdDev" baseField="0" baseItem="0"/>
     <dataField name="Mittelwert - Order" fld="12" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2976,31 +3101,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_random" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_2" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3008,15 +3133,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_multi_cu_2" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote_2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pd_fg_remote_2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3341,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3361,7 +3486,7 @@
     <col min="15" max="15" width="24.6640625" customWidth="1"/>
     <col min="16" max="16" width="23.83203125" customWidth="1"/>
     <col min="17" max="17" width="27" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" customWidth="1"/>
+    <col min="18" max="18" width="21.83203125" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
     <col min="21" max="21" width="20.1640625" customWidth="1"/>
@@ -3406,7 +3531,7 @@
         <v>21</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -4038,7 +4163,7 @@
         <v>3.2999999523199999</v>
       </c>
       <c r="K16" s="7">
-        <f>H16-(SUM(F16,G16,I16,J16))</f>
+        <f t="shared" ref="K16:K43" si="1">H16-(SUM(F16,G16,I16,J16))</f>
         <v>8.6895410985800936</v>
       </c>
       <c r="L16" t="s">
@@ -4051,25 +4176,25 @@
         <v>25</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="S16" t="s">
         <v>23</v>
       </c>
       <c r="T16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U16" t="s">
         <v>24</v>
       </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="30">
@@ -4104,7 +4229,7 @@
         <v>11.7300000191</v>
       </c>
       <c r="K17" s="7">
-        <f>H17-(SUM(F17,G17,I17,J17))</f>
+        <f t="shared" si="1"/>
         <v>7.6052060126000356</v>
       </c>
       <c r="L17" t="s">
@@ -4114,28 +4239,28 @@
         <v>4</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="P17" s="5">
-        <v>61.96700584888</v>
+        <v>21.725477790819998</v>
       </c>
       <c r="Q17" s="5">
-        <v>13.529999971380002</v>
+        <v>15.09400000574</v>
       </c>
       <c r="R17" s="5">
-        <v>78.627301192270011</v>
+        <v>302.40736880303996</v>
       </c>
       <c r="S17" s="5">
-        <v>162.09485106469998</v>
+        <v>350.38976254479996</v>
       </c>
       <c r="T17" s="5">
-        <v>2.3430000305167997</v>
+        <v>2.7760000228879997</v>
       </c>
       <c r="U17" s="5">
-        <v>13.310801574793736</v>
+        <v>227.92746465831283</v>
       </c>
       <c r="V17" s="5">
         <v>1</v>
@@ -4173,7 +4298,7 @@
         <v>3.9300000667599999</v>
       </c>
       <c r="K18" s="7">
-        <f>H18-(SUM(F18,G18,I18,J18))</f>
+        <f t="shared" si="1"/>
         <v>8.6064710611399278</v>
       </c>
       <c r="L18" t="s">
@@ -4183,28 +4308,28 @@
         <v>6</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="P18" s="5">
-        <v>123.88025271894445</v>
+        <v>17.954139757180002</v>
       </c>
       <c r="Q18" s="5">
-        <v>26.331666681505553</v>
+        <v>35.394000101079996</v>
       </c>
       <c r="R18" s="5">
-        <v>346.51502678129441</v>
+        <v>65.015377235420004</v>
       </c>
       <c r="S18" s="5">
-        <v>500.87427871761128</v>
+        <v>123.62503061298</v>
       </c>
       <c r="T18" s="5">
-        <v>1.8805555370116258</v>
+        <v>1.2299999713913998</v>
       </c>
       <c r="U18" s="5">
-        <v>163.95544034733592</v>
+        <v>16.917674192953445</v>
       </c>
       <c r="V18" s="5">
         <v>2</v>
@@ -4242,7 +4367,7 @@
         <v>5.7599999904599999</v>
       </c>
       <c r="K19" s="7">
-        <f>H19-(SUM(F19,G19,I19,J19))</f>
+        <f t="shared" si="1"/>
         <v>14.680315971239963</v>
       </c>
       <c r="L19" t="s">
@@ -4252,10 +4377,10 @@
         <v>4</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P19" s="5">
         <v>58.37896791370909</v>
@@ -4267,13 +4392,13 @@
         <v>70.742186958136372</v>
       </c>
       <c r="S19" s="5">
-        <v>653.41325291718192</v>
+        <v>653.41325291718181</v>
       </c>
       <c r="T19" s="5">
-        <v>14.418012386606364</v>
+        <v>14.418012386606362</v>
       </c>
       <c r="U19" s="5">
-        <v>77.374237345303897</v>
+        <v>77.374237345305104</v>
       </c>
       <c r="V19" s="5">
         <v>3</v>
@@ -4311,7 +4436,7 @@
         <v>1.84999990463</v>
       </c>
       <c r="K20" s="7">
-        <f>H20-(SUM(F20,G20,I20,J20))</f>
+        <f t="shared" si="1"/>
         <v>8.3644220831702114</v>
       </c>
       <c r="L20" t="s">
@@ -4321,7 +4446,7 @@
         <v>6</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>7</v>
@@ -4380,7 +4505,7 @@
         <v>6.7599999904599999</v>
       </c>
       <c r="K21" s="7">
-        <f>H21-(SUM(F21,G21,I21,J21))</f>
+        <f t="shared" si="1"/>
         <v>7.3524658679399977</v>
       </c>
       <c r="L21" t="s">
@@ -4390,10 +4515,10 @@
         <v>4</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P21" s="5">
         <v>202.29683916580001</v>
@@ -4449,7 +4574,7 @@
         <v>3.9900000095400001</v>
       </c>
       <c r="K22" s="7">
-        <f>H22-(SUM(F22,G22,I22,J22))</f>
+        <f t="shared" si="1"/>
         <v>7.1515111900603188</v>
       </c>
       <c r="L22" t="s">
@@ -4459,7 +4584,7 @@
         <v>6</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>12</v>
@@ -4518,7 +4643,7 @@
         <v>5.1900000572199998</v>
       </c>
       <c r="K23" s="7">
-        <f>H23-(SUM(F23,G23,I23,J23))</f>
+        <f t="shared" si="1"/>
         <v>7.5511209967799573</v>
       </c>
       <c r="L23" t="s">
@@ -4528,10 +4653,10 @@
         <v>4</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P23" s="5">
         <v>1929.87040639</v>
@@ -4587,7 +4712,7 @@
         <v>4.0599999427800002</v>
       </c>
       <c r="K24" s="7">
-        <f>H24-(SUM(F24,G24,I24,J24))</f>
+        <f t="shared" si="1"/>
         <v>8.8604111671199917</v>
       </c>
       <c r="L24" t="s">
@@ -4600,25 +4725,25 @@
         <v>16</v>
       </c>
       <c r="P24" s="5">
-        <v>420.80570366657332</v>
+        <v>489.18606680974739</v>
       </c>
       <c r="Q24" s="5">
-        <v>230.96953056280444</v>
+        <v>283.75594098896659</v>
       </c>
       <c r="R24" s="5">
-        <v>122.09042730066113</v>
+        <v>80.57928740646939</v>
       </c>
       <c r="S24" s="5">
-        <v>969.50070068296679</v>
+        <v>1097.0618263846095</v>
       </c>
       <c r="T24" s="5">
-        <v>4.7443070698506924</v>
+        <v>5.4130227262025281</v>
       </c>
       <c r="U24" s="5">
-        <v>1119.7914290996948</v>
+        <v>1217.2516142242787</v>
       </c>
       <c r="V24" s="5">
-        <v>3.8111111111111109</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -4653,7 +4778,7 @@
         <v>5.8199999332400001</v>
       </c>
       <c r="K25" s="7">
-        <f>H25-(SUM(F25,G25,I25,J25))</f>
+        <f t="shared" si="1"/>
         <v>15.025970935559997</v>
       </c>
       <c r="L25" t="s">
@@ -4695,7 +4820,7 @@
         <v>0.78999996185300003</v>
       </c>
       <c r="K26" s="7">
-        <f>H26-(SUM(F26,G26,I26,J26))</f>
+        <f t="shared" si="1"/>
         <v>8.1836228370469826</v>
       </c>
       <c r="L26" t="s">
@@ -4737,7 +4862,7 @@
         <v>1.84000015259</v>
       </c>
       <c r="K27" s="7">
-        <f>H27-(SUM(F27,G27,I27,J27))</f>
+        <f t="shared" si="1"/>
         <v>7.4114298826100367</v>
       </c>
       <c r="L27" t="s">
@@ -4779,7 +4904,7 @@
         <v>3.0599999427800002</v>
       </c>
       <c r="K28" s="7">
-        <f>H28-(SUM(F28,G28,I28,J28))</f>
+        <f t="shared" si="1"/>
         <v>7.8331091400200421</v>
       </c>
       <c r="L28" t="s">
@@ -4821,7 +4946,7 @@
         <v>5.5</v>
       </c>
       <c r="K29" s="7">
-        <f>H29-(SUM(F29,G29,I29,J29))</f>
+        <f t="shared" si="1"/>
         <v>8.0995032785000376</v>
       </c>
       <c r="L29" t="s">
@@ -4863,7 +4988,7 @@
         <v>3.2900002002700002</v>
       </c>
       <c r="K30" s="7">
-        <f>H30-(SUM(F30,G30,I30,J30))</f>
+        <f t="shared" si="1"/>
         <v>8.8520209790299873</v>
       </c>
       <c r="L30" t="s">
@@ -4905,7 +5030,7 @@
         <v>2.9800000190699998</v>
       </c>
       <c r="K31" s="7">
-        <f>H31-(SUM(F31,G31,I31,J31))</f>
+        <f t="shared" si="1"/>
         <v>8.3799438480299955</v>
       </c>
       <c r="L31" t="s">
@@ -4947,7 +5072,7 @@
         <v>4.4600000381499996</v>
       </c>
       <c r="K32" s="7">
-        <f>H32-(SUM(F32,G32,I32,J32))</f>
+        <f t="shared" si="1"/>
         <v>13.464279890249998</v>
       </c>
       <c r="L32" t="s">
@@ -4989,7 +5114,7 @@
         <v>1.9199998378800001</v>
       </c>
       <c r="K33" s="7">
-        <f>H33-(SUM(F33,G33,I33,J33))</f>
+        <f t="shared" si="1"/>
         <v>8.4689979554199795</v>
       </c>
       <c r="L33" t="s">
@@ -5031,7 +5156,7 @@
         <v>0.68999981880200001</v>
       </c>
       <c r="K34" s="7">
-        <f>H34-(SUM(F34,G34,I34,J34))</f>
+        <f t="shared" si="1"/>
         <v>7.7552559369980258</v>
       </c>
       <c r="L34" t="s">
@@ -5073,7 +5198,7 @@
         <v>1.5300002098100001</v>
       </c>
       <c r="K35" s="7">
-        <f>H35-(SUM(F35,G35,I35,J35))</f>
+        <f t="shared" si="1"/>
         <v>7.195799828289978</v>
       </c>
       <c r="L35" t="s">
@@ -5115,7 +5240,7 @@
         <v>4.6799998283399997</v>
       </c>
       <c r="K36" s="7">
-        <f>H36-(SUM(F36,G36,I36,J36))</f>
+        <f t="shared" si="1"/>
         <v>7.4545691015600255</v>
       </c>
       <c r="L36" t="s">
@@ -5157,7 +5282,7 @@
         <v>2.0699999332400001</v>
       </c>
       <c r="K37" s="7">
-        <f>H37-(SUM(F37,G37,I37,J37))</f>
+        <f t="shared" si="1"/>
         <v>9.0046410557599188</v>
       </c>
       <c r="L37" t="s">
@@ -5199,7 +5324,7 @@
         <v>5.75</v>
       </c>
       <c r="K38" s="7">
-        <f>H38-(SUM(F38,G38,I38,J38))</f>
+        <f t="shared" si="1"/>
         <v>8.5464332107000018</v>
       </c>
       <c r="L38" t="s">
@@ -5241,7 +5366,7 @@
         <v>4.6400001049000004</v>
       </c>
       <c r="K39" s="7">
-        <f>H39-(SUM(F39,G39,I39,J39))</f>
+        <f t="shared" si="1"/>
         <v>7.1577849386000025</v>
       </c>
       <c r="L39" t="s">
@@ -5283,7 +5408,7 @@
         <v>1.7799999713900001</v>
       </c>
       <c r="K40" s="7">
-        <f>H40-(SUM(F40,G40,I40,J40))</f>
+        <f t="shared" si="1"/>
         <v>37.796485900610037</v>
       </c>
       <c r="L40" t="s">
@@ -5325,7 +5450,7 @@
         <v>3.6600000858300001</v>
       </c>
       <c r="K41" s="7">
-        <f>H41-(SUM(F41,G41,I41,J41))</f>
+        <f t="shared" si="1"/>
         <v>13.38279771806998</v>
       </c>
       <c r="L41" t="s">
@@ -5367,7 +5492,7 @@
         <v>1.0699999332400001</v>
       </c>
       <c r="K42" s="7">
-        <f>H42-(SUM(F42,G42,I42,J42))</f>
+        <f t="shared" si="1"/>
         <v>11.669551839959695</v>
       </c>
       <c r="L42" t="s">
@@ -5409,7 +5534,7 @@
         <v>2.0299999713900001</v>
       </c>
       <c r="K43" s="7">
-        <f>H43-(SUM(F43,G43,I43,J43))</f>
+        <f t="shared" si="1"/>
         <v>11.131675958610003</v>
       </c>
       <c r="L43" t="s">
@@ -5424,10 +5549,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -5451,11 +5576,14 @@
         <v>3.92000007629</v>
       </c>
       <c r="K44" s="7">
-        <f t="shared" ref="K44:K66" si="1">H44-(SUM(F44,G44,I44,J44))</f>
+        <f t="shared" ref="K44:K66" si="2">H44-(SUM(F44,G44,I44,J44))</f>
         <v>8.7560269836099991</v>
       </c>
       <c r="L44" t="s">
         <v>30</v>
+      </c>
+      <c r="M44" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -5463,10 +5591,10 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -5490,11 +5618,14 @@
         <v>1.44000005722</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.629621744480005</v>
       </c>
       <c r="L45" t="s">
         <v>30</v>
+      </c>
+      <c r="M45" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -5502,10 +5633,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -5529,11 +5660,14 @@
         <v>1.6699998378799998</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4500191220200236</v>
       </c>
       <c r="L46" t="s">
         <v>30</v>
+      </c>
+      <c r="M46" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -5541,10 +5675,10 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -5568,11 +5702,14 @@
         <v>4.3199999332400001</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5761549470599903</v>
       </c>
       <c r="L47" t="s">
         <v>30</v>
+      </c>
+      <c r="M47" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -5580,10 +5717,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5607,11 +5744,14 @@
         <v>2.5300002098099998</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5227568143899362</v>
       </c>
       <c r="L48" t="s">
         <v>30</v>
+      </c>
+      <c r="M48" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -5619,10 +5759,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D49" s="9">
         <v>40</v>
@@ -5646,7 +5786,7 @@
         <v>3.36800001264</v>
       </c>
       <c r="K49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1003.2050159537603</v>
       </c>
       <c r="L49" t="s">
@@ -5661,10 +5801,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D50" s="9">
         <v>40</v>
@@ -5688,7 +5828,7 @@
         <v>2.8239999949899999</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>931.98281388240957</v>
       </c>
       <c r="L50" t="s">
@@ -5703,10 +5843,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D51" s="9">
         <v>40</v>
@@ -5730,7 +5870,7 @@
         <v>3.15425001383</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1041.1296799831698</v>
       </c>
       <c r="L51" t="s">
@@ -5745,10 +5885,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D52" s="9">
         <v>40</v>
@@ -5772,7 +5912,7 @@
         <v>3.1137499928499999</v>
       </c>
       <c r="K52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1011.4563330004503</v>
       </c>
       <c r="L52" t="s">
@@ -5787,10 +5927,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D53" s="9">
         <v>40</v>
@@ -5814,7 +5954,7 @@
         <v>2.8917499959500002</v>
       </c>
       <c r="K53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1395.8635980072499</v>
       </c>
       <c r="L53" t="s">
@@ -5829,10 +5969,10 @@
         <v>5</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D54" s="9">
         <v>40</v>
@@ -5856,7 +5996,7 @@
         <v>2.2719999671000002</v>
       </c>
       <c r="K54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1087.4554550176003</v>
       </c>
       <c r="L54" t="s">
@@ -5871,10 +6011,10 @@
         <v>6</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D55">
         <v>40</v>
@@ -5898,7 +6038,7 @@
         <v>6.9882500290899996</v>
       </c>
       <c r="K55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000.7751201542096</v>
       </c>
       <c r="L55" t="s">
@@ -5913,10 +6053,10 @@
         <v>7</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D56">
         <v>40</v>
@@ -5940,7 +6080,7 @@
         <v>3.25124998689</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1032.2250032023103</v>
       </c>
       <c r="L56" t="s">
@@ -5955,10 +6095,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D57">
         <v>40</v>
@@ -5982,7 +6122,7 @@
         <v>5.4545000255099998</v>
       </c>
       <c r="K57" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>573.00246487739003</v>
       </c>
       <c r="L57" t="s">
@@ -5997,10 +6137,10 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D58">
         <v>40</v>
@@ -6024,7 +6164,7 @@
         <v>6.1112500011900002</v>
       </c>
       <c r="K58" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>578.17414883260994</v>
       </c>
       <c r="L58" t="s">
@@ -6039,10 +6179,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D59">
         <v>40</v>
@@ -6066,7 +6206,7 @@
         <v>5.9302499949899996</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>551.48167504400988</v>
       </c>
       <c r="L59" t="s">
@@ -6081,10 +6221,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D60">
         <v>40</v>
@@ -6108,7 +6248,7 @@
         <v>10.2109999955</v>
       </c>
       <c r="K60" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>440.66134606680009</v>
       </c>
       <c r="L60" t="s">
@@ -6123,10 +6263,10 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D61">
         <v>40</v>
@@ -6150,7 +6290,7 @@
         <v>5.60025001168</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>452.4602960395199</v>
       </c>
       <c r="L61" t="s">
@@ -6165,10 +6305,10 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D62">
         <v>40</v>
@@ -6192,7 +6332,7 @@
         <v>3.8915000200300001</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>560.01615800577019</v>
       </c>
       <c r="L62" t="s">
@@ -6207,10 +6347,10 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D63">
         <v>40</v>
@@ -6234,7 +6374,7 @@
         <v>5.1365000188399996</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>514.55302483165997</v>
       </c>
       <c r="L63" t="s">
@@ -6249,10 +6389,10 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D64">
         <v>40</v>
@@ -6276,7 +6416,7 @@
         <v>5.0845000147799997</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>382.14236990651989</v>
       </c>
       <c r="L64" t="s">
@@ -6291,10 +6431,10 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D65">
         <v>40</v>
@@ -6318,7 +6458,7 @@
         <v>4.0910000264599997</v>
       </c>
       <c r="K65" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>530.78910392813987</v>
       </c>
       <c r="L65" t="s">
@@ -6333,10 +6473,10 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D66">
         <v>40</v>
@@ -6360,7 +6500,7 @@
         <v>6.4554999887899998</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>559.43018410750994</v>
       </c>
       <c r="L66" t="s">
@@ -6375,10 +6515,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -6402,7 +6542,7 @@
         <v>3.65999984741</v>
       </c>
       <c r="K67" s="7">
-        <f t="shared" ref="K67:K76" si="2">H67-(SUM(F67,G67,I67,J67))</f>
+        <f t="shared" ref="K67:K76" si="3">H67-(SUM(F67,G67,I67,J67))</f>
         <v>2.536844014090093</v>
       </c>
       <c r="L67" t="s">
@@ -6417,10 +6557,10 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -6444,7 +6584,7 @@
         <v>0.37000012397799997</v>
       </c>
       <c r="K68" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5980198388219833</v>
       </c>
       <c r="L68" t="s">
@@ -6459,10 +6599,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -6486,7 +6626,7 @@
         <v>2.4500000476800001</v>
       </c>
       <c r="K69" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6621060362200524</v>
       </c>
       <c r="L69" t="s">
@@ -6501,10 +6641,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -6528,7 +6668,7 @@
         <v>4.9500000476799997</v>
       </c>
       <c r="K70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8658001424199711</v>
       </c>
       <c r="L70" t="s">
@@ -6543,10 +6683,10 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -6570,7 +6710,7 @@
         <v>0.88999986648600005</v>
       </c>
       <c r="K71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.736457109413891</v>
       </c>
       <c r="L71" t="s">
@@ -6585,10 +6725,10 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -6612,7 +6752,7 @@
         <v>9.9999904632600001E-3</v>
       </c>
       <c r="K72" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2436988342367385</v>
       </c>
       <c r="L72" t="s">
@@ -6627,10 +6767,10 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -6654,7 +6794,7 @@
         <v>3.2400000095400001</v>
       </c>
       <c r="K73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5393428808599765</v>
       </c>
       <c r="L73" t="s">
@@ -6669,10 +6809,10 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -6696,7 +6836,7 @@
         <v>1.2799999713900001</v>
       </c>
       <c r="K74" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5703768725098826</v>
       </c>
       <c r="L74" t="s">
@@ -6711,10 +6851,10 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -6738,7 +6878,7 @@
         <v>2.5299999713900001</v>
       </c>
       <c r="K75" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.90844607360998</v>
       </c>
       <c r="L75" t="s">
@@ -6753,10 +6893,10 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -6780,7 +6920,7 @@
         <v>0.60999989509600006</v>
       </c>
       <c r="K76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6736419201039325</v>
       </c>
       <c r="L76" t="s">
@@ -6795,10 +6935,10 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -6822,7 +6962,7 @@
         <v>2.03999996185</v>
       </c>
       <c r="K77" s="7">
-        <f t="shared" ref="K77:K86" si="3">H77-(SUM(F77,G77,I77,J77))</f>
+        <f t="shared" ref="K77:K86" si="4">H77-(SUM(F77,G77,I77,J77))</f>
         <v>6.5076859002500385</v>
       </c>
       <c r="L77" t="s">
@@ -6837,10 +6977,10 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -6864,7 +7004,7 @@
         <v>2.2000000476800001</v>
       </c>
       <c r="K78" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3105542655200111</v>
       </c>
       <c r="L78" t="s">
@@ -6879,10 +7019,10 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -6906,7 +7046,7 @@
         <v>1.61000013351</v>
       </c>
       <c r="K79" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3940961355899901</v>
       </c>
       <c r="L79" t="s">
@@ -6921,10 +7061,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -6948,7 +7088,7 @@
         <v>3.5599999427800002</v>
       </c>
       <c r="K80" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4281079765200104</v>
       </c>
       <c r="L80" t="s">
@@ -6963,10 +7103,10 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -6990,7 +7130,7 @@
         <v>3.4400000572199998</v>
       </c>
       <c r="K81" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4586281775799819</v>
       </c>
       <c r="L81" t="s">
@@ -7005,10 +7145,10 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C82" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -7032,7 +7172,7 @@
         <v>1.8100001811999999</v>
       </c>
       <c r="K82" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.5027377609999917</v>
       </c>
       <c r="L82" t="s">
@@ -7047,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -7074,7 +7214,7 @@
         <v>3.6499998569500001</v>
       </c>
       <c r="K83" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.40428209305</v>
       </c>
       <c r="L83" t="s">
@@ -7089,10 +7229,10 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -7116,7 +7256,7 @@
         <v>1.09999990463</v>
       </c>
       <c r="K84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8250329496699749</v>
       </c>
       <c r="L84" t="s">
@@ -7131,10 +7271,10 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -7158,7 +7298,7 @@
         <v>0.87000012397799997</v>
       </c>
       <c r="K85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0753309732219805</v>
       </c>
       <c r="L85" t="s">
@@ -7173,10 +7313,10 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -7200,7 +7340,7 @@
         <v>3.1500000953699998</v>
       </c>
       <c r="K86" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3689839841300397</v>
       </c>
       <c r="L86" t="s">
@@ -7215,10 +7355,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D87">
         <v>20</v>
@@ -7242,7 +7382,7 @@
         <v>10.268000006699999</v>
       </c>
       <c r="K87" s="7">
-        <f t="shared" ref="K87:K97" si="4">H87-(SUM(F87,G87,I87,J87))</f>
+        <f t="shared" ref="K87:K97" si="5">H87-(SUM(F87,G87,I87,J87))</f>
         <v>241.27095097230006</v>
       </c>
       <c r="L87" t="s">
@@ -7257,10 +7397,10 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D88">
         <v>20</v>
@@ -7284,7 +7424,7 @@
         <v>12.360499966100001</v>
       </c>
       <c r="K88" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>349.48382402630006</v>
       </c>
       <c r="L88" t="s">
@@ -7299,10 +7439,10 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D89">
         <v>20</v>
@@ -7326,7 +7466,7 @@
         <v>13.7950000405</v>
       </c>
       <c r="K89" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>329.90104703949999</v>
       </c>
       <c r="L89" t="s">
@@ -7341,10 +7481,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C90" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D90">
         <v>20</v>
@@ -7368,7 +7508,7 @@
         <v>9.9389999985700008</v>
       </c>
       <c r="K90" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>303.37464312333003</v>
       </c>
       <c r="L90" t="s">
@@ -7383,10 +7523,10 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D91">
         <v>20</v>
@@ -7410,7 +7550,7 @@
         <v>14.7134999633</v>
       </c>
       <c r="K91" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>288.38836891599988</v>
       </c>
       <c r="L91" t="s">
@@ -7425,10 +7565,10 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C92" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D92">
         <v>20</v>
@@ -7452,7 +7592,7 @@
         <v>15.982499992799999</v>
       </c>
       <c r="K92" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>306.75773010240005</v>
       </c>
       <c r="L92" t="s">
@@ -7467,10 +7607,10 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D93">
         <v>20</v>
@@ -7494,7 +7634,7 @@
         <v>11.0694999814</v>
       </c>
       <c r="K93" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>246.65328810250003</v>
       </c>
       <c r="L93" t="s">
@@ -7509,10 +7649,10 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C94" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D94">
         <v>20</v>
@@ -7536,7 +7676,7 @@
         <v>19.642499983299999</v>
       </c>
       <c r="K94" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>362.47219103550003</v>
       </c>
       <c r="L94" t="s">
@@ -7551,10 +7691,10 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D95">
         <v>20</v>
@@ -7578,7 +7718,7 @@
         <v>21.450499975700001</v>
       </c>
       <c r="K95" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>234.01478905760001</v>
       </c>
       <c r="L95" t="s">
@@ -7593,10 +7733,10 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C96" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D96">
         <v>20</v>
@@ -7620,7 +7760,7 @@
         <v>15.4436363524</v>
       </c>
       <c r="K96" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>167.59003370379997</v>
       </c>
       <c r="L96" t="s">
@@ -7635,10 +7775,10 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C97" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D97">
         <v>20</v>
@@ -7662,7 +7802,7 @@
         <v>13.9334999919</v>
       </c>
       <c r="K97" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>269.12957606280003</v>
       </c>
       <c r="L97" t="s">
@@ -7677,10 +7817,10 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C98" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -7704,7 +7844,7 @@
         <v>1.17000007629</v>
       </c>
       <c r="K98" s="7">
-        <f t="shared" ref="K98:K105" si="5">H98-(SUM(F98,G98,I98,J98))</f>
+        <f t="shared" ref="K98:K105" si="6">H98-(SUM(F98,G98,I98,J98))</f>
         <v>2.7155568604099471</v>
       </c>
       <c r="L98" t="s">
@@ -7719,10 +7859,10 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C99" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -7746,7 +7886,7 @@
         <v>2.2699999809300002</v>
       </c>
       <c r="K99" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3235521316699987</v>
       </c>
       <c r="L99" t="s">
@@ -7761,10 +7901,10 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -7788,7 +7928,7 @@
         <v>0.44000005722000002</v>
       </c>
       <c r="K100" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2803709510799877</v>
       </c>
       <c r="L100" t="s">
@@ -7803,10 +7943,10 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C101" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -7830,7 +7970,7 @@
         <v>0.63999986648600005</v>
       </c>
       <c r="K101" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8064632421140061</v>
       </c>
       <c r="L101" t="s">
@@ -7845,10 +7985,10 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C102" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -7872,7 +8012,7 @@
         <v>0.25999999046299999</v>
       </c>
       <c r="K102" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1499960425369693</v>
       </c>
       <c r="L102" t="s">
@@ -7887,10 +8027,10 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C103" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -7914,7 +8054,7 @@
         <v>0.74000000953699996</v>
       </c>
       <c r="K103" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1943409445630095</v>
       </c>
       <c r="L103" t="s">
@@ -7929,10 +8069,10 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C104" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -7956,7 +8096,7 @@
         <v>4.9600000381499996</v>
       </c>
       <c r="K104" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2028980256500006</v>
       </c>
       <c r="L104" t="s">
@@ -7971,10 +8111,10 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C105" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -7998,7 +8138,7 @@
         <v>3.3799998760199998</v>
       </c>
       <c r="K105" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7940740590800033</v>
       </c>
       <c r="L105" t="s">
@@ -8008,9 +8148,219 @@
         <v>2</v>
       </c>
     </row>
+    <row r="106" spans="1:13">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1024</v>
+      </c>
+      <c r="F106">
+        <v>17.3583030701</v>
+      </c>
+      <c r="G106">
+        <v>64.033715009700003</v>
+      </c>
+      <c r="H106">
+        <v>138.457458019</v>
+      </c>
+      <c r="I106">
+        <v>53.830000162099999</v>
+      </c>
+      <c r="J106">
+        <v>1.7799999713900001</v>
+      </c>
+      <c r="K106" s="7">
+        <f t="shared" ref="K106:K110" si="7">H106-(SUM(F106,G106,I106,J106))</f>
+        <v>1.4554398057100002</v>
+      </c>
+      <c r="L106" t="s">
+        <v>30</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>69</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1024</v>
+      </c>
+      <c r="F107">
+        <v>19.069396972700002</v>
+      </c>
+      <c r="G107">
+        <v>58.551896095300002</v>
+      </c>
+      <c r="H107">
+        <v>138.69708108899999</v>
+      </c>
+      <c r="I107">
+        <v>51.809999942799998</v>
+      </c>
+      <c r="J107">
+        <v>2.0499999523199999</v>
+      </c>
+      <c r="K107" s="7">
+        <f t="shared" si="7"/>
+        <v>7.2157881258799819</v>
+      </c>
+      <c r="L107" t="s">
+        <v>30</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1024</v>
+      </c>
+      <c r="F108">
+        <v>17.319866895699999</v>
+      </c>
+      <c r="G108">
+        <v>63.933881044400003</v>
+      </c>
+      <c r="H108">
+        <v>122.312963963</v>
+      </c>
+      <c r="I108">
+        <v>32.9100000858</v>
+      </c>
+      <c r="J108">
+        <v>0.75</v>
+      </c>
+      <c r="K108" s="7">
+        <f t="shared" si="7"/>
+        <v>7.3992159371000099</v>
+      </c>
+      <c r="L108" t="s">
+        <v>30</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1024</v>
+      </c>
+      <c r="F109">
+        <v>17.385205984100001</v>
+      </c>
+      <c r="G109">
+        <v>58.9230599403</v>
+      </c>
+      <c r="H109">
+        <v>97.345947980899993</v>
+      </c>
+      <c r="I109">
+        <v>18.330000162099999</v>
+      </c>
+      <c r="J109">
+        <v>1.38999986649</v>
+      </c>
+      <c r="K109" s="7">
+        <f t="shared" si="7"/>
+        <v>1.3176820279099815</v>
+      </c>
+      <c r="L109" t="s">
+        <v>30</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1024</v>
+      </c>
+      <c r="F110">
+        <v>18.637925863300001</v>
+      </c>
+      <c r="G110">
+        <v>79.634334087400006</v>
+      </c>
+      <c r="H110">
+        <v>121.311702013</v>
+      </c>
+      <c r="I110">
+        <v>20.090000152599998</v>
+      </c>
+      <c r="J110">
+        <v>0.180000066757</v>
+      </c>
+      <c r="K110" s="7">
+        <f t="shared" si="7"/>
+        <v>2.7694418429429959</v>
+      </c>
+      <c r="L110" t="s">
+        <v>30</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L97"/>
-  <sortState ref="O15:V22">
+  <autoFilter ref="A1:L110"/>
+  <sortState ref="O15:V24">
     <sortCondition ref="V17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8029,7 +8379,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D22"/>
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8065,13 +8415,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>20</v>
@@ -8091,7 +8441,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="9">
         <v>8</v>
@@ -8118,7 +8468,7 @@
         <v>178.7</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8129,7 +8479,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="9">
         <v>8</v>
@@ -8156,7 +8506,7 @@
         <v>148</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8167,7 +8517,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="9">
         <v>8</v>
@@ -8194,7 +8544,7 @@
         <v>133.4</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -8205,7 +8555,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9">
         <v>40</v>
@@ -8232,7 +8582,7 @@
         <v>1003.2</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8243,7 +8593,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9">
         <v>40</v>
@@ -8270,7 +8620,7 @@
         <v>932</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8281,7 +8631,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9">
         <v>40</v>
@@ -8308,7 +8658,7 @@
         <v>1041.0999999999999</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -8319,7 +8669,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9">
         <v>40</v>
@@ -8346,7 +8696,7 @@
         <v>1011.5</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -8357,7 +8707,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9">
         <v>40</v>
@@ -8384,7 +8734,7 @@
         <v>1395.9</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -8395,7 +8745,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9">
         <v>40</v>
@@ -8422,7 +8772,7 @@
         <v>1087.5</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -8433,7 +8783,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>40</v>
@@ -8460,7 +8810,7 @@
         <v>1000.8</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -8471,7 +8821,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>40</v>
@@ -8498,7 +8848,7 @@
         <v>1001.8</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -8509,7 +8859,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>40</v>
@@ -8536,10 +8886,10 @@
         <v>1002.8</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -8550,7 +8900,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>40</v>
@@ -8577,10 +8927,10 @@
         <v>1003.8</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -8591,7 +8941,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>40</v>
@@ -8618,10 +8968,10 @@
         <v>1004.8</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -8632,7 +8982,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>40</v>
@@ -8659,10 +9009,10 @@
         <v>1005.8</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -8673,7 +9023,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -8700,10 +9050,10 @@
         <v>1006.8</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -8714,7 +9064,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>40</v>
@@ -8741,10 +9091,10 @@
         <v>1007.8</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -8755,7 +9105,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>40</v>
@@ -8782,10 +9132,10 @@
         <v>1008.8</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -8796,7 +9146,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>40</v>
@@ -8823,10 +9173,10 @@
         <v>1009.8</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -8837,7 +9187,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>40</v>
@@ -8864,10 +9214,10 @@
         <v>1010.8</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -8878,7 +9228,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>40</v>
@@ -8905,10 +9255,10 @@
         <v>1011.8</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -8919,7 +9269,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <v>40</v>
@@ -8946,10 +9296,10 @@
         <v>1012.8</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -8960,7 +9310,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <v>40</v>
@@ -8987,10 +9337,10 @@
         <v>1013.8</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -9001,7 +9351,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>40</v>
@@ -9028,10 +9378,10 @@
         <v>1014.8</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -9050,7 +9400,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:J64"/>
+      <selection activeCell="G2" sqref="G2:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9085,16 +9435,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9102,10 +9452,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9134,10 +9484,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9166,10 +9516,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -9198,10 +9548,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -9230,10 +9580,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -9262,10 +9612,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -9294,10 +9644,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -9326,10 +9676,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -9358,10 +9708,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -9390,10 +9740,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -9422,10 +9772,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -9454,10 +9804,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -9486,10 +9836,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -9518,10 +9868,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -9550,10 +9900,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -9582,10 +9932,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -9614,10 +9964,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -9646,10 +9996,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -9678,10 +10028,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -9710,10 +10060,10 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -9757,13 +10107,13 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
         <v>37</v>
-      </c>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" t="s">
-        <v>39</v>
       </c>
       <c r="J24" t="s">
         <v>20</v>
@@ -9774,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -9806,10 +10156,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -9838,10 +10188,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -9870,10 +10220,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -9902,10 +10252,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -9934,10 +10284,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -9966,10 +10316,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -9998,10 +10348,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -10030,10 +10380,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -10062,10 +10412,10 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -10094,10 +10444,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -10126,10 +10476,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -10158,10 +10508,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -10190,10 +10540,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -10222,10 +10572,10 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -10254,10 +10604,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -10286,10 +10636,10 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -10318,10 +10668,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -10350,10 +10700,10 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -10382,10 +10732,10 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -10414,10 +10764,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -10446,10 +10796,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -10478,10 +10828,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -10510,10 +10860,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -10542,10 +10892,10 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -10574,10 +10924,10 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -10606,10 +10956,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -10638,10 +10988,10 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -10670,10 +11020,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -10702,10 +11052,10 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -10734,10 +11084,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -10766,10 +11116,10 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -10798,10 +11148,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -10830,10 +11180,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -10862,10 +11212,10 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -10894,10 +11244,10 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -10926,10 +11276,10 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -10958,10 +11308,10 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <v>1</v>

--- a/papers/ccpe-cloud12/performance/pd.xlsx
+++ b/papers/ccpe-cloud12/performance/pd.xlsx
@@ -375,25 +375,9 @@
     <t>ssh://luckow@india.futuregrid.org/tmp/pilot-data-al-b7923bce-fa9b-11e1-84f8-00215ec9e3ac</t>
   </si>
   <si>
-    <t>FG/Walrus
-(b1)</t>
-  </si>
-  <si>
-    <t>FG/SSH
-(b2)</t>
-  </si>
-  <si>
-    <t>Amazon
-(b4)</t>
-  </si>
-  <si>
     <t>Amazon 
 (Multi CUs)
 (b5)</t>
-  </si>
-  <si>
-    <t>Google 
-(b6)</t>
   </si>
   <si>
     <t>Google 
@@ -416,6 +400,26 @@
     <t>FG/Walrus
 (Multi CU)
 (b3)</t>
+  </si>
+  <si>
+    <t>FG/SSH
+(Single CU)
+(b2)</t>
+  </si>
+  <si>
+    <t>FG/Walrus
+(Single CU)
+(b1)</t>
+  </si>
+  <si>
+    <t>Amazon
+(Single CU)
+(b4)</t>
+  </si>
+  <si>
+    <t>Google
+(Single CU) 
+(b6)</t>
   </si>
 </sst>
 </file>
@@ -748,22 +752,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>FG/Walrus_x000d_(b1)</c:v>
+                  <c:v>FG/Walrus_x000d_(Single CU)_x000d_(b1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FG/SSH_x000d_(b2)</c:v>
+                  <c:v>FG/SSH_x000d_(Single CU)_x000d_(b2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>FG/Walrus_x000d_(Multi CU)_x000d_(b3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Amazon_x000d_(b4)</c:v>
+                  <c:v>Amazon_x000d_(Single CU)_x000d_(b4)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Amazon _x000d_(Multi CUs)_x000d_(b5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Google _x000d_(b6)</c:v>
+                  <c:v>Google_x000d_(Single CU) _x000d_(b6)</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Google _x000d_(Multi CUs)_x000d_(b7)</c:v>
@@ -831,22 +835,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>FG/Walrus_x000d_(b1)</c:v>
+                  <c:v>FG/Walrus_x000d_(Single CU)_x000d_(b1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FG/SSH_x000d_(b2)</c:v>
+                  <c:v>FG/SSH_x000d_(Single CU)_x000d_(b2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>FG/Walrus_x000d_(Multi CU)_x000d_(b3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Amazon_x000d_(b4)</c:v>
+                  <c:v>Amazon_x000d_(Single CU)_x000d_(b4)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Amazon _x000d_(Multi CUs)_x000d_(b5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Google _x000d_(b6)</c:v>
+                  <c:v>Google_x000d_(Single CU) _x000d_(b6)</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Google _x000d_(Multi CUs)_x000d_(b7)</c:v>
@@ -987,22 +991,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>FG/Walrus_x000d_(b1)</c:v>
+                  <c:v>FG/Walrus_x000d_(Single CU)_x000d_(b1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FG/SSH_x000d_(b2)</c:v>
+                  <c:v>FG/SSH_x000d_(Single CU)_x000d_(b2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>FG/Walrus_x000d_(Multi CU)_x000d_(b3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Amazon_x000d_(b4)</c:v>
+                  <c:v>Amazon_x000d_(Single CU)_x000d_(b4)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Amazon _x000d_(Multi CUs)_x000d_(b5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Google _x000d_(b6)</c:v>
+                  <c:v>Google_x000d_(Single CU) _x000d_(b6)</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Google _x000d_(Multi CUs)_x000d_(b7)</c:v>
@@ -1067,22 +1071,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>FG/Walrus_x000d_(b1)</c:v>
+                  <c:v>FG/Walrus_x000d_(Single CU)_x000d_(b1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FG/SSH_x000d_(b2)</c:v>
+                  <c:v>FG/SSH_x000d_(Single CU)_x000d_(b2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>FG/Walrus_x000d_(Multi CU)_x000d_(b3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Amazon_x000d_(b4)</c:v>
+                  <c:v>Amazon_x000d_(Single CU)_x000d_(b4)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Amazon _x000d_(Multi CUs)_x000d_(b5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Google _x000d_(b6)</c:v>
+                  <c:v>Google_x000d_(Single CU) _x000d_(b6)</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Google _x000d_(Multi CUs)_x000d_(b7)</c:v>
@@ -3468,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4182,7 +4186,7 @@
         <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S16" t="s">
         <v>23</v>
@@ -4197,7 +4201,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="30">
+    <row r="17" spans="1:22" ht="45">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4239,10 +4243,10 @@
         <v>4</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P17" s="5">
         <v>21.725477790819998</v>
@@ -4266,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="30">
+    <row r="18" spans="1:22" ht="45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4308,10 +4312,10 @@
         <v>6</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P18" s="5">
         <v>17.954139757180002</v>
@@ -4377,7 +4381,7 @@
         <v>4</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>57</v>
@@ -4404,7 +4408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="30">
+    <row r="20" spans="1:22" ht="45">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>6</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>7</v>
@@ -4515,7 +4519,7 @@
         <v>4</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>43</v>
@@ -4542,7 +4546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="30">
+    <row r="22" spans="1:22" ht="45">
       <c r="A22">
         <v>5</v>
       </c>
@@ -4584,7 +4588,7 @@
         <v>6</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>12</v>
@@ -4653,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>42</v>
@@ -5549,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
@@ -5591,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
         <v>34</v>
@@ -5633,7 +5637,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>34</v>
@@ -5675,7 +5679,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
         <v>34</v>
@@ -5717,7 +5721,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
@@ -8153,10 +8157,10 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C106" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -8195,10 +8199,10 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C107" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -8237,10 +8241,10 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C108" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -8279,10 +8283,10 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C109" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -8321,10 +8325,10 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D110">
         <v>1</v>

--- a/papers/ccpe-cloud12/performance/pd.xlsx
+++ b/papers/ccpe-cloud12/performance/pd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="0" windowWidth="48160" windowHeight="28300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26600" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1 CU" sheetId="1" r:id="rId1"/>
@@ -682,13 +682,7 @@
     <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -3091,7 +3085,7 @@
     <dataField name="Mittelwert - Order" fld="12" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3470,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4201,7 +4195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="45">
+    <row r="17" spans="1:23" ht="45">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4270,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="45">
+    <row r="18" spans="1:23" ht="45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4339,7 +4333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="45">
+    <row r="19" spans="1:23" ht="45">
       <c r="A19">
         <v>4</v>
       </c>
@@ -4408,7 +4402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="45">
+    <row r="20" spans="1:23" ht="45">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4477,7 +4471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="45">
+    <row r="21" spans="1:23" ht="45">
       <c r="A21">
         <v>5</v>
       </c>
@@ -4545,8 +4539,12 @@
       <c r="V21" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="45">
+      <c r="W21">
+        <f>Q21/Q20</f>
+        <v>4.9240667647029035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="45">
       <c r="A22">
         <v>5</v>
       </c>
@@ -4615,7 +4613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="45">
+    <row r="23" spans="1:23" ht="45">
       <c r="A23">
         <v>6</v>
       </c>
@@ -4683,8 +4681,12 @@
       <c r="V23" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <f>Q23/Q22</f>
+        <v>12.691792492071452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>6</v>
       </c>
@@ -4750,7 +4752,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>7</v>
       </c>
@@ -4792,7 +4794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>7</v>
       </c>
@@ -4834,7 +4836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>8</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>8</v>
       </c>
@@ -4918,7 +4920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>9</v>
       </c>
@@ -4960,7 +4962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>0</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>1</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>2</v>
       </c>
